--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen  (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen  (ohne Glättung)</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -405,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,22 +451,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D2">
         <v>293</v>
       </c>
       <c r="E2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="F2">
         <v>226</v>
       </c>
       <c r="G2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -480,10 +480,10 @@
         <v>327</v>
       </c>
       <c r="D3">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E3">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F3">
         <v>263</v>
@@ -506,19 +506,19 @@
         <v>452</v>
       </c>
       <c r="D4">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E4">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F4">
         <v>329</v>
       </c>
       <c r="G4">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H4">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -529,22 +529,22 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D5">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="E5">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F5">
         <v>396</v>
       </c>
       <c r="G5">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H5">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -555,22 +555,22 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D6">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="E6">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="F6">
         <v>510</v>
       </c>
       <c r="G6">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H6">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="I6">
         <v>2.26</v>
@@ -579,7 +579,7 @@
         <v>2.17</v>
       </c>
       <c r="K6">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -590,31 +590,31 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>992</v>
+        <v>994</v>
       </c>
       <c r="D7">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="E7">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="F7">
         <v>676</v>
       </c>
       <c r="G7">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="H7">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="I7">
         <v>2.57</v>
       </c>
       <c r="J7">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -628,19 +628,19 @@
         <v>1337</v>
       </c>
       <c r="D8">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="E8">
-        <v>1376</v>
+        <v>1369</v>
       </c>
       <c r="F8">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G8">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="H8">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="I8">
         <v>2.73</v>
@@ -649,7 +649,7 @@
         <v>2.65</v>
       </c>
       <c r="K8">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -663,16 +663,16 @@
         <v>1987</v>
       </c>
       <c r="D9">
-        <v>1941</v>
+        <v>1946</v>
       </c>
       <c r="E9">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="F9">
         <v>1270</v>
       </c>
       <c r="G9">
-        <v>1235</v>
+        <v>1239</v>
       </c>
       <c r="H9">
         <v>1305</v>
@@ -684,7 +684,7 @@
         <v>3.13</v>
       </c>
       <c r="K9">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -695,31 +695,31 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2552</v>
+        <v>2561</v>
       </c>
       <c r="D10">
-        <v>2511</v>
+        <v>2516</v>
       </c>
       <c r="E10">
-        <v>2603</v>
+        <v>2615</v>
       </c>
       <c r="F10">
-        <v>1717</v>
+        <v>1719</v>
       </c>
       <c r="G10">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="H10">
-        <v>1758</v>
+        <v>1760</v>
       </c>
       <c r="I10">
         <v>3.37</v>
       </c>
       <c r="J10">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="K10">
-        <v>3.44</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -730,31 +730,31 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3231</v>
+        <v>3235</v>
       </c>
       <c r="D11">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="E11">
-        <v>3278</v>
+        <v>3280</v>
       </c>
       <c r="F11">
-        <v>2277</v>
+        <v>2280</v>
       </c>
       <c r="G11">
-        <v>2234</v>
+        <v>2237</v>
       </c>
       <c r="H11">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="I11">
         <v>3.37</v>
       </c>
       <c r="J11">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="K11">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -765,22 +765,22 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3597</v>
+        <v>3600</v>
       </c>
       <c r="D12">
-        <v>3529</v>
+        <v>3545</v>
       </c>
       <c r="E12">
-        <v>3660</v>
+        <v>3651</v>
       </c>
       <c r="F12">
-        <v>2842</v>
+        <v>2846</v>
       </c>
       <c r="G12">
-        <v>2791</v>
+        <v>2799</v>
       </c>
       <c r="H12">
-        <v>2892</v>
+        <v>2893</v>
       </c>
       <c r="I12">
         <v>3.17</v>
@@ -789,7 +789,7 @@
         <v>3.11</v>
       </c>
       <c r="K12">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -800,22 +800,22 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4368</v>
+        <v>4375</v>
       </c>
       <c r="D13">
-        <v>4306</v>
+        <v>4313</v>
       </c>
       <c r="E13">
-        <v>4423</v>
+        <v>4442</v>
       </c>
       <c r="F13">
-        <v>3437</v>
+        <v>3443</v>
       </c>
       <c r="G13">
-        <v>3382</v>
+        <v>3390</v>
       </c>
       <c r="H13">
-        <v>3491</v>
+        <v>3497</v>
       </c>
       <c r="I13">
         <v>2.71</v>
@@ -835,22 +835,22 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4448</v>
+        <v>4469</v>
       </c>
       <c r="D14">
-        <v>4383</v>
+        <v>4402</v>
       </c>
       <c r="E14">
-        <v>4517</v>
+        <v>4527</v>
       </c>
       <c r="F14">
-        <v>3911</v>
+        <v>3920</v>
       </c>
       <c r="G14">
-        <v>3850</v>
+        <v>3862</v>
       </c>
       <c r="H14">
-        <v>3969</v>
+        <v>3975</v>
       </c>
       <c r="I14">
         <v>2.28</v>
@@ -870,28 +870,28 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4694</v>
+        <v>4705</v>
       </c>
       <c r="D15">
-        <v>4616</v>
+        <v>4640</v>
       </c>
       <c r="E15">
-        <v>4765</v>
+        <v>4774</v>
       </c>
       <c r="F15">
-        <v>4277</v>
+        <v>4288</v>
       </c>
       <c r="G15">
-        <v>4208</v>
+        <v>4225</v>
       </c>
       <c r="H15">
-        <v>4341</v>
+        <v>4348</v>
       </c>
       <c r="I15">
         <v>1.88</v>
       </c>
       <c r="J15">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="K15">
         <v>1.9</v>
@@ -905,22 +905,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>5991</v>
+        <v>6021</v>
       </c>
       <c r="D16">
-        <v>5926</v>
+        <v>5942</v>
       </c>
       <c r="E16">
-        <v>6069</v>
+        <v>6090</v>
       </c>
       <c r="F16">
-        <v>4875</v>
+        <v>4893</v>
       </c>
       <c r="G16">
-        <v>4808</v>
+        <v>4824</v>
       </c>
       <c r="H16">
-        <v>4943</v>
+        <v>4958</v>
       </c>
       <c r="I16">
         <v>1.72</v>
@@ -929,7 +929,7 @@
         <v>1.7</v>
       </c>
       <c r="K16">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -940,25 +940,25 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5262</v>
+        <v>5265</v>
       </c>
       <c r="D17">
-        <v>5187</v>
+        <v>5192</v>
       </c>
       <c r="E17">
         <v>5343</v>
       </c>
       <c r="F17">
-        <v>5099</v>
+        <v>5115</v>
       </c>
       <c r="G17">
-        <v>5028</v>
+        <v>5044</v>
       </c>
       <c r="H17">
-        <v>5173</v>
+        <v>5183</v>
       </c>
       <c r="I17">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J17">
         <v>1.47</v>
@@ -978,19 +978,19 @@
         <v>5328</v>
       </c>
       <c r="D18">
-        <v>5255</v>
+        <v>5257</v>
       </c>
       <c r="E18">
-        <v>5398</v>
+        <v>5402</v>
       </c>
       <c r="F18">
-        <v>5319</v>
+        <v>5330</v>
       </c>
       <c r="G18">
-        <v>5246</v>
+        <v>5258</v>
       </c>
       <c r="H18">
-        <v>5393</v>
+        <v>5402</v>
       </c>
       <c r="I18">
         <v>1.36</v>
@@ -999,7 +999,7 @@
         <v>1.34</v>
       </c>
       <c r="K18">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1010,22 +1010,22 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4749</v>
+        <v>4746</v>
       </c>
       <c r="D19">
-        <v>4674</v>
+        <v>4679</v>
       </c>
       <c r="E19">
-        <v>4829</v>
+        <v>4817</v>
       </c>
       <c r="F19">
-        <v>5333</v>
+        <v>5340</v>
       </c>
       <c r="G19">
-        <v>5260</v>
+        <v>5267</v>
       </c>
       <c r="H19">
-        <v>5409</v>
+        <v>5413</v>
       </c>
       <c r="I19">
         <v>1.25</v>
@@ -1045,28 +1045,28 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5315</v>
+        <v>5302</v>
       </c>
       <c r="D20">
-        <v>5242</v>
+        <v>5236</v>
       </c>
       <c r="E20">
-        <v>5382</v>
+        <v>5365</v>
       </c>
       <c r="F20">
-        <v>5164</v>
+        <v>5160</v>
       </c>
       <c r="G20">
-        <v>5089</v>
+        <v>5091</v>
       </c>
       <c r="H20">
-        <v>5238</v>
+        <v>5232</v>
       </c>
       <c r="I20">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="J20">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
         <v>1.07</v>
@@ -1080,22 +1080,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4491</v>
+        <v>4472</v>
       </c>
       <c r="D21">
-        <v>4424</v>
+        <v>4405</v>
       </c>
       <c r="E21">
-        <v>4552</v>
+        <v>4543</v>
       </c>
       <c r="F21">
-        <v>4971</v>
+        <v>4962</v>
       </c>
       <c r="G21">
-        <v>4898</v>
+        <v>4894</v>
       </c>
       <c r="H21">
-        <v>5040</v>
+        <v>5031</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1115,31 +1115,31 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3897</v>
+        <v>3877</v>
       </c>
       <c r="D22">
-        <v>3834</v>
+        <v>3808</v>
       </c>
       <c r="E22">
-        <v>3962</v>
+        <v>3938</v>
       </c>
       <c r="F22">
-        <v>4613</v>
+        <v>4599</v>
       </c>
       <c r="G22">
-        <v>4543</v>
+        <v>4532</v>
       </c>
       <c r="H22">
-        <v>4681</v>
+        <v>4665</v>
       </c>
       <c r="I22">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J22">
         <v>0.86</v>
       </c>
       <c r="K22">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1150,28 +1150,28 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5183</v>
+        <v>5168</v>
       </c>
       <c r="D23">
-        <v>5113</v>
+        <v>5110</v>
       </c>
       <c r="E23">
-        <v>5251</v>
+        <v>5241</v>
       </c>
       <c r="F23">
-        <v>4722</v>
+        <v>4705</v>
       </c>
       <c r="G23">
-        <v>4653</v>
+        <v>4640</v>
       </c>
       <c r="H23">
-        <v>4787</v>
+        <v>4771</v>
       </c>
       <c r="I23">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J23">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K23">
         <v>0.89</v>
@@ -1185,22 +1185,22 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4165</v>
+        <v>4147</v>
       </c>
       <c r="D24">
-        <v>4104</v>
+        <v>4072</v>
       </c>
       <c r="E24">
-        <v>4233</v>
+        <v>4218</v>
       </c>
       <c r="F24">
-        <v>4434</v>
+        <v>4416</v>
       </c>
       <c r="G24">
-        <v>4368</v>
+        <v>4349</v>
       </c>
       <c r="H24">
-        <v>4499</v>
+        <v>4485</v>
       </c>
       <c r="I24">
         <v>0.86</v>
@@ -1220,22 +1220,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="D25">
-        <v>4340</v>
+        <v>4333</v>
       </c>
       <c r="E25">
-        <v>4481</v>
+        <v>4475</v>
       </c>
       <c r="F25">
-        <v>4413</v>
+        <v>4400</v>
       </c>
       <c r="G25">
-        <v>4347</v>
+        <v>4331</v>
       </c>
       <c r="H25">
-        <v>4482</v>
+        <v>4468</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1255,28 +1255,28 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4042</v>
+        <v>4028</v>
       </c>
       <c r="D26">
-        <v>3978</v>
+        <v>3954</v>
       </c>
       <c r="E26">
-        <v>4111</v>
+        <v>4097</v>
       </c>
       <c r="F26">
-        <v>4449</v>
+        <v>4437</v>
       </c>
       <c r="G26">
-        <v>4383</v>
+        <v>4367</v>
       </c>
       <c r="H26">
-        <v>4519</v>
+        <v>4507</v>
       </c>
       <c r="I26">
         <v>0.96</v>
       </c>
       <c r="J26">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K26">
         <v>0.98</v>
@@ -1290,22 +1290,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4137</v>
+        <v>4125</v>
       </c>
       <c r="D27">
-        <v>4067</v>
+        <v>4053</v>
       </c>
       <c r="E27">
-        <v>4205</v>
+        <v>4187</v>
       </c>
       <c r="F27">
-        <v>4188</v>
+        <v>4177</v>
       </c>
       <c r="G27">
-        <v>4122</v>
+        <v>4103</v>
       </c>
       <c r="H27">
-        <v>4257</v>
+        <v>4244</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1325,22 +1325,22 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3911</v>
+        <v>3909</v>
       </c>
       <c r="D28">
-        <v>3845</v>
+        <v>3846</v>
       </c>
       <c r="E28">
-        <v>3979</v>
+        <v>3970</v>
       </c>
       <c r="F28">
-        <v>4124</v>
+        <v>4117</v>
       </c>
       <c r="G28">
-        <v>4057</v>
+        <v>4046</v>
       </c>
       <c r="H28">
-        <v>4194</v>
+        <v>4182</v>
       </c>
       <c r="I28">
         <v>0.93</v>
@@ -1360,25 +1360,25 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3351</v>
+        <v>3343</v>
       </c>
       <c r="D29">
         <v>3283</v>
       </c>
       <c r="E29">
-        <v>3414</v>
+        <v>3412</v>
       </c>
       <c r="F29">
-        <v>3860</v>
+        <v>3851</v>
       </c>
       <c r="G29">
-        <v>3793</v>
+        <v>3784</v>
       </c>
       <c r="H29">
-        <v>3927</v>
+        <v>3916</v>
       </c>
       <c r="I29">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J29">
         <v>0.87</v>
@@ -1395,31 +1395,31 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4351</v>
+        <v>4349</v>
       </c>
       <c r="D30">
-        <v>4289</v>
+        <v>4275</v>
       </c>
       <c r="E30">
-        <v>4405</v>
+        <v>4421</v>
       </c>
       <c r="F30">
-        <v>3937</v>
+        <v>3932</v>
       </c>
       <c r="G30">
-        <v>3871</v>
+        <v>3864</v>
       </c>
       <c r="H30">
-        <v>4001</v>
+        <v>3997</v>
       </c>
       <c r="I30">
+        <v>0.89</v>
+      </c>
+      <c r="J30">
         <v>0.88</v>
       </c>
-      <c r="J30">
-        <v>0.87</v>
-      </c>
       <c r="K30">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1430,22 +1430,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3609</v>
+        <v>3614</v>
       </c>
       <c r="D31">
-        <v>3548</v>
+        <v>3551</v>
       </c>
       <c r="E31">
-        <v>3691</v>
+        <v>3679</v>
       </c>
       <c r="F31">
-        <v>3805</v>
+        <v>3804</v>
       </c>
       <c r="G31">
-        <v>3741</v>
+        <v>3738</v>
       </c>
       <c r="H31">
-        <v>3872</v>
+        <v>3870</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1468,19 +1468,19 @@
         <v>4030</v>
       </c>
       <c r="D32">
-        <v>3971</v>
+        <v>3960</v>
       </c>
       <c r="E32">
-        <v>4095</v>
+        <v>4103</v>
       </c>
       <c r="F32">
-        <v>3835</v>
+        <v>3834</v>
       </c>
       <c r="G32">
-        <v>3773</v>
+        <v>3767</v>
       </c>
       <c r="H32">
-        <v>3901</v>
+        <v>3904</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1500,22 +1500,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3771</v>
+        <v>3764</v>
       </c>
       <c r="D33">
-        <v>3705</v>
+        <v>3697</v>
       </c>
       <c r="E33">
-        <v>3832</v>
+        <v>3833</v>
       </c>
       <c r="F33">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="G33">
-        <v>3878</v>
+        <v>3870</v>
       </c>
       <c r="H33">
-        <v>4005</v>
+        <v>4009</v>
       </c>
       <c r="I33">
         <v>1.02</v>
@@ -1524,7 +1524,7 @@
         <v>1.01</v>
       </c>
       <c r="K33">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1535,22 +1535,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3760</v>
+        <v>3756</v>
       </c>
       <c r="D34">
-        <v>3693</v>
+        <v>3682</v>
       </c>
       <c r="E34">
-        <v>3824</v>
+        <v>3816</v>
       </c>
       <c r="F34">
-        <v>3792</v>
+        <v>3791</v>
       </c>
       <c r="G34">
-        <v>3729</v>
+        <v>3722</v>
       </c>
       <c r="H34">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1559,7 +1559,7 @@
         <v>0.95</v>
       </c>
       <c r="K34">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1570,22 +1570,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3053</v>
+        <v>3057</v>
       </c>
       <c r="D35">
         <v>2997</v>
       </c>
       <c r="E35">
-        <v>3111</v>
+        <v>3124</v>
       </c>
       <c r="F35">
-        <v>3653</v>
+        <v>3652</v>
       </c>
       <c r="G35">
-        <v>3591</v>
+        <v>3584</v>
       </c>
       <c r="H35">
-        <v>3715</v>
+        <v>3719</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1608,19 +1608,19 @@
         <v>2742</v>
       </c>
       <c r="D36">
-        <v>2676</v>
+        <v>2684</v>
       </c>
       <c r="E36">
-        <v>2796</v>
+        <v>2804</v>
       </c>
       <c r="F36">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="G36">
-        <v>3268</v>
+        <v>3265</v>
       </c>
       <c r="H36">
-        <v>3390</v>
+        <v>3394</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1640,22 +1640,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3344</v>
+        <v>3352</v>
       </c>
       <c r="D37">
-        <v>3288</v>
+        <v>3300</v>
       </c>
       <c r="E37">
-        <v>3399</v>
+        <v>3414</v>
       </c>
       <c r="F37">
-        <v>3225</v>
+        <v>3227</v>
       </c>
       <c r="G37">
-        <v>3163</v>
+        <v>3165</v>
       </c>
       <c r="H37">
-        <v>3282</v>
+        <v>3289</v>
       </c>
       <c r="I37">
         <v>0.82</v>
@@ -1675,22 +1675,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3104</v>
+        <v>3102</v>
       </c>
       <c r="D38">
-        <v>3044</v>
+        <v>3048</v>
       </c>
       <c r="E38">
-        <v>3172</v>
+        <v>3164</v>
       </c>
       <c r="F38">
-        <v>3061</v>
+        <v>3063</v>
       </c>
       <c r="G38">
-        <v>3001</v>
+        <v>3007</v>
       </c>
       <c r="H38">
-        <v>3119</v>
+        <v>3126</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -1710,22 +1710,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2904</v>
+        <v>2912</v>
       </c>
       <c r="D39">
-        <v>2840</v>
+        <v>2849</v>
       </c>
       <c r="E39">
-        <v>2969</v>
+        <v>2973</v>
       </c>
       <c r="F39">
-        <v>3023</v>
+        <v>3027</v>
       </c>
       <c r="G39">
-        <v>2962</v>
+        <v>2970</v>
       </c>
       <c r="H39">
-        <v>3084</v>
+        <v>3089</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -1745,28 +1745,28 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2725</v>
+        <v>2720</v>
       </c>
       <c r="D40">
-        <v>2658</v>
+        <v>2661</v>
       </c>
       <c r="E40">
-        <v>2782</v>
+        <v>2774</v>
       </c>
       <c r="F40">
-        <v>3019</v>
+        <v>3022</v>
       </c>
       <c r="G40">
-        <v>2957</v>
+        <v>2964</v>
       </c>
       <c r="H40">
-        <v>3080</v>
+        <v>3081</v>
       </c>
       <c r="I40">
         <v>0.91</v>
       </c>
       <c r="J40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K40">
         <v>0.92</v>
@@ -1780,22 +1780,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2334</v>
+        <v>2326</v>
       </c>
       <c r="D41">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="E41">
-        <v>2405</v>
+        <v>2379</v>
       </c>
       <c r="F41">
-        <v>2767</v>
+        <v>2765</v>
       </c>
       <c r="G41">
-        <v>2705</v>
+        <v>2709</v>
       </c>
       <c r="H41">
-        <v>2832</v>
+        <v>2822</v>
       </c>
       <c r="I41">
         <v>0.86</v>
@@ -1815,25 +1815,25 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="D42">
-        <v>1958</v>
+        <v>1970</v>
       </c>
       <c r="E42">
-        <v>2092</v>
+        <v>2078</v>
       </c>
       <c r="F42">
-        <v>2497</v>
+        <v>2495</v>
       </c>
       <c r="G42">
-        <v>2433</v>
+        <v>2439</v>
       </c>
       <c r="H42">
-        <v>2562</v>
+        <v>2551</v>
       </c>
       <c r="I42">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J42">
         <v>0.8</v>
@@ -1850,31 +1850,31 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1993</v>
+        <v>1987</v>
       </c>
       <c r="D43">
-        <v>1917</v>
+        <v>1931</v>
       </c>
       <c r="E43">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="F43">
-        <v>2269</v>
+        <v>2264</v>
       </c>
       <c r="G43">
-        <v>2203</v>
+        <v>2209</v>
       </c>
       <c r="H43">
-        <v>2334</v>
+        <v>2321</v>
       </c>
       <c r="I43">
         <v>0.75</v>
       </c>
       <c r="J43">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="K43">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1885,25 +1885,25 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1939</v>
+        <v>1931</v>
       </c>
       <c r="D44">
-        <v>1875</v>
+        <v>1862</v>
       </c>
       <c r="E44">
-        <v>1999</v>
+        <v>1996</v>
       </c>
       <c r="F44">
-        <v>2073</v>
+        <v>2067</v>
       </c>
       <c r="G44">
-        <v>2007</v>
+        <v>2010</v>
       </c>
       <c r="H44">
-        <v>2138</v>
+        <v>2127</v>
       </c>
       <c r="I44">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="J44">
         <v>0.67</v>
@@ -1920,28 +1920,28 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="D45">
-        <v>1943</v>
+        <v>1930</v>
       </c>
       <c r="E45">
         <v>2073</v>
       </c>
       <c r="F45">
-        <v>1991</v>
+        <v>1984</v>
       </c>
       <c r="G45">
         <v>1923</v>
       </c>
       <c r="H45">
-        <v>2055</v>
+        <v>2050</v>
       </c>
       <c r="I45">
         <v>0.72</v>
       </c>
       <c r="J45">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="K45">
         <v>0.73</v>
@@ -1955,22 +1955,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="D46">
-        <v>1882</v>
+        <v>1889</v>
       </c>
       <c r="E46">
-        <v>2029</v>
+        <v>2018</v>
       </c>
       <c r="F46">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="G46">
-        <v>1904</v>
+        <v>1903</v>
       </c>
       <c r="H46">
-        <v>2040</v>
+        <v>2035</v>
       </c>
       <c r="I46">
         <v>0.79</v>
@@ -1979,7 +1979,7 @@
         <v>0.77</v>
       </c>
       <c r="K46">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -1990,22 +1990,22 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1789</v>
+        <v>1775</v>
       </c>
       <c r="D47">
-        <v>1724</v>
+        <v>1706</v>
       </c>
       <c r="E47">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="F47">
-        <v>1921</v>
+        <v>1913</v>
       </c>
       <c r="G47">
-        <v>1856</v>
+        <v>1847</v>
       </c>
       <c r="H47">
-        <v>1989</v>
+        <v>1984</v>
       </c>
       <c r="I47">
         <v>0.85</v>
@@ -2014,7 +2014,7 @@
         <v>0.83</v>
       </c>
       <c r="K47">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2025,28 +2025,28 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1693</v>
+        <v>1687</v>
       </c>
       <c r="D48">
-        <v>1624</v>
+        <v>1619</v>
       </c>
       <c r="E48">
-        <v>1759</v>
+        <v>1754</v>
       </c>
       <c r="F48">
-        <v>1860</v>
+        <v>1852</v>
       </c>
       <c r="G48">
-        <v>1793</v>
+        <v>1786</v>
       </c>
       <c r="H48">
-        <v>1929</v>
+        <v>1924</v>
       </c>
       <c r="I48">
         <v>0.9</v>
       </c>
       <c r="J48">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K48">
         <v>0.92</v>
@@ -2060,22 +2060,22 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1473</v>
+        <v>1458</v>
       </c>
       <c r="D49">
-        <v>1410</v>
+        <v>1405</v>
       </c>
       <c r="E49">
-        <v>1536</v>
+        <v>1512</v>
       </c>
       <c r="F49">
-        <v>1726</v>
+        <v>1717</v>
       </c>
       <c r="G49">
-        <v>1660</v>
+        <v>1655</v>
       </c>
       <c r="H49">
-        <v>1794</v>
+        <v>1783</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2095,25 +2095,25 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="D50">
-        <v>1271</v>
+        <v>1260</v>
       </c>
       <c r="E50">
-        <v>1409</v>
+        <v>1394</v>
       </c>
       <c r="F50">
-        <v>1572</v>
+        <v>1562</v>
       </c>
       <c r="G50">
-        <v>1507</v>
+        <v>1498</v>
       </c>
       <c r="H50">
-        <v>1639</v>
+        <v>1628</v>
       </c>
       <c r="I50">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J50">
         <v>0.77</v>
@@ -2130,22 +2130,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="D51">
-        <v>1504</v>
+        <v>1513</v>
       </c>
       <c r="E51">
-        <v>1637</v>
+        <v>1653</v>
       </c>
       <c r="F51">
-        <v>1518</v>
+        <v>1512</v>
       </c>
       <c r="G51">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="H51">
-        <v>1585</v>
+        <v>1578</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2165,22 +2165,22 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="D52">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="E52">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="F52">
-        <v>1441</v>
+        <v>1436</v>
       </c>
       <c r="G52">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H52">
-        <v>1508</v>
+        <v>1502</v>
       </c>
       <c r="I52">
         <v>0.78</v>
@@ -2200,25 +2200,25 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1331</v>
+        <v>1318</v>
       </c>
       <c r="D53">
-        <v>1269</v>
+        <v>1241</v>
       </c>
       <c r="E53">
-        <v>1415</v>
+        <v>1389</v>
       </c>
       <c r="F53">
-        <v>1406</v>
+        <v>1401</v>
       </c>
       <c r="G53">
-        <v>1341</v>
+        <v>1333</v>
       </c>
       <c r="H53">
-        <v>1478</v>
+        <v>1471</v>
       </c>
       <c r="I53">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J53">
         <v>0.79</v>
@@ -2235,22 +2235,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1310</v>
+        <v>1306</v>
       </c>
       <c r="D54">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="E54">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="F54">
-        <v>1400</v>
+        <v>1395</v>
       </c>
       <c r="G54">
-        <v>1334</v>
+        <v>1328</v>
       </c>
       <c r="H54">
-        <v>1472</v>
+        <v>1465</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2270,22 +2270,22 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D55">
-        <v>1123</v>
+        <v>1127</v>
       </c>
       <c r="E55">
-        <v>1255</v>
+        <v>1249</v>
       </c>
       <c r="F55">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="G55">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="H55">
-        <v>1377</v>
+        <v>1365</v>
       </c>
       <c r="I55">
         <v>0.86</v>
@@ -2305,28 +2305,28 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1030</v>
+        <v>1047</v>
       </c>
       <c r="D56">
-        <v>962</v>
+        <v>994</v>
       </c>
       <c r="E56">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="F56">
         <v>1215</v>
       </c>
       <c r="G56">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="H56">
-        <v>1288</v>
+        <v>1279</v>
       </c>
       <c r="I56">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J56">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K56">
         <v>0.88</v>
@@ -2340,31 +2340,31 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>941</v>
+        <v>956</v>
       </c>
       <c r="D57">
-        <v>874</v>
+        <v>894</v>
       </c>
       <c r="E57">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="F57">
-        <v>1118</v>
+        <v>1125</v>
       </c>
       <c r="G57">
-        <v>1051</v>
+        <v>1064</v>
       </c>
       <c r="H57">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="I57">
         <v>0.8</v>
       </c>
       <c r="J57">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="K57">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2375,31 +2375,31 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="D58">
-        <v>1051</v>
+        <v>1045</v>
       </c>
       <c r="E58">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="F58">
-        <v>1073</v>
+        <v>1080</v>
       </c>
       <c r="G58">
-        <v>1003</v>
+        <v>1015</v>
       </c>
       <c r="H58">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="I58">
         <v>0.77</v>
       </c>
       <c r="J58">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="K58">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2410,31 +2410,31 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="D59">
-        <v>852</v>
+        <v>870</v>
       </c>
       <c r="E59">
-        <v>1030</v>
+        <v>1011</v>
       </c>
       <c r="F59">
-        <v>1011</v>
+        <v>1017</v>
       </c>
       <c r="G59">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="H59">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="I59">
         <v>0.78</v>
       </c>
       <c r="J59">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="K59">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2445,22 +2445,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>911</v>
+        <v>892</v>
       </c>
       <c r="D60">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="E60">
-        <v>999</v>
+        <v>980</v>
       </c>
       <c r="F60">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="G60">
-        <v>899</v>
+        <v>907</v>
       </c>
       <c r="H60">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2480,31 +2480,31 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>913</v>
+        <v>920</v>
       </c>
       <c r="D61">
-        <v>813</v>
+        <v>826</v>
       </c>
       <c r="E61">
-        <v>1042</v>
+        <v>1015</v>
       </c>
       <c r="F61">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="G61">
-        <v>883</v>
+        <v>890</v>
       </c>
       <c r="H61">
-        <v>1073</v>
+        <v>1056</v>
       </c>
       <c r="I61">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J61">
         <v>0.82</v>
       </c>
       <c r="K61">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2515,31 +2515,31 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="D62">
-        <v>637</v>
+        <v>696</v>
       </c>
       <c r="E62">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="F62">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="G62">
-        <v>780</v>
+        <v>803</v>
       </c>
       <c r="H62">
-        <v>989</v>
+        <v>967</v>
       </c>
       <c r="I62">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J62">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="K62">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2550,22 +2550,22 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="D63">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="E63">
-        <v>887</v>
+        <v>851</v>
       </c>
       <c r="F63">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="G63">
-        <v>720</v>
+        <v>738</v>
       </c>
       <c r="H63">
-        <v>953</v>
+        <v>927</v>
       </c>
       <c r="I63">
         <v>0.82</v>
@@ -2574,7 +2574,7 @@
         <v>0.76</v>
       </c>
       <c r="K63">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2585,31 +2585,31 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>832</v>
+        <v>792</v>
       </c>
       <c r="D64">
-        <v>628</v>
+        <v>671</v>
       </c>
       <c r="E64">
-        <v>1021</v>
+        <v>932</v>
       </c>
       <c r="F64">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="G64">
-        <v>673</v>
+        <v>701</v>
       </c>
       <c r="H64">
-        <v>958</v>
+        <v>915</v>
       </c>
       <c r="I64">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="J64">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="K64">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2620,31 +2620,31 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>982</v>
+        <v>913</v>
       </c>
       <c r="D65">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="E65">
-        <v>1196</v>
+        <v>1121</v>
       </c>
       <c r="F65">
-        <v>829</v>
+        <v>803</v>
       </c>
       <c r="G65">
-        <v>658</v>
+        <v>674</v>
       </c>
       <c r="H65">
-        <v>997</v>
+        <v>941</v>
       </c>
       <c r="I65">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="J65">
         <v>0.75</v>
       </c>
       <c r="K65">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2655,31 +2655,31 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>1003</v>
+        <v>918</v>
       </c>
       <c r="D66">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="E66">
-        <v>1351</v>
+        <v>1148</v>
       </c>
       <c r="F66">
-        <v>891</v>
+        <v>840</v>
       </c>
       <c r="G66">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="H66">
-        <v>1114</v>
+        <v>1013</v>
       </c>
       <c r="I66">
-        <v>1.01</v>
+        <v>0.95</v>
       </c>
       <c r="J66">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="K66">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2690,31 +2690,101 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>936</v>
+        <v>806</v>
       </c>
       <c r="D67">
+        <v>590</v>
+      </c>
+      <c r="E67">
+        <v>1012</v>
+      </c>
+      <c r="F67">
+        <v>857</v>
+      </c>
+      <c r="G67">
+        <v>671</v>
+      </c>
+      <c r="H67">
+        <v>1054</v>
+      </c>
+      <c r="I67">
+        <v>1.03</v>
+      </c>
+      <c r="J67">
+        <v>0.92</v>
+      </c>
+      <c r="K67">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2">
+        <v>43958</v>
+      </c>
+      <c r="C68">
+        <v>695</v>
+      </c>
+      <c r="D68">
+        <v>446</v>
+      </c>
+      <c r="E68">
+        <v>950</v>
+      </c>
+      <c r="F68">
+        <v>833</v>
+      </c>
+      <c r="G68">
+        <v>615</v>
+      </c>
+      <c r="H68">
+        <v>1058</v>
+      </c>
+      <c r="I68">
+        <v>1.04</v>
+      </c>
+      <c r="J68">
+        <v>0.88</v>
+      </c>
+      <c r="K68">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2">
+        <v>43959</v>
+      </c>
+      <c r="C69">
+        <v>588</v>
+      </c>
+      <c r="D69">
+        <v>359</v>
+      </c>
+      <c r="E69">
+        <v>876</v>
+      </c>
+      <c r="F69">
+        <v>752</v>
+      </c>
+      <c r="G69">
         <v>525</v>
       </c>
-      <c r="E67">
-        <v>1416</v>
-      </c>
-      <c r="F67">
-        <v>938</v>
-      </c>
-      <c r="G67">
-        <v>653</v>
-      </c>
-      <c r="H67">
-        <v>1246</v>
-      </c>
-      <c r="I67">
-        <v>1.13</v>
-      </c>
-      <c r="J67">
+      <c r="H69">
+        <v>997</v>
+      </c>
+      <c r="I69">
         <v>0.9399999999999999</v>
       </c>
-      <c r="K67">
-        <v>1.35</v>
+      <c r="J69">
+        <v>0.79</v>
+      </c>
+      <c r="K69">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Datum des Erkrankungsbeginns</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen  (ohne Glättung)</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen  (ohne Glättung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -44,6 +44,15 @@
   </si>
   <si>
     <t>Obere Grenze des 95%-Prädiktionsintervalls der Reproduktionszahl R</t>
+  </si>
+  <si>
+    <t>Punktschätzer des 7-Tage-R Wertes</t>
+  </si>
+  <si>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R Wertes</t>
+  </si>
+  <si>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls des 7-Tage-R Wertes</t>
   </si>
 </sst>
 </file>
@@ -405,13 +414,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K69"/>
+  <dimension ref="A1:N71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -442,8 +451,17 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,25 +469,25 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>309</v>
+        <v>309.31</v>
       </c>
       <c r="D2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E2">
-        <v>328</v>
+        <v>325.5</v>
       </c>
       <c r="F2">
-        <v>226</v>
+        <v>226.33</v>
       </c>
       <c r="G2">
-        <v>212</v>
+        <v>213.63</v>
       </c>
       <c r="H2">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>241.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -477,25 +495,25 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>327</v>
+        <v>327.73</v>
       </c>
       <c r="D3">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E3">
-        <v>343</v>
+        <v>346.5</v>
       </c>
       <c r="F3">
-        <v>263</v>
+        <v>263.23</v>
       </c>
       <c r="G3">
-        <v>248</v>
+        <v>249.5</v>
       </c>
       <c r="H3">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>279.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,25 +521,25 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>452</v>
+        <v>451.82</v>
       </c>
       <c r="D4">
-        <v>433</v>
+        <v>431.5</v>
       </c>
       <c r="E4">
-        <v>474</v>
+        <v>471.5</v>
       </c>
       <c r="F4">
-        <v>329</v>
+        <v>328.48</v>
       </c>
       <c r="G4">
-        <v>312</v>
+        <v>312.63</v>
       </c>
       <c r="H4">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>346.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,25 +547,25 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>496</v>
+        <v>497.33</v>
       </c>
       <c r="D5">
         <v>475</v>
       </c>
       <c r="E5">
-        <v>523</v>
+        <v>520.5</v>
       </c>
       <c r="F5">
-        <v>396</v>
+        <v>396.55</v>
       </c>
       <c r="G5">
-        <v>377</v>
+        <v>378.38</v>
       </c>
       <c r="H5">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -555,34 +573,43 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>764</v>
+        <v>764.0700000000001</v>
       </c>
       <c r="D6">
-        <v>741</v>
+        <v>742.5</v>
       </c>
       <c r="E6">
-        <v>798</v>
+        <v>791</v>
       </c>
       <c r="F6">
-        <v>510</v>
+        <v>510.24</v>
       </c>
       <c r="G6">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="H6">
-        <v>534</v>
+        <v>532.38</v>
       </c>
       <c r="I6">
-        <v>2.26</v>
+        <v>2.255</v>
       </c>
       <c r="J6">
-        <v>2.17</v>
+        <v>2.169</v>
       </c>
       <c r="K6">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>2.343</v>
+      </c>
+      <c r="L6">
+        <v>2.324</v>
+      </c>
+      <c r="M6">
+        <v>2.267</v>
+      </c>
+      <c r="N6">
+        <v>2.382</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,34 +617,43 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>994</v>
+        <v>988.03</v>
       </c>
       <c r="D7">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="E7">
-        <v>1029</v>
+        <v>1021.5</v>
       </c>
       <c r="F7">
-        <v>676</v>
+        <v>675.3099999999999</v>
       </c>
       <c r="G7">
-        <v>654</v>
+        <v>652.5</v>
       </c>
       <c r="H7">
-        <v>706</v>
+        <v>701.13</v>
       </c>
       <c r="I7">
-        <v>2.57</v>
+        <v>2.566</v>
       </c>
       <c r="J7">
-        <v>2.5</v>
+        <v>2.472</v>
       </c>
       <c r="K7">
-        <v>2.66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>2.658</v>
+      </c>
+      <c r="L7">
+        <v>2.545</v>
+      </c>
+      <c r="M7">
+        <v>2.494</v>
+      </c>
+      <c r="N7">
+        <v>2.595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -625,34 +661,43 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1337</v>
+        <v>1333.49</v>
       </c>
       <c r="D8">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="E8">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F8">
-        <v>898</v>
+        <v>895.73</v>
       </c>
       <c r="G8">
-        <v>871</v>
+        <v>868.88</v>
       </c>
       <c r="H8">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="I8">
-        <v>2.73</v>
+        <v>2.727</v>
       </c>
       <c r="J8">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="K8">
-        <v>2.82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>2.819</v>
+      </c>
+      <c r="L8">
+        <v>2.908</v>
+      </c>
+      <c r="M8">
+        <v>2.857</v>
+      </c>
+      <c r="N8">
+        <v>2.962</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -660,34 +705,43 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1987</v>
+        <v>1983.64</v>
       </c>
       <c r="D9">
-        <v>1946</v>
+        <v>1941</v>
       </c>
       <c r="E9">
-        <v>2026</v>
+        <v>2024.5</v>
       </c>
       <c r="F9">
-        <v>1270</v>
+        <v>1267.31</v>
       </c>
       <c r="G9">
-        <v>1239</v>
+        <v>1235.38</v>
       </c>
       <c r="H9">
-        <v>1305</v>
+        <v>1301</v>
       </c>
       <c r="I9">
-        <v>3.21</v>
+        <v>3.196</v>
       </c>
       <c r="J9">
-        <v>3.13</v>
+        <v>3.109</v>
       </c>
       <c r="K9">
-        <v>3.29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>3.285</v>
+      </c>
+      <c r="L9">
+        <v>3.1</v>
+      </c>
+      <c r="M9">
+        <v>3.047</v>
+      </c>
+      <c r="N9">
+        <v>3.152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -695,34 +749,43 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2561</v>
+        <v>2555.84</v>
       </c>
       <c r="D10">
-        <v>2516</v>
+        <v>2512.5</v>
       </c>
       <c r="E10">
-        <v>2615</v>
+        <v>2597.5</v>
       </c>
       <c r="F10">
-        <v>1719</v>
+        <v>1715.25</v>
       </c>
       <c r="G10">
-        <v>1682</v>
+        <v>1677.88</v>
       </c>
       <c r="H10">
-        <v>1760</v>
+        <v>1752.63</v>
       </c>
       <c r="I10">
-        <v>3.37</v>
+        <v>3.362</v>
       </c>
       <c r="J10">
-        <v>3.29</v>
+        <v>3.289</v>
       </c>
       <c r="K10">
-        <v>3.46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>3.444</v>
+      </c>
+      <c r="L10">
+        <v>3.186</v>
+      </c>
+      <c r="M10">
+        <v>3.137</v>
+      </c>
+      <c r="N10">
+        <v>3.234</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -730,34 +793,43 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3235</v>
+        <v>3228.65</v>
       </c>
       <c r="D11">
-        <v>3188</v>
+        <v>3174</v>
       </c>
       <c r="E11">
-        <v>3280</v>
+        <v>3287.5</v>
       </c>
       <c r="F11">
-        <v>2280</v>
+        <v>2275.41</v>
       </c>
       <c r="G11">
-        <v>2237</v>
+        <v>2231.13</v>
       </c>
       <c r="H11">
-        <v>2322</v>
+        <v>2319.13</v>
       </c>
       <c r="I11">
         <v>3.37</v>
       </c>
       <c r="J11">
-        <v>3.29</v>
+        <v>3.296</v>
       </c>
       <c r="K11">
-        <v>3.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>3.436</v>
+      </c>
+      <c r="L11">
+        <v>3.092</v>
+      </c>
+      <c r="M11">
+        <v>3.05</v>
+      </c>
+      <c r="N11">
+        <v>3.133</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -765,34 +837,43 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3600</v>
+        <v>3593.14</v>
       </c>
       <c r="D12">
-        <v>3545</v>
+        <v>3538</v>
       </c>
       <c r="E12">
-        <v>3651</v>
+        <v>3647</v>
       </c>
       <c r="F12">
-        <v>2846</v>
+        <v>2840.32</v>
       </c>
       <c r="G12">
-        <v>2799</v>
+        <v>2791.38</v>
       </c>
       <c r="H12">
-        <v>2893</v>
+        <v>2889.13</v>
       </c>
       <c r="I12">
-        <v>3.17</v>
+        <v>3.171</v>
       </c>
       <c r="J12">
         <v>3.11</v>
       </c>
       <c r="K12">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>3.227</v>
+      </c>
+      <c r="L12">
+        <v>2.846</v>
+      </c>
+      <c r="M12">
+        <v>2.814</v>
+      </c>
+      <c r="N12">
+        <v>2.876</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -800,34 +881,43 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4375</v>
+        <v>4376.29</v>
       </c>
       <c r="D13">
-        <v>4313</v>
+        <v>4315.5</v>
       </c>
       <c r="E13">
-        <v>4442</v>
+        <v>4438.5</v>
       </c>
       <c r="F13">
-        <v>3443</v>
+        <v>3438.48</v>
       </c>
       <c r="G13">
-        <v>3390</v>
+        <v>3385</v>
       </c>
       <c r="H13">
-        <v>3497</v>
+        <v>3492.63</v>
       </c>
       <c r="I13">
-        <v>2.71</v>
+        <v>2.713</v>
       </c>
       <c r="J13">
-        <v>2.67</v>
+        <v>2.668</v>
       </c>
       <c r="K13">
-        <v>2.75</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>2.753</v>
+      </c>
+      <c r="L13">
+        <v>2.512</v>
+      </c>
+      <c r="M13">
+        <v>2.49</v>
+      </c>
+      <c r="N13">
+        <v>2.536</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -835,34 +925,43 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4469</v>
+        <v>4463.06</v>
       </c>
       <c r="D14">
-        <v>4402</v>
+        <v>4399.5</v>
       </c>
       <c r="E14">
-        <v>4527</v>
+        <v>4537.5</v>
       </c>
       <c r="F14">
-        <v>3920</v>
+        <v>3915.28</v>
       </c>
       <c r="G14">
-        <v>3862</v>
+        <v>3856.75</v>
       </c>
       <c r="H14">
-        <v>3975</v>
+        <v>3977.63</v>
       </c>
       <c r="I14">
-        <v>2.28</v>
+        <v>2.283</v>
       </c>
       <c r="J14">
         <v>2.25</v>
       </c>
       <c r="K14">
-        <v>2.31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>2.313</v>
+      </c>
+      <c r="L14">
+        <v>2.194</v>
+      </c>
+      <c r="M14">
+        <v>2.177</v>
+      </c>
+      <c r="N14">
+        <v>2.212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -870,34 +969,43 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4705</v>
+        <v>4697.77</v>
       </c>
       <c r="D15">
-        <v>4640</v>
+        <v>4634.5</v>
       </c>
       <c r="E15">
-        <v>4774</v>
+        <v>4770</v>
       </c>
       <c r="F15">
-        <v>4288</v>
+        <v>4282.56</v>
       </c>
       <c r="G15">
-        <v>4225</v>
+        <v>4221.88</v>
       </c>
       <c r="H15">
-        <v>4348</v>
+        <v>4348.25</v>
       </c>
       <c r="I15">
-        <v>1.88</v>
+        <v>1.882</v>
       </c>
       <c r="J15">
-        <v>1.86</v>
+        <v>1.856</v>
       </c>
       <c r="K15">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>1.907</v>
+      </c>
+      <c r="L15">
+        <v>2.003</v>
+      </c>
+      <c r="M15">
+        <v>1.99</v>
+      </c>
+      <c r="N15">
+        <v>2.019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -905,34 +1013,43 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6021</v>
+        <v>6028.33</v>
       </c>
       <c r="D16">
-        <v>5942</v>
+        <v>5970</v>
       </c>
       <c r="E16">
-        <v>6090</v>
+        <v>6099.5</v>
       </c>
       <c r="F16">
-        <v>4893</v>
+        <v>4891.36</v>
       </c>
       <c r="G16">
-        <v>4824</v>
+        <v>4829.88</v>
       </c>
       <c r="H16">
-        <v>4958</v>
+        <v>4961.38</v>
       </c>
       <c r="I16">
-        <v>1.72</v>
+        <v>1.722</v>
       </c>
       <c r="J16">
-        <v>1.7</v>
+        <v>1.703</v>
       </c>
       <c r="K16">
-        <v>1.74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>1.743</v>
+      </c>
+      <c r="L16">
+        <v>1.753</v>
+      </c>
+      <c r="M16">
+        <v>1.739</v>
+      </c>
+      <c r="N16">
+        <v>1.763</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -940,34 +1057,43 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5265</v>
+        <v>5263.38</v>
       </c>
       <c r="D17">
-        <v>5192</v>
+        <v>5188</v>
       </c>
       <c r="E17">
-        <v>5343</v>
+        <v>5332</v>
       </c>
       <c r="F17">
-        <v>5115</v>
+        <v>5113.13</v>
       </c>
       <c r="G17">
-        <v>5044</v>
+        <v>5048</v>
       </c>
       <c r="H17">
-        <v>5183</v>
+        <v>5184.75</v>
       </c>
       <c r="I17">
-        <v>1.49</v>
+        <v>1.487</v>
       </c>
       <c r="J17">
-        <v>1.47</v>
+        <v>1.471</v>
       </c>
       <c r="K17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>1.504</v>
+      </c>
+      <c r="L17">
+        <v>1.567</v>
+      </c>
+      <c r="M17">
+        <v>1.558</v>
+      </c>
+      <c r="N17">
+        <v>1.576</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -975,34 +1101,43 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5328</v>
+        <v>5329.33</v>
       </c>
       <c r="D18">
-        <v>5257</v>
+        <v>5273.5</v>
       </c>
       <c r="E18">
-        <v>5402</v>
+        <v>5385.5</v>
       </c>
       <c r="F18">
-        <v>5330</v>
+        <v>5329.7</v>
       </c>
       <c r="G18">
-        <v>5258</v>
+        <v>5266.5</v>
       </c>
       <c r="H18">
-        <v>5402</v>
+        <v>5396.75</v>
       </c>
       <c r="I18">
-        <v>1.36</v>
+        <v>1.361</v>
       </c>
       <c r="J18">
-        <v>1.34</v>
+        <v>1.347</v>
       </c>
       <c r="K18">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>1.375</v>
+      </c>
+      <c r="L18">
+        <v>1.401</v>
+      </c>
+      <c r="M18">
+        <v>1.394</v>
+      </c>
+      <c r="N18">
+        <v>1.409</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1010,34 +1145,43 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4746</v>
+        <v>4734.58</v>
       </c>
       <c r="D19">
-        <v>4679</v>
+        <v>4664.5</v>
       </c>
       <c r="E19">
-        <v>4817</v>
+        <v>4797.5</v>
       </c>
       <c r="F19">
-        <v>5340</v>
+        <v>5338.91</v>
       </c>
       <c r="G19">
-        <v>5267</v>
+        <v>5274</v>
       </c>
       <c r="H19">
-        <v>5413</v>
+        <v>5403.63</v>
       </c>
       <c r="I19">
-        <v>1.25</v>
+        <v>1.247</v>
       </c>
       <c r="J19">
-        <v>1.23</v>
+        <v>1.235</v>
       </c>
       <c r="K19">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>1.259</v>
+      </c>
+      <c r="L19">
+        <v>1.238</v>
+      </c>
+      <c r="M19">
+        <v>1.231</v>
+      </c>
+      <c r="N19">
+        <v>1.245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1045,34 +1189,43 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5302</v>
+        <v>5302.19</v>
       </c>
       <c r="D20">
         <v>5236</v>
       </c>
       <c r="E20">
-        <v>5365</v>
+        <v>5368</v>
       </c>
       <c r="F20">
-        <v>5160</v>
+        <v>5157.37</v>
       </c>
       <c r="G20">
-        <v>5091</v>
+        <v>5090.5</v>
       </c>
       <c r="H20">
-        <v>5232</v>
+        <v>5220.75</v>
       </c>
       <c r="I20">
-        <v>1.05</v>
+        <v>1.054</v>
       </c>
       <c r="J20">
-        <v>1.04</v>
+        <v>1.045</v>
       </c>
       <c r="K20">
-        <v>1.07</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>1.065</v>
+      </c>
+      <c r="L20">
+        <v>1.131</v>
+      </c>
+      <c r="M20">
+        <v>1.126</v>
+      </c>
+      <c r="N20">
+        <v>1.137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1080,34 +1233,43 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4472</v>
+        <v>4450.65</v>
       </c>
       <c r="D21">
-        <v>4405</v>
+        <v>4384</v>
       </c>
       <c r="E21">
-        <v>4543</v>
+        <v>4506</v>
       </c>
       <c r="F21">
-        <v>4962</v>
+        <v>4954.19</v>
       </c>
       <c r="G21">
-        <v>4894</v>
+        <v>4889.5</v>
       </c>
       <c r="H21">
-        <v>5031</v>
+        <v>5014.25</v>
       </c>
       <c r="I21">
-        <v>0.97</v>
+        <v>0.969</v>
       </c>
       <c r="J21">
         <v>0.96</v>
       </c>
       <c r="K21">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>0.978</v>
+      </c>
+      <c r="L21">
+        <v>1.036</v>
+      </c>
+      <c r="M21">
+        <v>1.031</v>
+      </c>
+      <c r="N21">
+        <v>1.042</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1115,34 +1277,43 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3877</v>
+        <v>3871.32</v>
       </c>
       <c r="D22">
-        <v>3808</v>
+        <v>3805</v>
       </c>
       <c r="E22">
-        <v>3938</v>
+        <v>3943</v>
       </c>
       <c r="F22">
-        <v>4599</v>
+        <v>4589.69</v>
       </c>
       <c r="G22">
-        <v>4532</v>
+        <v>4522.38</v>
       </c>
       <c r="H22">
-        <v>4665</v>
+        <v>4653.63</v>
       </c>
       <c r="I22">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="J22">
-        <v>0.86</v>
+        <v>0.853</v>
       </c>
       <c r="K22">
         <v>0.87</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22">
+        <v>0.978</v>
+      </c>
+      <c r="M22">
+        <v>0.973</v>
+      </c>
+      <c r="N22">
+        <v>0.984</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1150,34 +1321,43 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5168</v>
+        <v>5174.94</v>
       </c>
       <c r="D23">
-        <v>5110</v>
+        <v>5102.5</v>
       </c>
       <c r="E23">
-        <v>5241</v>
+        <v>5246</v>
       </c>
       <c r="F23">
-        <v>4705</v>
+        <v>4699.78</v>
       </c>
       <c r="G23">
-        <v>4640</v>
+        <v>4631.88</v>
       </c>
       <c r="H23">
-        <v>4771</v>
+        <v>4765.75</v>
       </c>
       <c r="I23">
         <v>0.88</v>
       </c>
       <c r="J23">
-        <v>0.87</v>
+        <v>0.872</v>
       </c>
       <c r="K23">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>0.888</v>
+      </c>
+      <c r="L23">
+        <v>0.922</v>
+      </c>
+      <c r="M23">
+        <v>0.917</v>
+      </c>
+      <c r="N23">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1185,34 +1365,43 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4147</v>
+        <v>4156.4</v>
       </c>
       <c r="D24">
-        <v>4072</v>
+        <v>4088</v>
       </c>
       <c r="E24">
-        <v>4218</v>
+        <v>4212.5</v>
       </c>
       <c r="F24">
-        <v>4416</v>
+        <v>4413.33</v>
       </c>
       <c r="G24">
-        <v>4349</v>
+        <v>4344.88</v>
       </c>
       <c r="H24">
-        <v>4485</v>
+        <v>4476.88</v>
       </c>
       <c r="I24">
-        <v>0.86</v>
+        <v>0.856</v>
       </c>
       <c r="J24">
-        <v>0.85</v>
+        <v>0.847</v>
       </c>
       <c r="K24">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>0.863</v>
+      </c>
+      <c r="L24">
+        <v>0.896</v>
+      </c>
+      <c r="M24">
+        <v>0.891</v>
+      </c>
+      <c r="N24">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1220,34 +1409,43 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4406</v>
+        <v>4409.37</v>
       </c>
       <c r="D25">
-        <v>4333</v>
+        <v>4345</v>
       </c>
       <c r="E25">
-        <v>4475</v>
+        <v>4481.5</v>
       </c>
       <c r="F25">
-        <v>4400</v>
+        <v>4403</v>
       </c>
       <c r="G25">
-        <v>4331</v>
+        <v>4335.13</v>
       </c>
       <c r="H25">
-        <v>4468</v>
+        <v>4470.75</v>
       </c>
       <c r="I25">
-        <v>0.89</v>
+        <v>0.889</v>
       </c>
       <c r="J25">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="K25">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>0.898</v>
+      </c>
+      <c r="L25">
+        <v>0.897</v>
+      </c>
+      <c r="M25">
+        <v>0.892</v>
+      </c>
+      <c r="N25">
+        <v>0.903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1255,34 +1453,43 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4028</v>
+        <v>4021.12</v>
       </c>
       <c r="D26">
-        <v>3954</v>
+        <v>3952.5</v>
       </c>
       <c r="E26">
-        <v>4097</v>
+        <v>4092</v>
       </c>
       <c r="F26">
-        <v>4437</v>
+        <v>4440.46</v>
       </c>
       <c r="G26">
-        <v>4367</v>
+        <v>4372</v>
       </c>
       <c r="H26">
-        <v>4507</v>
+        <v>4508</v>
       </c>
       <c r="I26">
-        <v>0.96</v>
+        <v>0.968</v>
       </c>
       <c r="J26">
-        <v>0.96</v>
+        <v>0.957</v>
       </c>
       <c r="K26">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>0.979</v>
+      </c>
+      <c r="L26">
+        <v>0.885</v>
+      </c>
+      <c r="M26">
+        <v>0.88</v>
+      </c>
+      <c r="N26">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1290,34 +1497,43 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4125</v>
+        <v>4125.67</v>
       </c>
       <c r="D27">
-        <v>4053</v>
+        <v>4057.5</v>
       </c>
       <c r="E27">
-        <v>4187</v>
+        <v>4192</v>
       </c>
       <c r="F27">
-        <v>4177</v>
+        <v>4178.14</v>
       </c>
       <c r="G27">
-        <v>4103</v>
+        <v>4110.75</v>
       </c>
       <c r="H27">
-        <v>4244</v>
+        <v>4244.5</v>
       </c>
       <c r="I27">
-        <v>0.89</v>
+        <v>0.889</v>
       </c>
       <c r="J27">
-        <v>0.88</v>
+        <v>0.879</v>
       </c>
       <c r="K27">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>0.898</v>
+      </c>
+      <c r="L27">
+        <v>0.899</v>
+      </c>
+      <c r="M27">
+        <v>0.894</v>
+      </c>
+      <c r="N27">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1325,34 +1541,43 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3909</v>
+        <v>3913.1</v>
       </c>
       <c r="D28">
         <v>3846</v>
       </c>
       <c r="E28">
-        <v>3970</v>
+        <v>3987</v>
       </c>
       <c r="F28">
-        <v>4117</v>
+        <v>4117.32</v>
       </c>
       <c r="G28">
-        <v>4046</v>
+        <v>4050.25</v>
       </c>
       <c r="H28">
-        <v>4182</v>
+        <v>4188.13</v>
       </c>
       <c r="I28">
-        <v>0.93</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J28">
-        <v>0.92</v>
+        <v>0.922</v>
       </c>
       <c r="K28">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>0.9429999999999999</v>
+      </c>
+      <c r="L28">
+        <v>0.908</v>
+      </c>
+      <c r="M28">
+        <v>0.902</v>
+      </c>
+      <c r="N28">
+        <v>0.913</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1360,34 +1585,43 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3343</v>
+        <v>3335.79</v>
       </c>
       <c r="D29">
-        <v>3283</v>
+        <v>3276.5</v>
       </c>
       <c r="E29">
-        <v>3412</v>
+        <v>3401.5</v>
       </c>
       <c r="F29">
-        <v>3851</v>
+        <v>3848.92</v>
       </c>
       <c r="G29">
-        <v>3784</v>
+        <v>3783.13</v>
       </c>
       <c r="H29">
-        <v>3916</v>
+        <v>3918.13</v>
       </c>
       <c r="I29">
-        <v>0.88</v>
+        <v>0.874</v>
       </c>
       <c r="J29">
-        <v>0.87</v>
+        <v>0.863</v>
       </c>
       <c r="K29">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>0.886</v>
+      </c>
+      <c r="L29">
+        <v>0.903</v>
+      </c>
+      <c r="M29">
+        <v>0.897</v>
+      </c>
+      <c r="N29">
+        <v>0.909</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1395,34 +1629,43 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4349</v>
+        <v>4381.42</v>
       </c>
       <c r="D30">
-        <v>4275</v>
+        <v>4307.5</v>
       </c>
       <c r="E30">
-        <v>4421</v>
+        <v>4446.5</v>
       </c>
       <c r="F30">
-        <v>3932</v>
+        <v>3939</v>
       </c>
       <c r="G30">
-        <v>3864</v>
+        <v>3871.88</v>
       </c>
       <c r="H30">
-        <v>3997</v>
+        <v>4006.75</v>
       </c>
       <c r="I30">
-        <v>0.89</v>
+        <v>0.887</v>
       </c>
       <c r="J30">
-        <v>0.88</v>
+        <v>0.874</v>
       </c>
       <c r="K30">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>0.899</v>
+      </c>
+      <c r="L30">
+        <v>0.92</v>
+      </c>
+      <c r="M30">
+        <v>0.913</v>
+      </c>
+      <c r="N30">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1430,34 +1673,43 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3614</v>
+        <v>3596.81</v>
       </c>
       <c r="D31">
-        <v>3551</v>
+        <v>3527.5</v>
       </c>
       <c r="E31">
-        <v>3679</v>
+        <v>3666.5</v>
       </c>
       <c r="F31">
-        <v>3804</v>
+        <v>3806.78</v>
       </c>
       <c r="G31">
-        <v>3738</v>
+        <v>3739.38</v>
       </c>
       <c r="H31">
-        <v>3870</v>
+        <v>3875.38</v>
       </c>
       <c r="I31">
-        <v>0.91</v>
+        <v>0.911</v>
       </c>
       <c r="J31">
-        <v>0.9</v>
+        <v>0.901</v>
       </c>
       <c r="K31">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>0.924</v>
+      </c>
+      <c r="L31">
+        <v>0.923</v>
+      </c>
+      <c r="M31">
+        <v>0.918</v>
+      </c>
+      <c r="N31">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1465,34 +1717,43 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4030</v>
+        <v>4027.2</v>
       </c>
       <c r="D32">
-        <v>3960</v>
+        <v>3969.5</v>
       </c>
       <c r="E32">
-        <v>4103</v>
+        <v>4100</v>
       </c>
       <c r="F32">
-        <v>3834</v>
+        <v>3835.31</v>
       </c>
       <c r="G32">
-        <v>3767</v>
+        <v>3770.25</v>
       </c>
       <c r="H32">
-        <v>3904</v>
+        <v>3903.63</v>
       </c>
       <c r="I32">
-        <v>0.93</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J32">
         <v>0.92</v>
       </c>
       <c r="K32">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>0.9409999999999999</v>
+      </c>
+      <c r="L32">
+        <v>0.9320000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.926</v>
+      </c>
+      <c r="N32">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1500,34 +1761,43 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3764</v>
+        <v>3765.03</v>
       </c>
       <c r="D33">
-        <v>3697</v>
+        <v>3699.5</v>
       </c>
       <c r="E33">
-        <v>3833</v>
+        <v>3833.5</v>
       </c>
       <c r="F33">
-        <v>3939</v>
+        <v>3942.62</v>
       </c>
       <c r="G33">
-        <v>3870</v>
+        <v>3876</v>
       </c>
       <c r="H33">
-        <v>4009</v>
+        <v>4011.63</v>
       </c>
       <c r="I33">
-        <v>1.02</v>
+        <v>1.024</v>
       </c>
       <c r="J33">
-        <v>1.01</v>
+        <v>1.013</v>
       </c>
       <c r="K33">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>1.036</v>
+      </c>
+      <c r="L33">
+        <v>0.945</v>
+      </c>
+      <c r="M33">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N33">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1535,34 +1805,43 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3756</v>
+        <v>3764.79</v>
       </c>
       <c r="D34">
-        <v>3682</v>
+        <v>3696.5</v>
       </c>
       <c r="E34">
-        <v>3816</v>
+        <v>3826.5</v>
       </c>
       <c r="F34">
-        <v>3791</v>
+        <v>3788.46</v>
       </c>
       <c r="G34">
-        <v>3722</v>
+        <v>3723.25</v>
       </c>
       <c r="H34">
-        <v>3858</v>
+        <v>3856.63</v>
       </c>
       <c r="I34">
-        <v>0.96</v>
+        <v>0.962</v>
       </c>
       <c r="J34">
         <v>0.95</v>
       </c>
       <c r="K34">
-        <v>0.98</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>0.973</v>
+      </c>
+      <c r="L34">
+        <v>0.9340000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.928</v>
+      </c>
+      <c r="N34">
+        <v>0.9389999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1570,34 +1849,43 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3057</v>
+        <v>3067.64</v>
       </c>
       <c r="D35">
-        <v>2997</v>
+        <v>2999</v>
       </c>
       <c r="E35">
-        <v>3124</v>
+        <v>3132.5</v>
       </c>
       <c r="F35">
-        <v>3652</v>
+        <v>3656.17</v>
       </c>
       <c r="G35">
-        <v>3584</v>
+        <v>3591.13</v>
       </c>
       <c r="H35">
-        <v>3719</v>
+        <v>3723.13</v>
       </c>
       <c r="I35">
         <v>0.96</v>
       </c>
       <c r="J35">
-        <v>0.95</v>
+        <v>0.949</v>
       </c>
       <c r="K35">
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>0.972</v>
+      </c>
+      <c r="L35">
+        <v>0.925</v>
+      </c>
+      <c r="M35">
+        <v>0.919</v>
+      </c>
+      <c r="N35">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1605,34 +1893,43 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2742</v>
+        <v>2730.74</v>
       </c>
       <c r="D36">
-        <v>2684</v>
+        <v>2675</v>
       </c>
       <c r="E36">
-        <v>2804</v>
+        <v>2791.5</v>
       </c>
       <c r="F36">
-        <v>3330</v>
+        <v>3332.05</v>
       </c>
       <c r="G36">
-        <v>3265</v>
+        <v>3267.5</v>
       </c>
       <c r="H36">
-        <v>3394</v>
+        <v>3396</v>
       </c>
       <c r="I36">
-        <v>0.87</v>
+        <v>0.869</v>
       </c>
       <c r="J36">
-        <v>0.86</v>
+        <v>0.859</v>
       </c>
       <c r="K36">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36">
+        <v>0.896</v>
+      </c>
+      <c r="M36">
+        <v>0.89</v>
+      </c>
+      <c r="N36">
+        <v>0.902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1640,34 +1937,43 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3352</v>
+        <v>3361.1</v>
       </c>
       <c r="D37">
-        <v>3300</v>
+        <v>3306.5</v>
       </c>
       <c r="E37">
-        <v>3414</v>
+        <v>3418.5</v>
       </c>
       <c r="F37">
-        <v>3227</v>
+        <v>3231.07</v>
       </c>
       <c r="G37">
-        <v>3165</v>
+        <v>3169.25</v>
       </c>
       <c r="H37">
-        <v>3289</v>
+        <v>3292.25</v>
       </c>
       <c r="I37">
         <v>0.82</v>
       </c>
       <c r="J37">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="K37">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>0.829</v>
+      </c>
+      <c r="L37">
+        <v>0.889</v>
+      </c>
+      <c r="M37">
+        <v>0.883</v>
+      </c>
+      <c r="N37">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1675,34 +1981,43 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3102</v>
+        <v>3092.25</v>
       </c>
       <c r="D38">
-        <v>3048</v>
+        <v>3026</v>
       </c>
       <c r="E38">
-        <v>3164</v>
+        <v>3157.5</v>
       </c>
       <c r="F38">
-        <v>3063</v>
+        <v>3062.93</v>
       </c>
       <c r="G38">
-        <v>3007</v>
+        <v>3001.63</v>
       </c>
       <c r="H38">
-        <v>3126</v>
+        <v>3125</v>
       </c>
       <c r="I38">
-        <v>0.8100000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="J38">
         <v>0.8</v>
       </c>
       <c r="K38">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>0.8179999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0.874</v>
+      </c>
+      <c r="M38">
+        <v>0.869</v>
+      </c>
+      <c r="N38">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1710,34 +2025,43 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2912</v>
+        <v>2896.02</v>
       </c>
       <c r="D39">
-        <v>2849</v>
+        <v>2839.5</v>
       </c>
       <c r="E39">
-        <v>2973</v>
+        <v>2973.5</v>
       </c>
       <c r="F39">
-        <v>3027</v>
+        <v>3020.03</v>
       </c>
       <c r="G39">
-        <v>2970</v>
+        <v>2961.75</v>
       </c>
       <c r="H39">
-        <v>3089</v>
+        <v>3085.25</v>
       </c>
       <c r="I39">
-        <v>0.83</v>
+        <v>0.826</v>
       </c>
       <c r="J39">
-        <v>0.82</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="K39">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>0.839</v>
+      </c>
+      <c r="L39">
+        <v>0.853</v>
+      </c>
+      <c r="M39">
+        <v>0.847</v>
+      </c>
+      <c r="N39">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1745,34 +2069,43 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2720</v>
+        <v>2705.62</v>
       </c>
       <c r="D40">
-        <v>2661</v>
+        <v>2653</v>
       </c>
       <c r="E40">
-        <v>2774</v>
+        <v>2768.5</v>
       </c>
       <c r="F40">
-        <v>3022</v>
+        <v>3013.75</v>
       </c>
       <c r="G40">
-        <v>2964</v>
+        <v>2956.25</v>
       </c>
       <c r="H40">
-        <v>3081</v>
+        <v>3079.5</v>
       </c>
       <c r="I40">
-        <v>0.91</v>
+        <v>0.904</v>
       </c>
       <c r="J40">
-        <v>0.9</v>
+        <v>0.891</v>
       </c>
       <c r="K40">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>0.918</v>
+      </c>
+      <c r="L40">
+        <v>0.83</v>
+      </c>
+      <c r="M40">
+        <v>0.824</v>
+      </c>
+      <c r="N40">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1780,34 +2113,43 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2326</v>
+        <v>2325.23</v>
       </c>
       <c r="D41">
-        <v>2277</v>
+        <v>2263.5</v>
       </c>
       <c r="E41">
-        <v>2379</v>
+        <v>2397.5</v>
       </c>
       <c r="F41">
-        <v>2765</v>
+        <v>2754.78</v>
       </c>
       <c r="G41">
-        <v>2709</v>
+        <v>2695.5</v>
       </c>
       <c r="H41">
-        <v>2822</v>
+        <v>2824.25</v>
       </c>
       <c r="I41">
-        <v>0.86</v>
+        <v>0.853</v>
       </c>
       <c r="J41">
-        <v>0.84</v>
+        <v>0.841</v>
       </c>
       <c r="K41">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>0.864</v>
+      </c>
+      <c r="L41">
+        <v>0.804</v>
+      </c>
+      <c r="M41">
+        <v>0.797</v>
+      </c>
+      <c r="N41">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1815,34 +2157,43 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2022</v>
+        <v>2023.35</v>
       </c>
       <c r="D42">
-        <v>1970</v>
+        <v>1970.5</v>
       </c>
       <c r="E42">
-        <v>2078</v>
+        <v>2081</v>
       </c>
       <c r="F42">
-        <v>2495</v>
+        <v>2487.55</v>
       </c>
       <c r="G42">
-        <v>2439</v>
+        <v>2431.63</v>
       </c>
       <c r="H42">
-        <v>2551</v>
+        <v>2555.13</v>
       </c>
       <c r="I42">
-        <v>0.8100000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J42">
-        <v>0.8</v>
+        <v>0.802</v>
       </c>
       <c r="K42">
-        <v>0.83</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>0.823</v>
+      </c>
+      <c r="L42">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="M42">
+        <v>0.805</v>
+      </c>
+      <c r="N42">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1850,34 +2201,43 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1987</v>
+        <v>1998.39</v>
       </c>
       <c r="D43">
-        <v>1931</v>
+        <v>1946.5</v>
       </c>
       <c r="E43">
-        <v>2055</v>
+        <v>2048</v>
       </c>
       <c r="F43">
-        <v>2264</v>
+        <v>2263.15</v>
       </c>
       <c r="G43">
-        <v>2209</v>
+        <v>2208.38</v>
       </c>
       <c r="H43">
-        <v>2321</v>
+        <v>2323.75</v>
       </c>
       <c r="I43">
-        <v>0.75</v>
+        <v>0.749</v>
       </c>
       <c r="J43">
-        <v>0.73</v>
+        <v>0.736</v>
       </c>
       <c r="K43">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>0.762</v>
+      </c>
+      <c r="L43">
+        <v>0.785</v>
+      </c>
+      <c r="M43">
+        <v>0.779</v>
+      </c>
+      <c r="N43">
+        <v>0.791</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1885,34 +2245,43 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1931</v>
+        <v>1926.59</v>
       </c>
       <c r="D44">
-        <v>1862</v>
+        <v>1875.5</v>
       </c>
       <c r="E44">
-        <v>1996</v>
+        <v>1975.5</v>
       </c>
       <c r="F44">
-        <v>2067</v>
+        <v>2068.39</v>
       </c>
       <c r="G44">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="H44">
-        <v>2127</v>
+        <v>2125.5</v>
       </c>
       <c r="I44">
-        <v>0.68</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="J44">
-        <v>0.67</v>
+        <v>0.674</v>
       </c>
       <c r="K44">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>0.698</v>
+      </c>
+      <c r="L44">
+        <v>0.786</v>
+      </c>
+      <c r="M44">
+        <v>0.779</v>
+      </c>
+      <c r="N44">
+        <v>0.793</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1920,34 +2289,43 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1998</v>
+        <v>1993.84</v>
       </c>
       <c r="D45">
-        <v>1930</v>
+        <v>1938.57</v>
       </c>
       <c r="E45">
-        <v>2073</v>
+        <v>2051.37</v>
       </c>
       <c r="F45">
-        <v>1984</v>
+        <v>1985.54</v>
       </c>
       <c r="G45">
-        <v>1923</v>
+        <v>1932.77</v>
       </c>
       <c r="H45">
-        <v>2050</v>
+        <v>2038.97</v>
       </c>
       <c r="I45">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="J45">
-        <v>0.7</v>
+        <v>0.708</v>
       </c>
       <c r="K45">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>0.733</v>
+      </c>
+      <c r="L45">
+        <v>0.78</v>
+      </c>
+      <c r="M45">
+        <v>0.771</v>
+      </c>
+      <c r="N45">
+        <v>0.787</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1955,34 +2333,43 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1948</v>
+        <v>1945.41</v>
       </c>
       <c r="D46">
-        <v>1889</v>
+        <v>1869.89</v>
       </c>
       <c r="E46">
-        <v>2018</v>
+        <v>2011.87</v>
       </c>
       <c r="F46">
-        <v>1966</v>
+        <v>1966.06</v>
       </c>
       <c r="G46">
-        <v>1903</v>
+        <v>1907.62</v>
       </c>
       <c r="H46">
-        <v>2035</v>
+        <v>2021.69</v>
       </c>
       <c r="I46">
         <v>0.79</v>
       </c>
       <c r="J46">
-        <v>0.77</v>
+        <v>0.777</v>
       </c>
       <c r="K46">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>0.805</v>
+      </c>
+      <c r="L46">
+        <v>0.761</v>
+      </c>
+      <c r="M46">
+        <v>0.752</v>
+      </c>
+      <c r="N46">
+        <v>0.769</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1990,34 +2377,43 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1775</v>
+        <v>1786.78</v>
       </c>
       <c r="D47">
-        <v>1706</v>
+        <v>1732.19</v>
       </c>
       <c r="E47">
-        <v>1850</v>
+        <v>1848.03</v>
       </c>
       <c r="F47">
-        <v>1913</v>
+        <v>1913.16</v>
       </c>
       <c r="G47">
-        <v>1847</v>
+        <v>1854.04</v>
       </c>
       <c r="H47">
-        <v>1984</v>
+        <v>1971.69</v>
       </c>
       <c r="I47">
-        <v>0.85</v>
+        <v>0.845</v>
       </c>
       <c r="J47">
-        <v>0.83</v>
+        <v>0.829</v>
       </c>
       <c r="K47">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>0.862</v>
+      </c>
+      <c r="L47">
+        <v>0.788</v>
+      </c>
+      <c r="M47">
+        <v>0.778</v>
+      </c>
+      <c r="N47">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2025,34 +2421,43 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1687</v>
+        <v>1687.64</v>
       </c>
       <c r="D48">
-        <v>1619</v>
+        <v>1635.36</v>
       </c>
       <c r="E48">
-        <v>1754</v>
+        <v>1744.48</v>
       </c>
       <c r="F48">
-        <v>1852</v>
+        <v>1853.42</v>
       </c>
       <c r="G48">
-        <v>1786</v>
+        <v>1794</v>
       </c>
       <c r="H48">
-        <v>1924</v>
+        <v>1913.94</v>
       </c>
       <c r="I48">
-        <v>0.9</v>
+        <v>0.896</v>
       </c>
       <c r="J48">
-        <v>0.88</v>
+        <v>0.878</v>
       </c>
       <c r="K48">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>0.914</v>
+      </c>
+      <c r="L48">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.798</v>
+      </c>
+      <c r="N48">
+        <v>0.8169999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2060,34 +2465,43 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1458</v>
+        <v>1464.58</v>
       </c>
       <c r="D49">
-        <v>1405</v>
+        <v>1415.46</v>
       </c>
       <c r="E49">
-        <v>1512</v>
+        <v>1513.12</v>
       </c>
       <c r="F49">
-        <v>1717</v>
+        <v>1721.1</v>
       </c>
       <c r="G49">
-        <v>1655</v>
+        <v>1663.23</v>
       </c>
       <c r="H49">
-        <v>1783</v>
+        <v>1779.38</v>
       </c>
       <c r="I49">
-        <v>0.87</v>
+        <v>0.867</v>
       </c>
       <c r="J49">
-        <v>0.84</v>
+        <v>0.848</v>
       </c>
       <c r="K49">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>0.886</v>
+      </c>
+      <c r="L49">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="M49">
+        <v>0.805</v>
+      </c>
+      <c r="N49">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2095,34 +2509,43 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1328</v>
+        <v>1323.17</v>
       </c>
       <c r="D50">
-        <v>1260</v>
+        <v>1261.84</v>
       </c>
       <c r="E50">
-        <v>1394</v>
+        <v>1386.33</v>
       </c>
       <c r="F50">
-        <v>1562</v>
+        <v>1565.54</v>
       </c>
       <c r="G50">
-        <v>1498</v>
+        <v>1511.21</v>
       </c>
       <c r="H50">
-        <v>1628</v>
+        <v>1622.99</v>
       </c>
       <c r="I50">
-        <v>0.79</v>
+        <v>0.796</v>
       </c>
       <c r="J50">
-        <v>0.77</v>
+        <v>0.779</v>
       </c>
       <c r="K50">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>0.8129999999999999</v>
+      </c>
+      <c r="L50">
+        <v>0.841</v>
+      </c>
+      <c r="M50">
+        <v>0.831</v>
+      </c>
+      <c r="N50">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2130,34 +2553,43 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1576</v>
+        <v>1568.69</v>
       </c>
       <c r="D51">
-        <v>1513</v>
+        <v>1516.85</v>
       </c>
       <c r="E51">
-        <v>1653</v>
+        <v>1623.03</v>
       </c>
       <c r="F51">
-        <v>1512</v>
+        <v>1511.02</v>
       </c>
       <c r="G51">
-        <v>1449</v>
+        <v>1457.38</v>
       </c>
       <c r="H51">
-        <v>1578</v>
+        <v>1566.74</v>
       </c>
       <c r="I51">
         <v>0.79</v>
       </c>
       <c r="J51">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="K51">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>0.806</v>
+      </c>
+      <c r="L51">
+        <v>0.835</v>
+      </c>
+      <c r="M51">
+        <v>0.826</v>
+      </c>
+      <c r="N51">
+        <v>0.845</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2165,34 +2597,43 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1381</v>
+        <v>1376.18</v>
       </c>
       <c r="D52">
-        <v>1317</v>
+        <v>1319.31</v>
       </c>
       <c r="E52">
-        <v>1448</v>
+        <v>1424.74</v>
       </c>
       <c r="F52">
-        <v>1436</v>
+        <v>1433.15</v>
       </c>
       <c r="G52">
-        <v>1374</v>
+        <v>1378.37</v>
       </c>
       <c r="H52">
-        <v>1502</v>
+        <v>1486.8</v>
       </c>
       <c r="I52">
-        <v>0.78</v>
+        <v>0.773</v>
       </c>
       <c r="J52">
-        <v>0.75</v>
+        <v>0.757</v>
       </c>
       <c r="K52">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>0.794</v>
+      </c>
+      <c r="L52">
+        <v>0.822</v>
+      </c>
+      <c r="M52">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="N52">
+        <v>0.833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2200,34 +2641,43 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1318</v>
+        <v>1321.05</v>
       </c>
       <c r="D53">
-        <v>1241</v>
+        <v>1267.03</v>
       </c>
       <c r="E53">
-        <v>1389</v>
+        <v>1382.27</v>
       </c>
       <c r="F53">
-        <v>1401</v>
+        <v>1397.27</v>
       </c>
       <c r="G53">
-        <v>1333</v>
+        <v>1341.26</v>
       </c>
       <c r="H53">
-        <v>1471</v>
+        <v>1454.09</v>
       </c>
       <c r="I53">
-        <v>0.82</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J53">
         <v>0.79</v>
       </c>
       <c r="K53">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>0.836</v>
+      </c>
+      <c r="L53">
+        <v>0.829</v>
+      </c>
+      <c r="M53">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="N53">
+        <v>0.841</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2235,34 +2685,43 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1306</v>
+        <v>1317.12</v>
       </c>
       <c r="D54">
-        <v>1240</v>
+        <v>1264.92</v>
       </c>
       <c r="E54">
-        <v>1371</v>
+        <v>1373.33</v>
       </c>
       <c r="F54">
-        <v>1395</v>
+        <v>1395.76</v>
       </c>
       <c r="G54">
-        <v>1328</v>
+        <v>1342.03</v>
       </c>
       <c r="H54">
-        <v>1465</v>
+        <v>1450.84</v>
       </c>
       <c r="I54">
-        <v>0.89</v>
+        <v>0.892</v>
       </c>
       <c r="J54">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="K54">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>0.914</v>
+      </c>
+      <c r="L54">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.798</v>
+      </c>
+      <c r="N54">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2270,34 +2729,43 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1189</v>
+        <v>1177.38</v>
       </c>
       <c r="D55">
-        <v>1127</v>
+        <v>1129.2</v>
       </c>
       <c r="E55">
-        <v>1249</v>
+        <v>1237.39</v>
       </c>
       <c r="F55">
-        <v>1299</v>
+        <v>1297.93</v>
       </c>
       <c r="G55">
-        <v>1231</v>
+        <v>1245.11</v>
       </c>
       <c r="H55">
-        <v>1365</v>
+        <v>1354.43</v>
       </c>
       <c r="I55">
-        <v>0.86</v>
+        <v>0.859</v>
       </c>
       <c r="J55">
+        <v>0.838</v>
+      </c>
+      <c r="K55">
+        <v>0.883</v>
+      </c>
+      <c r="L55">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="M55">
+        <v>0.803</v>
+      </c>
+      <c r="N55">
         <v>0.83</v>
       </c>
-      <c r="K55">
-        <v>0.89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2305,34 +2773,43 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1047</v>
+        <v>1032.01</v>
       </c>
       <c r="D56">
-        <v>994</v>
+        <v>980.05</v>
       </c>
       <c r="E56">
-        <v>1106</v>
+        <v>1083.79</v>
       </c>
       <c r="F56">
-        <v>1215</v>
+        <v>1211.89</v>
       </c>
       <c r="G56">
-        <v>1151</v>
+        <v>1160.3</v>
       </c>
       <c r="H56">
-        <v>1279</v>
+        <v>1269.2</v>
       </c>
       <c r="I56">
-        <v>0.85</v>
+        <v>0.846</v>
       </c>
       <c r="J56">
         <v>0.82</v>
       </c>
       <c r="K56">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>0.868</v>
+      </c>
+      <c r="L56">
+        <v>0.83</v>
+      </c>
+      <c r="M56">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="N56">
+        <v>0.843</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2340,34 +2817,43 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>956</v>
+        <v>945.97</v>
       </c>
       <c r="D57">
-        <v>894</v>
+        <v>896.84</v>
       </c>
       <c r="E57">
-        <v>1013</v>
+        <v>1003.52</v>
       </c>
       <c r="F57">
-        <v>1125</v>
+        <v>1118.12</v>
       </c>
       <c r="G57">
-        <v>1064</v>
+        <v>1067.75</v>
       </c>
       <c r="H57">
-        <v>1185</v>
+        <v>1174.51</v>
       </c>
       <c r="I57">
         <v>0.8</v>
       </c>
       <c r="J57">
-        <v>0.78</v>
+        <v>0.777</v>
       </c>
       <c r="K57">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>0.826</v>
+      </c>
+      <c r="L57">
+        <v>0.825</v>
+      </c>
+      <c r="M57">
+        <v>0.8110000000000001</v>
+      </c>
+      <c r="N57">
+        <v>0.839</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2375,34 +2861,43 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1129</v>
+        <v>1125.85</v>
       </c>
       <c r="D58">
-        <v>1045</v>
+        <v>1064.94</v>
       </c>
       <c r="E58">
-        <v>1217</v>
+        <v>1188.23</v>
       </c>
       <c r="F58">
-        <v>1080</v>
+        <v>1070.3</v>
       </c>
       <c r="G58">
-        <v>1015</v>
+        <v>1017.76</v>
       </c>
       <c r="H58">
-        <v>1147</v>
+        <v>1128.23</v>
       </c>
       <c r="I58">
-        <v>0.77</v>
+        <v>0.767</v>
       </c>
       <c r="J58">
-        <v>0.74</v>
+        <v>0.744</v>
       </c>
       <c r="K58">
+        <v>0.794</v>
+      </c>
+      <c r="L58">
+        <v>0.823</v>
+      </c>
+      <c r="M58">
         <v>0.8100000000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58">
+        <v>0.836</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2410,34 +2905,43 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>937</v>
+        <v>939.25</v>
       </c>
       <c r="D59">
-        <v>870</v>
+        <v>889.25</v>
       </c>
       <c r="E59">
-        <v>1011</v>
+        <v>993.33</v>
       </c>
       <c r="F59">
-        <v>1017</v>
+        <v>1010.77</v>
       </c>
       <c r="G59">
-        <v>951</v>
+        <v>957.77</v>
       </c>
       <c r="H59">
-        <v>1087</v>
+        <v>1067.21</v>
       </c>
       <c r="I59">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="J59">
-        <v>0.75</v>
+        <v>0.757</v>
       </c>
       <c r="K59">
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>0.801</v>
+      </c>
+      <c r="L59">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="M59">
+        <v>0.799</v>
+      </c>
+      <c r="N59">
+        <v>0.832</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2445,34 +2949,43 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>892</v>
+        <v>896.42</v>
       </c>
       <c r="D60">
-        <v>821</v>
+        <v>822.84</v>
       </c>
       <c r="E60">
-        <v>980</v>
+        <v>968.23</v>
       </c>
       <c r="F60">
-        <v>979</v>
+        <v>976.87</v>
       </c>
       <c r="G60">
-        <v>907</v>
+        <v>918.47</v>
       </c>
       <c r="H60">
-        <v>1055</v>
+        <v>1038.32</v>
       </c>
       <c r="I60">
-        <v>0.8100000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="J60">
-        <v>0.77</v>
+        <v>0.775</v>
       </c>
       <c r="K60">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>0.837</v>
+      </c>
+      <c r="L60">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="M60">
+        <v>0.789</v>
+      </c>
+      <c r="N60">
+        <v>0.824</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2480,34 +2993,43 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>920</v>
+        <v>938.9299999999999</v>
       </c>
       <c r="D61">
-        <v>826</v>
+        <v>871.3200000000001</v>
       </c>
       <c r="E61">
-        <v>1015</v>
+        <v>1002.55</v>
       </c>
       <c r="F61">
-        <v>970</v>
+        <v>975.11</v>
       </c>
       <c r="G61">
-        <v>890</v>
+        <v>912.09</v>
       </c>
       <c r="H61">
-        <v>1056</v>
+        <v>1038.08</v>
       </c>
       <c r="I61">
-        <v>0.86</v>
+        <v>0.872</v>
       </c>
       <c r="J61">
-        <v>0.82</v>
+        <v>0.834</v>
       </c>
       <c r="K61">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>0.902</v>
+      </c>
+      <c r="L61">
+        <v>0.805</v>
+      </c>
+      <c r="M61">
+        <v>0.788</v>
+      </c>
+      <c r="N61">
+        <v>0.824</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2515,34 +3037,43 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>771</v>
+        <v>797.51</v>
       </c>
       <c r="D62">
-        <v>696</v>
+        <v>721.4299999999999</v>
       </c>
       <c r="E62">
-        <v>860</v>
+        <v>859.34</v>
       </c>
       <c r="F62">
-        <v>880</v>
+        <v>893.03</v>
       </c>
       <c r="G62">
-        <v>803</v>
+        <v>826.21</v>
       </c>
       <c r="H62">
-        <v>967</v>
+        <v>955.86</v>
       </c>
       <c r="I62">
-        <v>0.8100000000000001</v>
+        <v>0.835</v>
       </c>
       <c r="J62">
-        <v>0.77</v>
+        <v>0.801</v>
       </c>
       <c r="K62">
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>0.869</v>
+      </c>
+      <c r="L62">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="M62">
+        <v>0.792</v>
+      </c>
+      <c r="N62">
+        <v>0.835</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2550,34 +3081,43 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>736</v>
+        <v>759.28</v>
       </c>
       <c r="D63">
-        <v>610</v>
+        <v>671.03</v>
       </c>
       <c r="E63">
-        <v>851</v>
+        <v>847.79</v>
       </c>
       <c r="F63">
-        <v>830</v>
+        <v>848.04</v>
       </c>
       <c r="G63">
-        <v>738</v>
+        <v>771.66</v>
       </c>
       <c r="H63">
-        <v>927</v>
+        <v>919.47</v>
       </c>
       <c r="I63">
-        <v>0.82</v>
+        <v>0.839</v>
       </c>
       <c r="J63">
-        <v>0.76</v>
+        <v>0.798</v>
       </c>
       <c r="K63">
-        <v>0.87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>0.882</v>
+      </c>
+      <c r="L63">
+        <v>0.844</v>
+      </c>
+      <c r="M63">
+        <v>0.819</v>
+      </c>
+      <c r="N63">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2585,34 +3125,43 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>792</v>
+        <v>818.6</v>
       </c>
       <c r="D64">
-        <v>671</v>
+        <v>720.29</v>
       </c>
       <c r="E64">
-        <v>932</v>
+        <v>926.12</v>
       </c>
       <c r="F64">
-        <v>805</v>
+        <v>828.58</v>
       </c>
       <c r="G64">
-        <v>701</v>
+        <v>746.02</v>
       </c>
       <c r="H64">
-        <v>915</v>
+        <v>908.95</v>
       </c>
       <c r="I64">
-        <v>0.82</v>
+        <v>0.848</v>
       </c>
       <c r="J64">
-        <v>0.76</v>
+        <v>0.803</v>
       </c>
       <c r="K64">
-        <v>0.88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>0.899</v>
+      </c>
+      <c r="L64">
+        <v>0.862</v>
+      </c>
+      <c r="M64">
+        <v>0.831</v>
+      </c>
+      <c r="N64">
+        <v>0.889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2620,34 +3169,43 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>913</v>
+        <v>931.3200000000001</v>
       </c>
       <c r="D65">
-        <v>720</v>
+        <v>785.36</v>
       </c>
       <c r="E65">
-        <v>1121</v>
+        <v>1058</v>
       </c>
       <c r="F65">
-        <v>803</v>
+        <v>826.6799999999999</v>
       </c>
       <c r="G65">
-        <v>674</v>
+        <v>724.53</v>
       </c>
       <c r="H65">
-        <v>941</v>
+        <v>922.8099999999999</v>
       </c>
       <c r="I65">
-        <v>0.83</v>
+        <v>0.848</v>
       </c>
       <c r="J65">
-        <v>0.75</v>
+        <v>0.786</v>
       </c>
       <c r="K65">
-        <v>0.91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>0.911</v>
+      </c>
+      <c r="L65">
+        <v>0.903</v>
+      </c>
+      <c r="M65">
+        <v>0.868</v>
+      </c>
+      <c r="N65">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2655,34 +3213,43 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>918</v>
+        <v>883.87</v>
       </c>
       <c r="D66">
-        <v>704</v>
+        <v>765.42</v>
       </c>
       <c r="E66">
-        <v>1148</v>
+        <v>1008.37</v>
       </c>
       <c r="F66">
-        <v>840</v>
+        <v>848.27</v>
       </c>
       <c r="G66">
-        <v>676</v>
+        <v>735.52</v>
       </c>
       <c r="H66">
-        <v>1013</v>
+        <v>960.0700000000001</v>
       </c>
       <c r="I66">
         <v>0.95</v>
       </c>
       <c r="J66">
-        <v>0.85</v>
+        <v>0.878</v>
       </c>
       <c r="K66">
-        <v>1.08</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>1.021</v>
+      </c>
+      <c r="L66">
+        <v>0.93</v>
+      </c>
+      <c r="M66">
+        <v>0.884</v>
+      </c>
+      <c r="N66">
+        <v>0.973</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2690,34 +3257,43 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>806</v>
+        <v>823.8099999999999</v>
       </c>
       <c r="D67">
-        <v>590</v>
+        <v>657.38</v>
       </c>
       <c r="E67">
-        <v>1012</v>
+        <v>980.38</v>
       </c>
       <c r="F67">
-        <v>857</v>
+        <v>864.4</v>
       </c>
       <c r="G67">
-        <v>671</v>
+        <v>732.11</v>
       </c>
       <c r="H67">
-        <v>1054</v>
+        <v>993.22</v>
       </c>
       <c r="I67">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J67">
-        <v>0.92</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="K67">
-        <v>1.19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>1.114</v>
+      </c>
+      <c r="L67">
+        <v>0.919</v>
+      </c>
+      <c r="M67">
+        <v>0.87</v>
+      </c>
+      <c r="N67">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2725,34 +3301,43 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>695</v>
+        <v>751.9</v>
       </c>
       <c r="D68">
-        <v>446</v>
+        <v>584.08</v>
       </c>
       <c r="E68">
-        <v>950</v>
+        <v>925.34</v>
       </c>
       <c r="F68">
-        <v>833</v>
+        <v>847.73</v>
       </c>
       <c r="G68">
-        <v>615</v>
+        <v>698.0599999999999</v>
       </c>
       <c r="H68">
-        <v>1058</v>
+        <v>993.02</v>
       </c>
       <c r="I68">
-        <v>1.04</v>
+        <v>1.024</v>
       </c>
       <c r="J68">
-        <v>0.88</v>
+        <v>0.927</v>
       </c>
       <c r="K68">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>1.125</v>
+      </c>
+      <c r="L68">
+        <v>0.929</v>
+      </c>
+      <c r="M68">
+        <v>0.874</v>
+      </c>
+      <c r="N68">
+        <v>0.987</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2760,31 +3345,119 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>588</v>
+        <v>679.77</v>
       </c>
       <c r="D69">
-        <v>359</v>
+        <v>507.17</v>
       </c>
       <c r="E69">
-        <v>876</v>
+        <v>881.52</v>
       </c>
       <c r="F69">
-        <v>752</v>
+        <v>784.84</v>
       </c>
       <c r="G69">
-        <v>525</v>
+        <v>628.51</v>
       </c>
       <c r="H69">
-        <v>997</v>
+        <v>948.9</v>
       </c>
       <c r="I69">
-        <v>0.9399999999999999</v>
+        <v>0.951</v>
       </c>
       <c r="J69">
-        <v>0.79</v>
+        <v>0.832</v>
       </c>
       <c r="K69">
-        <v>1.1</v>
+        <v>1.088</v>
+      </c>
+      <c r="L69">
+        <v>0.913</v>
+      </c>
+      <c r="M69">
+        <v>0.852</v>
+      </c>
+      <c r="N69">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2">
+        <v>43960</v>
+      </c>
+      <c r="C70">
+        <v>611.34</v>
+      </c>
+      <c r="D70">
+        <v>409.82</v>
+      </c>
+      <c r="E70">
+        <v>816.21</v>
+      </c>
+      <c r="F70">
+        <v>716.71</v>
+      </c>
+      <c r="G70">
+        <v>539.61</v>
+      </c>
+      <c r="H70">
+        <v>900.86</v>
+      </c>
+      <c r="I70">
+        <v>0.846</v>
+      </c>
+      <c r="J70">
+        <v>0.726</v>
+      </c>
+      <c r="K70">
+        <v>0.968</v>
+      </c>
+      <c r="L70">
+        <v>0.88</v>
+      </c>
+      <c r="M70">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="N70">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2">
+        <v>43961</v>
+      </c>
+      <c r="C71">
+        <v>556.54</v>
+      </c>
+      <c r="D71">
+        <v>320.3</v>
+      </c>
+      <c r="E71">
+        <v>840.03</v>
+      </c>
+      <c r="F71">
+        <v>649.89</v>
+      </c>
+      <c r="G71">
+        <v>455.34</v>
+      </c>
+      <c r="H71">
+        <v>865.77</v>
+      </c>
+      <c r="I71">
+        <v>0.753</v>
+      </c>
+      <c r="J71">
+        <v>0.606</v>
+      </c>
+      <c r="K71">
+        <v>0.877</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glä</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glät</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N71"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +469,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>309.31</v>
+        <v>312</v>
       </c>
       <c r="D2">
         <v>296</v>
       </c>
       <c r="E2">
-        <v>325.5</v>
+        <v>330</v>
       </c>
       <c r="F2">
-        <v>226.33</v>
+        <v>229</v>
       </c>
       <c r="G2">
-        <v>213.63</v>
+        <v>214</v>
       </c>
       <c r="H2">
-        <v>241.13</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -495,22 +495,22 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>327.73</v>
+        <v>332</v>
       </c>
       <c r="D3">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E3">
-        <v>346.5</v>
+        <v>348</v>
       </c>
       <c r="F3">
-        <v>263.23</v>
+        <v>266</v>
       </c>
       <c r="G3">
-        <v>249.5</v>
+        <v>251</v>
       </c>
       <c r="H3">
-        <v>279.5</v>
+        <v>282</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -521,22 +521,22 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>451.82</v>
+        <v>458</v>
       </c>
       <c r="D4">
-        <v>431.5</v>
+        <v>440</v>
       </c>
       <c r="E4">
-        <v>471.5</v>
+        <v>478</v>
       </c>
       <c r="F4">
-        <v>328.48</v>
+        <v>333</v>
       </c>
       <c r="G4">
-        <v>312.63</v>
+        <v>317</v>
       </c>
       <c r="H4">
-        <v>346.25</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,22 +547,22 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>497.33</v>
+        <v>503</v>
       </c>
       <c r="D5">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="E5">
-        <v>520.5</v>
+        <v>528</v>
       </c>
       <c r="F5">
-        <v>396.55</v>
+        <v>401</v>
       </c>
       <c r="G5">
-        <v>378.38</v>
+        <v>383</v>
       </c>
       <c r="H5">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,40 +573,40 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>764.0700000000001</v>
+        <v>765</v>
       </c>
       <c r="D6">
-        <v>742.5</v>
+        <v>741</v>
       </c>
       <c r="E6">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F6">
-        <v>510.24</v>
+        <v>514</v>
       </c>
       <c r="G6">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H6">
-        <v>532.38</v>
+        <v>536</v>
       </c>
       <c r="I6">
-        <v>2.255</v>
+        <v>2.25</v>
       </c>
       <c r="J6">
-        <v>2.169</v>
+        <v>2.16</v>
       </c>
       <c r="K6">
-        <v>2.343</v>
+        <v>2.36</v>
       </c>
       <c r="L6">
-        <v>2.324</v>
+        <v>2.32</v>
       </c>
       <c r="M6">
-        <v>2.267</v>
+        <v>2.27</v>
       </c>
       <c r="N6">
-        <v>2.382</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,40 +617,40 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>988.03</v>
+        <v>984</v>
       </c>
       <c r="D7">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="E7">
-        <v>1021.5</v>
+        <v>1013</v>
       </c>
       <c r="F7">
-        <v>675.3099999999999</v>
+        <v>677</v>
       </c>
       <c r="G7">
-        <v>652.5</v>
+        <v>654</v>
       </c>
       <c r="H7">
-        <v>701.13</v>
+        <v>703</v>
       </c>
       <c r="I7">
-        <v>2.566</v>
+        <v>2.54</v>
       </c>
       <c r="J7">
-        <v>2.472</v>
+        <v>2.44</v>
       </c>
       <c r="K7">
-        <v>2.658</v>
+        <v>2.64</v>
       </c>
       <c r="L7">
-        <v>2.545</v>
+        <v>2.53</v>
       </c>
       <c r="M7">
-        <v>2.494</v>
+        <v>2.47</v>
       </c>
       <c r="N7">
-        <v>2.595</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -661,40 +661,40 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1333.49</v>
+        <v>1332</v>
       </c>
       <c r="D8">
         <v>1297</v>
       </c>
       <c r="E8">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="F8">
-        <v>895.73</v>
+        <v>896</v>
       </c>
       <c r="G8">
-        <v>868.88</v>
+        <v>869</v>
       </c>
       <c r="H8">
         <v>925</v>
       </c>
       <c r="I8">
-        <v>2.727</v>
+        <v>2.69</v>
       </c>
       <c r="J8">
-        <v>2.64</v>
+        <v>2.59</v>
       </c>
       <c r="K8">
-        <v>2.819</v>
+        <v>2.77</v>
       </c>
       <c r="L8">
-        <v>2.908</v>
+        <v>2.88</v>
       </c>
       <c r="M8">
-        <v>2.857</v>
+        <v>2.82</v>
       </c>
       <c r="N8">
-        <v>2.962</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1983.64</v>
+        <v>1985</v>
       </c>
       <c r="D9">
-        <v>1941</v>
+        <v>1945</v>
       </c>
       <c r="E9">
-        <v>2024.5</v>
+        <v>2029</v>
       </c>
       <c r="F9">
-        <v>1267.31</v>
+        <v>1266</v>
       </c>
       <c r="G9">
-        <v>1235.38</v>
+        <v>1234</v>
       </c>
       <c r="H9">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I9">
-        <v>3.196</v>
+        <v>3.16</v>
       </c>
       <c r="J9">
-        <v>3.109</v>
+        <v>3.06</v>
       </c>
       <c r="K9">
-        <v>3.285</v>
+        <v>3.24</v>
       </c>
       <c r="L9">
-        <v>3.1</v>
+        <v>3.08</v>
       </c>
       <c r="M9">
-        <v>3.047</v>
+        <v>3.03</v>
       </c>
       <c r="N9">
-        <v>3.152</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +749,40 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2555.84</v>
+        <v>2558</v>
       </c>
       <c r="D10">
-        <v>2512.5</v>
+        <v>2513</v>
       </c>
       <c r="E10">
-        <v>2597.5</v>
+        <v>2607</v>
       </c>
       <c r="F10">
-        <v>1715.25</v>
+        <v>1715</v>
       </c>
       <c r="G10">
-        <v>1677.88</v>
+        <v>1677</v>
       </c>
       <c r="H10">
-        <v>1752.63</v>
+        <v>1754</v>
       </c>
       <c r="I10">
-        <v>3.362</v>
+        <v>3.33</v>
       </c>
       <c r="J10">
-        <v>3.289</v>
+        <v>3.25</v>
       </c>
       <c r="K10">
-        <v>3.444</v>
+        <v>3.42</v>
       </c>
       <c r="L10">
-        <v>3.186</v>
+        <v>3.17</v>
       </c>
       <c r="M10">
-        <v>3.137</v>
+        <v>3.12</v>
       </c>
       <c r="N10">
-        <v>3.234</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,40 +793,40 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3228.65</v>
+        <v>3223</v>
       </c>
       <c r="D11">
-        <v>3174</v>
+        <v>3171</v>
       </c>
       <c r="E11">
-        <v>3287.5</v>
+        <v>3271</v>
       </c>
       <c r="F11">
-        <v>2275.41</v>
+        <v>2275</v>
       </c>
       <c r="G11">
-        <v>2231.13</v>
+        <v>2231</v>
       </c>
       <c r="H11">
-        <v>2319.13</v>
+        <v>2318</v>
       </c>
       <c r="I11">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="J11">
-        <v>3.296</v>
+        <v>3.28</v>
       </c>
       <c r="K11">
-        <v>3.436</v>
+        <v>3.43</v>
       </c>
       <c r="L11">
-        <v>3.092</v>
+        <v>3.08</v>
       </c>
       <c r="M11">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="N11">
-        <v>3.133</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,40 +837,40 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3593.14</v>
+        <v>3595</v>
       </c>
       <c r="D12">
         <v>3538</v>
       </c>
       <c r="E12">
-        <v>3647</v>
+        <v>3651</v>
       </c>
       <c r="F12">
-        <v>2840.32</v>
+        <v>2840</v>
       </c>
       <c r="G12">
-        <v>2791.38</v>
+        <v>2791</v>
       </c>
       <c r="H12">
-        <v>2889.13</v>
+        <v>2889</v>
       </c>
       <c r="I12">
-        <v>3.171</v>
+        <v>3.17</v>
       </c>
       <c r="J12">
-        <v>3.11</v>
+        <v>3.1</v>
       </c>
       <c r="K12">
-        <v>3.227</v>
+        <v>3.23</v>
       </c>
       <c r="L12">
-        <v>2.846</v>
+        <v>2.84</v>
       </c>
       <c r="M12">
-        <v>2.814</v>
+        <v>2.8</v>
       </c>
       <c r="N12">
-        <v>2.876</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -881,40 +881,40 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4376.29</v>
+        <v>4381</v>
       </c>
       <c r="D13">
-        <v>4315.5</v>
+        <v>4321</v>
       </c>
       <c r="E13">
-        <v>4438.5</v>
+        <v>4438</v>
       </c>
       <c r="F13">
-        <v>3438.48</v>
+        <v>3439</v>
       </c>
       <c r="G13">
         <v>3385</v>
       </c>
       <c r="H13">
-        <v>3492.63</v>
+        <v>3492</v>
       </c>
       <c r="I13">
-        <v>2.713</v>
+        <v>2.72</v>
       </c>
       <c r="J13">
-        <v>2.668</v>
+        <v>2.67</v>
       </c>
       <c r="K13">
-        <v>2.753</v>
+        <v>2.75</v>
       </c>
       <c r="L13">
-        <v>2.512</v>
+        <v>2.51</v>
       </c>
       <c r="M13">
         <v>2.49</v>
       </c>
       <c r="N13">
-        <v>2.536</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -925,40 +925,40 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4463.06</v>
+        <v>4477</v>
       </c>
       <c r="D14">
-        <v>4399.5</v>
+        <v>4413</v>
       </c>
       <c r="E14">
-        <v>4537.5</v>
+        <v>4536</v>
       </c>
       <c r="F14">
-        <v>3915.28</v>
+        <v>3919</v>
       </c>
       <c r="G14">
-        <v>3856.75</v>
+        <v>3860</v>
       </c>
       <c r="H14">
-        <v>3977.63</v>
+        <v>3974</v>
       </c>
       <c r="I14">
-        <v>2.283</v>
+        <v>2.29</v>
       </c>
       <c r="J14">
         <v>2.25</v>
       </c>
       <c r="K14">
-        <v>2.313</v>
+        <v>2.32</v>
       </c>
       <c r="L14">
-        <v>2.194</v>
+        <v>2.2</v>
       </c>
       <c r="M14">
-        <v>2.177</v>
+        <v>2.18</v>
       </c>
       <c r="N14">
-        <v>2.212</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,40 +969,40 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4697.77</v>
+        <v>4713</v>
       </c>
       <c r="D15">
-        <v>4634.5</v>
+        <v>4647</v>
       </c>
       <c r="E15">
-        <v>4770</v>
+        <v>4778</v>
       </c>
       <c r="F15">
-        <v>4282.56</v>
+        <v>4291</v>
       </c>
       <c r="G15">
-        <v>4221.88</v>
+        <v>4229</v>
       </c>
       <c r="H15">
-        <v>4348.25</v>
+        <v>4351</v>
       </c>
       <c r="I15">
-        <v>1.882</v>
+        <v>1.89</v>
       </c>
       <c r="J15">
-        <v>1.856</v>
+        <v>1.86</v>
       </c>
       <c r="K15">
-        <v>1.907</v>
+        <v>1.91</v>
       </c>
       <c r="L15">
-        <v>2.003</v>
+        <v>2.01</v>
       </c>
       <c r="M15">
         <v>1.99</v>
       </c>
       <c r="N15">
-        <v>2.019</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1013,40 +1013,40 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6028.33</v>
+        <v>6019</v>
       </c>
       <c r="D16">
-        <v>5970</v>
+        <v>5954</v>
       </c>
       <c r="E16">
-        <v>6099.5</v>
+        <v>6087</v>
       </c>
       <c r="F16">
-        <v>4891.36</v>
+        <v>4897</v>
       </c>
       <c r="G16">
-        <v>4829.88</v>
+        <v>4833</v>
       </c>
       <c r="H16">
-        <v>4961.38</v>
+        <v>4960</v>
       </c>
       <c r="I16">
-        <v>1.722</v>
+        <v>1.72</v>
       </c>
       <c r="J16">
-        <v>1.703</v>
+        <v>1.7</v>
       </c>
       <c r="K16">
-        <v>1.743</v>
+        <v>1.75</v>
       </c>
       <c r="L16">
-        <v>1.753</v>
+        <v>1.75</v>
       </c>
       <c r="M16">
-        <v>1.739</v>
+        <v>1.74</v>
       </c>
       <c r="N16">
-        <v>1.763</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1057,40 +1057,40 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5263.38</v>
+        <v>5261</v>
       </c>
       <c r="D17">
-        <v>5188</v>
+        <v>5195</v>
       </c>
       <c r="E17">
-        <v>5332</v>
+        <v>5338</v>
       </c>
       <c r="F17">
-        <v>5113.13</v>
+        <v>5117</v>
       </c>
       <c r="G17">
-        <v>5048</v>
+        <v>5052</v>
       </c>
       <c r="H17">
-        <v>5184.75</v>
+        <v>5185</v>
       </c>
       <c r="I17">
-        <v>1.487</v>
+        <v>1.49</v>
       </c>
       <c r="J17">
-        <v>1.471</v>
+        <v>1.47</v>
       </c>
       <c r="K17">
-        <v>1.504</v>
+        <v>1.5</v>
       </c>
       <c r="L17">
-        <v>1.567</v>
+        <v>1.57</v>
       </c>
       <c r="M17">
-        <v>1.558</v>
+        <v>1.56</v>
       </c>
       <c r="N17">
-        <v>1.576</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1101,40 +1101,40 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5329.33</v>
+        <v>5315</v>
       </c>
       <c r="D18">
-        <v>5273.5</v>
+        <v>5249</v>
       </c>
       <c r="E18">
-        <v>5385.5</v>
+        <v>5379</v>
       </c>
       <c r="F18">
-        <v>5329.7</v>
+        <v>5327</v>
       </c>
       <c r="G18">
-        <v>5266.5</v>
+        <v>5261</v>
       </c>
       <c r="H18">
-        <v>5396.75</v>
+        <v>5395</v>
       </c>
       <c r="I18">
-        <v>1.361</v>
+        <v>1.36</v>
       </c>
       <c r="J18">
-        <v>1.347</v>
+        <v>1.34</v>
       </c>
       <c r="K18">
-        <v>1.375</v>
+        <v>1.37</v>
       </c>
       <c r="L18">
-        <v>1.401</v>
+        <v>1.4</v>
       </c>
       <c r="M18">
-        <v>1.394</v>
+        <v>1.39</v>
       </c>
       <c r="N18">
-        <v>1.409</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1145,40 +1145,40 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4734.58</v>
+        <v>4727</v>
       </c>
       <c r="D19">
-        <v>4664.5</v>
+        <v>4671</v>
       </c>
       <c r="E19">
-        <v>4797.5</v>
+        <v>4791</v>
       </c>
       <c r="F19">
-        <v>5338.91</v>
+        <v>5331</v>
       </c>
       <c r="G19">
-        <v>5274</v>
+        <v>5267</v>
       </c>
       <c r="H19">
-        <v>5403.63</v>
+        <v>5399</v>
       </c>
       <c r="I19">
-        <v>1.247</v>
+        <v>1.24</v>
       </c>
       <c r="J19">
-        <v>1.235</v>
+        <v>1.23</v>
       </c>
       <c r="K19">
-        <v>1.259</v>
+        <v>1.26</v>
       </c>
       <c r="L19">
-        <v>1.238</v>
+        <v>1.24</v>
       </c>
       <c r="M19">
-        <v>1.231</v>
+        <v>1.23</v>
       </c>
       <c r="N19">
-        <v>1.245</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1189,40 +1189,40 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5302.19</v>
+        <v>5306</v>
       </c>
       <c r="D20">
-        <v>5236</v>
+        <v>5241</v>
       </c>
       <c r="E20">
-        <v>5368</v>
+        <v>5377</v>
       </c>
       <c r="F20">
-        <v>5157.37</v>
+        <v>5152</v>
       </c>
       <c r="G20">
-        <v>5090.5</v>
+        <v>5089</v>
       </c>
       <c r="H20">
-        <v>5220.75</v>
+        <v>5221</v>
       </c>
       <c r="I20">
-        <v>1.054</v>
+        <v>1.05</v>
       </c>
       <c r="J20">
-        <v>1.045</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
-        <v>1.065</v>
+        <v>1.06</v>
       </c>
       <c r="L20">
-        <v>1.131</v>
+        <v>1.13</v>
       </c>
       <c r="M20">
-        <v>1.126</v>
+        <v>1.12</v>
       </c>
       <c r="N20">
-        <v>1.137</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1233,40 +1233,40 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4450.65</v>
+        <v>4443</v>
       </c>
       <c r="D21">
-        <v>4384</v>
+        <v>4386</v>
       </c>
       <c r="E21">
-        <v>4506</v>
+        <v>4507</v>
       </c>
       <c r="F21">
-        <v>4954.19</v>
+        <v>4948</v>
       </c>
       <c r="G21">
-        <v>4889.5</v>
+        <v>4887</v>
       </c>
       <c r="H21">
-        <v>5014.25</v>
+        <v>5013</v>
       </c>
       <c r="I21">
-        <v>0.969</v>
+        <v>0.97</v>
       </c>
       <c r="J21">
         <v>0.96</v>
       </c>
       <c r="K21">
-        <v>0.978</v>
+        <v>0.98</v>
       </c>
       <c r="L21">
-        <v>1.036</v>
+        <v>1.03</v>
       </c>
       <c r="M21">
-        <v>1.031</v>
+        <v>1.03</v>
       </c>
       <c r="N21">
-        <v>1.042</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1277,40 +1277,40 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3871.32</v>
+        <v>3852</v>
       </c>
       <c r="D22">
-        <v>3805</v>
+        <v>3781</v>
       </c>
       <c r="E22">
-        <v>3943</v>
+        <v>3924</v>
       </c>
       <c r="F22">
-        <v>4589.69</v>
+        <v>4582</v>
       </c>
       <c r="G22">
-        <v>4522.38</v>
+        <v>4520</v>
       </c>
       <c r="H22">
-        <v>4653.63</v>
+        <v>4649</v>
       </c>
       <c r="I22">
-        <v>0.861</v>
+        <v>0.86</v>
       </c>
       <c r="J22">
-        <v>0.853</v>
+        <v>0.85</v>
       </c>
       <c r="K22">
         <v>0.87</v>
       </c>
       <c r="L22">
-        <v>0.978</v>
+        <v>0.98</v>
       </c>
       <c r="M22">
-        <v>0.973</v>
+        <v>0.97</v>
       </c>
       <c r="N22">
-        <v>0.984</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1321,40 +1321,40 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5174.94</v>
+        <v>5163</v>
       </c>
       <c r="D23">
-        <v>5102.5</v>
+        <v>5100</v>
       </c>
       <c r="E23">
-        <v>5246</v>
+        <v>5236</v>
       </c>
       <c r="F23">
-        <v>4699.78</v>
+        <v>4691</v>
       </c>
       <c r="G23">
-        <v>4631.88</v>
+        <v>4627</v>
       </c>
       <c r="H23">
-        <v>4765.75</v>
+        <v>4761</v>
       </c>
       <c r="I23">
         <v>0.88</v>
       </c>
       <c r="J23">
-        <v>0.872</v>
+        <v>0.87</v>
       </c>
       <c r="K23">
-        <v>0.888</v>
+        <v>0.89</v>
       </c>
       <c r="L23">
-        <v>0.922</v>
+        <v>0.92</v>
       </c>
       <c r="M23">
-        <v>0.917</v>
+        <v>0.92</v>
       </c>
       <c r="N23">
-        <v>0.926</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1365,40 +1365,40 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4156.4</v>
+        <v>4139</v>
       </c>
       <c r="D24">
-        <v>4088</v>
+        <v>4071</v>
       </c>
       <c r="E24">
-        <v>4212.5</v>
+        <v>4206</v>
       </c>
       <c r="F24">
-        <v>4413.33</v>
+        <v>4399</v>
       </c>
       <c r="G24">
-        <v>4344.88</v>
+        <v>4334</v>
       </c>
       <c r="H24">
-        <v>4476.88</v>
+        <v>4468</v>
       </c>
       <c r="I24">
-        <v>0.856</v>
+        <v>0.85</v>
       </c>
       <c r="J24">
-        <v>0.847</v>
+        <v>0.84</v>
       </c>
       <c r="K24">
-        <v>0.863</v>
+        <v>0.86</v>
       </c>
       <c r="L24">
-        <v>0.896</v>
+        <v>0.9</v>
       </c>
       <c r="M24">
-        <v>0.891</v>
+        <v>0.89</v>
       </c>
       <c r="N24">
-        <v>0.901</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1409,40 +1409,40 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4409.37</v>
+        <v>4414</v>
       </c>
       <c r="D25">
-        <v>4345</v>
+        <v>4357</v>
       </c>
       <c r="E25">
-        <v>4481.5</v>
+        <v>4483</v>
       </c>
       <c r="F25">
-        <v>4403</v>
+        <v>4392</v>
       </c>
       <c r="G25">
-        <v>4335.13</v>
+        <v>4327</v>
       </c>
       <c r="H25">
-        <v>4470.75</v>
+        <v>4462</v>
       </c>
       <c r="I25">
-        <v>0.889</v>
+        <v>0.89</v>
       </c>
       <c r="J25">
-        <v>0.879</v>
+        <v>0.88</v>
       </c>
       <c r="K25">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="L25">
-        <v>0.897</v>
+        <v>0.9</v>
       </c>
       <c r="M25">
-        <v>0.892</v>
+        <v>0.89</v>
       </c>
       <c r="N25">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1453,34 +1453,34 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4021.12</v>
+        <v>4014</v>
       </c>
       <c r="D26">
-        <v>3952.5</v>
+        <v>3949</v>
       </c>
       <c r="E26">
-        <v>4092</v>
+        <v>4083</v>
       </c>
       <c r="F26">
-        <v>4440.46</v>
+        <v>4433</v>
       </c>
       <c r="G26">
-        <v>4372</v>
+        <v>4369</v>
       </c>
       <c r="H26">
-        <v>4508</v>
+        <v>4502</v>
       </c>
       <c r="I26">
-        <v>0.968</v>
+        <v>0.97</v>
       </c>
       <c r="J26">
-        <v>0.957</v>
+        <v>0.96</v>
       </c>
       <c r="K26">
-        <v>0.979</v>
+        <v>0.98</v>
       </c>
       <c r="L26">
-        <v>0.885</v>
+        <v>0.88</v>
       </c>
       <c r="M26">
         <v>0.88</v>
@@ -1497,40 +1497,40 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4125.67</v>
+        <v>4122</v>
       </c>
       <c r="D27">
-        <v>4057.5</v>
+        <v>4055</v>
       </c>
       <c r="E27">
-        <v>4192</v>
+        <v>4189</v>
       </c>
       <c r="F27">
-        <v>4178.14</v>
+        <v>4172</v>
       </c>
       <c r="G27">
-        <v>4110.75</v>
+        <v>4108</v>
       </c>
       <c r="H27">
-        <v>4244.5</v>
+        <v>4240</v>
       </c>
       <c r="I27">
-        <v>0.889</v>
+        <v>0.89</v>
       </c>
       <c r="J27">
-        <v>0.879</v>
+        <v>0.88</v>
       </c>
       <c r="K27">
-        <v>0.898</v>
+        <v>0.9</v>
       </c>
       <c r="L27">
-        <v>0.899</v>
+        <v>0.9</v>
       </c>
       <c r="M27">
-        <v>0.894</v>
+        <v>0.89</v>
       </c>
       <c r="N27">
-        <v>0.904</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1541,40 +1541,40 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3913.1</v>
+        <v>3908</v>
       </c>
       <c r="D28">
-        <v>3846</v>
+        <v>3843</v>
       </c>
       <c r="E28">
-        <v>3987</v>
+        <v>3977</v>
       </c>
       <c r="F28">
-        <v>4117.32</v>
+        <v>4115</v>
       </c>
       <c r="G28">
-        <v>4050.25</v>
+        <v>4051</v>
       </c>
       <c r="H28">
-        <v>4188.13</v>
+        <v>4183</v>
       </c>
       <c r="I28">
-        <v>0.9330000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J28">
-        <v>0.922</v>
+        <v>0.92</v>
       </c>
       <c r="K28">
-        <v>0.9429999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L28">
-        <v>0.908</v>
+        <v>0.91</v>
       </c>
       <c r="M28">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
       <c r="N28">
-        <v>0.913</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1585,40 +1585,40 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3335.79</v>
+        <v>3320</v>
       </c>
       <c r="D29">
-        <v>3276.5</v>
+        <v>3250</v>
       </c>
       <c r="E29">
-        <v>3401.5</v>
+        <v>3386</v>
       </c>
       <c r="F29">
-        <v>3848.92</v>
+        <v>3841</v>
       </c>
       <c r="G29">
-        <v>3783.13</v>
+        <v>3774</v>
       </c>
       <c r="H29">
-        <v>3918.13</v>
+        <v>3909</v>
       </c>
       <c r="I29">
-        <v>0.874</v>
+        <v>0.87</v>
       </c>
       <c r="J29">
-        <v>0.863</v>
+        <v>0.87</v>
       </c>
       <c r="K29">
-        <v>0.886</v>
+        <v>0.88</v>
       </c>
       <c r="L29">
-        <v>0.903</v>
+        <v>0.9</v>
       </c>
       <c r="M29">
-        <v>0.897</v>
+        <v>0.9</v>
       </c>
       <c r="N29">
-        <v>0.909</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1629,40 +1629,40 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4381.42</v>
+        <v>4383</v>
       </c>
       <c r="D30">
-        <v>4307.5</v>
+        <v>4326</v>
       </c>
       <c r="E30">
-        <v>4446.5</v>
+        <v>4438</v>
       </c>
       <c r="F30">
-        <v>3939</v>
+        <v>3933</v>
       </c>
       <c r="G30">
-        <v>3871.88</v>
+        <v>3868</v>
       </c>
       <c r="H30">
-        <v>4006.75</v>
+        <v>3998</v>
       </c>
       <c r="I30">
-        <v>0.887</v>
+        <v>0.89</v>
       </c>
       <c r="J30">
-        <v>0.874</v>
+        <v>0.88</v>
       </c>
       <c r="K30">
-        <v>0.899</v>
+        <v>0.9</v>
       </c>
       <c r="L30">
         <v>0.92</v>
       </c>
       <c r="M30">
-        <v>0.913</v>
+        <v>0.91</v>
       </c>
       <c r="N30">
-        <v>0.926</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1673,40 +1673,40 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3596.81</v>
+        <v>3593</v>
       </c>
       <c r="D31">
-        <v>3527.5</v>
+        <v>3526</v>
       </c>
       <c r="E31">
-        <v>3666.5</v>
+        <v>3659</v>
       </c>
       <c r="F31">
-        <v>3806.78</v>
+        <v>3801</v>
       </c>
       <c r="G31">
-        <v>3739.38</v>
+        <v>3736</v>
       </c>
       <c r="H31">
-        <v>3875.38</v>
+        <v>3865</v>
       </c>
       <c r="I31">
-        <v>0.911</v>
+        <v>0.91</v>
       </c>
       <c r="J31">
-        <v>0.901</v>
+        <v>0.9</v>
       </c>
       <c r="K31">
-        <v>0.924</v>
+        <v>0.92</v>
       </c>
       <c r="L31">
-        <v>0.923</v>
+        <v>0.92</v>
       </c>
       <c r="M31">
-        <v>0.918</v>
+        <v>0.92</v>
       </c>
       <c r="N31">
-        <v>0.929</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1717,40 +1717,40 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4027.2</v>
+        <v>4026</v>
       </c>
       <c r="D32">
-        <v>3969.5</v>
+        <v>3962</v>
       </c>
       <c r="E32">
-        <v>4100</v>
+        <v>4086</v>
       </c>
       <c r="F32">
-        <v>3835.31</v>
+        <v>3830</v>
       </c>
       <c r="G32">
-        <v>3770.25</v>
+        <v>3766</v>
       </c>
       <c r="H32">
-        <v>3903.63</v>
+        <v>3892</v>
       </c>
       <c r="I32">
-        <v>0.9320000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="J32">
         <v>0.92</v>
       </c>
       <c r="K32">
-        <v>0.9409999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L32">
-        <v>0.9320000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="M32">
-        <v>0.926</v>
+        <v>0.93</v>
       </c>
       <c r="N32">
-        <v>0.9379999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1761,40 +1761,40 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3765.03</v>
+        <v>3761</v>
       </c>
       <c r="D33">
-        <v>3699.5</v>
+        <v>3697</v>
       </c>
       <c r="E33">
-        <v>3833.5</v>
+        <v>3830</v>
       </c>
       <c r="F33">
-        <v>3942.62</v>
+        <v>3940</v>
       </c>
       <c r="G33">
-        <v>3876</v>
+        <v>3878</v>
       </c>
       <c r="H33">
-        <v>4011.63</v>
+        <v>4003</v>
       </c>
       <c r="I33">
-        <v>1.024</v>
+        <v>1.03</v>
       </c>
       <c r="J33">
-        <v>1.013</v>
+        <v>1.01</v>
       </c>
       <c r="K33">
-        <v>1.036</v>
+        <v>1.04</v>
       </c>
       <c r="L33">
-        <v>0.945</v>
+        <v>0.95</v>
       </c>
       <c r="M33">
         <v>0.9399999999999999</v>
       </c>
       <c r="N33">
-        <v>0.951</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -1805,40 +1805,40 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3764.79</v>
+        <v>3762</v>
       </c>
       <c r="D34">
-        <v>3696.5</v>
+        <v>3703</v>
       </c>
       <c r="E34">
-        <v>3826.5</v>
+        <v>3833</v>
       </c>
       <c r="F34">
-        <v>3788.46</v>
+        <v>3785</v>
       </c>
       <c r="G34">
-        <v>3723.25</v>
+        <v>3722</v>
       </c>
       <c r="H34">
-        <v>3856.63</v>
+        <v>3852</v>
       </c>
       <c r="I34">
-        <v>0.962</v>
+        <v>0.96</v>
       </c>
       <c r="J34">
         <v>0.95</v>
       </c>
       <c r="K34">
-        <v>0.973</v>
+        <v>0.98</v>
       </c>
       <c r="L34">
-        <v>0.9340000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="M34">
-        <v>0.928</v>
+        <v>0.93</v>
       </c>
       <c r="N34">
-        <v>0.9389999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1849,37 +1849,37 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3067.64</v>
+        <v>3064</v>
       </c>
       <c r="D35">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="E35">
-        <v>3132.5</v>
+        <v>3122</v>
       </c>
       <c r="F35">
-        <v>3656.17</v>
+        <v>3653</v>
       </c>
       <c r="G35">
-        <v>3591.13</v>
+        <v>3589</v>
       </c>
       <c r="H35">
-        <v>3723.13</v>
+        <v>3718</v>
       </c>
       <c r="I35">
         <v>0.96</v>
       </c>
       <c r="J35">
-        <v>0.949</v>
+        <v>0.95</v>
       </c>
       <c r="K35">
-        <v>0.972</v>
+        <v>0.97</v>
       </c>
       <c r="L35">
-        <v>0.925</v>
+        <v>0.93</v>
       </c>
       <c r="M35">
-        <v>0.919</v>
+        <v>0.92</v>
       </c>
       <c r="N35">
         <v>0.93</v>
@@ -1893,40 +1893,40 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2730.74</v>
+        <v>2730</v>
       </c>
       <c r="D36">
-        <v>2675</v>
+        <v>2674</v>
       </c>
       <c r="E36">
-        <v>2791.5</v>
+        <v>2799</v>
       </c>
       <c r="F36">
-        <v>3332.05</v>
+        <v>3329</v>
       </c>
       <c r="G36">
-        <v>3267.5</v>
+        <v>3267</v>
       </c>
       <c r="H36">
         <v>3396</v>
       </c>
       <c r="I36">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="J36">
-        <v>0.859</v>
+        <v>0.86</v>
       </c>
       <c r="K36">
         <v>0.88</v>
       </c>
       <c r="L36">
-        <v>0.896</v>
+        <v>0.9</v>
       </c>
       <c r="M36">
         <v>0.89</v>
       </c>
       <c r="N36">
-        <v>0.902</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -1937,40 +1937,40 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3361.1</v>
+        <v>3352</v>
       </c>
       <c r="D37">
-        <v>3306.5</v>
+        <v>3295</v>
       </c>
       <c r="E37">
-        <v>3418.5</v>
+        <v>3411</v>
       </c>
       <c r="F37">
-        <v>3231.07</v>
+        <v>3227</v>
       </c>
       <c r="G37">
-        <v>3169.25</v>
+        <v>3167</v>
       </c>
       <c r="H37">
-        <v>3292.25</v>
+        <v>3291</v>
       </c>
       <c r="I37">
         <v>0.82</v>
       </c>
       <c r="J37">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K37">
-        <v>0.829</v>
+        <v>0.83</v>
       </c>
       <c r="L37">
-        <v>0.889</v>
+        <v>0.89</v>
       </c>
       <c r="M37">
-        <v>0.883</v>
+        <v>0.88</v>
       </c>
       <c r="N37">
-        <v>0.895</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1981,37 +1981,37 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3092.25</v>
+        <v>3096</v>
       </c>
       <c r="D38">
-        <v>3026</v>
+        <v>3040</v>
       </c>
       <c r="E38">
-        <v>3157.5</v>
+        <v>3162</v>
       </c>
       <c r="F38">
-        <v>3062.93</v>
+        <v>3060</v>
       </c>
       <c r="G38">
-        <v>3001.63</v>
+        <v>3001</v>
       </c>
       <c r="H38">
-        <v>3125</v>
+        <v>3123</v>
       </c>
       <c r="I38">
-        <v>0.8090000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J38">
         <v>0.8</v>
       </c>
       <c r="K38">
-        <v>0.8179999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="L38">
-        <v>0.874</v>
+        <v>0.87</v>
       </c>
       <c r="M38">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="N38">
         <v>0.88</v>
@@ -2025,37 +2025,37 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2896.02</v>
+        <v>2898</v>
       </c>
       <c r="D39">
-        <v>2839.5</v>
+        <v>2834</v>
       </c>
       <c r="E39">
-        <v>2973.5</v>
+        <v>2963</v>
       </c>
       <c r="F39">
-        <v>3020.03</v>
+        <v>3019</v>
       </c>
       <c r="G39">
-        <v>2961.75</v>
+        <v>2960</v>
       </c>
       <c r="H39">
-        <v>3085.25</v>
+        <v>3084</v>
       </c>
       <c r="I39">
-        <v>0.826</v>
+        <v>0.83</v>
       </c>
       <c r="J39">
-        <v>0.8149999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K39">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="L39">
-        <v>0.853</v>
+        <v>0.85</v>
       </c>
       <c r="M39">
-        <v>0.847</v>
+        <v>0.85</v>
       </c>
       <c r="N39">
         <v>0.86</v>
@@ -2069,40 +2069,40 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2705.62</v>
+        <v>2716</v>
       </c>
       <c r="D40">
-        <v>2653</v>
+        <v>2664</v>
       </c>
       <c r="E40">
-        <v>2768.5</v>
+        <v>2766</v>
       </c>
       <c r="F40">
-        <v>3013.75</v>
+        <v>3015</v>
       </c>
       <c r="G40">
-        <v>2956.25</v>
+        <v>2958</v>
       </c>
       <c r="H40">
-        <v>3079.5</v>
+        <v>3075</v>
       </c>
       <c r="I40">
-        <v>0.904</v>
+        <v>0.91</v>
       </c>
       <c r="J40">
-        <v>0.891</v>
+        <v>0.89</v>
       </c>
       <c r="K40">
-        <v>0.918</v>
+        <v>0.92</v>
       </c>
       <c r="L40">
         <v>0.83</v>
       </c>
       <c r="M40">
-        <v>0.824</v>
+        <v>0.83</v>
       </c>
       <c r="N40">
-        <v>0.836</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2113,37 +2113,37 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2325.23</v>
+        <v>2333</v>
       </c>
       <c r="D41">
-        <v>2263.5</v>
+        <v>2279</v>
       </c>
       <c r="E41">
-        <v>2397.5</v>
+        <v>2394</v>
       </c>
       <c r="F41">
-        <v>2754.78</v>
+        <v>2761</v>
       </c>
       <c r="G41">
-        <v>2695.5</v>
+        <v>2704</v>
       </c>
       <c r="H41">
-        <v>2824.25</v>
+        <v>2821</v>
       </c>
       <c r="I41">
-        <v>0.853</v>
+        <v>0.86</v>
       </c>
       <c r="J41">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
       <c r="K41">
-        <v>0.864</v>
+        <v>0.87</v>
       </c>
       <c r="L41">
-        <v>0.804</v>
+        <v>0.8</v>
       </c>
       <c r="M41">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="N41">
         <v>0.8100000000000001</v>
@@ -2157,40 +2157,40 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2023.35</v>
+        <v>2018</v>
       </c>
       <c r="D42">
-        <v>1970.5</v>
+        <v>1973</v>
       </c>
       <c r="E42">
-        <v>2081</v>
+        <v>2062</v>
       </c>
       <c r="F42">
-        <v>2487.55</v>
+        <v>2491</v>
       </c>
       <c r="G42">
-        <v>2431.63</v>
+        <v>2437</v>
       </c>
       <c r="H42">
-        <v>2555.13</v>
+        <v>2546</v>
       </c>
       <c r="I42">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J42">
-        <v>0.802</v>
+        <v>0.8</v>
       </c>
       <c r="K42">
-        <v>0.823</v>
+        <v>0.83</v>
       </c>
       <c r="L42">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M42">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N42">
-        <v>0.8169999999999999</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2201,40 +2201,40 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1998.39</v>
+        <v>1993</v>
       </c>
       <c r="D43">
-        <v>1946.5</v>
+        <v>1939</v>
       </c>
       <c r="E43">
-        <v>2048</v>
+        <v>2045</v>
       </c>
       <c r="F43">
-        <v>2263.15</v>
+        <v>2265</v>
       </c>
       <c r="G43">
-        <v>2208.38</v>
+        <v>2213</v>
       </c>
       <c r="H43">
-        <v>2323.75</v>
+        <v>2317</v>
       </c>
       <c r="I43">
-        <v>0.749</v>
+        <v>0.75</v>
       </c>
       <c r="J43">
-        <v>0.736</v>
+        <v>0.74</v>
       </c>
       <c r="K43">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="L43">
-        <v>0.785</v>
+        <v>0.79</v>
       </c>
       <c r="M43">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="N43">
-        <v>0.791</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2245,40 +2245,40 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1926.59</v>
+        <v>1920</v>
       </c>
       <c r="D44">
-        <v>1875.5</v>
+        <v>1866</v>
       </c>
       <c r="E44">
-        <v>1975.5</v>
+        <v>1970</v>
       </c>
       <c r="F44">
-        <v>2068.39</v>
+        <v>2066</v>
       </c>
       <c r="G44">
         <v>2014</v>
       </c>
       <c r="H44">
-        <v>2125.5</v>
+        <v>2118</v>
       </c>
       <c r="I44">
-        <v>0.6860000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J44">
-        <v>0.674</v>
+        <v>0.68</v>
       </c>
       <c r="K44">
-        <v>0.698</v>
+        <v>0.7</v>
       </c>
       <c r="L44">
-        <v>0.786</v>
+        <v>0.79</v>
       </c>
       <c r="M44">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="N44">
-        <v>0.793</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2289,40 +2289,40 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1993.84</v>
+        <v>1987</v>
       </c>
       <c r="D45">
-        <v>1938.57</v>
+        <v>1936</v>
       </c>
       <c r="E45">
-        <v>2051.37</v>
+        <v>2042</v>
       </c>
       <c r="F45">
-        <v>1985.54</v>
+        <v>1979</v>
       </c>
       <c r="G45">
-        <v>1932.77</v>
+        <v>1928</v>
       </c>
       <c r="H45">
-        <v>2038.97</v>
+        <v>2030</v>
       </c>
       <c r="I45">
-        <v>0.721</v>
+        <v>0.72</v>
       </c>
       <c r="J45">
-        <v>0.708</v>
+        <v>0.71</v>
       </c>
       <c r="K45">
-        <v>0.733</v>
+        <v>0.73</v>
       </c>
       <c r="L45">
         <v>0.78</v>
       </c>
       <c r="M45">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="N45">
-        <v>0.787</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2333,40 +2333,40 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1945.41</v>
+        <v>1943</v>
       </c>
       <c r="D46">
-        <v>1869.89</v>
+        <v>1893</v>
       </c>
       <c r="E46">
-        <v>2011.87</v>
+        <v>1989</v>
       </c>
       <c r="F46">
-        <v>1966.06</v>
+        <v>1961</v>
       </c>
       <c r="G46">
-        <v>1907.62</v>
+        <v>1908</v>
       </c>
       <c r="H46">
-        <v>2021.69</v>
+        <v>2011</v>
       </c>
       <c r="I46">
         <v>0.79</v>
       </c>
       <c r="J46">
-        <v>0.777</v>
+        <v>0.78</v>
       </c>
       <c r="K46">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="L46">
-        <v>0.761</v>
+        <v>0.76</v>
       </c>
       <c r="M46">
-        <v>0.752</v>
+        <v>0.75</v>
       </c>
       <c r="N46">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2377,40 +2377,40 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1786.78</v>
+        <v>1782</v>
       </c>
       <c r="D47">
-        <v>1732.19</v>
+        <v>1721</v>
       </c>
       <c r="E47">
-        <v>1848.03</v>
+        <v>1839</v>
       </c>
       <c r="F47">
-        <v>1913.16</v>
+        <v>1908</v>
       </c>
       <c r="G47">
-        <v>1854.04</v>
+        <v>1854</v>
       </c>
       <c r="H47">
-        <v>1971.69</v>
+        <v>1960</v>
       </c>
       <c r="I47">
-        <v>0.845</v>
+        <v>0.84</v>
       </c>
       <c r="J47">
-        <v>0.829</v>
+        <v>0.83</v>
       </c>
       <c r="K47">
-        <v>0.862</v>
+        <v>0.86</v>
       </c>
       <c r="L47">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="M47">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="N47">
-        <v>0.796</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2421,40 +2421,40 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1687.64</v>
+        <v>1684</v>
       </c>
       <c r="D48">
-        <v>1635.36</v>
+        <v>1627</v>
       </c>
       <c r="E48">
-        <v>1744.48</v>
+        <v>1735</v>
       </c>
       <c r="F48">
-        <v>1853.42</v>
+        <v>1849</v>
       </c>
       <c r="G48">
         <v>1794</v>
       </c>
       <c r="H48">
-        <v>1913.94</v>
+        <v>1901</v>
       </c>
       <c r="I48">
-        <v>0.896</v>
+        <v>0.9</v>
       </c>
       <c r="J48">
-        <v>0.878</v>
+        <v>0.88</v>
       </c>
       <c r="K48">
-        <v>0.914</v>
+        <v>0.92</v>
       </c>
       <c r="L48">
-        <v>0.8070000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M48">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="N48">
-        <v>0.8169999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2465,40 +2465,40 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1464.58</v>
+        <v>1461</v>
       </c>
       <c r="D49">
-        <v>1415.46</v>
+        <v>1406</v>
       </c>
       <c r="E49">
-        <v>1513.12</v>
+        <v>1514</v>
       </c>
       <c r="F49">
-        <v>1721.1</v>
+        <v>1718</v>
       </c>
       <c r="G49">
-        <v>1663.23</v>
+        <v>1661</v>
       </c>
       <c r="H49">
-        <v>1779.38</v>
+        <v>1769</v>
       </c>
       <c r="I49">
-        <v>0.867</v>
+        <v>0.87</v>
       </c>
       <c r="J49">
-        <v>0.848</v>
+        <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.886</v>
+        <v>0.89</v>
       </c>
       <c r="L49">
-        <v>0.8129999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M49">
-        <v>0.805</v>
+        <v>0.8</v>
       </c>
       <c r="N49">
-        <v>0.822</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2509,37 +2509,37 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1323.17</v>
+        <v>1324</v>
       </c>
       <c r="D50">
-        <v>1261.84</v>
+        <v>1275</v>
       </c>
       <c r="E50">
-        <v>1386.33</v>
+        <v>1372</v>
       </c>
       <c r="F50">
-        <v>1565.54</v>
+        <v>1563</v>
       </c>
       <c r="G50">
-        <v>1511.21</v>
+        <v>1507</v>
       </c>
       <c r="H50">
-        <v>1622.99</v>
+        <v>1615</v>
       </c>
       <c r="I50">
-        <v>0.796</v>
+        <v>0.8</v>
       </c>
       <c r="J50">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="K50">
-        <v>0.8129999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="L50">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
       <c r="M50">
-        <v>0.831</v>
+        <v>0.83</v>
       </c>
       <c r="N50">
         <v>0.85</v>
@@ -2553,40 +2553,40 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1568.69</v>
+        <v>1569</v>
       </c>
       <c r="D51">
-        <v>1516.85</v>
+        <v>1525</v>
       </c>
       <c r="E51">
-        <v>1623.03</v>
+        <v>1611</v>
       </c>
       <c r="F51">
-        <v>1511.02</v>
+        <v>1509</v>
       </c>
       <c r="G51">
-        <v>1457.38</v>
+        <v>1458</v>
       </c>
       <c r="H51">
-        <v>1566.74</v>
+        <v>1558</v>
       </c>
       <c r="I51">
         <v>0.79</v>
       </c>
       <c r="J51">
-        <v>0.771</v>
+        <v>0.77</v>
       </c>
       <c r="K51">
-        <v>0.806</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L51">
-        <v>0.835</v>
+        <v>0.84</v>
       </c>
       <c r="M51">
-        <v>0.826</v>
+        <v>0.83</v>
       </c>
       <c r="N51">
-        <v>0.845</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2597,40 +2597,40 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1376.18</v>
+        <v>1375</v>
       </c>
       <c r="D52">
-        <v>1319.31</v>
+        <v>1323</v>
       </c>
       <c r="E52">
-        <v>1424.74</v>
+        <v>1429</v>
       </c>
       <c r="F52">
-        <v>1433.15</v>
+        <v>1432</v>
       </c>
       <c r="G52">
-        <v>1378.37</v>
+        <v>1382</v>
       </c>
       <c r="H52">
-        <v>1486.8</v>
+        <v>1482</v>
       </c>
       <c r="I52">
-        <v>0.773</v>
+        <v>0.77</v>
       </c>
       <c r="J52">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="K52">
-        <v>0.794</v>
+        <v>0.79</v>
       </c>
       <c r="L52">
-        <v>0.822</v>
+        <v>0.82</v>
       </c>
       <c r="M52">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N52">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2641,40 +2641,40 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1321.05</v>
+        <v>1312</v>
       </c>
       <c r="D53">
-        <v>1267.03</v>
+        <v>1263</v>
       </c>
       <c r="E53">
-        <v>1382.27</v>
+        <v>1363</v>
       </c>
       <c r="F53">
-        <v>1397.27</v>
+        <v>1395</v>
       </c>
       <c r="G53">
-        <v>1341.26</v>
+        <v>1346</v>
       </c>
       <c r="H53">
-        <v>1454.09</v>
+        <v>1444</v>
       </c>
       <c r="I53">
-        <v>0.8120000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J53">
         <v>0.79</v>
       </c>
       <c r="K53">
-        <v>0.836</v>
+        <v>0.83</v>
       </c>
       <c r="L53">
-        <v>0.829</v>
+        <v>0.83</v>
       </c>
       <c r="M53">
-        <v>0.8159999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="N53">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2685,40 +2685,40 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1317.12</v>
+        <v>1307</v>
       </c>
       <c r="D54">
-        <v>1264.92</v>
+        <v>1256</v>
       </c>
       <c r="E54">
-        <v>1373.33</v>
+        <v>1355</v>
       </c>
       <c r="F54">
-        <v>1395.76</v>
+        <v>1391</v>
       </c>
       <c r="G54">
-        <v>1342.03</v>
+        <v>1342</v>
       </c>
       <c r="H54">
-        <v>1450.84</v>
+        <v>1439</v>
       </c>
       <c r="I54">
-        <v>0.892</v>
+        <v>0.89</v>
       </c>
       <c r="J54">
         <v>0.87</v>
       </c>
       <c r="K54">
-        <v>0.914</v>
+        <v>0.91</v>
       </c>
       <c r="L54">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M54">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="N54">
-        <v>0.825</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2729,37 +2729,37 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1177.38</v>
+        <v>1166</v>
       </c>
       <c r="D55">
-        <v>1129.2</v>
+        <v>1120</v>
       </c>
       <c r="E55">
-        <v>1237.39</v>
+        <v>1216</v>
       </c>
       <c r="F55">
-        <v>1297.93</v>
+        <v>1290</v>
       </c>
       <c r="G55">
-        <v>1245.11</v>
+        <v>1240</v>
       </c>
       <c r="H55">
-        <v>1354.43</v>
+        <v>1341</v>
       </c>
       <c r="I55">
-        <v>0.859</v>
+        <v>0.85</v>
       </c>
       <c r="J55">
-        <v>0.838</v>
+        <v>0.83</v>
       </c>
       <c r="K55">
-        <v>0.883</v>
+        <v>0.88</v>
       </c>
       <c r="L55">
-        <v>0.8169999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="M55">
-        <v>0.803</v>
+        <v>0.8</v>
       </c>
       <c r="N55">
         <v>0.83</v>
@@ -2773,40 +2773,40 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1032.01</v>
+        <v>1029</v>
       </c>
       <c r="D56">
-        <v>980.05</v>
+        <v>972</v>
       </c>
       <c r="E56">
-        <v>1083.79</v>
+        <v>1096</v>
       </c>
       <c r="F56">
-        <v>1211.89</v>
+        <v>1204</v>
       </c>
       <c r="G56">
-        <v>1160.3</v>
+        <v>1153</v>
       </c>
       <c r="H56">
-        <v>1269.2</v>
+        <v>1257</v>
       </c>
       <c r="I56">
-        <v>0.846</v>
+        <v>0.84</v>
       </c>
       <c r="J56">
         <v>0.82</v>
       </c>
       <c r="K56">
-        <v>0.868</v>
+        <v>0.86</v>
       </c>
       <c r="L56">
         <v>0.83</v>
       </c>
       <c r="M56">
-        <v>0.8169999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N56">
-        <v>0.843</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2817,40 +2817,40 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>945.97</v>
+        <v>942</v>
       </c>
       <c r="D57">
-        <v>896.84</v>
+        <v>896</v>
       </c>
       <c r="E57">
-        <v>1003.52</v>
+        <v>989</v>
       </c>
       <c r="F57">
-        <v>1118.12</v>
+        <v>1111</v>
       </c>
       <c r="G57">
-        <v>1067.75</v>
+        <v>1061</v>
       </c>
       <c r="H57">
-        <v>1174.51</v>
+        <v>1164</v>
       </c>
       <c r="I57">
         <v>0.8</v>
       </c>
       <c r="J57">
-        <v>0.777</v>
+        <v>0.77</v>
       </c>
       <c r="K57">
-        <v>0.826</v>
+        <v>0.82</v>
       </c>
       <c r="L57">
-        <v>0.825</v>
+        <v>0.82</v>
       </c>
       <c r="M57">
-        <v>0.8110000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N57">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2861,40 +2861,40 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1125.85</v>
+        <v>1125</v>
       </c>
       <c r="D58">
-        <v>1064.94</v>
+        <v>1062</v>
       </c>
       <c r="E58">
-        <v>1188.23</v>
+        <v>1186</v>
       </c>
       <c r="F58">
-        <v>1070.3</v>
+        <v>1066</v>
       </c>
       <c r="G58">
-        <v>1017.76</v>
+        <v>1012</v>
       </c>
       <c r="H58">
-        <v>1128.23</v>
+        <v>1122</v>
       </c>
       <c r="I58">
-        <v>0.767</v>
+        <v>0.77</v>
       </c>
       <c r="J58">
-        <v>0.744</v>
+        <v>0.74</v>
       </c>
       <c r="K58">
-        <v>0.794</v>
+        <v>0.79</v>
       </c>
       <c r="L58">
-        <v>0.823</v>
+        <v>0.82</v>
       </c>
       <c r="M58">
         <v>0.8100000000000001</v>
       </c>
       <c r="N58">
-        <v>0.836</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2905,40 +2905,40 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>939.25</v>
+        <v>932</v>
       </c>
       <c r="D59">
-        <v>889.25</v>
+        <v>881</v>
       </c>
       <c r="E59">
-        <v>993.33</v>
+        <v>988</v>
       </c>
       <c r="F59">
-        <v>1010.77</v>
+        <v>1007</v>
       </c>
       <c r="G59">
-        <v>957.77</v>
+        <v>953</v>
       </c>
       <c r="H59">
-        <v>1067.21</v>
+        <v>1065</v>
       </c>
       <c r="I59">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="J59">
-        <v>0.757</v>
+        <v>0.76</v>
       </c>
       <c r="K59">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="L59">
-        <v>0.8159999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M59">
-        <v>0.799</v>
+        <v>0.8</v>
       </c>
       <c r="N59">
-        <v>0.832</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -2949,40 +2949,40 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>896.42</v>
+        <v>890</v>
       </c>
       <c r="D60">
-        <v>822.84</v>
+        <v>841</v>
       </c>
       <c r="E60">
-        <v>968.23</v>
+        <v>932</v>
       </c>
       <c r="F60">
-        <v>976.87</v>
+        <v>972</v>
       </c>
       <c r="G60">
-        <v>918.47</v>
+        <v>920</v>
       </c>
       <c r="H60">
-        <v>1038.32</v>
+        <v>1024</v>
       </c>
       <c r="I60">
-        <v>0.806</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J60">
-        <v>0.775</v>
+        <v>0.78</v>
       </c>
       <c r="K60">
-        <v>0.837</v>
+        <v>0.83</v>
       </c>
       <c r="L60">
-        <v>0.8070000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M60">
-        <v>0.789</v>
+        <v>0.79</v>
       </c>
       <c r="N60">
-        <v>0.824</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -2993,40 +2993,40 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>938.9299999999999</v>
+        <v>933</v>
       </c>
       <c r="D61">
-        <v>871.3200000000001</v>
+        <v>881</v>
       </c>
       <c r="E61">
-        <v>1002.55</v>
+        <v>987</v>
       </c>
       <c r="F61">
-        <v>975.11</v>
+        <v>970</v>
       </c>
       <c r="G61">
-        <v>912.09</v>
+        <v>916</v>
       </c>
       <c r="H61">
-        <v>1038.08</v>
+        <v>1023</v>
       </c>
       <c r="I61">
-        <v>0.872</v>
+        <v>0.87</v>
       </c>
       <c r="J61">
-        <v>0.834</v>
+        <v>0.84</v>
       </c>
       <c r="K61">
-        <v>0.902</v>
+        <v>0.91</v>
       </c>
       <c r="L61">
-        <v>0.805</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M61">
-        <v>0.788</v>
+        <v>0.79</v>
       </c>
       <c r="N61">
-        <v>0.824</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3037,40 +3037,40 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>797.51</v>
+        <v>799</v>
       </c>
       <c r="D62">
-        <v>721.4299999999999</v>
+        <v>741</v>
       </c>
       <c r="E62">
-        <v>859.34</v>
+        <v>867</v>
       </c>
       <c r="F62">
-        <v>893.03</v>
+        <v>888</v>
       </c>
       <c r="G62">
-        <v>826.21</v>
+        <v>836</v>
       </c>
       <c r="H62">
-        <v>955.86</v>
+        <v>943</v>
       </c>
       <c r="I62">
-        <v>0.835</v>
+        <v>0.83</v>
       </c>
       <c r="J62">
-        <v>0.801</v>
+        <v>0.8</v>
       </c>
       <c r="K62">
-        <v>0.869</v>
+        <v>0.87</v>
       </c>
       <c r="L62">
-        <v>0.8149999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M62">
-        <v>0.792</v>
+        <v>0.8</v>
       </c>
       <c r="N62">
-        <v>0.835</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3081,40 +3081,40 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>759.28</v>
+        <v>744</v>
       </c>
       <c r="D63">
-        <v>671.03</v>
+        <v>688</v>
       </c>
       <c r="E63">
-        <v>847.79</v>
+        <v>797</v>
       </c>
       <c r="F63">
-        <v>848.04</v>
+        <v>841</v>
       </c>
       <c r="G63">
-        <v>771.66</v>
+        <v>788</v>
       </c>
       <c r="H63">
-        <v>919.47</v>
+        <v>896</v>
       </c>
       <c r="I63">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="J63">
-        <v>0.798</v>
+        <v>0.8</v>
       </c>
       <c r="K63">
-        <v>0.882</v>
+        <v>0.87</v>
       </c>
       <c r="L63">
-        <v>0.844</v>
+        <v>0.84</v>
       </c>
       <c r="M63">
-        <v>0.819</v>
+        <v>0.82</v>
       </c>
       <c r="N63">
-        <v>0.871</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3125,40 +3125,40 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>818.6</v>
+        <v>787</v>
       </c>
       <c r="D64">
-        <v>720.29</v>
+        <v>725</v>
       </c>
       <c r="E64">
-        <v>926.12</v>
+        <v>848</v>
       </c>
       <c r="F64">
-        <v>828.58</v>
+        <v>816</v>
       </c>
       <c r="G64">
-        <v>746.02</v>
+        <v>759</v>
       </c>
       <c r="H64">
-        <v>908.95</v>
+        <v>875</v>
       </c>
       <c r="I64">
-        <v>0.848</v>
+        <v>0.84</v>
       </c>
       <c r="J64">
-        <v>0.803</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K64">
-        <v>0.899</v>
+        <v>0.88</v>
       </c>
       <c r="L64">
-        <v>0.862</v>
+        <v>0.86</v>
       </c>
       <c r="M64">
-        <v>0.831</v>
+        <v>0.84</v>
       </c>
       <c r="N64">
-        <v>0.889</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3169,40 +3169,40 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>931.3200000000001</v>
+        <v>920</v>
       </c>
       <c r="D65">
-        <v>785.36</v>
+        <v>833</v>
       </c>
       <c r="E65">
-        <v>1058</v>
+        <v>995</v>
       </c>
       <c r="F65">
-        <v>826.6799999999999</v>
+        <v>813</v>
       </c>
       <c r="G65">
-        <v>724.53</v>
+        <v>747</v>
       </c>
       <c r="H65">
-        <v>922.8099999999999</v>
+        <v>877</v>
       </c>
       <c r="I65">
-        <v>0.848</v>
+        <v>0.84</v>
       </c>
       <c r="J65">
-        <v>0.786</v>
+        <v>0.8</v>
       </c>
       <c r="K65">
-        <v>0.911</v>
+        <v>0.88</v>
       </c>
       <c r="L65">
-        <v>0.903</v>
+        <v>0.89</v>
       </c>
       <c r="M65">
-        <v>0.868</v>
+        <v>0.86</v>
       </c>
       <c r="N65">
-        <v>0.9379999999999999</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3213,40 +3213,40 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>883.87</v>
+        <v>841</v>
       </c>
       <c r="D66">
-        <v>765.42</v>
+        <v>755</v>
       </c>
       <c r="E66">
-        <v>1008.37</v>
+        <v>933</v>
       </c>
       <c r="F66">
-        <v>848.27</v>
+        <v>823</v>
       </c>
       <c r="G66">
-        <v>735.52</v>
+        <v>750</v>
       </c>
       <c r="H66">
-        <v>960.0700000000001</v>
+        <v>893</v>
       </c>
       <c r="I66">
+        <v>0.93</v>
+      </c>
+      <c r="J66">
+        <v>0.87</v>
+      </c>
+      <c r="K66">
+        <v>0.97</v>
+      </c>
+      <c r="L66">
+        <v>0.92</v>
+      </c>
+      <c r="M66">
+        <v>0.88</v>
+      </c>
+      <c r="N66">
         <v>0.95</v>
-      </c>
-      <c r="J66">
-        <v>0.878</v>
-      </c>
-      <c r="K66">
-        <v>1.021</v>
-      </c>
-      <c r="L66">
-        <v>0.93</v>
-      </c>
-      <c r="M66">
-        <v>0.884</v>
-      </c>
-      <c r="N66">
-        <v>0.973</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3257,40 +3257,40 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>823.8099999999999</v>
+        <v>800</v>
       </c>
       <c r="D67">
-        <v>657.38</v>
+        <v>687</v>
       </c>
       <c r="E67">
-        <v>980.38</v>
+        <v>914</v>
       </c>
       <c r="F67">
-        <v>864.4</v>
+        <v>837</v>
       </c>
       <c r="G67">
-        <v>732.11</v>
+        <v>750</v>
       </c>
       <c r="H67">
-        <v>993.22</v>
+        <v>923</v>
       </c>
       <c r="I67">
-        <v>1.02</v>
+        <v>0.99</v>
       </c>
       <c r="J67">
-        <v>0.9389999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="K67">
-        <v>1.114</v>
+        <v>1.06</v>
       </c>
       <c r="L67">
-        <v>0.919</v>
+        <v>0.91</v>
       </c>
       <c r="M67">
         <v>0.87</v>
       </c>
       <c r="N67">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3301,40 +3301,40 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>751.9</v>
+        <v>735</v>
       </c>
       <c r="D68">
-        <v>584.08</v>
+        <v>633</v>
       </c>
       <c r="E68">
-        <v>925.34</v>
+        <v>855</v>
       </c>
       <c r="F68">
-        <v>847.73</v>
+        <v>824</v>
       </c>
       <c r="G68">
-        <v>698.0599999999999</v>
+        <v>727</v>
       </c>
       <c r="H68">
-        <v>993.02</v>
+        <v>924</v>
       </c>
       <c r="I68">
-        <v>1.024</v>
+        <v>1.01</v>
       </c>
       <c r="J68">
-        <v>0.927</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K68">
-        <v>1.125</v>
+        <v>1.09</v>
       </c>
       <c r="L68">
-        <v>0.929</v>
+        <v>0.92</v>
       </c>
       <c r="M68">
-        <v>0.874</v>
+        <v>0.88</v>
       </c>
       <c r="N68">
-        <v>0.987</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3345,40 +3345,40 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>679.77</v>
+        <v>677</v>
       </c>
       <c r="D69">
-        <v>507.17</v>
+        <v>537</v>
       </c>
       <c r="E69">
-        <v>881.52</v>
+        <v>800</v>
       </c>
       <c r="F69">
-        <v>784.84</v>
+        <v>763</v>
       </c>
       <c r="G69">
-        <v>628.51</v>
+        <v>653</v>
       </c>
       <c r="H69">
-        <v>948.9</v>
+        <v>875</v>
       </c>
       <c r="I69">
-        <v>0.951</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J69">
-        <v>0.832</v>
+        <v>0.87</v>
       </c>
       <c r="K69">
-        <v>1.088</v>
+        <v>1.05</v>
       </c>
       <c r="L69">
-        <v>0.913</v>
+        <v>0.91</v>
       </c>
       <c r="M69">
-        <v>0.852</v>
+        <v>0.87</v>
       </c>
       <c r="N69">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3389,40 +3389,40 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>611.34</v>
+        <v>625</v>
       </c>
       <c r="D70">
-        <v>409.82</v>
+        <v>514</v>
       </c>
       <c r="E70">
-        <v>816.21</v>
+        <v>793</v>
       </c>
       <c r="F70">
-        <v>716.71</v>
+        <v>709</v>
       </c>
       <c r="G70">
-        <v>539.61</v>
+        <v>593</v>
       </c>
       <c r="H70">
-        <v>900.86</v>
+        <v>841</v>
       </c>
       <c r="I70">
-        <v>0.846</v>
+        <v>0.86</v>
       </c>
       <c r="J70">
-        <v>0.726</v>
+        <v>0.79</v>
       </c>
       <c r="K70">
-        <v>0.968</v>
+        <v>0.95</v>
       </c>
       <c r="L70">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M70">
-        <v>0.8120000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="N70">
-        <v>0.951</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3433,31 +3433,119 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>556.54</v>
+        <v>563</v>
       </c>
       <c r="D71">
-        <v>320.3</v>
+        <v>421</v>
       </c>
       <c r="E71">
-        <v>840.03</v>
+        <v>702</v>
       </c>
       <c r="F71">
-        <v>649.89</v>
+        <v>650</v>
       </c>
       <c r="G71">
-        <v>455.34</v>
+        <v>526</v>
       </c>
       <c r="H71">
-        <v>865.77</v>
+        <v>788</v>
       </c>
       <c r="I71">
-        <v>0.753</v>
+        <v>0.78</v>
       </c>
       <c r="J71">
-        <v>0.606</v>
+        <v>0.7</v>
       </c>
       <c r="K71">
-        <v>0.877</v>
+        <v>0.87</v>
+      </c>
+      <c r="L71">
+        <v>0.88</v>
+      </c>
+      <c r="M71">
+        <v>0.82</v>
+      </c>
+      <c r="N71">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2">
+        <v>43962</v>
+      </c>
+      <c r="C72">
+        <v>729</v>
+      </c>
+      <c r="D72">
+        <v>466</v>
+      </c>
+      <c r="E72">
+        <v>987</v>
+      </c>
+      <c r="F72">
+        <v>648</v>
+      </c>
+      <c r="G72">
+        <v>484</v>
+      </c>
+      <c r="H72">
+        <v>821</v>
+      </c>
+      <c r="I72">
+        <v>0.79</v>
+      </c>
+      <c r="J72">
+        <v>0.68</v>
+      </c>
+      <c r="K72">
+        <v>0.92</v>
+      </c>
+      <c r="L72">
+        <v>0.89</v>
+      </c>
+      <c r="M72">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N72">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2">
+        <v>43963</v>
+      </c>
+      <c r="C73">
+        <v>752</v>
+      </c>
+      <c r="D73">
+        <v>499</v>
+      </c>
+      <c r="E73">
+        <v>1036</v>
+      </c>
+      <c r="F73">
+        <v>667</v>
+      </c>
+      <c r="G73">
+        <v>475</v>
+      </c>
+      <c r="H73">
+        <v>880</v>
+      </c>
+      <c r="I73">
+        <v>0.88</v>
+      </c>
+      <c r="J73">
+        <v>0.72</v>
+      </c>
+      <c r="K73">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glä</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glät</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,19 +469,19 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F2">
         <v>229</v>
       </c>
       <c r="G2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H2">
         <v>244</v>
@@ -495,19 +495,19 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D3">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E3">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F3">
         <v>266</v>
       </c>
       <c r="G3">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H3">
         <v>282</v>
@@ -521,22 +521,22 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D4">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E4">
         <v>478</v>
       </c>
       <c r="F4">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G4">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="H4">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -550,16 +550,16 @@
         <v>503</v>
       </c>
       <c r="D5">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E5">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F5">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G5">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H5">
         <v>421</v>
@@ -576,28 +576,28 @@
         <v>765</v>
       </c>
       <c r="D6">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E6">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="F6">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G6">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="H6">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I6">
         <v>2.25</v>
       </c>
       <c r="J6">
-        <v>2.16</v>
+        <v>2.17</v>
       </c>
       <c r="K6">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="L6">
         <v>2.32</v>
@@ -606,7 +606,7 @@
         <v>2.27</v>
       </c>
       <c r="N6">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="D7">
         <v>955</v>
@@ -629,25 +629,25 @@
         <v>677</v>
       </c>
       <c r="G7">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="H7">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I7">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="J7">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="K7">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="L7">
         <v>2.53</v>
       </c>
       <c r="M7">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="N7">
         <v>2.58</v>
@@ -661,37 +661,37 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="D8">
-        <v>1297</v>
+        <v>1303</v>
       </c>
       <c r="E8">
-        <v>1366</v>
+        <v>1369</v>
       </c>
       <c r="F8">
         <v>896</v>
       </c>
       <c r="G8">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H8">
         <v>925</v>
       </c>
       <c r="I8">
-        <v>2.69</v>
+        <v>2.7</v>
       </c>
       <c r="J8">
-        <v>2.59</v>
+        <v>2.62</v>
       </c>
       <c r="K8">
-        <v>2.77</v>
+        <v>2.78</v>
       </c>
       <c r="L8">
         <v>2.88</v>
       </c>
       <c r="M8">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="N8">
         <v>2.94</v>
@@ -708,13 +708,13 @@
         <v>1985</v>
       </c>
       <c r="D9">
-        <v>1945</v>
+        <v>1940</v>
       </c>
       <c r="E9">
         <v>2029</v>
       </c>
       <c r="F9">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G9">
         <v>1234</v>
@@ -723,19 +723,19 @@
         <v>1300</v>
       </c>
       <c r="I9">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="J9">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="K9">
-        <v>3.24</v>
+        <v>3.26</v>
       </c>
       <c r="L9">
         <v>3.08</v>
       </c>
       <c r="M9">
-        <v>3.03</v>
+        <v>3.02</v>
       </c>
       <c r="N9">
         <v>3.13</v>
@@ -749,31 +749,31 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2558</v>
+        <v>2557</v>
       </c>
       <c r="D10">
-        <v>2513</v>
+        <v>2502</v>
       </c>
       <c r="E10">
-        <v>2607</v>
+        <v>2606</v>
       </c>
       <c r="F10">
         <v>1715</v>
       </c>
       <c r="G10">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="H10">
         <v>1754</v>
       </c>
       <c r="I10">
-        <v>3.33</v>
+        <v>3.34</v>
       </c>
       <c r="J10">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="K10">
-        <v>3.42</v>
+        <v>3.43</v>
       </c>
       <c r="L10">
         <v>3.17</v>
@@ -793,37 +793,37 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3223</v>
+        <v>3224</v>
       </c>
       <c r="D11">
-        <v>3171</v>
+        <v>3176</v>
       </c>
       <c r="E11">
-        <v>3271</v>
+        <v>3287</v>
       </c>
       <c r="F11">
         <v>2275</v>
       </c>
       <c r="G11">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="H11">
-        <v>2318</v>
+        <v>2323</v>
       </c>
       <c r="I11">
         <v>3.36</v>
       </c>
       <c r="J11">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="K11">
         <v>3.43</v>
       </c>
       <c r="L11">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="M11">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="N11">
         <v>3.12</v>
@@ -837,28 +837,28 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3595</v>
+        <v>3598</v>
       </c>
       <c r="D12">
         <v>3538</v>
       </c>
       <c r="E12">
-        <v>3651</v>
+        <v>3655</v>
       </c>
       <c r="F12">
-        <v>2840</v>
+        <v>2841</v>
       </c>
       <c r="G12">
-        <v>2791</v>
+        <v>2789</v>
       </c>
       <c r="H12">
-        <v>2889</v>
+        <v>2894</v>
       </c>
       <c r="I12">
         <v>3.17</v>
       </c>
       <c r="J12">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="K12">
         <v>3.23</v>
@@ -867,7 +867,7 @@
         <v>2.84</v>
       </c>
       <c r="M12">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="N12">
         <v>2.87</v>
@@ -881,31 +881,31 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4381</v>
+        <v>4383</v>
       </c>
       <c r="D13">
         <v>4321</v>
       </c>
       <c r="E13">
-        <v>4438</v>
+        <v>4443</v>
       </c>
       <c r="F13">
-        <v>3439</v>
+        <v>3441</v>
       </c>
       <c r="G13">
-        <v>3385</v>
+        <v>3384</v>
       </c>
       <c r="H13">
-        <v>3492</v>
+        <v>3498</v>
       </c>
       <c r="I13">
         <v>2.72</v>
       </c>
       <c r="J13">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="K13">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="L13">
         <v>2.51</v>
@@ -914,7 +914,7 @@
         <v>2.49</v>
       </c>
       <c r="N13">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -925,28 +925,28 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4477</v>
+        <v>4483</v>
       </c>
       <c r="D14">
-        <v>4413</v>
+        <v>4423</v>
       </c>
       <c r="E14">
-        <v>4536</v>
+        <v>4546</v>
       </c>
       <c r="F14">
-        <v>3919</v>
+        <v>3922</v>
       </c>
       <c r="G14">
-        <v>3860</v>
+        <v>3864</v>
       </c>
       <c r="H14">
-        <v>3974</v>
+        <v>3983</v>
       </c>
       <c r="I14">
         <v>2.29</v>
       </c>
       <c r="J14">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="K14">
         <v>2.32</v>
@@ -969,28 +969,28 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4713</v>
+        <v>4721</v>
       </c>
       <c r="D15">
-        <v>4647</v>
+        <v>4668</v>
       </c>
       <c r="E15">
-        <v>4778</v>
+        <v>4798</v>
       </c>
       <c r="F15">
-        <v>4291</v>
+        <v>4296</v>
       </c>
       <c r="G15">
-        <v>4229</v>
+        <v>4237</v>
       </c>
       <c r="H15">
-        <v>4351</v>
+        <v>4360</v>
       </c>
       <c r="I15">
         <v>1.89</v>
       </c>
       <c r="J15">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="K15">
         <v>1.91</v>
@@ -1013,31 +1013,31 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6019</v>
+        <v>6026</v>
       </c>
       <c r="D16">
-        <v>5954</v>
+        <v>5956</v>
       </c>
       <c r="E16">
-        <v>6087</v>
+        <v>6101</v>
       </c>
       <c r="F16">
-        <v>4897</v>
+        <v>4903</v>
       </c>
       <c r="G16">
-        <v>4833</v>
+        <v>4842</v>
       </c>
       <c r="H16">
-        <v>4960</v>
+        <v>4972</v>
       </c>
       <c r="I16">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="J16">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="K16">
-        <v>1.75</v>
+        <v>1.74</v>
       </c>
       <c r="L16">
         <v>1.75</v>
@@ -1057,22 +1057,22 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5261</v>
+        <v>5246</v>
       </c>
       <c r="D17">
-        <v>5195</v>
+        <v>5179</v>
       </c>
       <c r="E17">
-        <v>5338</v>
+        <v>5319</v>
       </c>
       <c r="F17">
-        <v>5117</v>
+        <v>5119</v>
       </c>
       <c r="G17">
-        <v>5052</v>
+        <v>5056</v>
       </c>
       <c r="H17">
-        <v>5185</v>
+        <v>5191</v>
       </c>
       <c r="I17">
         <v>1.49</v>
@@ -1101,28 +1101,28 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5315</v>
+        <v>5319</v>
       </c>
       <c r="D18">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="E18">
-        <v>5379</v>
+        <v>5395</v>
       </c>
       <c r="F18">
-        <v>5327</v>
+        <v>5328</v>
       </c>
       <c r="G18">
-        <v>5261</v>
+        <v>5262</v>
       </c>
       <c r="H18">
-        <v>5395</v>
+        <v>5403</v>
       </c>
       <c r="I18">
         <v>1.36</v>
       </c>
       <c r="J18">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="K18">
         <v>1.37</v>
@@ -1145,22 +1145,22 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4727</v>
+        <v>4730</v>
       </c>
       <c r="D19">
-        <v>4671</v>
+        <v>4665</v>
       </c>
       <c r="E19">
-        <v>4791</v>
+        <v>4794</v>
       </c>
       <c r="F19">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="G19">
-        <v>5267</v>
+        <v>5262</v>
       </c>
       <c r="H19">
-        <v>5399</v>
+        <v>5402</v>
       </c>
       <c r="I19">
         <v>1.24</v>
@@ -1169,7 +1169,7 @@
         <v>1.23</v>
       </c>
       <c r="K19">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="L19">
         <v>1.24</v>
@@ -1189,22 +1189,22 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5306</v>
+        <v>5309</v>
       </c>
       <c r="D20">
-        <v>5241</v>
+        <v>5237</v>
       </c>
       <c r="E20">
-        <v>5377</v>
+        <v>5374</v>
       </c>
       <c r="F20">
-        <v>5152</v>
+        <v>5151</v>
       </c>
       <c r="G20">
-        <v>5089</v>
+        <v>5082</v>
       </c>
       <c r="H20">
-        <v>5221</v>
+        <v>5220</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1222,7 +1222,7 @@
         <v>1.12</v>
       </c>
       <c r="N20">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1236,19 +1236,19 @@
         <v>4443</v>
       </c>
       <c r="D21">
-        <v>4386</v>
+        <v>4375</v>
       </c>
       <c r="E21">
-        <v>4507</v>
+        <v>4513</v>
       </c>
       <c r="F21">
-        <v>4948</v>
+        <v>4950</v>
       </c>
       <c r="G21">
-        <v>4887</v>
+        <v>4881</v>
       </c>
       <c r="H21">
-        <v>5013</v>
+        <v>5019</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3852</v>
+        <v>3851</v>
       </c>
       <c r="D22">
-        <v>3781</v>
+        <v>3786</v>
       </c>
       <c r="E22">
-        <v>3924</v>
+        <v>3923</v>
       </c>
       <c r="F22">
-        <v>4582</v>
+        <v>4583</v>
       </c>
       <c r="G22">
-        <v>4520</v>
+        <v>4515</v>
       </c>
       <c r="H22">
-        <v>4649</v>
+        <v>4651</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5163</v>
+        <v>5155</v>
       </c>
       <c r="D23">
-        <v>5100</v>
+        <v>5091</v>
       </c>
       <c r="E23">
-        <v>5236</v>
+        <v>5223</v>
       </c>
       <c r="F23">
-        <v>4691</v>
+        <v>4689</v>
       </c>
       <c r="G23">
-        <v>4627</v>
+        <v>4622</v>
       </c>
       <c r="H23">
-        <v>4761</v>
+        <v>4758</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1351,7 +1351,7 @@
         <v>0.92</v>
       </c>
       <c r="M23">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="N23">
         <v>0.92</v>
@@ -1365,28 +1365,28 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4139</v>
+        <v>4138</v>
       </c>
       <c r="D24">
-        <v>4071</v>
+        <v>4078</v>
       </c>
       <c r="E24">
-        <v>4206</v>
+        <v>4199</v>
       </c>
       <c r="F24">
-        <v>4399</v>
+        <v>4397</v>
       </c>
       <c r="G24">
-        <v>4334</v>
+        <v>4332</v>
       </c>
       <c r="H24">
-        <v>4468</v>
+        <v>4464</v>
       </c>
       <c r="I24">
         <v>0.85</v>
       </c>
       <c r="J24">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="K24">
         <v>0.86</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4414</v>
+        <v>4412</v>
       </c>
       <c r="D25">
-        <v>4357</v>
+        <v>4344</v>
       </c>
       <c r="E25">
-        <v>4483</v>
+        <v>4474</v>
       </c>
       <c r="F25">
-        <v>4392</v>
+        <v>4389</v>
       </c>
       <c r="G25">
-        <v>4327</v>
+        <v>4325</v>
       </c>
       <c r="H25">
-        <v>4462</v>
+        <v>4455</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1456,19 +1456,19 @@
         <v>4014</v>
       </c>
       <c r="D26">
-        <v>3949</v>
+        <v>3942</v>
       </c>
       <c r="E26">
         <v>4083</v>
       </c>
       <c r="F26">
-        <v>4433</v>
+        <v>4430</v>
       </c>
       <c r="G26">
-        <v>4369</v>
+        <v>4364</v>
       </c>
       <c r="H26">
-        <v>4502</v>
+        <v>4494</v>
       </c>
       <c r="I26">
         <v>0.97</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4122</v>
+        <v>4116</v>
       </c>
       <c r="D27">
-        <v>4055</v>
+        <v>4056</v>
       </c>
       <c r="E27">
-        <v>4189</v>
+        <v>4186</v>
       </c>
       <c r="F27">
-        <v>4172</v>
+        <v>4170</v>
       </c>
       <c r="G27">
-        <v>4108</v>
+        <v>4105</v>
       </c>
       <c r="H27">
-        <v>4240</v>
+        <v>4235</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,22 +1541,22 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3908</v>
+        <v>3905</v>
       </c>
       <c r="D28">
-        <v>3843</v>
+        <v>3838</v>
       </c>
       <c r="E28">
-        <v>3977</v>
+        <v>3964</v>
       </c>
       <c r="F28">
-        <v>4115</v>
+        <v>4112</v>
       </c>
       <c r="G28">
-        <v>4051</v>
+        <v>4045</v>
       </c>
       <c r="H28">
-        <v>4183</v>
+        <v>4177</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
@@ -1565,7 +1565,7 @@
         <v>0.92</v>
       </c>
       <c r="K28">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L28">
         <v>0.91</v>
@@ -1585,25 +1585,25 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3320</v>
+        <v>3327</v>
       </c>
       <c r="D29">
-        <v>3250</v>
+        <v>3268</v>
       </c>
       <c r="E29">
-        <v>3386</v>
+        <v>3394</v>
       </c>
       <c r="F29">
-        <v>3841</v>
+        <v>3840</v>
       </c>
       <c r="G29">
-        <v>3774</v>
+        <v>3776</v>
       </c>
       <c r="H29">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="I29">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J29">
         <v>0.87</v>
@@ -1629,19 +1629,19 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4383</v>
+        <v>4371</v>
       </c>
       <c r="D30">
-        <v>4326</v>
+        <v>4305</v>
       </c>
       <c r="E30">
-        <v>4438</v>
+        <v>4447</v>
       </c>
       <c r="F30">
-        <v>3933</v>
+        <v>3930</v>
       </c>
       <c r="G30">
-        <v>3868</v>
+        <v>3867</v>
       </c>
       <c r="H30">
         <v>3998</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3593</v>
+        <v>3590</v>
       </c>
       <c r="D31">
-        <v>3526</v>
+        <v>3524</v>
       </c>
       <c r="E31">
-        <v>3659</v>
+        <v>3662</v>
       </c>
       <c r="F31">
-        <v>3801</v>
+        <v>3798</v>
       </c>
       <c r="G31">
-        <v>3736</v>
+        <v>3734</v>
       </c>
       <c r="H31">
-        <v>3865</v>
+        <v>3867</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="D32">
-        <v>3962</v>
+        <v>3957</v>
       </c>
       <c r="E32">
-        <v>4086</v>
+        <v>4097</v>
       </c>
       <c r="F32">
-        <v>3830</v>
+        <v>3829</v>
       </c>
       <c r="G32">
-        <v>3766</v>
+        <v>3763</v>
       </c>
       <c r="H32">
-        <v>3892</v>
+        <v>3900</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3761</v>
+        <v>3766</v>
       </c>
       <c r="D33">
-        <v>3697</v>
+        <v>3701</v>
       </c>
       <c r="E33">
-        <v>3830</v>
+        <v>3835</v>
       </c>
       <c r="F33">
-        <v>3940</v>
+        <v>3939</v>
       </c>
       <c r="G33">
-        <v>3878</v>
+        <v>3872</v>
       </c>
       <c r="H33">
-        <v>4003</v>
+        <v>4010</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3762</v>
+        <v>3766</v>
       </c>
       <c r="D34">
-        <v>3703</v>
+        <v>3699</v>
       </c>
       <c r="E34">
-        <v>3833</v>
+        <v>3839</v>
       </c>
       <c r="F34">
-        <v>3785</v>
+        <v>3787</v>
       </c>
       <c r="G34">
-        <v>3722</v>
+        <v>3720</v>
       </c>
       <c r="H34">
-        <v>3852</v>
+        <v>3858</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1852,19 +1852,19 @@
         <v>3064</v>
       </c>
       <c r="D35">
-        <v>2995</v>
+        <v>3003</v>
       </c>
       <c r="E35">
-        <v>3122</v>
+        <v>3141</v>
       </c>
       <c r="F35">
-        <v>3653</v>
+        <v>3656</v>
       </c>
       <c r="G35">
-        <v>3589</v>
+        <v>3590</v>
       </c>
       <c r="H35">
-        <v>3718</v>
+        <v>3728</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="D36">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="E36">
-        <v>2799</v>
+        <v>2789</v>
       </c>
       <c r="F36">
-        <v>3329</v>
+        <v>3330</v>
       </c>
       <c r="G36">
-        <v>3267</v>
+        <v>3269</v>
       </c>
       <c r="H36">
-        <v>3396</v>
+        <v>3401</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3352</v>
+        <v>3355</v>
       </c>
       <c r="D37">
         <v>3295</v>
       </c>
       <c r="E37">
-        <v>3411</v>
+        <v>3425</v>
       </c>
       <c r="F37">
-        <v>3227</v>
+        <v>3228</v>
       </c>
       <c r="G37">
         <v>3167</v>
       </c>
       <c r="H37">
-        <v>3291</v>
+        <v>3298</v>
       </c>
       <c r="I37">
         <v>0.82</v>
@@ -1970,7 +1970,7 @@
         <v>0.88</v>
       </c>
       <c r="N37">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3096</v>
+        <v>3094</v>
       </c>
       <c r="D38">
-        <v>3040</v>
+        <v>3037</v>
       </c>
       <c r="E38">
-        <v>3162</v>
+        <v>3146</v>
       </c>
       <c r="F38">
         <v>3060</v>
       </c>
       <c r="G38">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="H38">
-        <v>3123</v>
+        <v>3125</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2898</v>
+        <v>2896</v>
       </c>
       <c r="D39">
-        <v>2834</v>
+        <v>2847</v>
       </c>
       <c r="E39">
+        <v>2953</v>
+      </c>
+      <c r="F39">
+        <v>3018</v>
+      </c>
+      <c r="G39">
         <v>2963</v>
       </c>
-      <c r="F39">
-        <v>3019</v>
-      </c>
-      <c r="G39">
-        <v>2960</v>
-      </c>
       <c r="H39">
-        <v>3084</v>
+        <v>3078</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2069,22 +2069,22 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2716</v>
+        <v>2711</v>
       </c>
       <c r="D40">
-        <v>2664</v>
+        <v>2652</v>
       </c>
       <c r="E40">
-        <v>2766</v>
+        <v>2787</v>
       </c>
       <c r="F40">
-        <v>3015</v>
+        <v>3014</v>
       </c>
       <c r="G40">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="H40">
-        <v>3075</v>
+        <v>3078</v>
       </c>
       <c r="I40">
         <v>0.91</v>
@@ -2099,7 +2099,7 @@
         <v>0.83</v>
       </c>
       <c r="M40">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="N40">
         <v>0.84</v>
@@ -2113,25 +2113,25 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2333</v>
+        <v>2330</v>
       </c>
       <c r="D41">
-        <v>2279</v>
+        <v>2277</v>
       </c>
       <c r="E41">
-        <v>2394</v>
+        <v>2382</v>
       </c>
       <c r="F41">
-        <v>2761</v>
+        <v>2758</v>
       </c>
       <c r="G41">
-        <v>2704</v>
+        <v>2703</v>
       </c>
       <c r="H41">
-        <v>2821</v>
+        <v>2817</v>
       </c>
       <c r="I41">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J41">
         <v>0.84</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D42">
-        <v>1973</v>
+        <v>1972</v>
       </c>
       <c r="E42">
-        <v>2062</v>
+        <v>2075</v>
       </c>
       <c r="F42">
-        <v>2491</v>
+        <v>2490</v>
       </c>
       <c r="G42">
         <v>2437</v>
       </c>
       <c r="H42">
-        <v>2546</v>
+        <v>2549</v>
       </c>
       <c r="I42">
         <v>0.8100000000000001</v>
@@ -2201,22 +2201,22 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D43">
-        <v>1939</v>
+        <v>1934</v>
       </c>
       <c r="E43">
-        <v>2045</v>
+        <v>2054</v>
       </c>
       <c r="F43">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="G43">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="H43">
-        <v>2317</v>
+        <v>2324</v>
       </c>
       <c r="I43">
         <v>0.75</v>
@@ -2245,13 +2245,13 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1920</v>
+        <v>1923</v>
       </c>
       <c r="D44">
-        <v>1866</v>
+        <v>1872</v>
       </c>
       <c r="E44">
-        <v>1970</v>
+        <v>1979</v>
       </c>
       <c r="F44">
         <v>2066</v>
@@ -2260,13 +2260,13 @@
         <v>2014</v>
       </c>
       <c r="H44">
-        <v>2118</v>
+        <v>2122</v>
       </c>
       <c r="I44">
         <v>0.6899999999999999</v>
       </c>
       <c r="J44">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="K44">
         <v>0.7</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="D45">
-        <v>1936</v>
+        <v>1942</v>
       </c>
       <c r="E45">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="F45">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="G45">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="H45">
-        <v>2030</v>
+        <v>2036</v>
       </c>
       <c r="I45">
         <v>0.72</v>
@@ -2333,28 +2333,28 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="D46">
-        <v>1893</v>
+        <v>1895</v>
       </c>
       <c r="E46">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="F46">
         <v>1961</v>
       </c>
       <c r="G46">
-        <v>1908</v>
+        <v>1911</v>
       </c>
       <c r="H46">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="I46">
         <v>0.79</v>
       </c>
       <c r="J46">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K46">
         <v>0.8</v>
@@ -2377,22 +2377,22 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="D47">
-        <v>1721</v>
+        <v>1730</v>
       </c>
       <c r="E47">
-        <v>1839</v>
+        <v>1823</v>
       </c>
       <c r="F47">
         <v>1908</v>
       </c>
       <c r="G47">
-        <v>1854</v>
+        <v>1860</v>
       </c>
       <c r="H47">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="I47">
         <v>0.84</v>
@@ -2421,34 +2421,34 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D48">
-        <v>1627</v>
+        <v>1620</v>
       </c>
       <c r="E48">
-        <v>1735</v>
+        <v>1741</v>
       </c>
       <c r="F48">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="G48">
-        <v>1794</v>
+        <v>1797</v>
       </c>
       <c r="H48">
-        <v>1901</v>
+        <v>1898</v>
       </c>
       <c r="I48">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J48">
         <v>0.88</v>
       </c>
       <c r="K48">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="L48">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M48">
         <v>0.8</v>
@@ -2468,19 +2468,19 @@
         <v>1461</v>
       </c>
       <c r="D49">
-        <v>1406</v>
+        <v>1414</v>
       </c>
       <c r="E49">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="F49">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="G49">
-        <v>1661</v>
+        <v>1665</v>
       </c>
       <c r="H49">
-        <v>1769</v>
+        <v>1767</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2489,7 +2489,7 @@
         <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2509,22 +2509,22 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1324</v>
+        <v>1320</v>
       </c>
       <c r="D50">
-        <v>1275</v>
+        <v>1269</v>
       </c>
       <c r="E50">
-        <v>1372</v>
+        <v>1368</v>
       </c>
       <c r="F50">
-        <v>1563</v>
+        <v>1561</v>
       </c>
       <c r="G50">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="H50">
-        <v>1615</v>
+        <v>1611</v>
       </c>
       <c r="I50">
         <v>0.8</v>
@@ -2533,7 +2533,7 @@
         <v>0.78</v>
       </c>
       <c r="K50">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L50">
         <v>0.84</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1569</v>
+        <v>1567</v>
       </c>
       <c r="D51">
-        <v>1525</v>
+        <v>1519</v>
       </c>
       <c r="E51">
-        <v>1611</v>
+        <v>1623</v>
       </c>
       <c r="F51">
-        <v>1509</v>
+        <v>1508</v>
       </c>
       <c r="G51">
-        <v>1458</v>
+        <v>1455</v>
       </c>
       <c r="H51">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2580,13 +2580,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L51">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="M51">
         <v>0.83</v>
       </c>
       <c r="N51">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2597,19 +2597,19 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D52">
-        <v>1323</v>
+        <v>1314</v>
       </c>
       <c r="E52">
-        <v>1429</v>
+        <v>1424</v>
       </c>
       <c r="F52">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G52">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="H52">
         <v>1482</v>
@@ -2618,7 +2618,7 @@
         <v>0.77</v>
       </c>
       <c r="J52">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="K52">
         <v>0.79</v>
@@ -2641,19 +2641,19 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1312</v>
+        <v>1318</v>
       </c>
       <c r="D53">
-        <v>1263</v>
+        <v>1277</v>
       </c>
       <c r="E53">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="F53">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="G53">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="H53">
         <v>1444</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D54">
-        <v>1256</v>
+        <v>1262</v>
       </c>
       <c r="E54">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="F54">
         <v>1391</v>
       </c>
       <c r="G54">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="H54">
-        <v>1439</v>
+        <v>1441</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2732,22 +2732,22 @@
         <v>1166</v>
       </c>
       <c r="D55">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="E55">
-        <v>1216</v>
+        <v>1213</v>
       </c>
       <c r="F55">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="G55">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="H55">
-        <v>1341</v>
+        <v>1338</v>
       </c>
       <c r="I55">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J55">
         <v>0.83</v>
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="D56">
-        <v>972</v>
+        <v>979</v>
       </c>
       <c r="E56">
-        <v>1096</v>
+        <v>1062</v>
       </c>
       <c r="F56">
         <v>1204</v>
       </c>
       <c r="G56">
-        <v>1153</v>
+        <v>1159</v>
       </c>
       <c r="H56">
-        <v>1257</v>
+        <v>1248</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2803,7 +2803,7 @@
         <v>0.83</v>
       </c>
       <c r="M56">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N56">
         <v>0.84</v>
@@ -2817,22 +2817,22 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D57">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="E57">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="F57">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G57">
         <v>1061</v>
       </c>
       <c r="H57">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="I57">
         <v>0.8</v>
@@ -2850,7 +2850,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="N57">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2861,25 +2861,25 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="D58">
+        <v>1070</v>
+      </c>
+      <c r="E58">
+        <v>1163</v>
+      </c>
+      <c r="F58">
         <v>1062</v>
       </c>
-      <c r="E58">
-        <v>1186</v>
-      </c>
-      <c r="F58">
-        <v>1066</v>
-      </c>
       <c r="G58">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="H58">
-        <v>1122</v>
+        <v>1107</v>
       </c>
       <c r="I58">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J58">
         <v>0.74</v>
@@ -2905,28 +2905,28 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D59">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E59">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F59">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="G59">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="H59">
-        <v>1065</v>
+        <v>1049</v>
       </c>
       <c r="I59">
         <v>0.78</v>
       </c>
       <c r="J59">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="K59">
         <v>0.8</v>
@@ -2949,25 +2949,25 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="D60">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="E60">
-        <v>932</v>
+        <v>941</v>
       </c>
       <c r="F60">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="G60">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="H60">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="I60">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J60">
         <v>0.78</v>
@@ -2993,31 +2993,31 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="D61">
-        <v>881</v>
+        <v>894</v>
       </c>
       <c r="E61">
-        <v>987</v>
+        <v>977</v>
       </c>
       <c r="F61">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="G61">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="H61">
-        <v>1023</v>
+        <v>1015</v>
       </c>
       <c r="I61">
         <v>0.87</v>
       </c>
       <c r="J61">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="K61">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L61">
         <v>0.8100000000000001</v>
@@ -3037,40 +3037,40 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D62">
-        <v>741</v>
+        <v>750</v>
       </c>
       <c r="E62">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="F62">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="G62">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="H62">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="I62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="J62">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K62">
         <v>0.87</v>
       </c>
       <c r="L62">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M62">
         <v>0.8</v>
       </c>
       <c r="N62">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3081,31 +3081,31 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="D63">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="E63">
-        <v>797</v>
+        <v>820</v>
       </c>
       <c r="F63">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="G63">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="H63">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="I63">
         <v>0.84</v>
       </c>
       <c r="J63">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K63">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L63">
         <v>0.84</v>
@@ -3125,25 +3125,25 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="D64">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="E64">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="F64">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="G64">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="H64">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="I64">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J64">
         <v>0.8100000000000001</v>
@@ -3169,28 +3169,28 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>920</v>
+        <v>929</v>
       </c>
       <c r="D65">
-        <v>833</v>
+        <v>852</v>
       </c>
       <c r="E65">
-        <v>995</v>
+        <v>1009</v>
       </c>
       <c r="F65">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="G65">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="H65">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="I65">
         <v>0.84</v>
       </c>
       <c r="J65">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K65">
         <v>0.88</v>
@@ -3199,10 +3199,10 @@
         <v>0.89</v>
       </c>
       <c r="M65">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="N65">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3213,28 +3213,28 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="D66">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="E66">
-        <v>933</v>
+        <v>918</v>
       </c>
       <c r="F66">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="G66">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="H66">
-        <v>893</v>
+        <v>897</v>
       </c>
       <c r="I66">
         <v>0.93</v>
       </c>
       <c r="J66">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K66">
         <v>0.97</v>
@@ -3243,7 +3243,7 @@
         <v>0.92</v>
       </c>
       <c r="M66">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="N66">
         <v>0.95</v>
@@ -3257,37 +3257,37 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="D67">
-        <v>687</v>
+        <v>715</v>
       </c>
       <c r="E67">
-        <v>914</v>
+        <v>882</v>
       </c>
       <c r="F67">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="G67">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="H67">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="I67">
         <v>0.99</v>
       </c>
       <c r="J67">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K67">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="L67">
         <v>0.91</v>
       </c>
       <c r="M67">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="N67">
         <v>0.9399999999999999</v>
@@ -3301,22 +3301,22 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D68">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="E68">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="F68">
         <v>824</v>
       </c>
       <c r="G68">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="H68">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="I68">
         <v>1.01</v>
@@ -3325,16 +3325,16 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="K68">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="L68">
         <v>0.92</v>
       </c>
       <c r="M68">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="N68">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3345,31 +3345,31 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="D69">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="E69">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="F69">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G69">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="H69">
-        <v>875</v>
+        <v>859</v>
       </c>
       <c r="I69">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J69">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K69">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="L69">
         <v>0.91</v>
@@ -3378,7 +3378,7 @@
         <v>0.87</v>
       </c>
       <c r="N69">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3389,40 +3389,40 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>625</v>
+        <v>634</v>
       </c>
       <c r="D70">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E70">
-        <v>793</v>
+        <v>762</v>
       </c>
       <c r="F70">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="G70">
-        <v>593</v>
+        <v>613</v>
       </c>
       <c r="H70">
-        <v>841</v>
+        <v>819</v>
       </c>
       <c r="I70">
         <v>0.86</v>
       </c>
       <c r="J70">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K70">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L70">
         <v>0.89</v>
       </c>
       <c r="M70">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="N70">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3433,40 +3433,40 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>563</v>
+        <v>581</v>
       </c>
       <c r="D71">
-        <v>421</v>
+        <v>463</v>
       </c>
       <c r="E71">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="F71">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="G71">
-        <v>526</v>
+        <v>550</v>
       </c>
       <c r="H71">
-        <v>788</v>
+        <v>772</v>
       </c>
       <c r="I71">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J71">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="K71">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L71">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M71">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N71">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3477,31 +3477,31 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="D72">
-        <v>466</v>
+        <v>514</v>
       </c>
       <c r="E72">
-        <v>987</v>
+        <v>893</v>
       </c>
       <c r="F72">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="G72">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="H72">
-        <v>821</v>
+        <v>784</v>
       </c>
       <c r="I72">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J72">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="K72">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="L72">
         <v>0.89</v>
@@ -3510,7 +3510,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="N72">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3521,31 +3521,75 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>752</v>
+        <v>736</v>
       </c>
       <c r="D73">
-        <v>499</v>
+        <v>450</v>
       </c>
       <c r="E73">
-        <v>1036</v>
+        <v>1007</v>
       </c>
       <c r="F73">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G73">
-        <v>475</v>
+        <v>486</v>
       </c>
       <c r="H73">
-        <v>880</v>
+        <v>839</v>
       </c>
       <c r="I73">
         <v>0.88</v>
       </c>
       <c r="J73">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="K73">
-        <v>1.05</v>
+        <v>1.01</v>
+      </c>
+      <c r="L73">
+        <v>0.87</v>
+      </c>
+      <c r="M73">
+        <v>0.78</v>
+      </c>
+      <c r="N73">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2">
+        <v>43964</v>
+      </c>
+      <c r="C74">
+        <v>620</v>
+      </c>
+      <c r="D74">
+        <v>365</v>
+      </c>
+      <c r="E74">
+        <v>939</v>
+      </c>
+      <c r="F74">
+        <v>665</v>
+      </c>
+      <c r="G74">
+        <v>448</v>
+      </c>
+      <c r="H74">
+        <v>883</v>
+      </c>
+      <c r="I74">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J74">
+        <v>0.78</v>
+      </c>
+      <c r="K74">
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N74"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +469,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H2">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -498,16 +498,16 @@
         <v>330</v>
       </c>
       <c r="D3">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E3">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H3">
         <v>282</v>
@@ -521,13 +521,13 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D4">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F4">
         <v>332</v>
@@ -550,19 +550,19 @@
         <v>503</v>
       </c>
       <c r="D5">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="E5">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="F5">
         <v>400</v>
       </c>
       <c r="G5">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H5">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,28 +573,28 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D6">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E6">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F6">
         <v>513</v>
       </c>
       <c r="G6">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H6">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I6">
         <v>2.25</v>
       </c>
       <c r="J6">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="K6">
         <v>2.34</v>
@@ -617,28 +617,28 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="D7">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="E7">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="F7">
         <v>677</v>
       </c>
       <c r="G7">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H7">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I7">
         <v>2.55</v>
       </c>
       <c r="J7">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="K7">
         <v>2.63</v>
@@ -647,7 +647,7 @@
         <v>2.53</v>
       </c>
       <c r="M7">
-        <v>2.48</v>
+        <v>2.47</v>
       </c>
       <c r="N7">
         <v>2.58</v>
@@ -664,10 +664,10 @@
         <v>1334</v>
       </c>
       <c r="D8">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E8">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="F8">
         <v>896</v>
@@ -676,19 +676,19 @@
         <v>868</v>
       </c>
       <c r="H8">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="I8">
         <v>2.7</v>
       </c>
       <c r="J8">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
       <c r="K8">
-        <v>2.78</v>
+        <v>2.79</v>
       </c>
       <c r="L8">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="M8">
         <v>2.83</v>
@@ -705,13 +705,13 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="D9">
-        <v>1940</v>
+        <v>1944</v>
       </c>
       <c r="E9">
-        <v>2029</v>
+        <v>2026</v>
       </c>
       <c r="F9">
         <v>1267</v>
@@ -720,25 +720,25 @@
         <v>1234</v>
       </c>
       <c r="H9">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="I9">
         <v>3.17</v>
       </c>
       <c r="J9">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="K9">
-        <v>3.26</v>
+        <v>3.27</v>
       </c>
       <c r="L9">
         <v>3.08</v>
       </c>
       <c r="M9">
-        <v>3.02</v>
+        <v>3.03</v>
       </c>
       <c r="N9">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,22 +749,22 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2557</v>
+        <v>2558</v>
       </c>
       <c r="D10">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="E10">
-        <v>2606</v>
+        <v>2612</v>
       </c>
       <c r="F10">
         <v>1715</v>
       </c>
       <c r="G10">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="H10">
-        <v>1754</v>
+        <v>1756</v>
       </c>
       <c r="I10">
         <v>3.34</v>
@@ -779,7 +779,7 @@
         <v>3.17</v>
       </c>
       <c r="M10">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="N10">
         <v>3.22</v>
@@ -793,31 +793,31 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="D11">
-        <v>3176</v>
+        <v>3174</v>
       </c>
       <c r="E11">
-        <v>3287</v>
+        <v>3276</v>
       </c>
       <c r="F11">
         <v>2275</v>
       </c>
       <c r="G11">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="H11">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="I11">
         <v>3.36</v>
       </c>
       <c r="J11">
-        <v>3.29</v>
+        <v>3.27</v>
       </c>
       <c r="K11">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="L11">
         <v>3.09</v>
@@ -837,22 +837,22 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3598</v>
+        <v>3599</v>
       </c>
       <c r="D12">
-        <v>3538</v>
+        <v>3547</v>
       </c>
       <c r="E12">
-        <v>3655</v>
+        <v>3656</v>
       </c>
       <c r="F12">
-        <v>2841</v>
+        <v>2842</v>
       </c>
       <c r="G12">
-        <v>2789</v>
+        <v>2795</v>
       </c>
       <c r="H12">
-        <v>2894</v>
+        <v>2892</v>
       </c>
       <c r="I12">
         <v>3.17</v>
@@ -867,7 +867,7 @@
         <v>2.84</v>
       </c>
       <c r="M12">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="N12">
         <v>2.87</v>
@@ -881,22 +881,22 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4383</v>
+        <v>4387</v>
       </c>
       <c r="D13">
-        <v>4321</v>
+        <v>4330</v>
       </c>
       <c r="E13">
-        <v>4443</v>
+        <v>4446</v>
       </c>
       <c r="F13">
-        <v>3441</v>
+        <v>3442</v>
       </c>
       <c r="G13">
-        <v>3384</v>
+        <v>3391</v>
       </c>
       <c r="H13">
-        <v>3498</v>
+        <v>3497</v>
       </c>
       <c r="I13">
         <v>2.72</v>
@@ -905,7 +905,7 @@
         <v>2.68</v>
       </c>
       <c r="K13">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="L13">
         <v>2.51</v>
@@ -914,7 +914,7 @@
         <v>2.49</v>
       </c>
       <c r="N13">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -925,22 +925,22 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4483</v>
+        <v>4486</v>
       </c>
       <c r="D14">
-        <v>4423</v>
+        <v>4425</v>
       </c>
       <c r="E14">
-        <v>4546</v>
+        <v>4548</v>
       </c>
       <c r="F14">
-        <v>3922</v>
+        <v>3924</v>
       </c>
       <c r="G14">
-        <v>3864</v>
+        <v>3869</v>
       </c>
       <c r="H14">
-        <v>3983</v>
+        <v>3981</v>
       </c>
       <c r="I14">
         <v>2.29</v>
@@ -969,19 +969,19 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4721</v>
+        <v>4720</v>
       </c>
       <c r="D15">
-        <v>4668</v>
+        <v>4651</v>
       </c>
       <c r="E15">
-        <v>4798</v>
+        <v>4790</v>
       </c>
       <c r="F15">
-        <v>4296</v>
+        <v>4298</v>
       </c>
       <c r="G15">
-        <v>4237</v>
+        <v>4238</v>
       </c>
       <c r="H15">
         <v>4360</v>
@@ -993,7 +993,7 @@
         <v>1.87</v>
       </c>
       <c r="K15">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="L15">
         <v>2.01</v>
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6026</v>
+        <v>6016</v>
       </c>
       <c r="D16">
-        <v>5956</v>
+        <v>5948</v>
       </c>
       <c r="E16">
-        <v>6101</v>
+        <v>6087</v>
       </c>
       <c r="F16">
-        <v>4903</v>
+        <v>4902</v>
       </c>
       <c r="G16">
-        <v>4842</v>
+        <v>4839</v>
       </c>
       <c r="H16">
-        <v>4972</v>
+        <v>4968</v>
       </c>
       <c r="I16">
         <v>1.73</v>
@@ -1046,7 +1046,7 @@
         <v>1.74</v>
       </c>
       <c r="N16">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1057,22 +1057,22 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5246</v>
+        <v>5250</v>
       </c>
       <c r="D17">
-        <v>5179</v>
+        <v>5177</v>
       </c>
       <c r="E17">
-        <v>5319</v>
+        <v>5320</v>
       </c>
       <c r="F17">
-        <v>5119</v>
+        <v>5118</v>
       </c>
       <c r="G17">
-        <v>5056</v>
+        <v>5050</v>
       </c>
       <c r="H17">
-        <v>5191</v>
+        <v>5186</v>
       </c>
       <c r="I17">
         <v>1.49</v>
@@ -1090,7 +1090,7 @@
         <v>1.56</v>
       </c>
       <c r="N17">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1101,28 +1101,28 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5319</v>
+        <v>5322</v>
       </c>
       <c r="D18">
-        <v>5247</v>
+        <v>5240</v>
       </c>
       <c r="E18">
-        <v>5395</v>
+        <v>5391</v>
       </c>
       <c r="F18">
-        <v>5328</v>
+        <v>5327</v>
       </c>
       <c r="G18">
-        <v>5262</v>
+        <v>5254</v>
       </c>
       <c r="H18">
-        <v>5403</v>
+        <v>5397</v>
       </c>
       <c r="I18">
         <v>1.36</v>
       </c>
       <c r="J18">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="K18">
         <v>1.37</v>
@@ -1145,22 +1145,22 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4730</v>
+        <v>4736</v>
       </c>
       <c r="D19">
-        <v>4665</v>
+        <v>4660</v>
       </c>
       <c r="E19">
-        <v>4794</v>
+        <v>4822</v>
       </c>
       <c r="F19">
-        <v>5330</v>
+        <v>5331</v>
       </c>
       <c r="G19">
-        <v>5262</v>
+        <v>5256</v>
       </c>
       <c r="H19">
-        <v>5402</v>
+        <v>5405</v>
       </c>
       <c r="I19">
         <v>1.24</v>
@@ -1189,22 +1189,22 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5309</v>
+        <v>5308</v>
       </c>
       <c r="D20">
-        <v>5237</v>
+        <v>5241</v>
       </c>
       <c r="E20">
-        <v>5374</v>
+        <v>5385</v>
       </c>
       <c r="F20">
-        <v>5151</v>
+        <v>5154</v>
       </c>
       <c r="G20">
-        <v>5082</v>
+        <v>5079</v>
       </c>
       <c r="H20">
-        <v>5220</v>
+        <v>5229</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1219,7 +1219,7 @@
         <v>1.13</v>
       </c>
       <c r="M20">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N20">
         <v>1.14</v>
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4443</v>
+        <v>4445</v>
       </c>
       <c r="D21">
-        <v>4375</v>
+        <v>4383</v>
       </c>
       <c r="E21">
-        <v>4513</v>
+        <v>4511</v>
       </c>
       <c r="F21">
-        <v>4950</v>
+        <v>4953</v>
       </c>
       <c r="G21">
         <v>4881</v>
       </c>
       <c r="H21">
-        <v>5019</v>
+        <v>5027</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3851</v>
+        <v>3849</v>
       </c>
       <c r="D22">
-        <v>3786</v>
+        <v>3784</v>
       </c>
       <c r="E22">
-        <v>3923</v>
+        <v>3910</v>
       </c>
       <c r="F22">
-        <v>4583</v>
+        <v>4584</v>
       </c>
       <c r="G22">
-        <v>4515</v>
+        <v>4517</v>
       </c>
       <c r="H22">
-        <v>4651</v>
+        <v>4657</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5155</v>
+        <v>5154</v>
       </c>
       <c r="D23">
-        <v>5091</v>
+        <v>5088</v>
       </c>
       <c r="E23">
-        <v>5223</v>
+        <v>5231</v>
       </c>
       <c r="F23">
         <v>4689</v>
       </c>
       <c r="G23">
-        <v>4622</v>
+        <v>4624</v>
       </c>
       <c r="H23">
-        <v>4758</v>
+        <v>4759</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1368,31 +1368,31 @@
         <v>4138</v>
       </c>
       <c r="D24">
-        <v>4078</v>
+        <v>4072</v>
       </c>
       <c r="E24">
-        <v>4199</v>
+        <v>4209</v>
       </c>
       <c r="F24">
         <v>4397</v>
       </c>
       <c r="G24">
-        <v>4332</v>
+        <v>4331</v>
       </c>
       <c r="H24">
-        <v>4464</v>
+        <v>4465</v>
       </c>
       <c r="I24">
         <v>0.85</v>
       </c>
       <c r="J24">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K24">
         <v>0.86</v>
       </c>
       <c r="L24">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M24">
         <v>0.89</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4412</v>
+        <v>4406</v>
       </c>
       <c r="D25">
-        <v>4344</v>
+        <v>4345</v>
       </c>
       <c r="E25">
-        <v>4474</v>
+        <v>4464</v>
       </c>
       <c r="F25">
-        <v>4389</v>
+        <v>4387</v>
       </c>
       <c r="G25">
-        <v>4325</v>
+        <v>4322</v>
       </c>
       <c r="H25">
-        <v>4455</v>
+        <v>4453</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1453,22 +1453,22 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4014</v>
+        <v>4012</v>
       </c>
       <c r="D26">
-        <v>3942</v>
+        <v>3952</v>
       </c>
       <c r="E26">
-        <v>4083</v>
+        <v>4079</v>
       </c>
       <c r="F26">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="G26">
         <v>4364</v>
       </c>
       <c r="H26">
-        <v>4494</v>
+        <v>4496</v>
       </c>
       <c r="I26">
         <v>0.97</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4116</v>
+        <v>4119</v>
       </c>
       <c r="D27">
-        <v>4056</v>
+        <v>4063</v>
       </c>
       <c r="E27">
-        <v>4186</v>
+        <v>4192</v>
       </c>
       <c r="F27">
-        <v>4170</v>
+        <v>4169</v>
       </c>
       <c r="G27">
-        <v>4105</v>
+        <v>4108</v>
       </c>
       <c r="H27">
-        <v>4235</v>
+        <v>4236</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,31 +1541,31 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3905</v>
+        <v>3903</v>
       </c>
       <c r="D28">
-        <v>3838</v>
+        <v>3846</v>
       </c>
       <c r="E28">
-        <v>3964</v>
+        <v>3972</v>
       </c>
       <c r="F28">
-        <v>4112</v>
+        <v>4110</v>
       </c>
       <c r="G28">
-        <v>4045</v>
+        <v>4051</v>
       </c>
       <c r="H28">
         <v>4177</v>
       </c>
       <c r="I28">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J28">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K28">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L28">
         <v>0.91</v>
@@ -1585,22 +1585,22 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3327</v>
+        <v>3325</v>
       </c>
       <c r="D29">
-        <v>3268</v>
+        <v>3257</v>
       </c>
       <c r="E29">
-        <v>3394</v>
+        <v>3389</v>
       </c>
       <c r="F29">
         <v>3840</v>
       </c>
       <c r="G29">
-        <v>3776</v>
+        <v>3779</v>
       </c>
       <c r="H29">
-        <v>3906</v>
+        <v>3908</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1609,7 +1609,7 @@
         <v>0.87</v>
       </c>
       <c r="K29">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L29">
         <v>0.9</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4371</v>
+        <v>4375</v>
       </c>
       <c r="D30">
         <v>4305</v>
       </c>
       <c r="E30">
-        <v>4447</v>
+        <v>4437</v>
       </c>
       <c r="F30">
         <v>3930</v>
       </c>
       <c r="G30">
-        <v>3867</v>
+        <v>3868</v>
       </c>
       <c r="H30">
-        <v>3998</v>
+        <v>3997</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1659,7 +1659,7 @@
         <v>0.92</v>
       </c>
       <c r="M30">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="N30">
         <v>0.93</v>
@@ -1673,13 +1673,13 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="D31">
-        <v>3524</v>
+        <v>3528</v>
       </c>
       <c r="E31">
-        <v>3662</v>
+        <v>3654</v>
       </c>
       <c r="F31">
         <v>3798</v>
@@ -1688,7 +1688,7 @@
         <v>3734</v>
       </c>
       <c r="H31">
-        <v>3867</v>
+        <v>3863</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4028</v>
+        <v>4029</v>
       </c>
       <c r="D32">
-        <v>3957</v>
+        <v>3963</v>
       </c>
       <c r="E32">
-        <v>4097</v>
+        <v>4101</v>
       </c>
       <c r="F32">
-        <v>3829</v>
+        <v>3830</v>
       </c>
       <c r="G32">
         <v>3763</v>
       </c>
       <c r="H32">
-        <v>3900</v>
+        <v>3895</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3766</v>
+        <v>3760</v>
       </c>
       <c r="D33">
-        <v>3701</v>
+        <v>3699</v>
       </c>
       <c r="E33">
-        <v>3835</v>
+        <v>3827</v>
       </c>
       <c r="F33">
         <v>3939</v>
       </c>
       <c r="G33">
-        <v>3872</v>
+        <v>3874</v>
       </c>
       <c r="H33">
-        <v>4010</v>
+        <v>4005</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3766</v>
+        <v>3765</v>
       </c>
       <c r="D34">
-        <v>3699</v>
+        <v>3702</v>
       </c>
       <c r="E34">
-        <v>3839</v>
+        <v>3828</v>
       </c>
       <c r="F34">
-        <v>3787</v>
+        <v>3786</v>
       </c>
       <c r="G34">
-        <v>3720</v>
+        <v>3723</v>
       </c>
       <c r="H34">
-        <v>3858</v>
+        <v>3852</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1829,7 +1829,7 @@
         <v>0.95</v>
       </c>
       <c r="K34">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L34">
         <v>0.93</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="D35">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="E35">
-        <v>3141</v>
+        <v>3119</v>
       </c>
       <c r="F35">
-        <v>3656</v>
+        <v>3654</v>
       </c>
       <c r="G35">
-        <v>3590</v>
+        <v>3591</v>
       </c>
       <c r="H35">
-        <v>3728</v>
+        <v>3719</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2727</v>
+        <v>2733</v>
       </c>
       <c r="D36">
-        <v>2672</v>
+        <v>2678</v>
       </c>
       <c r="E36">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="F36">
         <v>3330</v>
       </c>
       <c r="G36">
-        <v>3269</v>
+        <v>3270</v>
       </c>
       <c r="H36">
-        <v>3401</v>
+        <v>3391</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3355</v>
+        <v>3351</v>
       </c>
       <c r="D37">
-        <v>3295</v>
+        <v>3291</v>
       </c>
       <c r="E37">
-        <v>3425</v>
+        <v>3404</v>
       </c>
       <c r="F37">
-        <v>3228</v>
+        <v>3227</v>
       </c>
       <c r="G37">
-        <v>3167</v>
+        <v>3168</v>
       </c>
       <c r="H37">
-        <v>3298</v>
+        <v>3285</v>
       </c>
       <c r="I37">
         <v>0.82</v>
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3094</v>
+        <v>3093</v>
       </c>
       <c r="D38">
-        <v>3037</v>
+        <v>3028</v>
       </c>
       <c r="E38">
-        <v>3146</v>
+        <v>3162</v>
       </c>
       <c r="F38">
-        <v>3060</v>
+        <v>3059</v>
       </c>
       <c r="G38">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="H38">
-        <v>3125</v>
+        <v>3119</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2028,25 +2028,25 @@
         <v>2896</v>
       </c>
       <c r="D39">
-        <v>2847</v>
+        <v>2837</v>
       </c>
       <c r="E39">
-        <v>2953</v>
+        <v>2961</v>
       </c>
       <c r="F39">
         <v>3018</v>
       </c>
       <c r="G39">
-        <v>2963</v>
+        <v>2958</v>
       </c>
       <c r="H39">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="I39">
         <v>0.83</v>
       </c>
       <c r="J39">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K39">
         <v>0.84</v>
@@ -2069,25 +2069,25 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2711</v>
+        <v>2710</v>
       </c>
       <c r="D40">
-        <v>2652</v>
+        <v>2657</v>
       </c>
       <c r="E40">
-        <v>2787</v>
+        <v>2767</v>
       </c>
       <c r="F40">
-        <v>3014</v>
+        <v>3012</v>
       </c>
       <c r="G40">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="H40">
-        <v>3078</v>
+        <v>3073</v>
       </c>
       <c r="I40">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J40">
         <v>0.89</v>
@@ -2113,22 +2113,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="D41">
         <v>2277</v>
       </c>
       <c r="E41">
-        <v>2382</v>
+        <v>2385</v>
       </c>
       <c r="F41">
         <v>2758</v>
       </c>
       <c r="G41">
-        <v>2703</v>
+        <v>2700</v>
       </c>
       <c r="H41">
-        <v>2817</v>
+        <v>2819</v>
       </c>
       <c r="I41">
         <v>0.85</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="D42">
-        <v>1972</v>
+        <v>1966</v>
       </c>
       <c r="E42">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="F42">
         <v>2490</v>
       </c>
       <c r="G42">
-        <v>2437</v>
+        <v>2434</v>
       </c>
       <c r="H42">
-        <v>2549</v>
+        <v>2545</v>
       </c>
       <c r="I42">
         <v>0.8100000000000001</v>
@@ -2201,22 +2201,22 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1991</v>
+        <v>1988</v>
       </c>
       <c r="D43">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="E43">
-        <v>2054</v>
+        <v>2042</v>
       </c>
       <c r="F43">
         <v>2263</v>
       </c>
       <c r="G43">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="H43">
-        <v>2324</v>
+        <v>2315</v>
       </c>
       <c r="I43">
         <v>0.75</v>
@@ -2245,13 +2245,13 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="D44">
-        <v>1872</v>
+        <v>1880</v>
       </c>
       <c r="E44">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="F44">
         <v>2066</v>
@@ -2260,13 +2260,13 @@
         <v>2014</v>
       </c>
       <c r="H44">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="I44">
         <v>0.6899999999999999</v>
       </c>
       <c r="J44">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="K44">
         <v>0.7</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D45">
-        <v>1942</v>
+        <v>1933</v>
       </c>
       <c r="E45">
-        <v>2036</v>
+        <v>2038</v>
       </c>
       <c r="F45">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G45">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="H45">
-        <v>2036</v>
+        <v>2031</v>
       </c>
       <c r="I45">
         <v>0.72</v>
@@ -2333,22 +2333,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1946</v>
+        <v>1951</v>
       </c>
       <c r="D46">
-        <v>1895</v>
+        <v>1901</v>
       </c>
       <c r="E46">
-        <v>1993</v>
+        <v>2000</v>
       </c>
       <c r="F46">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="G46">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H46">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="I46">
         <v>0.79</v>
@@ -2377,22 +2377,22 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1778</v>
+        <v>1776</v>
       </c>
       <c r="D47">
-        <v>1730</v>
+        <v>1734</v>
       </c>
       <c r="E47">
-        <v>1823</v>
+        <v>1832</v>
       </c>
       <c r="F47">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="G47">
-        <v>1860</v>
+        <v>1862</v>
       </c>
       <c r="H47">
-        <v>1958</v>
+        <v>1961</v>
       </c>
       <c r="I47">
         <v>0.84</v>
@@ -2421,22 +2421,22 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1683</v>
+        <v>1679</v>
       </c>
       <c r="D48">
-        <v>1620</v>
+        <v>1636</v>
       </c>
       <c r="E48">
-        <v>1741</v>
+        <v>1720</v>
       </c>
       <c r="F48">
         <v>1848</v>
       </c>
       <c r="G48">
-        <v>1797</v>
+        <v>1801</v>
       </c>
       <c r="H48">
-        <v>1898</v>
+        <v>1897</v>
       </c>
       <c r="I48">
         <v>0.89</v>
@@ -2465,22 +2465,22 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="D49">
-        <v>1414</v>
+        <v>1404</v>
       </c>
       <c r="E49">
-        <v>1513</v>
+        <v>1524</v>
       </c>
       <c r="F49">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="G49">
-        <v>1665</v>
+        <v>1669</v>
       </c>
       <c r="H49">
-        <v>1767</v>
+        <v>1769</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2489,7 +2489,7 @@
         <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2509,19 +2509,19 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="D50">
-        <v>1269</v>
+        <v>1275</v>
       </c>
       <c r="E50">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="F50">
-        <v>1561</v>
+        <v>1560</v>
       </c>
       <c r="G50">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="H50">
         <v>1611</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="D51">
-        <v>1519</v>
+        <v>1516</v>
       </c>
       <c r="E51">
-        <v>1623</v>
+        <v>1620</v>
       </c>
       <c r="F51">
         <v>1508</v>
       </c>
       <c r="G51">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="H51">
-        <v>1561</v>
+        <v>1558</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2580,13 +2580,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L51">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M51">
         <v>0.83</v>
       </c>
       <c r="N51">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2597,28 +2597,28 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1372</v>
+        <v>1375</v>
       </c>
       <c r="D52">
-        <v>1314</v>
+        <v>1333</v>
       </c>
       <c r="E52">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="F52">
-        <v>1430</v>
+        <v>1432</v>
       </c>
       <c r="G52">
-        <v>1379</v>
+        <v>1382</v>
       </c>
       <c r="H52">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="I52">
         <v>0.77</v>
       </c>
       <c r="J52">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K52">
         <v>0.79</v>
@@ -2641,19 +2641,19 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="D53">
-        <v>1277</v>
+        <v>1268</v>
       </c>
       <c r="E53">
-        <v>1360</v>
+        <v>1364</v>
       </c>
       <c r="F53">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G53">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="H53">
         <v>1444</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1308</v>
+        <v>1305</v>
       </c>
       <c r="D54">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E54">
-        <v>1356</v>
+        <v>1351</v>
       </c>
       <c r="F54">
         <v>1391</v>
       </c>
       <c r="G54">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="H54">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2729,34 +2729,34 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="D55">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="E55">
-        <v>1213</v>
+        <v>1207</v>
       </c>
       <c r="F55">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="G55">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="H55">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I55">
         <v>0.86</v>
       </c>
       <c r="J55">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="K55">
         <v>0.88</v>
       </c>
       <c r="L55">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M55">
         <v>0.8</v>
@@ -2773,19 +2773,19 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D56">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="E56">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="F56">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="G56">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="H56">
         <v>1248</v>
@@ -2817,25 +2817,25 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D57">
-        <v>885</v>
+        <v>899</v>
       </c>
       <c r="E57">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="F57">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G57">
-        <v>1061</v>
+        <v>1064</v>
       </c>
       <c r="H57">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="I57">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J57">
         <v>0.77</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="D58">
-        <v>1070</v>
+        <v>1055</v>
       </c>
       <c r="E58">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="F58">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="G58">
         <v>1013</v>
       </c>
       <c r="H58">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2885,7 +2885,7 @@
         <v>0.74</v>
       </c>
       <c r="K58">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L58">
         <v>0.82</v>
@@ -2905,22 +2905,22 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="D59">
-        <v>880</v>
+        <v>888</v>
       </c>
       <c r="E59">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="F59">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G59">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="H59">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="I59">
         <v>0.78</v>
@@ -2949,31 +2949,31 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>887</v>
+        <v>891</v>
       </c>
       <c r="D60">
-        <v>828</v>
+        <v>846</v>
       </c>
       <c r="E60">
-        <v>941</v>
+        <v>946</v>
       </c>
       <c r="F60">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G60">
-        <v>916</v>
+        <v>922</v>
       </c>
       <c r="H60">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="I60">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J60">
         <v>0.78</v>
       </c>
       <c r="K60">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L60">
         <v>0.8100000000000001</v>
@@ -2993,28 +2993,28 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D61">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="E61">
-        <v>977</v>
+        <v>1000</v>
       </c>
       <c r="F61">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="G61">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H61">
-        <v>1015</v>
+        <v>1023</v>
       </c>
       <c r="I61">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="J61">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K61">
         <v>0.9</v>
@@ -3037,22 +3037,22 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="D62">
-        <v>750</v>
+        <v>756</v>
       </c>
       <c r="E62">
-        <v>857</v>
+        <v>845</v>
       </c>
       <c r="F62">
         <v>890</v>
       </c>
       <c r="G62">
-        <v>838</v>
+        <v>843</v>
       </c>
       <c r="H62">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="I62">
         <v>0.84</v>
@@ -3061,7 +3061,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="K62">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L62">
         <v>0.82</v>
@@ -3070,7 +3070,7 @@
         <v>0.8</v>
       </c>
       <c r="N62">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3081,22 +3081,22 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="D63">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="E63">
-        <v>820</v>
+        <v>801</v>
       </c>
       <c r="F63">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="G63">
-        <v>790</v>
+        <v>796</v>
       </c>
       <c r="H63">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="I63">
         <v>0.84</v>
@@ -3105,13 +3105,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="K63">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L63">
         <v>0.84</v>
       </c>
       <c r="M63">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N63">
         <v>0.86</v>
@@ -3125,25 +3125,25 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>781</v>
+        <v>788</v>
       </c>
       <c r="D64">
-        <v>715</v>
+        <v>731</v>
       </c>
       <c r="E64">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="F64">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G64">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="H64">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="I64">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J64">
         <v>0.8100000000000001</v>
@@ -3169,28 +3169,28 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>929</v>
+        <v>917</v>
       </c>
       <c r="D65">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E65">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="F65">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="G65">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="H65">
-        <v>882</v>
+        <v>875</v>
       </c>
       <c r="I65">
         <v>0.84</v>
       </c>
       <c r="J65">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K65">
         <v>0.88</v>
@@ -3202,7 +3202,7 @@
         <v>0.87</v>
       </c>
       <c r="N65">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3213,25 +3213,25 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="D66">
-        <v>750</v>
+        <v>770</v>
       </c>
       <c r="E66">
-        <v>918</v>
+        <v>900</v>
       </c>
       <c r="F66">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="G66">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="H66">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="I66">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J66">
         <v>0.88</v>
@@ -3240,13 +3240,13 @@
         <v>0.97</v>
       </c>
       <c r="L66">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M66">
         <v>0.89</v>
       </c>
       <c r="N66">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3257,40 +3257,40 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="D67">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="E67">
-        <v>882</v>
+        <v>850</v>
       </c>
       <c r="F67">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="G67">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="H67">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="I67">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J67">
         <v>0.9399999999999999</v>
       </c>
       <c r="K67">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="L67">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M67">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="N67">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3301,40 +3301,40 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="D68">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="E68">
-        <v>846</v>
+        <v>807</v>
       </c>
       <c r="F68">
-        <v>824</v>
+        <v>812</v>
       </c>
       <c r="G68">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="H68">
-        <v>914</v>
+        <v>889</v>
       </c>
       <c r="I68">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="J68">
         <v>0.9399999999999999</v>
       </c>
       <c r="K68">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="L68">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M68">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="N68">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3345,40 +3345,40 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="D69">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="E69">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="F69">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G69">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H69">
-        <v>859</v>
+        <v>831</v>
       </c>
       <c r="I69">
         <v>0.93</v>
       </c>
       <c r="J69">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L69">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M69">
         <v>0.87</v>
       </c>
       <c r="N69">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3389,40 +3389,40 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>634</v>
+        <v>618</v>
       </c>
       <c r="D70">
         <v>516</v>
       </c>
       <c r="E70">
-        <v>762</v>
+        <v>745</v>
       </c>
       <c r="F70">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="G70">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="H70">
-        <v>819</v>
+        <v>792</v>
       </c>
       <c r="I70">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J70">
-        <v>0.8</v>
+        <v>0.78</v>
       </c>
       <c r="K70">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="L70">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M70">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="N70">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3433,40 +3433,40 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>581</v>
+        <v>553</v>
       </c>
       <c r="D71">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E71">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="F71">
-        <v>658</v>
+        <v>642</v>
       </c>
       <c r="G71">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="H71">
-        <v>772</v>
+        <v>743</v>
       </c>
       <c r="I71">
-        <v>0.79</v>
+        <v>0.77</v>
       </c>
       <c r="J71">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="K71">
+        <v>0.83</v>
+      </c>
+      <c r="L71">
         <v>0.86</v>
       </c>
-      <c r="L71">
-        <v>0.89</v>
-      </c>
       <c r="M71">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="N71">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3477,40 +3477,40 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>723</v>
+        <v>647</v>
       </c>
       <c r="D72">
-        <v>514</v>
+        <v>528</v>
       </c>
       <c r="E72">
-        <v>893</v>
+        <v>769</v>
       </c>
       <c r="F72">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="G72">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="H72">
-        <v>784</v>
+        <v>733</v>
       </c>
       <c r="I72">
+        <v>0.77</v>
+      </c>
+      <c r="J72">
+        <v>0.68</v>
+      </c>
+      <c r="K72">
+        <v>0.84</v>
+      </c>
+      <c r="L72">
+        <v>0.85</v>
+      </c>
+      <c r="M72">
         <v>0.8</v>
       </c>
-      <c r="J72">
-        <v>0.7</v>
-      </c>
-      <c r="K72">
-        <v>0.89</v>
-      </c>
-      <c r="L72">
-        <v>0.89</v>
-      </c>
-      <c r="M72">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="N72">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3521,40 +3521,40 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>736</v>
+        <v>657</v>
       </c>
       <c r="D73">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="E73">
-        <v>1007</v>
+        <v>861</v>
       </c>
       <c r="F73">
-        <v>669</v>
+        <v>619</v>
       </c>
       <c r="G73">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="H73">
-        <v>839</v>
+        <v>757</v>
       </c>
       <c r="I73">
-        <v>0.88</v>
+        <v>0.82</v>
       </c>
       <c r="J73">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="K73">
-        <v>1.01</v>
+        <v>0.92</v>
       </c>
       <c r="L73">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="M73">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="N73">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3565,31 +3565,75 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>620</v>
+        <v>543</v>
       </c>
       <c r="D74">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E74">
-        <v>939</v>
+        <v>710</v>
       </c>
       <c r="F74">
-        <v>665</v>
+        <v>600</v>
       </c>
       <c r="G74">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="H74">
-        <v>883</v>
+        <v>749</v>
       </c>
       <c r="I74">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="J74">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="K74">
-        <v>1.1</v>
+        <v>0.99</v>
+      </c>
+      <c r="L74">
+        <v>0.82</v>
+      </c>
+      <c r="M74">
+        <v>0.75</v>
+      </c>
+      <c r="N74">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2">
+        <v>43965</v>
+      </c>
+      <c r="C75">
+        <v>493</v>
+      </c>
+      <c r="D75">
+        <v>296</v>
+      </c>
+      <c r="E75">
+        <v>749</v>
+      </c>
+      <c r="F75">
+        <v>585</v>
+      </c>
+      <c r="G75">
+        <v>415</v>
+      </c>
+      <c r="H75">
+        <v>772</v>
+      </c>
+      <c r="I75">
+        <v>0.91</v>
+      </c>
+      <c r="J75">
+        <v>0.77</v>
+      </c>
+      <c r="K75">
+        <v>1.09</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N75"/>
+  <dimension ref="A1:N76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +469,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F2">
         <v>228</v>
       </c>
       <c r="G2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H2">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -498,19 +498,19 @@
         <v>330</v>
       </c>
       <c r="D3">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E3">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F3">
         <v>265</v>
       </c>
       <c r="G3">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H3">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -521,19 +521,19 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D4">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E4">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F4">
         <v>332</v>
       </c>
       <c r="G4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H4">
         <v>350</v>
@@ -547,19 +547,19 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D5">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E5">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F5">
         <v>400</v>
       </c>
       <c r="G5">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -573,31 +573,31 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D6">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E6">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="F6">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G6">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H6">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="I6">
         <v>2.25</v>
       </c>
       <c r="J6">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="K6">
-        <v>2.34</v>
+        <v>2.33</v>
       </c>
       <c r="L6">
         <v>2.32</v>
@@ -606,7 +606,7 @@
         <v>2.27</v>
       </c>
       <c r="N6">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -620,16 +620,16 @@
         <v>984</v>
       </c>
       <c r="D7">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="E7">
-        <v>1021</v>
+        <v>1012</v>
       </c>
       <c r="F7">
         <v>677</v>
       </c>
       <c r="G7">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H7">
         <v>703</v>
@@ -638,19 +638,19 @@
         <v>2.55</v>
       </c>
       <c r="J7">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="K7">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="L7">
         <v>2.53</v>
       </c>
       <c r="M7">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="N7">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,16 +664,16 @@
         <v>1334</v>
       </c>
       <c r="D8">
-        <v>1302</v>
+        <v>1304</v>
       </c>
       <c r="E8">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="F8">
         <v>896</v>
       </c>
       <c r="G8">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H8">
         <v>926</v>
@@ -682,7 +682,7 @@
         <v>2.7</v>
       </c>
       <c r="J8">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="K8">
         <v>2.79</v>
@@ -691,7 +691,7 @@
         <v>2.89</v>
       </c>
       <c r="M8">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="N8">
         <v>2.94</v>
@@ -705,13 +705,13 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D9">
-        <v>1944</v>
+        <v>1938</v>
       </c>
       <c r="E9">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="F9">
         <v>1267</v>
@@ -729,7 +729,7 @@
         <v>3.09</v>
       </c>
       <c r="K9">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
         <v>3.08</v>
@@ -738,7 +738,7 @@
         <v>3.03</v>
       </c>
       <c r="N9">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -752,19 +752,19 @@
         <v>2558</v>
       </c>
       <c r="D10">
-        <v>2515</v>
+        <v>2516</v>
       </c>
       <c r="E10">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="F10">
         <v>1715</v>
       </c>
       <c r="G10">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="H10">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="I10">
         <v>3.34</v>
@@ -773,16 +773,16 @@
         <v>3.26</v>
       </c>
       <c r="K10">
-        <v>3.43</v>
+        <v>3.42</v>
       </c>
       <c r="L10">
         <v>3.17</v>
       </c>
       <c r="M10">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="N10">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,19 +793,19 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="D11">
-        <v>3174</v>
+        <v>3172</v>
       </c>
       <c r="E11">
-        <v>3276</v>
+        <v>3272</v>
       </c>
       <c r="F11">
         <v>2275</v>
       </c>
       <c r="G11">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="H11">
         <v>2320</v>
@@ -814,19 +814,19 @@
         <v>3.36</v>
       </c>
       <c r="J11">
-        <v>3.27</v>
+        <v>3.3</v>
       </c>
       <c r="K11">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="L11">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="M11">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="N11">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,28 +837,28 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3599</v>
+        <v>3593</v>
       </c>
       <c r="D12">
-        <v>3547</v>
+        <v>3533</v>
       </c>
       <c r="E12">
-        <v>3656</v>
+        <v>3647</v>
       </c>
       <c r="F12">
-        <v>2842</v>
+        <v>2840</v>
       </c>
       <c r="G12">
-        <v>2795</v>
+        <v>2790</v>
       </c>
       <c r="H12">
-        <v>2892</v>
+        <v>2888</v>
       </c>
       <c r="I12">
         <v>3.17</v>
       </c>
       <c r="J12">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="K12">
         <v>3.23</v>
@@ -867,7 +867,7 @@
         <v>2.84</v>
       </c>
       <c r="M12">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="N12">
         <v>2.87</v>
@@ -881,31 +881,31 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4387</v>
+        <v>4382</v>
       </c>
       <c r="D13">
-        <v>4330</v>
+        <v>4329</v>
       </c>
       <c r="E13">
-        <v>4446</v>
+        <v>4436</v>
       </c>
       <c r="F13">
-        <v>3442</v>
+        <v>3439</v>
       </c>
       <c r="G13">
-        <v>3391</v>
+        <v>3387</v>
       </c>
       <c r="H13">
-        <v>3497</v>
+        <v>3491</v>
       </c>
       <c r="I13">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="J13">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="K13">
-        <v>2.75</v>
+        <v>2.76</v>
       </c>
       <c r="L13">
         <v>2.51</v>
@@ -914,7 +914,7 @@
         <v>2.49</v>
       </c>
       <c r="N13">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -925,22 +925,22 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4486</v>
+        <v>4488</v>
       </c>
       <c r="D14">
-        <v>4425</v>
+        <v>4433</v>
       </c>
       <c r="E14">
-        <v>4548</v>
+        <v>4549</v>
       </c>
       <c r="F14">
-        <v>3924</v>
+        <v>3921</v>
       </c>
       <c r="G14">
-        <v>3869</v>
+        <v>3867</v>
       </c>
       <c r="H14">
-        <v>3981</v>
+        <v>3976</v>
       </c>
       <c r="I14">
         <v>2.29</v>
@@ -958,7 +958,7 @@
         <v>2.18</v>
       </c>
       <c r="N14">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,22 +969,22 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4720</v>
+        <v>4731</v>
       </c>
       <c r="D15">
-        <v>4651</v>
+        <v>4657</v>
       </c>
       <c r="E15">
-        <v>4790</v>
+        <v>4791</v>
       </c>
       <c r="F15">
-        <v>4298</v>
+        <v>4299</v>
       </c>
       <c r="G15">
         <v>4238</v>
       </c>
       <c r="H15">
-        <v>4360</v>
+        <v>4355</v>
       </c>
       <c r="I15">
         <v>1.89</v>
@@ -993,7 +993,7 @@
         <v>1.87</v>
       </c>
       <c r="K15">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="L15">
         <v>2.01</v>
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6016</v>
+        <v>6015</v>
       </c>
       <c r="D16">
-        <v>5948</v>
+        <v>5952</v>
       </c>
       <c r="E16">
-        <v>6087</v>
+        <v>6092</v>
       </c>
       <c r="F16">
-        <v>4902</v>
+        <v>4904</v>
       </c>
       <c r="G16">
-        <v>4839</v>
+        <v>4843</v>
       </c>
       <c r="H16">
-        <v>4968</v>
+        <v>4967</v>
       </c>
       <c r="I16">
         <v>1.73</v>
@@ -1057,22 +1057,22 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5250</v>
+        <v>5249</v>
       </c>
       <c r="D17">
-        <v>5177</v>
+        <v>5184</v>
       </c>
       <c r="E17">
-        <v>5320</v>
+        <v>5319</v>
       </c>
       <c r="F17">
-        <v>5118</v>
+        <v>5121</v>
       </c>
       <c r="G17">
-        <v>5050</v>
+        <v>5057</v>
       </c>
       <c r="H17">
-        <v>5186</v>
+        <v>5187</v>
       </c>
       <c r="I17">
         <v>1.49</v>
@@ -1090,7 +1090,7 @@
         <v>1.56</v>
       </c>
       <c r="N17">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1101,19 +1101,19 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="D18">
-        <v>5240</v>
+        <v>5257</v>
       </c>
       <c r="E18">
-        <v>5391</v>
+        <v>5385</v>
       </c>
       <c r="F18">
-        <v>5327</v>
+        <v>5329</v>
       </c>
       <c r="G18">
-        <v>5254</v>
+        <v>5263</v>
       </c>
       <c r="H18">
         <v>5397</v>
@@ -1122,7 +1122,7 @@
         <v>1.36</v>
       </c>
       <c r="J18">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="K18">
         <v>1.37</v>
@@ -1145,22 +1145,22 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4736</v>
+        <v>4740</v>
       </c>
       <c r="D19">
-        <v>4660</v>
+        <v>4683</v>
       </c>
       <c r="E19">
-        <v>4822</v>
+        <v>4806</v>
       </c>
       <c r="F19">
         <v>5331</v>
       </c>
       <c r="G19">
-        <v>5256</v>
+        <v>5269</v>
       </c>
       <c r="H19">
-        <v>5405</v>
+        <v>5400</v>
       </c>
       <c r="I19">
         <v>1.24</v>
@@ -1189,22 +1189,22 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5308</v>
+        <v>5314</v>
       </c>
       <c r="D20">
-        <v>5241</v>
+        <v>5240</v>
       </c>
       <c r="E20">
-        <v>5385</v>
+        <v>5375</v>
       </c>
       <c r="F20">
-        <v>5154</v>
+        <v>5156</v>
       </c>
       <c r="G20">
-        <v>5079</v>
+        <v>5091</v>
       </c>
       <c r="H20">
-        <v>5229</v>
+        <v>5221</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4445</v>
+        <v>4444</v>
       </c>
       <c r="D21">
         <v>4383</v>
       </c>
       <c r="E21">
-        <v>4511</v>
+        <v>4509</v>
       </c>
       <c r="F21">
-        <v>4953</v>
+        <v>4954</v>
       </c>
       <c r="G21">
-        <v>4881</v>
+        <v>4891</v>
       </c>
       <c r="H21">
-        <v>5027</v>
+        <v>5019</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1280,19 +1280,19 @@
         <v>3849</v>
       </c>
       <c r="D22">
-        <v>3784</v>
+        <v>3786</v>
       </c>
       <c r="E22">
-        <v>3910</v>
+        <v>3922</v>
       </c>
       <c r="F22">
-        <v>4584</v>
+        <v>4587</v>
       </c>
       <c r="G22">
-        <v>4517</v>
+        <v>4523</v>
       </c>
       <c r="H22">
-        <v>4657</v>
+        <v>4653</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,13 +1321,13 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5154</v>
+        <v>5151</v>
       </c>
       <c r="D23">
         <v>5088</v>
       </c>
       <c r="E23">
-        <v>5231</v>
+        <v>5217</v>
       </c>
       <c r="F23">
         <v>4689</v>
@@ -1336,7 +1336,7 @@
         <v>4624</v>
       </c>
       <c r="H23">
-        <v>4759</v>
+        <v>4756</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1365,22 +1365,22 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4138</v>
+        <v>4135</v>
       </c>
       <c r="D24">
-        <v>4072</v>
+        <v>4076</v>
       </c>
       <c r="E24">
-        <v>4209</v>
+        <v>4198</v>
       </c>
       <c r="F24">
-        <v>4397</v>
+        <v>4394</v>
       </c>
       <c r="G24">
-        <v>4331</v>
+        <v>4333</v>
       </c>
       <c r="H24">
-        <v>4465</v>
+        <v>4461</v>
       </c>
       <c r="I24">
         <v>0.85</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4406</v>
+        <v>4415</v>
       </c>
       <c r="D25">
-        <v>4345</v>
+        <v>4351</v>
       </c>
       <c r="E25">
-        <v>4464</v>
+        <v>4473</v>
       </c>
       <c r="F25">
         <v>4387</v>
       </c>
       <c r="G25">
-        <v>4322</v>
+        <v>4325</v>
       </c>
       <c r="H25">
-        <v>4453</v>
+        <v>4452</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1433,7 +1433,7 @@
         <v>0.88</v>
       </c>
       <c r="K25">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L25">
         <v>0.9</v>
@@ -1453,22 +1453,22 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4012</v>
+        <v>4013</v>
       </c>
       <c r="D26">
-        <v>3952</v>
+        <v>3950</v>
       </c>
       <c r="E26">
-        <v>4079</v>
+        <v>4074</v>
       </c>
       <c r="F26">
         <v>4428</v>
       </c>
       <c r="G26">
-        <v>4364</v>
+        <v>4366</v>
       </c>
       <c r="H26">
-        <v>4496</v>
+        <v>4490</v>
       </c>
       <c r="I26">
         <v>0.97</v>
@@ -1477,7 +1477,7 @@
         <v>0.96</v>
       </c>
       <c r="K26">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L26">
         <v>0.88</v>
@@ -1497,19 +1497,19 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4119</v>
+        <v>4126</v>
       </c>
       <c r="D27">
-        <v>4063</v>
+        <v>4070</v>
       </c>
       <c r="E27">
-        <v>4192</v>
+        <v>4198</v>
       </c>
       <c r="F27">
-        <v>4169</v>
+        <v>4172</v>
       </c>
       <c r="G27">
-        <v>4108</v>
+        <v>4111</v>
       </c>
       <c r="H27">
         <v>4236</v>
@@ -1541,25 +1541,25 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3903</v>
+        <v>3904</v>
       </c>
       <c r="D28">
-        <v>3846</v>
+        <v>3839</v>
       </c>
       <c r="E28">
-        <v>3972</v>
+        <v>3979</v>
       </c>
       <c r="F28">
-        <v>4110</v>
+        <v>4114</v>
       </c>
       <c r="G28">
-        <v>4051</v>
+        <v>4052</v>
       </c>
       <c r="H28">
-        <v>4177</v>
+        <v>4181</v>
       </c>
       <c r="I28">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J28">
         <v>0.93</v>
@@ -1585,28 +1585,28 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3325</v>
+        <v>3321</v>
       </c>
       <c r="D29">
-        <v>3257</v>
+        <v>3244</v>
       </c>
       <c r="E29">
-        <v>3389</v>
+        <v>3384</v>
       </c>
       <c r="F29">
-        <v>3840</v>
+        <v>3841</v>
       </c>
       <c r="G29">
-        <v>3779</v>
+        <v>3776</v>
       </c>
       <c r="H29">
-        <v>3908</v>
+        <v>3909</v>
       </c>
       <c r="I29">
         <v>0.88</v>
       </c>
       <c r="J29">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K29">
         <v>0.89</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4375</v>
+        <v>4377</v>
       </c>
       <c r="D30">
-        <v>4305</v>
+        <v>4319</v>
       </c>
       <c r="E30">
-        <v>4437</v>
+        <v>4443</v>
       </c>
       <c r="F30">
-        <v>3930</v>
+        <v>3932</v>
       </c>
       <c r="G30">
         <v>3868</v>
       </c>
       <c r="H30">
-        <v>3997</v>
+        <v>4001</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1659,7 +1659,7 @@
         <v>0.92</v>
       </c>
       <c r="M30">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="N30">
         <v>0.93</v>
@@ -1676,7 +1676,7 @@
         <v>3591</v>
       </c>
       <c r="D31">
-        <v>3528</v>
+        <v>3535</v>
       </c>
       <c r="E31">
         <v>3654</v>
@@ -1688,7 +1688,7 @@
         <v>3734</v>
       </c>
       <c r="H31">
-        <v>3863</v>
+        <v>3865</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,19 +1717,19 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4029</v>
+        <v>4024</v>
       </c>
       <c r="D32">
-        <v>3963</v>
+        <v>3959</v>
       </c>
       <c r="E32">
-        <v>4101</v>
+        <v>4100</v>
       </c>
       <c r="F32">
-        <v>3830</v>
+        <v>3828</v>
       </c>
       <c r="G32">
-        <v>3763</v>
+        <v>3764</v>
       </c>
       <c r="H32">
         <v>3895</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3760</v>
+        <v>3757</v>
       </c>
       <c r="D33">
-        <v>3699</v>
+        <v>3693</v>
       </c>
       <c r="E33">
-        <v>3827</v>
+        <v>3831</v>
       </c>
       <c r="F33">
-        <v>3939</v>
+        <v>3937</v>
       </c>
       <c r="G33">
-        <v>3874</v>
+        <v>3876</v>
       </c>
       <c r="H33">
-        <v>4005</v>
+        <v>4007</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3765</v>
+        <v>3761</v>
       </c>
       <c r="D34">
-        <v>3702</v>
+        <v>3696</v>
       </c>
       <c r="E34">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="F34">
-        <v>3786</v>
+        <v>3783</v>
       </c>
       <c r="G34">
-        <v>3723</v>
+        <v>3721</v>
       </c>
       <c r="H34">
-        <v>3852</v>
+        <v>3853</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3060</v>
+        <v>3062</v>
       </c>
       <c r="D35">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="E35">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="F35">
-        <v>3654</v>
+        <v>3651</v>
       </c>
       <c r="G35">
-        <v>3591</v>
+        <v>3586</v>
       </c>
       <c r="H35">
-        <v>3719</v>
+        <v>3718</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2733</v>
+        <v>2735</v>
       </c>
       <c r="D36">
-        <v>2678</v>
+        <v>2671</v>
       </c>
       <c r="E36">
-        <v>2791</v>
+        <v>2799</v>
       </c>
       <c r="F36">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="G36">
-        <v>3270</v>
+        <v>3264</v>
       </c>
       <c r="H36">
-        <v>3391</v>
+        <v>3393</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1937,19 +1937,19 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3351</v>
+        <v>3349</v>
       </c>
       <c r="D37">
         <v>3291</v>
       </c>
       <c r="E37">
-        <v>3404</v>
+        <v>3401</v>
       </c>
       <c r="F37">
         <v>3227</v>
       </c>
       <c r="G37">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="H37">
         <v>3285</v>
@@ -1984,19 +1984,19 @@
         <v>3093</v>
       </c>
       <c r="D38">
-        <v>3028</v>
+        <v>3030</v>
       </c>
       <c r="E38">
-        <v>3162</v>
+        <v>3152</v>
       </c>
       <c r="F38">
-        <v>3059</v>
+        <v>3060</v>
       </c>
       <c r="G38">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="H38">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="D39">
-        <v>2837</v>
+        <v>2841</v>
       </c>
       <c r="E39">
-        <v>2961</v>
+        <v>2956</v>
       </c>
       <c r="F39">
-        <v>3018</v>
+        <v>3017</v>
       </c>
       <c r="G39">
         <v>2958</v>
       </c>
       <c r="H39">
-        <v>3079</v>
+        <v>3077</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2069,22 +2069,22 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2710</v>
+        <v>2705</v>
       </c>
       <c r="D40">
         <v>2657</v>
       </c>
       <c r="E40">
-        <v>2767</v>
+        <v>2758</v>
       </c>
       <c r="F40">
-        <v>3012</v>
+        <v>3010</v>
       </c>
       <c r="G40">
-        <v>2953</v>
+        <v>2955</v>
       </c>
       <c r="H40">
-        <v>3073</v>
+        <v>3067</v>
       </c>
       <c r="I40">
         <v>0.9</v>
@@ -2113,22 +2113,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2334</v>
+        <v>2332</v>
       </c>
       <c r="D41">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="E41">
-        <v>2385</v>
+        <v>2393</v>
       </c>
       <c r="F41">
-        <v>2758</v>
+        <v>2756</v>
       </c>
       <c r="G41">
-        <v>2700</v>
+        <v>2701</v>
       </c>
       <c r="H41">
-        <v>2819</v>
+        <v>2815</v>
       </c>
       <c r="I41">
         <v>0.85</v>
@@ -2137,7 +2137,7 @@
         <v>0.84</v>
       </c>
       <c r="K41">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L41">
         <v>0.8</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="D42">
-        <v>1966</v>
+        <v>1972</v>
       </c>
       <c r="E42">
-        <v>2068</v>
+        <v>2070</v>
       </c>
       <c r="F42">
-        <v>2490</v>
+        <v>2488</v>
       </c>
       <c r="G42">
-        <v>2434</v>
+        <v>2437</v>
       </c>
       <c r="H42">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="I42">
         <v>0.8100000000000001</v>
@@ -2181,7 +2181,7 @@
         <v>0.8</v>
       </c>
       <c r="K42">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="L42">
         <v>0.8100000000000001</v>
@@ -2201,22 +2201,22 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="D43">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="E43">
-        <v>2042</v>
+        <v>2048</v>
       </c>
       <c r="F43">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="G43">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="H43">
-        <v>2315</v>
+        <v>2317</v>
       </c>
       <c r="I43">
         <v>0.75</v>
@@ -2245,22 +2245,22 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1924</v>
+        <v>1923</v>
       </c>
       <c r="D44">
-        <v>1880</v>
+        <v>1875</v>
       </c>
       <c r="E44">
-        <v>1977</v>
+        <v>1966</v>
       </c>
       <c r="F44">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="G44">
         <v>2014</v>
       </c>
       <c r="H44">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="I44">
         <v>0.6899999999999999</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D45">
-        <v>1933</v>
+        <v>1939</v>
       </c>
       <c r="E45">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="F45">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="G45">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="H45">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I45">
         <v>0.72</v>
@@ -2333,28 +2333,28 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1951</v>
+        <v>1946</v>
       </c>
       <c r="D46">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="E46">
-        <v>2000</v>
+        <v>1992</v>
       </c>
       <c r="F46">
-        <v>1962</v>
+        <v>1961</v>
       </c>
       <c r="G46">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H46">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="I46">
         <v>0.79</v>
       </c>
       <c r="J46">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="K46">
         <v>0.8</v>
@@ -2380,19 +2380,19 @@
         <v>1776</v>
       </c>
       <c r="D47">
-        <v>1734</v>
+        <v>1726</v>
       </c>
       <c r="E47">
-        <v>1832</v>
+        <v>1829</v>
       </c>
       <c r="F47">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="G47">
-        <v>1862</v>
+        <v>1859</v>
       </c>
       <c r="H47">
-        <v>1961</v>
+        <v>1956</v>
       </c>
       <c r="I47">
         <v>0.84</v>
@@ -2421,19 +2421,19 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="D48">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="E48">
-        <v>1720</v>
+        <v>1729</v>
       </c>
       <c r="F48">
-        <v>1848</v>
+        <v>1847</v>
       </c>
       <c r="G48">
-        <v>1801</v>
+        <v>1800</v>
       </c>
       <c r="H48">
         <v>1897</v>
@@ -2465,22 +2465,22 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1465</v>
+        <v>1462</v>
       </c>
       <c r="D49">
-        <v>1404</v>
+        <v>1412</v>
       </c>
       <c r="E49">
-        <v>1524</v>
+        <v>1513</v>
       </c>
       <c r="F49">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="G49">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H49">
-        <v>1769</v>
+        <v>1766</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2489,7 +2489,7 @@
         <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2509,22 +2509,22 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="D50">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="E50">
-        <v>1367</v>
+        <v>1369</v>
       </c>
       <c r="F50">
-        <v>1560</v>
+        <v>1559</v>
       </c>
       <c r="G50">
-        <v>1512</v>
+        <v>1510</v>
       </c>
       <c r="H50">
-        <v>1611</v>
+        <v>1610</v>
       </c>
       <c r="I50">
         <v>0.8</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1568</v>
+        <v>1574</v>
       </c>
       <c r="D51">
-        <v>1516</v>
+        <v>1524</v>
       </c>
       <c r="E51">
-        <v>1620</v>
+        <v>1627</v>
       </c>
       <c r="F51">
         <v>1508</v>
       </c>
       <c r="G51">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="H51">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2600,10 +2600,10 @@
         <v>1375</v>
       </c>
       <c r="D52">
-        <v>1333</v>
+        <v>1326</v>
       </c>
       <c r="E52">
-        <v>1423</v>
+        <v>1425</v>
       </c>
       <c r="F52">
         <v>1432</v>
@@ -2612,10 +2612,10 @@
         <v>1382</v>
       </c>
       <c r="H52">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="I52">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J52">
         <v>0.76</v>
@@ -2641,13 +2641,13 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="D53">
-        <v>1268</v>
+        <v>1276</v>
       </c>
       <c r="E53">
-        <v>1364</v>
+        <v>1355</v>
       </c>
       <c r="F53">
         <v>1395</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="D54">
-        <v>1259</v>
+        <v>1268</v>
       </c>
       <c r="E54">
-        <v>1351</v>
+        <v>1356</v>
       </c>
       <c r="F54">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G54">
-        <v>1344</v>
+        <v>1348</v>
       </c>
       <c r="H54">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2732,16 +2732,16 @@
         <v>1164</v>
       </c>
       <c r="D55">
-        <v>1115</v>
+        <v>1120</v>
       </c>
       <c r="E55">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="F55">
         <v>1290</v>
       </c>
       <c r="G55">
-        <v>1244</v>
+        <v>1247</v>
       </c>
       <c r="H55">
         <v>1336</v>
@@ -2750,7 +2750,7 @@
         <v>0.86</v>
       </c>
       <c r="J55">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K55">
         <v>0.88</v>
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="D56">
-        <v>985</v>
+        <v>973</v>
       </c>
       <c r="E56">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="F56">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="G56">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="H56">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2817,22 +2817,22 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D57">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="E57">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="F57">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G57">
         <v>1064</v>
       </c>
       <c r="H57">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="I57">
         <v>0.79</v>
@@ -2841,7 +2841,7 @@
         <v>0.77</v>
       </c>
       <c r="K57">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L57">
         <v>0.82</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1117</v>
+        <v>1131</v>
       </c>
       <c r="D58">
-        <v>1055</v>
+        <v>1082</v>
       </c>
       <c r="E58">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="F58">
-        <v>1061</v>
+        <v>1063</v>
       </c>
       <c r="G58">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="H58">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2905,22 +2905,22 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="D59">
-        <v>888</v>
+        <v>877</v>
       </c>
       <c r="E59">
-        <v>976</v>
+        <v>991</v>
       </c>
       <c r="F59">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="G59">
         <v>957</v>
       </c>
       <c r="H59">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="I59">
         <v>0.78</v>
@@ -2938,7 +2938,7 @@
         <v>0.8</v>
       </c>
       <c r="N59">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -2949,22 +2949,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="D60">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="E60">
-        <v>946</v>
+        <v>929</v>
       </c>
       <c r="F60">
         <v>970</v>
       </c>
       <c r="G60">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="H60">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2973,7 +2973,7 @@
         <v>0.78</v>
       </c>
       <c r="K60">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L60">
         <v>0.8100000000000001</v>
@@ -2993,31 +2993,31 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>937</v>
+        <v>947</v>
       </c>
       <c r="D61">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="E61">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="F61">
-        <v>970</v>
+        <v>972</v>
       </c>
       <c r="G61">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="H61">
-        <v>1023</v>
+        <v>1025</v>
       </c>
       <c r="I61">
         <v>0.88</v>
       </c>
       <c r="J61">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="K61">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L61">
         <v>0.8100000000000001</v>
@@ -3037,22 +3037,22 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="D62">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="E62">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="F62">
         <v>890</v>
       </c>
       <c r="G62">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H62">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="I62">
         <v>0.84</v>
@@ -3084,19 +3084,19 @@
         <v>745</v>
       </c>
       <c r="D63">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E63">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F63">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G63">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="H63">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="I63">
         <v>0.84</v>
@@ -3105,7 +3105,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="K63">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L63">
         <v>0.84</v>
@@ -3125,28 +3125,28 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D64">
         <v>731</v>
       </c>
       <c r="E64">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="F64">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="G64">
-        <v>767</v>
+        <v>770</v>
       </c>
       <c r="H64">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="I64">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J64">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K64">
         <v>0.88</v>
@@ -3169,22 +3169,22 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>917</v>
+        <v>927</v>
       </c>
       <c r="D65">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E65">
-        <v>998</v>
+        <v>1001</v>
       </c>
       <c r="F65">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="G65">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="H65">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="I65">
         <v>0.84</v>
@@ -3193,7 +3193,7 @@
         <v>0.8</v>
       </c>
       <c r="K65">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L65">
         <v>0.89</v>
@@ -3213,28 +3213,28 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>831</v>
+        <v>839</v>
       </c>
       <c r="D66">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="E66">
-        <v>900</v>
+        <v>916</v>
       </c>
       <c r="F66">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="G66">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H66">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="I66">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J66">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K66">
         <v>0.97</v>
@@ -3246,7 +3246,7 @@
         <v>0.89</v>
       </c>
       <c r="N66">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3257,37 +3257,37 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D67">
-        <v>700</v>
+        <v>720</v>
       </c>
       <c r="E67">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F67">
-        <v>829</v>
+        <v>833</v>
       </c>
       <c r="G67">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="H67">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="I67">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="J67">
         <v>0.9399999999999999</v>
       </c>
       <c r="K67">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="L67">
         <v>0.9</v>
       </c>
       <c r="M67">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="N67">
         <v>0.93</v>
@@ -3301,31 +3301,31 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="D68">
-        <v>629</v>
+        <v>658</v>
       </c>
       <c r="E68">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="F68">
-        <v>812</v>
+        <v>819</v>
       </c>
       <c r="G68">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="H68">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="I68">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="J68">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K68">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="L68">
         <v>0.91</v>
@@ -3345,31 +3345,31 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="D69">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="E69">
-        <v>765</v>
+        <v>730</v>
       </c>
       <c r="F69">
         <v>752</v>
       </c>
       <c r="G69">
-        <v>671</v>
+        <v>682</v>
       </c>
       <c r="H69">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="I69">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J69">
         <v>0.87</v>
       </c>
       <c r="K69">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L69">
         <v>0.9</v>
@@ -3378,7 +3378,7 @@
         <v>0.87</v>
       </c>
       <c r="N69">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3389,40 +3389,40 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="D70">
-        <v>516</v>
+        <v>528</v>
       </c>
       <c r="E70">
-        <v>745</v>
+        <v>681</v>
       </c>
       <c r="F70">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="G70">
-        <v>608</v>
+        <v>624</v>
       </c>
       <c r="H70">
-        <v>792</v>
+        <v>767</v>
       </c>
       <c r="I70">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J70">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="K70">
-        <v>0.92</v>
+        <v>0.89</v>
       </c>
       <c r="L70">
         <v>0.88</v>
       </c>
       <c r="M70">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="N70">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3433,37 +3433,37 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="D71">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E71">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="F71">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="G71">
-        <v>548</v>
+        <v>564</v>
       </c>
       <c r="H71">
-        <v>743</v>
+        <v>716</v>
       </c>
       <c r="I71">
         <v>0.77</v>
       </c>
       <c r="J71">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="K71">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L71">
         <v>0.86</v>
       </c>
       <c r="M71">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N71">
         <v>0.9</v>
@@ -3477,40 +3477,40 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>647</v>
+        <v>630</v>
       </c>
       <c r="D72">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="E72">
-        <v>769</v>
+        <v>743</v>
       </c>
       <c r="F72">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="G72">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="H72">
-        <v>733</v>
+        <v>702</v>
       </c>
       <c r="I72">
-        <v>0.77</v>
+        <v>0.75</v>
       </c>
       <c r="J72">
-        <v>0.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K72">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L72">
         <v>0.85</v>
       </c>
       <c r="M72">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N72">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3521,40 +3521,40 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>657</v>
+        <v>681</v>
       </c>
       <c r="D73">
-        <v>476</v>
+        <v>539</v>
       </c>
       <c r="E73">
-        <v>861</v>
+        <v>826</v>
       </c>
       <c r="F73">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="G73">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="H73">
-        <v>757</v>
+        <v>726</v>
       </c>
       <c r="I73">
         <v>0.82</v>
       </c>
       <c r="J73">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="K73">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="L73">
         <v>0.83</v>
       </c>
       <c r="M73">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="N73">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3565,40 +3565,40 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D74">
-        <v>359</v>
+        <v>391</v>
       </c>
       <c r="E74">
-        <v>710</v>
+        <v>681</v>
       </c>
       <c r="F74">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="G74">
-        <v>456</v>
+        <v>484</v>
       </c>
       <c r="H74">
-        <v>749</v>
+        <v>725</v>
       </c>
       <c r="I74">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="J74">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="K74">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="L74">
         <v>0.82</v>
       </c>
       <c r="M74">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="N74">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3609,31 +3609,75 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>493</v>
+        <v>512</v>
       </c>
       <c r="D75">
-        <v>296</v>
+        <v>319</v>
       </c>
       <c r="E75">
-        <v>749</v>
+        <v>676</v>
       </c>
       <c r="F75">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="G75">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="H75">
-        <v>772</v>
+        <v>731</v>
       </c>
       <c r="I75">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="J75">
-        <v>0.77</v>
+        <v>0.8</v>
       </c>
       <c r="K75">
-        <v>1.09</v>
+        <v>1.05</v>
+      </c>
+      <c r="L75">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="M75">
+        <v>0.75</v>
+      </c>
+      <c r="N75">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2">
+        <v>43966</v>
+      </c>
+      <c r="C76">
+        <v>373</v>
+      </c>
+      <c r="D76">
+        <v>233</v>
+      </c>
+      <c r="E76">
+        <v>594</v>
+      </c>
+      <c r="F76">
+        <v>527</v>
+      </c>
+      <c r="G76">
+        <v>371</v>
+      </c>
+      <c r="H76">
+        <v>694</v>
+      </c>
+      <c r="I76">
+        <v>0.86</v>
+      </c>
+      <c r="J76">
+        <v>0.73</v>
+      </c>
+      <c r="K76">
+        <v>1.02</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glä</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glät</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N76"/>
+  <dimension ref="A1:N77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +469,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F2">
         <v>228</v>
       </c>
       <c r="G2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H2">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -498,10 +498,10 @@
         <v>330</v>
       </c>
       <c r="D3">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E3">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F3">
         <v>265</v>
@@ -521,22 +521,22 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D4">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E4">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F4">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H4">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -550,16 +550,16 @@
         <v>504</v>
       </c>
       <c r="D5">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E5">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="F5">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G5">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H5">
         <v>420</v>
@@ -573,28 +573,28 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D6">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="E6">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F6">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G6">
         <v>492</v>
       </c>
       <c r="H6">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I6">
         <v>2.25</v>
       </c>
       <c r="J6">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="K6">
         <v>2.33</v>
@@ -606,7 +606,7 @@
         <v>2.27</v>
       </c>
       <c r="N6">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,31 +617,31 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="D7">
-        <v>952</v>
+        <v>956</v>
       </c>
       <c r="E7">
-        <v>1012</v>
+        <v>1018</v>
       </c>
       <c r="F7">
         <v>677</v>
       </c>
       <c r="G7">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="H7">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I7">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="J7">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="K7">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
       <c r="L7">
         <v>2.53</v>
@@ -650,7 +650,7 @@
         <v>2.48</v>
       </c>
       <c r="N7">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -661,25 +661,25 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="D8">
-        <v>1304</v>
+        <v>1300</v>
       </c>
       <c r="E8">
-        <v>1374</v>
+        <v>1370</v>
       </c>
       <c r="F8">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="G8">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H8">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I8">
-        <v>2.7</v>
+        <v>2.71</v>
       </c>
       <c r="J8">
         <v>2.63</v>
@@ -705,13 +705,13 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D9">
-        <v>1938</v>
+        <v>1946</v>
       </c>
       <c r="E9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="F9">
         <v>1267</v>
@@ -726,19 +726,19 @@
         <v>3.17</v>
       </c>
       <c r="J9">
-        <v>3.09</v>
+        <v>3.08</v>
       </c>
       <c r="K9">
         <v>3.25</v>
       </c>
       <c r="L9">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="M9">
-        <v>3.03</v>
+        <v>3.04</v>
       </c>
       <c r="N9">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +749,40 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2558</v>
+        <v>2569</v>
       </c>
       <c r="D10">
-        <v>2516</v>
+        <v>2521</v>
       </c>
       <c r="E10">
-        <v>2610</v>
+        <v>2615</v>
       </c>
       <c r="F10">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="G10">
-        <v>1677</v>
+        <v>1681</v>
       </c>
       <c r="H10">
-        <v>1755</v>
+        <v>1757</v>
       </c>
       <c r="I10">
-        <v>3.34</v>
+        <v>3.35</v>
       </c>
       <c r="J10">
-        <v>3.26</v>
+        <v>3.28</v>
       </c>
       <c r="K10">
-        <v>3.42</v>
+        <v>3.44</v>
       </c>
       <c r="L10">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="M10">
         <v>3.12</v>
       </c>
       <c r="N10">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,25 +793,25 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3222</v>
+        <v>3225</v>
       </c>
       <c r="D11">
-        <v>3172</v>
+        <v>3173</v>
       </c>
       <c r="E11">
-        <v>3272</v>
+        <v>3270</v>
       </c>
       <c r="F11">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="G11">
-        <v>2232</v>
+        <v>2235</v>
       </c>
       <c r="H11">
         <v>2320</v>
       </c>
       <c r="I11">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="J11">
         <v>3.3</v>
@@ -820,13 +820,13 @@
         <v>3.43</v>
       </c>
       <c r="L11">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="M11">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="N11">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,40 +837,40 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3593</v>
+        <v>3599</v>
       </c>
       <c r="D12">
-        <v>3533</v>
+        <v>3546</v>
       </c>
       <c r="E12">
-        <v>3647</v>
+        <v>3660</v>
       </c>
       <c r="F12">
-        <v>2840</v>
+        <v>2844</v>
       </c>
       <c r="G12">
-        <v>2790</v>
+        <v>2797</v>
       </c>
       <c r="H12">
-        <v>2888</v>
+        <v>2892</v>
       </c>
       <c r="I12">
         <v>3.17</v>
       </c>
       <c r="J12">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="K12">
         <v>3.23</v>
       </c>
       <c r="L12">
-        <v>2.84</v>
+        <v>2.85</v>
       </c>
       <c r="M12">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
       <c r="N12">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -881,31 +881,31 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4382</v>
+        <v>4395</v>
       </c>
       <c r="D13">
-        <v>4329</v>
+        <v>4320</v>
       </c>
       <c r="E13">
-        <v>4436</v>
+        <v>4455</v>
       </c>
       <c r="F13">
-        <v>3439</v>
+        <v>3447</v>
       </c>
       <c r="G13">
-        <v>3387</v>
+        <v>3390</v>
       </c>
       <c r="H13">
-        <v>3491</v>
+        <v>3500</v>
       </c>
       <c r="I13">
-        <v>2.71</v>
+        <v>2.72</v>
       </c>
       <c r="J13">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="K13">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="L13">
         <v>2.51</v>
@@ -925,31 +925,31 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4488</v>
+        <v>4478</v>
       </c>
       <c r="D14">
-        <v>4433</v>
+        <v>4420</v>
       </c>
       <c r="E14">
-        <v>4549</v>
+        <v>4540</v>
       </c>
       <c r="F14">
-        <v>3921</v>
+        <v>3924</v>
       </c>
       <c r="G14">
-        <v>3867</v>
+        <v>3865</v>
       </c>
       <c r="H14">
-        <v>3976</v>
+        <v>3981</v>
       </c>
       <c r="I14">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="J14">
         <v>2.26</v>
       </c>
       <c r="K14">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="L14">
         <v>2.2</v>
@@ -958,7 +958,7 @@
         <v>2.18</v>
       </c>
       <c r="N14">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,28 +969,28 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4731</v>
+        <v>4720</v>
       </c>
       <c r="D15">
-        <v>4657</v>
+        <v>4647</v>
       </c>
       <c r="E15">
-        <v>4791</v>
+        <v>4783</v>
       </c>
       <c r="F15">
-        <v>4299</v>
+        <v>4298</v>
       </c>
       <c r="G15">
-        <v>4238</v>
+        <v>4233</v>
       </c>
       <c r="H15">
-        <v>4355</v>
+        <v>4359</v>
       </c>
       <c r="I15">
         <v>1.89</v>
       </c>
       <c r="J15">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="K15">
         <v>1.91</v>
@@ -1013,25 +1013,25 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6015</v>
+        <v>6021</v>
       </c>
       <c r="D16">
-        <v>5952</v>
+        <v>5947</v>
       </c>
       <c r="E16">
-        <v>6092</v>
+        <v>6087</v>
       </c>
       <c r="F16">
-        <v>4904</v>
+        <v>4903</v>
       </c>
       <c r="G16">
-        <v>4843</v>
+        <v>4833</v>
       </c>
       <c r="H16">
-        <v>4967</v>
+        <v>4966</v>
       </c>
       <c r="I16">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="J16">
         <v>1.71</v>
@@ -1057,25 +1057,25 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5249</v>
+        <v>5243</v>
       </c>
       <c r="D17">
-        <v>5184</v>
+        <v>5172</v>
       </c>
       <c r="E17">
-        <v>5319</v>
+        <v>5320</v>
       </c>
       <c r="F17">
-        <v>5121</v>
+        <v>5115</v>
       </c>
       <c r="G17">
-        <v>5057</v>
+        <v>5046</v>
       </c>
       <c r="H17">
-        <v>5187</v>
+        <v>5182</v>
       </c>
       <c r="I17">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J17">
         <v>1.47</v>
@@ -1084,13 +1084,13 @@
         <v>1.5</v>
       </c>
       <c r="L17">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M17">
         <v>1.56</v>
       </c>
       <c r="N17">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1101,22 +1101,22 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5320</v>
+        <v>5322</v>
       </c>
       <c r="D18">
-        <v>5257</v>
+        <v>5260</v>
       </c>
       <c r="E18">
         <v>5385</v>
       </c>
       <c r="F18">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="G18">
-        <v>5263</v>
+        <v>5256</v>
       </c>
       <c r="H18">
-        <v>5397</v>
+        <v>5394</v>
       </c>
       <c r="I18">
         <v>1.36</v>
@@ -1145,22 +1145,22 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4740</v>
+        <v>4735</v>
       </c>
       <c r="D19">
-        <v>4683</v>
+        <v>4674</v>
       </c>
       <c r="E19">
-        <v>4806</v>
+        <v>4801</v>
       </c>
       <c r="F19">
-        <v>5331</v>
+        <v>5330</v>
       </c>
       <c r="G19">
-        <v>5269</v>
+        <v>5263</v>
       </c>
       <c r="H19">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="I19">
         <v>1.24</v>
@@ -1189,22 +1189,22 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5314</v>
+        <v>5320</v>
       </c>
       <c r="D20">
-        <v>5240</v>
+        <v>5258</v>
       </c>
       <c r="E20">
-        <v>5375</v>
+        <v>5382</v>
       </c>
       <c r="F20">
-        <v>5156</v>
+        <v>5155</v>
       </c>
       <c r="G20">
         <v>5091</v>
       </c>
       <c r="H20">
-        <v>5221</v>
+        <v>5222</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1219,7 +1219,7 @@
         <v>1.13</v>
       </c>
       <c r="M20">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="N20">
         <v>1.14</v>
@@ -1233,19 +1233,19 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4444</v>
+        <v>4440</v>
       </c>
       <c r="D21">
-        <v>4383</v>
+        <v>4377</v>
       </c>
       <c r="E21">
-        <v>4509</v>
+        <v>4507</v>
       </c>
       <c r="F21">
-        <v>4954</v>
+        <v>4955</v>
       </c>
       <c r="G21">
-        <v>4891</v>
+        <v>4892</v>
       </c>
       <c r="H21">
         <v>5019</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3849</v>
+        <v>3845</v>
       </c>
       <c r="D22">
-        <v>3786</v>
+        <v>3779</v>
       </c>
       <c r="E22">
-        <v>3922</v>
+        <v>3913</v>
       </c>
       <c r="F22">
-        <v>4587</v>
+        <v>4585</v>
       </c>
       <c r="G22">
-        <v>4523</v>
+        <v>4522</v>
       </c>
       <c r="H22">
-        <v>4653</v>
+        <v>4651</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,19 +1321,19 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5151</v>
+        <v>5169</v>
       </c>
       <c r="D23">
-        <v>5088</v>
+        <v>5105</v>
       </c>
       <c r="E23">
-        <v>5217</v>
+        <v>5223</v>
       </c>
       <c r="F23">
-        <v>4689</v>
+        <v>4693</v>
       </c>
       <c r="G23">
-        <v>4624</v>
+        <v>4630</v>
       </c>
       <c r="H23">
         <v>4756</v>
@@ -1354,7 +1354,7 @@
         <v>0.91</v>
       </c>
       <c r="N23">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1365,22 +1365,22 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4135</v>
+        <v>4126</v>
       </c>
       <c r="D24">
-        <v>4076</v>
+        <v>4065</v>
       </c>
       <c r="E24">
         <v>4198</v>
       </c>
       <c r="F24">
-        <v>4394</v>
+        <v>4395</v>
       </c>
       <c r="G24">
-        <v>4333</v>
+        <v>4331</v>
       </c>
       <c r="H24">
-        <v>4461</v>
+        <v>4460</v>
       </c>
       <c r="I24">
         <v>0.85</v>
@@ -1392,7 +1392,7 @@
         <v>0.86</v>
       </c>
       <c r="L24">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M24">
         <v>0.89</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4415</v>
+        <v>4409</v>
       </c>
       <c r="D25">
-        <v>4351</v>
+        <v>4342</v>
       </c>
       <c r="E25">
-        <v>4473</v>
+        <v>4480</v>
       </c>
       <c r="F25">
         <v>4387</v>
       </c>
       <c r="G25">
-        <v>4325</v>
+        <v>4323</v>
       </c>
       <c r="H25">
-        <v>4452</v>
+        <v>4453</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1453,22 +1453,22 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4013</v>
+        <v>4017</v>
       </c>
       <c r="D26">
-        <v>3950</v>
+        <v>3964</v>
       </c>
       <c r="E26">
-        <v>4074</v>
+        <v>4099</v>
       </c>
       <c r="F26">
-        <v>4428</v>
+        <v>4430</v>
       </c>
       <c r="G26">
-        <v>4366</v>
+        <v>4369</v>
       </c>
       <c r="H26">
-        <v>4490</v>
+        <v>4500</v>
       </c>
       <c r="I26">
         <v>0.97</v>
@@ -1477,7 +1477,7 @@
         <v>0.96</v>
       </c>
       <c r="K26">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L26">
         <v>0.88</v>
@@ -1500,19 +1500,19 @@
         <v>4126</v>
       </c>
       <c r="D27">
-        <v>4070</v>
+        <v>4071</v>
       </c>
       <c r="E27">
-        <v>4198</v>
+        <v>4191</v>
       </c>
       <c r="F27">
-        <v>4172</v>
+        <v>4170</v>
       </c>
       <c r="G27">
-        <v>4111</v>
+        <v>4110</v>
       </c>
       <c r="H27">
-        <v>4236</v>
+        <v>4242</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,28 +1541,28 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3904</v>
+        <v>3899</v>
       </c>
       <c r="D28">
-        <v>3839</v>
+        <v>3838</v>
       </c>
       <c r="E28">
-        <v>3979</v>
+        <v>3960</v>
       </c>
       <c r="F28">
-        <v>4114</v>
+        <v>4113</v>
       </c>
       <c r="G28">
-        <v>4052</v>
+        <v>4054</v>
       </c>
       <c r="H28">
-        <v>4181</v>
+        <v>4182</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
       </c>
       <c r="J28">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K28">
         <v>0.95</v>
@@ -1585,22 +1585,22 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3321</v>
+        <v>3314</v>
       </c>
       <c r="D29">
-        <v>3244</v>
+        <v>3254</v>
       </c>
       <c r="E29">
-        <v>3384</v>
+        <v>3375</v>
       </c>
       <c r="F29">
-        <v>3841</v>
+        <v>3839</v>
       </c>
       <c r="G29">
-        <v>3776</v>
+        <v>3781</v>
       </c>
       <c r="H29">
-        <v>3909</v>
+        <v>3906</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4377</v>
+        <v>4384</v>
       </c>
       <c r="D30">
-        <v>4319</v>
+        <v>4322</v>
       </c>
       <c r="E30">
-        <v>4443</v>
+        <v>4456</v>
       </c>
       <c r="F30">
-        <v>3932</v>
+        <v>3931</v>
       </c>
       <c r="G30">
-        <v>3868</v>
+        <v>3871</v>
       </c>
       <c r="H30">
-        <v>4001</v>
+        <v>3995</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3591</v>
+        <v>3590</v>
       </c>
       <c r="D31">
-        <v>3535</v>
+        <v>3520</v>
       </c>
       <c r="E31">
-        <v>3654</v>
+        <v>3672</v>
       </c>
       <c r="F31">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="G31">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="H31">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4024</v>
+        <v>4026</v>
       </c>
       <c r="D32">
-        <v>3959</v>
+        <v>3957</v>
       </c>
       <c r="E32">
-        <v>4100</v>
+        <v>4090</v>
       </c>
       <c r="F32">
         <v>3828</v>
       </c>
       <c r="G32">
-        <v>3764</v>
+        <v>3763</v>
       </c>
       <c r="H32">
-        <v>3895</v>
+        <v>3898</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1764,19 +1764,19 @@
         <v>3757</v>
       </c>
       <c r="D33">
-        <v>3693</v>
+        <v>3692</v>
       </c>
       <c r="E33">
-        <v>3831</v>
+        <v>3834</v>
       </c>
       <c r="F33">
-        <v>3937</v>
+        <v>3939</v>
       </c>
       <c r="G33">
-        <v>3876</v>
+        <v>3873</v>
       </c>
       <c r="H33">
-        <v>4007</v>
+        <v>4013</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3761</v>
+        <v>3764</v>
       </c>
       <c r="D34">
-        <v>3696</v>
+        <v>3689</v>
       </c>
       <c r="E34">
-        <v>3827</v>
+        <v>3826</v>
       </c>
       <c r="F34">
-        <v>3783</v>
+        <v>3784</v>
       </c>
       <c r="G34">
-        <v>3721</v>
+        <v>3714</v>
       </c>
       <c r="H34">
-        <v>3853</v>
+        <v>3855</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3062</v>
+        <v>3055</v>
       </c>
       <c r="D35">
-        <v>2998</v>
+        <v>2993</v>
       </c>
       <c r="E35">
-        <v>3115</v>
+        <v>3118</v>
       </c>
       <c r="F35">
-        <v>3651</v>
+        <v>3650</v>
       </c>
       <c r="G35">
-        <v>3586</v>
+        <v>3582</v>
       </c>
       <c r="H35">
-        <v>3718</v>
+        <v>3717</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="D36">
-        <v>2671</v>
+        <v>2676</v>
       </c>
       <c r="E36">
-        <v>2799</v>
+        <v>2802</v>
       </c>
       <c r="F36">
         <v>3329</v>
       </c>
       <c r="G36">
-        <v>3264</v>
+        <v>3262</v>
       </c>
       <c r="H36">
-        <v>3393</v>
+        <v>3395</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3349</v>
+        <v>3348</v>
       </c>
       <c r="D37">
-        <v>3291</v>
+        <v>3280</v>
       </c>
       <c r="E37">
-        <v>3401</v>
+        <v>3411</v>
       </c>
       <c r="F37">
-        <v>3227</v>
+        <v>3226</v>
       </c>
       <c r="G37">
-        <v>3164</v>
+        <v>3159</v>
       </c>
       <c r="H37">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="I37">
         <v>0.82</v>
@@ -1984,19 +1984,19 @@
         <v>3093</v>
       </c>
       <c r="D38">
-        <v>3030</v>
+        <v>3035</v>
       </c>
       <c r="E38">
-        <v>3152</v>
+        <v>3158</v>
       </c>
       <c r="F38">
-        <v>3060</v>
+        <v>3058</v>
       </c>
       <c r="G38">
-        <v>2997</v>
+        <v>2996</v>
       </c>
       <c r="H38">
-        <v>3116</v>
+        <v>3122</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2025,19 +2025,19 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2893</v>
+        <v>2891</v>
       </c>
       <c r="D39">
-        <v>2841</v>
+        <v>2836</v>
       </c>
       <c r="E39">
-        <v>2956</v>
+        <v>2939</v>
       </c>
       <c r="F39">
-        <v>3017</v>
+        <v>3018</v>
       </c>
       <c r="G39">
-        <v>2958</v>
+        <v>2957</v>
       </c>
       <c r="H39">
         <v>3077</v>
@@ -2046,7 +2046,7 @@
         <v>0.83</v>
       </c>
       <c r="J39">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K39">
         <v>0.84</v>
@@ -2069,22 +2069,22 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2705</v>
+        <v>2703</v>
       </c>
       <c r="D40">
-        <v>2657</v>
+        <v>2646</v>
       </c>
       <c r="E40">
-        <v>2758</v>
+        <v>2764</v>
       </c>
       <c r="F40">
-        <v>3010</v>
+        <v>3009</v>
       </c>
       <c r="G40">
-        <v>2955</v>
+        <v>2949</v>
       </c>
       <c r="H40">
-        <v>3067</v>
+        <v>3068</v>
       </c>
       <c r="I40">
         <v>0.9</v>
@@ -2113,22 +2113,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2332</v>
+        <v>2329</v>
       </c>
       <c r="D41">
-        <v>2278</v>
+        <v>2275</v>
       </c>
       <c r="E41">
-        <v>2393</v>
+        <v>2391</v>
       </c>
       <c r="F41">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="G41">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="H41">
-        <v>2815</v>
+        <v>2813</v>
       </c>
       <c r="I41">
         <v>0.85</v>
@@ -2137,7 +2137,7 @@
         <v>0.84</v>
       </c>
       <c r="K41">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L41">
         <v>0.8</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="D42">
-        <v>1972</v>
+        <v>1971</v>
       </c>
       <c r="E42">
         <v>2070</v>
       </c>
       <c r="F42">
-        <v>2488</v>
+        <v>2486</v>
       </c>
       <c r="G42">
-        <v>2437</v>
+        <v>2432</v>
       </c>
       <c r="H42">
-        <v>2544</v>
+        <v>2541</v>
       </c>
       <c r="I42">
         <v>0.8100000000000001</v>
@@ -2181,13 +2181,13 @@
         <v>0.8</v>
       </c>
       <c r="K42">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L42">
         <v>0.8100000000000001</v>
       </c>
       <c r="M42">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="N42">
         <v>0.82</v>
@@ -2201,19 +2201,19 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1989</v>
+        <v>1992</v>
       </c>
       <c r="D43">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="E43">
-        <v>2048</v>
+        <v>2043</v>
       </c>
       <c r="F43">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="G43">
-        <v>2210</v>
+        <v>2207</v>
       </c>
       <c r="H43">
         <v>2317</v>
@@ -2228,7 +2228,7 @@
         <v>0.76</v>
       </c>
       <c r="L43">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M43">
         <v>0.78</v>
@@ -2245,19 +2245,19 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D44">
-        <v>1875</v>
+        <v>1870</v>
       </c>
       <c r="E44">
-        <v>1966</v>
+        <v>1971</v>
       </c>
       <c r="F44">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="G44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="H44">
         <v>2119</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="D45">
-        <v>1939</v>
+        <v>1927</v>
       </c>
       <c r="E45">
-        <v>2039</v>
+        <v>2030</v>
       </c>
       <c r="F45">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G45">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="H45">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="I45">
         <v>0.72</v>
@@ -2333,19 +2333,19 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1946</v>
+        <v>1951</v>
       </c>
       <c r="D46">
-        <v>1897</v>
+        <v>1905</v>
       </c>
       <c r="E46">
-        <v>1992</v>
+        <v>2001</v>
       </c>
       <c r="F46">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="G46">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="H46">
         <v>2011</v>
@@ -2377,25 +2377,25 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1776</v>
+        <v>1784</v>
       </c>
       <c r="D47">
-        <v>1726</v>
+        <v>1731</v>
       </c>
       <c r="E47">
-        <v>1829</v>
+        <v>1836</v>
       </c>
       <c r="F47">
-        <v>1907</v>
+        <v>1911</v>
       </c>
       <c r="G47">
-        <v>1859</v>
+        <v>1858</v>
       </c>
       <c r="H47">
-        <v>1956</v>
+        <v>1960</v>
       </c>
       <c r="I47">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J47">
         <v>0.83</v>
@@ -2421,25 +2421,25 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1681</v>
+        <v>1677</v>
       </c>
       <c r="D48">
-        <v>1637</v>
+        <v>1632</v>
       </c>
       <c r="E48">
         <v>1729</v>
       </c>
       <c r="F48">
-        <v>1847</v>
+        <v>1849</v>
       </c>
       <c r="G48">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="H48">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="I48">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J48">
         <v>0.88</v>
@@ -2465,22 +2465,22 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="D49">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="E49">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="F49">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="G49">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="H49">
-        <v>1766</v>
+        <v>1770</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2489,7 +2489,7 @@
         <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2509,25 +2509,25 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1317</v>
+        <v>1319</v>
       </c>
       <c r="D50">
-        <v>1267</v>
+        <v>1275</v>
       </c>
       <c r="E50">
-        <v>1369</v>
+        <v>1365</v>
       </c>
       <c r="F50">
         <v>1559</v>
       </c>
       <c r="G50">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="H50">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="I50">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J50">
         <v>0.78</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="D51">
-        <v>1524</v>
+        <v>1519</v>
       </c>
       <c r="E51">
-        <v>1627</v>
+        <v>1633</v>
       </c>
       <c r="F51">
-        <v>1508</v>
+        <v>1506</v>
       </c>
       <c r="G51">
-        <v>1460</v>
+        <v>1458</v>
       </c>
       <c r="H51">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2580,13 +2580,13 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L51">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="M51">
         <v>0.83</v>
       </c>
       <c r="N51">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2597,25 +2597,25 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="D52">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="E52">
-        <v>1425</v>
+        <v>1432</v>
       </c>
       <c r="F52">
-        <v>1432</v>
+        <v>1430</v>
       </c>
       <c r="G52">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H52">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="I52">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="J52">
         <v>0.76</v>
@@ -2641,28 +2641,28 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1314</v>
+        <v>1310</v>
       </c>
       <c r="D53">
-        <v>1276</v>
+        <v>1257</v>
       </c>
       <c r="E53">
-        <v>1355</v>
+        <v>1359</v>
       </c>
       <c r="F53">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G53">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="H53">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="I53">
         <v>0.8100000000000001</v>
       </c>
       <c r="J53">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K53">
         <v>0.83</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1308</v>
+        <v>1299</v>
       </c>
       <c r="D54">
-        <v>1268</v>
+        <v>1255</v>
       </c>
       <c r="E54">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="F54">
-        <v>1393</v>
+        <v>1388</v>
       </c>
       <c r="G54">
-        <v>1348</v>
+        <v>1339</v>
       </c>
       <c r="H54">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2729,31 +2729,31 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D55">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="E55">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="F55">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="G55">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="H55">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I55">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J55">
         <v>0.83</v>
       </c>
       <c r="K55">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L55">
         <v>0.8100000000000001</v>
@@ -2762,7 +2762,7 @@
         <v>0.8</v>
       </c>
       <c r="N55">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="D56">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="E56">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F56">
-        <v>1201</v>
+        <v>1197</v>
       </c>
       <c r="G56">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="H56">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2803,10 +2803,10 @@
         <v>0.83</v>
       </c>
       <c r="M56">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N56">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2817,22 +2817,22 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>936</v>
+        <v>929</v>
       </c>
       <c r="D57">
-        <v>895</v>
+        <v>885</v>
       </c>
       <c r="E57">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="F57">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="G57">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="H57">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="I57">
         <v>0.79</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D58">
         <v>1082</v>
       </c>
       <c r="E58">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="F58">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="G58">
         <v>1017</v>
       </c>
       <c r="H58">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2905,28 +2905,28 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>927</v>
+        <v>933</v>
       </c>
       <c r="D59">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="E59">
-        <v>991</v>
+        <v>978</v>
       </c>
       <c r="F59">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="G59">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="H59">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="I59">
         <v>0.78</v>
       </c>
       <c r="J59">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K59">
         <v>0.8</v>
@@ -2938,7 +2938,7 @@
         <v>0.8</v>
       </c>
       <c r="N59">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -2949,37 +2949,37 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="D60">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="E60">
-        <v>929</v>
+        <v>938</v>
       </c>
       <c r="F60">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="G60">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H60">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
       </c>
       <c r="J60">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="K60">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L60">
         <v>0.8100000000000001</v>
       </c>
       <c r="M60">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="N60">
         <v>0.82</v>
@@ -2993,22 +2993,22 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="D61">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E61">
-        <v>1004</v>
+        <v>989</v>
       </c>
       <c r="F61">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="G61">
         <v>922</v>
       </c>
       <c r="H61">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="I61">
         <v>0.88</v>
@@ -3037,22 +3037,22 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="D62">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="E62">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F62">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="G62">
         <v>842</v>
       </c>
       <c r="H62">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="I62">
         <v>0.84</v>
@@ -3061,7 +3061,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="K62">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L62">
         <v>0.82</v>
@@ -3081,16 +3081,16 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="D63">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E63">
-        <v>793</v>
+        <v>803</v>
       </c>
       <c r="F63">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="G63">
         <v>797</v>
@@ -3099,16 +3099,16 @@
         <v>895</v>
       </c>
       <c r="I63">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J63">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K63">
         <v>0.88</v>
       </c>
       <c r="L63">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="M63">
         <v>0.83</v>
@@ -3125,22 +3125,22 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D64">
-        <v>731</v>
+        <v>744</v>
       </c>
       <c r="E64">
-        <v>836</v>
+        <v>840</v>
       </c>
       <c r="F64">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="G64">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="H64">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="I64">
         <v>0.85</v>
@@ -3169,28 +3169,28 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="D65">
-        <v>855</v>
+        <v>878</v>
       </c>
       <c r="E65">
-        <v>1001</v>
+        <v>972</v>
       </c>
       <c r="F65">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="G65">
-        <v>761</v>
+        <v>772</v>
       </c>
       <c r="H65">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="I65">
         <v>0.84</v>
       </c>
       <c r="J65">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K65">
         <v>0.87</v>
@@ -3199,7 +3199,7 @@
         <v>0.89</v>
       </c>
       <c r="M65">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="N65">
         <v>0.91</v>
@@ -3213,22 +3213,22 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D66">
-        <v>758</v>
+        <v>771</v>
       </c>
       <c r="E66">
-        <v>916</v>
+        <v>904</v>
       </c>
       <c r="F66">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="G66">
-        <v>761</v>
+        <v>774</v>
       </c>
       <c r="H66">
-        <v>887</v>
+        <v>880</v>
       </c>
       <c r="I66">
         <v>0.93</v>
@@ -3237,10 +3237,10 @@
         <v>0.89</v>
       </c>
       <c r="K66">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="L66">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M66">
         <v>0.89</v>
@@ -3257,31 +3257,31 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D67">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="E67">
-        <v>855</v>
+        <v>849</v>
       </c>
       <c r="F67">
         <v>833</v>
       </c>
       <c r="G67">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="H67">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="I67">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J67">
         <v>0.9399999999999999</v>
       </c>
       <c r="K67">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L67">
         <v>0.9</v>
@@ -3290,7 +3290,7 @@
         <v>0.88</v>
       </c>
       <c r="N67">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3301,40 +3301,40 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="D68">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="E68">
-        <v>802</v>
+        <v>774</v>
       </c>
       <c r="F68">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="G68">
-        <v>748</v>
+        <v>756</v>
       </c>
       <c r="H68">
-        <v>894</v>
+        <v>875</v>
       </c>
       <c r="I68">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="J68">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K68">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="L68">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M68">
         <v>0.88</v>
       </c>
       <c r="N68">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3345,40 +3345,40 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D69">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="E69">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="F69">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="G69">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="H69">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="I69">
         <v>0.92</v>
       </c>
       <c r="J69">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K69">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="L69">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M69">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="N69">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3389,40 +3389,40 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D70">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E70">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="F70">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G70">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="H70">
-        <v>767</v>
+        <v>754</v>
       </c>
       <c r="I70">
         <v>0.84</v>
       </c>
       <c r="J70">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="K70">
         <v>0.89</v>
       </c>
       <c r="L70">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="M70">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="N70">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3433,31 +3433,31 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="D71">
-        <v>476</v>
+        <v>489</v>
       </c>
       <c r="E71">
-        <v>652</v>
+        <v>602</v>
       </c>
       <c r="F71">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="G71">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H71">
-        <v>716</v>
+        <v>692</v>
       </c>
       <c r="I71">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="J71">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="K71">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L71">
         <v>0.86</v>
@@ -3466,7 +3466,7 @@
         <v>0.83</v>
       </c>
       <c r="N71">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3477,40 +3477,40 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="D72">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="E72">
-        <v>743</v>
+        <v>757</v>
       </c>
       <c r="F72">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="G72">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="H72">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="I72">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="J72">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="K72">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="L72">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="M72">
         <v>0.8100000000000001</v>
       </c>
       <c r="N72">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3521,22 +3521,22 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>681</v>
+        <v>650</v>
       </c>
       <c r="D73">
-        <v>539</v>
+        <v>562</v>
       </c>
       <c r="E73">
-        <v>826</v>
+        <v>753</v>
       </c>
       <c r="F73">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G73">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="H73">
-        <v>726</v>
+        <v>696</v>
       </c>
       <c r="I73">
         <v>0.82</v>
@@ -3545,13 +3545,13 @@
         <v>0.75</v>
       </c>
       <c r="K73">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="L73">
         <v>0.83</v>
       </c>
       <c r="M73">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="N73">
         <v>0.87</v>
@@ -3565,40 +3565,40 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>541</v>
+        <v>601</v>
       </c>
       <c r="D74">
-        <v>391</v>
+        <v>468</v>
       </c>
       <c r="E74">
-        <v>681</v>
+        <v>729</v>
       </c>
       <c r="F74">
-        <v>603</v>
+        <v>614</v>
       </c>
       <c r="G74">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="H74">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="I74">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="J74">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="K74">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L74">
-        <v>0.82</v>
+        <v>0.85</v>
       </c>
       <c r="M74">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="N74">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3609,40 +3609,40 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>512</v>
+        <v>617</v>
       </c>
       <c r="D75">
-        <v>319</v>
+        <v>444</v>
       </c>
       <c r="E75">
-        <v>676</v>
+        <v>809</v>
       </c>
       <c r="F75">
-        <v>591</v>
+        <v>631</v>
       </c>
       <c r="G75">
-        <v>445</v>
+        <v>510</v>
       </c>
       <c r="H75">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="I75">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="J75">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="K75">
-        <v>1.05</v>
+        <v>1.12</v>
       </c>
       <c r="L75">
+        <v>0.88</v>
+      </c>
+      <c r="M75">
         <v>0.8100000000000001</v>
       </c>
-      <c r="M75">
-        <v>0.75</v>
-      </c>
       <c r="N75">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3653,31 +3653,75 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>373</v>
+        <v>531</v>
       </c>
       <c r="D76">
-        <v>233</v>
+        <v>343</v>
       </c>
       <c r="E76">
-        <v>594</v>
+        <v>731</v>
       </c>
       <c r="F76">
-        <v>527</v>
+        <v>600</v>
       </c>
       <c r="G76">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="H76">
-        <v>694</v>
+        <v>755</v>
       </c>
       <c r="I76">
-        <v>0.86</v>
+        <v>0.98</v>
       </c>
       <c r="J76">
+        <v>0.82</v>
+      </c>
+      <c r="K76">
+        <v>1.13</v>
+      </c>
+      <c r="L76">
+        <v>0.87</v>
+      </c>
+      <c r="M76">
+        <v>0.79</v>
+      </c>
+      <c r="N76">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43967</v>
+      </c>
+      <c r="C77">
+        <v>405</v>
+      </c>
+      <c r="D77">
+        <v>246</v>
+      </c>
+      <c r="E77">
+        <v>582</v>
+      </c>
+      <c r="F77">
+        <v>539</v>
+      </c>
+      <c r="G77">
+        <v>375</v>
+      </c>
+      <c r="H77">
+        <v>713</v>
+      </c>
+      <c r="I77">
+        <v>0.88</v>
+      </c>
+      <c r="J77">
         <v>0.73</v>
       </c>
-      <c r="K76">
-        <v>1.02</v>
+      <c r="K77">
+        <v>1.05</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glä</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glät</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N77"/>
+  <dimension ref="A1:N78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +469,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H2">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -495,22 +495,22 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D3">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E3">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F3">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G3">
         <v>250</v>
       </c>
       <c r="H3">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -524,10 +524,10 @@
         <v>455</v>
       </c>
       <c r="D4">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E4">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F4">
         <v>331</v>
@@ -536,7 +536,7 @@
         <v>315</v>
       </c>
       <c r="H4">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,22 +547,22 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D5">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E5">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="F5">
         <v>399</v>
       </c>
       <c r="G5">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H5">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,31 +573,31 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D6">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E6">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="F6">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G6">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H6">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="I6">
         <v>2.25</v>
       </c>
       <c r="J6">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="K6">
-        <v>2.33</v>
+        <v>2.34</v>
       </c>
       <c r="L6">
         <v>2.32</v>
@@ -620,37 +620,37 @@
         <v>985</v>
       </c>
       <c r="D7">
-        <v>956</v>
+        <v>960</v>
       </c>
       <c r="E7">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="F7">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G7">
         <v>653</v>
       </c>
       <c r="H7">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I7">
         <v>2.56</v>
       </c>
       <c r="J7">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="K7">
-        <v>2.64</v>
+        <v>2.65</v>
       </c>
       <c r="L7">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
       <c r="M7">
         <v>2.48</v>
       </c>
       <c r="N7">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,25 +664,25 @@
         <v>1335</v>
       </c>
       <c r="D8">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E8">
         <v>1370</v>
       </c>
       <c r="F8">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="G8">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="H8">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="I8">
         <v>2.71</v>
       </c>
       <c r="J8">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K8">
         <v>2.79</v>
@@ -691,10 +691,10 @@
         <v>2.89</v>
       </c>
       <c r="M8">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="N8">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1984</v>
+        <v>1990</v>
       </c>
       <c r="D9">
-        <v>1946</v>
+        <v>1949</v>
       </c>
       <c r="E9">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="F9">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G9">
-        <v>1234</v>
+        <v>1236</v>
       </c>
       <c r="H9">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="I9">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="J9">
         <v>3.08</v>
       </c>
       <c r="K9">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="L9">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="M9">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="N9">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +749,40 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2569</v>
+        <v>2565</v>
       </c>
       <c r="D10">
-        <v>2521</v>
+        <v>2518</v>
       </c>
       <c r="E10">
-        <v>2615</v>
+        <v>2611</v>
       </c>
       <c r="F10">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="G10">
         <v>1681</v>
       </c>
       <c r="H10">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="I10">
-        <v>3.35</v>
+        <v>3.36</v>
       </c>
       <c r="J10">
         <v>3.28</v>
       </c>
       <c r="K10">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="L10">
         <v>3.18</v>
       </c>
       <c r="M10">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="N10">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,40 +793,40 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3225</v>
+        <v>3236</v>
       </c>
       <c r="D11">
-        <v>3173</v>
+        <v>3185</v>
       </c>
       <c r="E11">
-        <v>3270</v>
+        <v>3288</v>
       </c>
       <c r="F11">
-        <v>2278</v>
+        <v>2281</v>
       </c>
       <c r="G11">
-        <v>2235</v>
+        <v>2238</v>
       </c>
       <c r="H11">
-        <v>2320</v>
+        <v>2325</v>
       </c>
       <c r="I11">
         <v>3.37</v>
       </c>
       <c r="J11">
-        <v>3.3</v>
+        <v>3.31</v>
       </c>
       <c r="K11">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="L11">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="M11">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="N11">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,31 +837,31 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3599</v>
+        <v>3605</v>
       </c>
       <c r="D12">
         <v>3546</v>
       </c>
       <c r="E12">
-        <v>3660</v>
+        <v>3667</v>
       </c>
       <c r="F12">
-        <v>2844</v>
+        <v>2849</v>
       </c>
       <c r="G12">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="H12">
-        <v>2892</v>
+        <v>2899</v>
       </c>
       <c r="I12">
-        <v>3.17</v>
+        <v>3.18</v>
       </c>
       <c r="J12">
         <v>3.12</v>
       </c>
       <c r="K12">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
         <v>2.85</v>
@@ -881,22 +881,22 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4395</v>
+        <v>4397</v>
       </c>
       <c r="D13">
-        <v>4320</v>
+        <v>4343</v>
       </c>
       <c r="E13">
-        <v>4455</v>
+        <v>4457</v>
       </c>
       <c r="F13">
-        <v>3447</v>
+        <v>3451</v>
       </c>
       <c r="G13">
-        <v>3390</v>
+        <v>3398</v>
       </c>
       <c r="H13">
-        <v>3500</v>
+        <v>3506</v>
       </c>
       <c r="I13">
         <v>2.72</v>
@@ -905,7 +905,7 @@
         <v>2.68</v>
       </c>
       <c r="K13">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="L13">
         <v>2.51</v>
@@ -914,7 +914,7 @@
         <v>2.49</v>
       </c>
       <c r="N13">
-        <v>2.53</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -925,31 +925,31 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4478</v>
+        <v>4475</v>
       </c>
       <c r="D14">
-        <v>4420</v>
+        <v>4413</v>
       </c>
       <c r="E14">
-        <v>4540</v>
+        <v>4535</v>
       </c>
       <c r="F14">
-        <v>3924</v>
+        <v>3928</v>
       </c>
       <c r="G14">
-        <v>3865</v>
+        <v>3872</v>
       </c>
       <c r="H14">
-        <v>3981</v>
+        <v>3987</v>
       </c>
       <c r="I14">
-        <v>2.28</v>
+        <v>2.29</v>
       </c>
       <c r="J14">
         <v>2.26</v>
       </c>
       <c r="K14">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="L14">
         <v>2.2</v>
@@ -958,7 +958,7 @@
         <v>2.18</v>
       </c>
       <c r="N14">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,25 +969,25 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4720</v>
+        <v>4716</v>
       </c>
       <c r="D15">
-        <v>4647</v>
+        <v>4658</v>
       </c>
       <c r="E15">
-        <v>4783</v>
+        <v>4776</v>
       </c>
       <c r="F15">
         <v>4298</v>
       </c>
       <c r="G15">
-        <v>4233</v>
+        <v>4240</v>
       </c>
       <c r="H15">
         <v>4359</v>
       </c>
       <c r="I15">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J15">
         <v>1.86</v>
@@ -996,7 +996,7 @@
         <v>1.91</v>
       </c>
       <c r="L15">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>1.99</v>
@@ -1013,28 +1013,28 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6021</v>
+        <v>6025</v>
       </c>
       <c r="D16">
-        <v>5947</v>
+        <v>5949</v>
       </c>
       <c r="E16">
-        <v>6087</v>
+        <v>6091</v>
       </c>
       <c r="F16">
         <v>4903</v>
       </c>
       <c r="G16">
-        <v>4833</v>
+        <v>4840</v>
       </c>
       <c r="H16">
-        <v>4966</v>
+        <v>4965</v>
       </c>
       <c r="I16">
         <v>1.72</v>
       </c>
       <c r="J16">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="K16">
         <v>1.74</v>
@@ -1057,22 +1057,22 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5243</v>
+        <v>5242</v>
       </c>
       <c r="D17">
-        <v>5172</v>
+        <v>5161</v>
       </c>
       <c r="E17">
-        <v>5320</v>
+        <v>5311</v>
       </c>
       <c r="F17">
         <v>5115</v>
       </c>
       <c r="G17">
-        <v>5046</v>
+        <v>5045</v>
       </c>
       <c r="H17">
-        <v>5182</v>
+        <v>5178</v>
       </c>
       <c r="I17">
         <v>1.48</v>
@@ -1087,7 +1087,7 @@
         <v>1.56</v>
       </c>
       <c r="M17">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="N17">
         <v>1.57</v>
@@ -1101,28 +1101,28 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5322</v>
+        <v>5315</v>
       </c>
       <c r="D18">
-        <v>5260</v>
+        <v>5253</v>
       </c>
       <c r="E18">
-        <v>5385</v>
+        <v>5391</v>
       </c>
       <c r="F18">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="G18">
-        <v>5256</v>
+        <v>5255</v>
       </c>
       <c r="H18">
-        <v>5394</v>
+        <v>5392</v>
       </c>
       <c r="I18">
         <v>1.36</v>
       </c>
       <c r="J18">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="K18">
         <v>1.37</v>
@@ -1134,7 +1134,7 @@
         <v>1.39</v>
       </c>
       <c r="N18">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1145,22 +1145,22 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4735</v>
+        <v>4739</v>
       </c>
       <c r="D19">
-        <v>4674</v>
+        <v>4676</v>
       </c>
       <c r="E19">
-        <v>4801</v>
+        <v>4812</v>
       </c>
       <c r="F19">
         <v>5330</v>
       </c>
       <c r="G19">
-        <v>5263</v>
+        <v>5260</v>
       </c>
       <c r="H19">
-        <v>5398</v>
+        <v>5401</v>
       </c>
       <c r="I19">
         <v>1.24</v>
@@ -1172,7 +1172,7 @@
         <v>1.25</v>
       </c>
       <c r="L19">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="M19">
         <v>1.23</v>
@@ -1189,22 +1189,22 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5320</v>
+        <v>5317</v>
       </c>
       <c r="D20">
-        <v>5258</v>
+        <v>5249</v>
       </c>
       <c r="E20">
-        <v>5382</v>
+        <v>5393</v>
       </c>
       <c r="F20">
-        <v>5155</v>
+        <v>5153</v>
       </c>
       <c r="G20">
-        <v>5091</v>
+        <v>5085</v>
       </c>
       <c r="H20">
-        <v>5222</v>
+        <v>5226</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4440</v>
+        <v>4437</v>
       </c>
       <c r="D21">
-        <v>4377</v>
+        <v>4371</v>
       </c>
       <c r="E21">
-        <v>4507</v>
+        <v>4505</v>
       </c>
       <c r="F21">
-        <v>4955</v>
+        <v>4952</v>
       </c>
       <c r="G21">
-        <v>4892</v>
+        <v>4887</v>
       </c>
       <c r="H21">
-        <v>5019</v>
+        <v>5025</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1280,19 +1280,19 @@
         <v>3845</v>
       </c>
       <c r="D22">
-        <v>3779</v>
+        <v>3781</v>
       </c>
       <c r="E22">
-        <v>3913</v>
+        <v>3910</v>
       </c>
       <c r="F22">
         <v>4585</v>
       </c>
       <c r="G22">
-        <v>4522</v>
+        <v>4519</v>
       </c>
       <c r="H22">
-        <v>4651</v>
+        <v>4655</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5169</v>
+        <v>5164</v>
       </c>
       <c r="D23">
-        <v>5105</v>
+        <v>5104</v>
       </c>
       <c r="E23">
-        <v>5223</v>
+        <v>5235</v>
       </c>
       <c r="F23">
-        <v>4693</v>
+        <v>4691</v>
       </c>
       <c r="G23">
-        <v>4630</v>
+        <v>4626</v>
       </c>
       <c r="H23">
-        <v>4756</v>
+        <v>4761</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1365,19 +1365,19 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4126</v>
+        <v>4125</v>
       </c>
       <c r="D24">
-        <v>4065</v>
+        <v>4066</v>
       </c>
       <c r="E24">
-        <v>4198</v>
+        <v>4191</v>
       </c>
       <c r="F24">
-        <v>4395</v>
+        <v>4393</v>
       </c>
       <c r="G24">
-        <v>4331</v>
+        <v>4330</v>
       </c>
       <c r="H24">
         <v>4460</v>
@@ -1409,19 +1409,19 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4409</v>
+        <v>4407</v>
       </c>
       <c r="D25">
-        <v>4342</v>
+        <v>4350</v>
       </c>
       <c r="E25">
-        <v>4480</v>
+        <v>4475</v>
       </c>
       <c r="F25">
-        <v>4387</v>
+        <v>4386</v>
       </c>
       <c r="G25">
-        <v>4323</v>
+        <v>4325</v>
       </c>
       <c r="H25">
         <v>4453</v>
@@ -1453,28 +1453,28 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4017</v>
+        <v>4016</v>
       </c>
       <c r="D26">
-        <v>3964</v>
+        <v>3957</v>
       </c>
       <c r="E26">
-        <v>4099</v>
+        <v>4083</v>
       </c>
       <c r="F26">
-        <v>4430</v>
+        <v>4428</v>
       </c>
       <c r="G26">
         <v>4369</v>
       </c>
       <c r="H26">
-        <v>4500</v>
+        <v>4496</v>
       </c>
       <c r="I26">
         <v>0.97</v>
       </c>
       <c r="J26">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K26">
         <v>0.98</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4126</v>
+        <v>4122</v>
       </c>
       <c r="D27">
-        <v>4071</v>
+        <v>4067</v>
       </c>
       <c r="E27">
-        <v>4191</v>
+        <v>4179</v>
       </c>
       <c r="F27">
-        <v>4170</v>
+        <v>4168</v>
       </c>
       <c r="G27">
         <v>4110</v>
       </c>
       <c r="H27">
-        <v>4242</v>
+        <v>4232</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,28 +1541,28 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3899</v>
+        <v>3895</v>
       </c>
       <c r="D28">
-        <v>3838</v>
+        <v>3824</v>
       </c>
       <c r="E28">
-        <v>3960</v>
+        <v>3963</v>
       </c>
       <c r="F28">
-        <v>4113</v>
+        <v>4110</v>
       </c>
       <c r="G28">
-        <v>4054</v>
+        <v>4050</v>
       </c>
       <c r="H28">
-        <v>4182</v>
+        <v>4175</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
       </c>
       <c r="J28">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K28">
         <v>0.95</v>
@@ -1588,28 +1588,28 @@
         <v>3314</v>
       </c>
       <c r="D29">
-        <v>3254</v>
+        <v>3255</v>
       </c>
       <c r="E29">
-        <v>3375</v>
+        <v>3383</v>
       </c>
       <c r="F29">
-        <v>3839</v>
+        <v>3837</v>
       </c>
       <c r="G29">
-        <v>3781</v>
+        <v>3776</v>
       </c>
       <c r="H29">
-        <v>3906</v>
+        <v>3902</v>
       </c>
       <c r="I29">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="J29">
         <v>0.86</v>
       </c>
       <c r="K29">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L29">
         <v>0.9</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4384</v>
+        <v>4373</v>
       </c>
       <c r="D30">
-        <v>4322</v>
+        <v>4290</v>
       </c>
       <c r="E30">
-        <v>4456</v>
+        <v>4447</v>
       </c>
       <c r="F30">
-        <v>3931</v>
+        <v>3926</v>
       </c>
       <c r="G30">
-        <v>3871</v>
+        <v>3859</v>
       </c>
       <c r="H30">
-        <v>3995</v>
+        <v>3993</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3590</v>
+        <v>3587</v>
       </c>
       <c r="D31">
-        <v>3520</v>
+        <v>3518</v>
       </c>
       <c r="E31">
-        <v>3672</v>
+        <v>3657</v>
       </c>
       <c r="F31">
-        <v>3797</v>
+        <v>3792</v>
       </c>
       <c r="G31">
-        <v>3733</v>
+        <v>3722</v>
       </c>
       <c r="H31">
-        <v>3866</v>
+        <v>3862</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,19 +1717,19 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4026</v>
+        <v>4028</v>
       </c>
       <c r="D32">
-        <v>3957</v>
+        <v>3959</v>
       </c>
       <c r="E32">
-        <v>4090</v>
+        <v>4107</v>
       </c>
       <c r="F32">
-        <v>3828</v>
+        <v>3825</v>
       </c>
       <c r="G32">
-        <v>3763</v>
+        <v>3755</v>
       </c>
       <c r="H32">
         <v>3898</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3757</v>
+        <v>3756</v>
       </c>
       <c r="D33">
         <v>3692</v>
       </c>
       <c r="E33">
-        <v>3834</v>
+        <v>3821</v>
       </c>
       <c r="F33">
-        <v>3939</v>
+        <v>3936</v>
       </c>
       <c r="G33">
-        <v>3873</v>
+        <v>3864</v>
       </c>
       <c r="H33">
-        <v>4013</v>
+        <v>4008</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3764</v>
+        <v>3758</v>
       </c>
       <c r="D34">
-        <v>3689</v>
+        <v>3695</v>
       </c>
       <c r="E34">
-        <v>3826</v>
+        <v>3820</v>
       </c>
       <c r="F34">
-        <v>3784</v>
+        <v>3782</v>
       </c>
       <c r="G34">
-        <v>3714</v>
+        <v>3716</v>
       </c>
       <c r="H34">
-        <v>3855</v>
+        <v>3851</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="D35">
-        <v>2993</v>
+        <v>2984</v>
       </c>
       <c r="E35">
-        <v>3118</v>
+        <v>3113</v>
       </c>
       <c r="F35">
-        <v>3650</v>
+        <v>3648</v>
       </c>
       <c r="G35">
         <v>3582</v>
       </c>
       <c r="H35">
-        <v>3717</v>
+        <v>3715</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="D36">
-        <v>2676</v>
+        <v>2677</v>
       </c>
       <c r="E36">
-        <v>2802</v>
+        <v>2793</v>
       </c>
       <c r="F36">
-        <v>3329</v>
+        <v>3325</v>
       </c>
       <c r="G36">
         <v>3262</v>
       </c>
       <c r="H36">
-        <v>3395</v>
+        <v>3386</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3348</v>
+        <v>3354</v>
       </c>
       <c r="D37">
-        <v>3280</v>
+        <v>3292</v>
       </c>
       <c r="E37">
-        <v>3411</v>
+        <v>3419</v>
       </c>
       <c r="F37">
-        <v>3226</v>
+        <v>3225</v>
       </c>
       <c r="G37">
-        <v>3159</v>
+        <v>3162</v>
       </c>
       <c r="H37">
-        <v>3289</v>
+        <v>3286</v>
       </c>
       <c r="I37">
         <v>0.82</v>
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3093</v>
+        <v>3091</v>
       </c>
       <c r="D38">
-        <v>3035</v>
+        <v>3027</v>
       </c>
       <c r="E38">
-        <v>3158</v>
+        <v>3167</v>
       </c>
       <c r="F38">
         <v>3058</v>
       </c>
       <c r="G38">
-        <v>2996</v>
+        <v>2995</v>
       </c>
       <c r="H38">
-        <v>3122</v>
+        <v>3123</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2008,7 +2008,7 @@
         <v>0.82</v>
       </c>
       <c r="L38">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M38">
         <v>0.87</v>
@@ -2025,28 +2025,28 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2891</v>
+        <v>2895</v>
       </c>
       <c r="D39">
-        <v>2836</v>
+        <v>2835</v>
       </c>
       <c r="E39">
-        <v>2939</v>
+        <v>2960</v>
       </c>
       <c r="F39">
-        <v>3018</v>
+        <v>3019</v>
       </c>
       <c r="G39">
-        <v>2957</v>
+        <v>2958</v>
       </c>
       <c r="H39">
-        <v>3077</v>
+        <v>3085</v>
       </c>
       <c r="I39">
         <v>0.83</v>
       </c>
       <c r="J39">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K39">
         <v>0.84</v>
@@ -2069,25 +2069,25 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2703</v>
+        <v>2709</v>
       </c>
       <c r="D40">
-        <v>2646</v>
+        <v>2655</v>
       </c>
       <c r="E40">
-        <v>2764</v>
+        <v>2770</v>
       </c>
       <c r="F40">
-        <v>3009</v>
+        <v>3012</v>
       </c>
       <c r="G40">
-        <v>2949</v>
+        <v>2952</v>
       </c>
       <c r="H40">
-        <v>3068</v>
+        <v>3079</v>
       </c>
       <c r="I40">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J40">
         <v>0.89</v>
@@ -2113,22 +2113,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2329</v>
+        <v>2331</v>
       </c>
       <c r="D41">
-        <v>2275</v>
+        <v>2278</v>
       </c>
       <c r="E41">
-        <v>2391</v>
+        <v>2390</v>
       </c>
       <c r="F41">
-        <v>2754</v>
+        <v>2756</v>
       </c>
       <c r="G41">
-        <v>2698</v>
+        <v>2699</v>
       </c>
       <c r="H41">
-        <v>2813</v>
+        <v>2822</v>
       </c>
       <c r="I41">
         <v>0.85</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D42">
-        <v>1971</v>
+        <v>1959</v>
       </c>
       <c r="E42">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="F42">
-        <v>2486</v>
+        <v>2488</v>
       </c>
       <c r="G42">
         <v>2432</v>
       </c>
       <c r="H42">
-        <v>2541</v>
+        <v>2548</v>
       </c>
       <c r="I42">
         <v>0.8100000000000001</v>
@@ -2187,7 +2187,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="M42">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N42">
         <v>0.82</v>
@@ -2201,19 +2201,19 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1992</v>
+        <v>1986</v>
       </c>
       <c r="D43">
-        <v>1935</v>
+        <v>1939</v>
       </c>
       <c r="E43">
-        <v>2043</v>
+        <v>2038</v>
       </c>
       <c r="F43">
         <v>2261</v>
       </c>
       <c r="G43">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="H43">
         <v>2317</v>
@@ -2228,7 +2228,7 @@
         <v>0.76</v>
       </c>
       <c r="L43">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="M43">
         <v>0.78</v>
@@ -2245,13 +2245,13 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1922</v>
+        <v>1925</v>
       </c>
       <c r="D44">
-        <v>1870</v>
+        <v>1875</v>
       </c>
       <c r="E44">
-        <v>1971</v>
+        <v>1974</v>
       </c>
       <c r="F44">
         <v>2065</v>
@@ -2260,13 +2260,13 @@
         <v>2013</v>
       </c>
       <c r="H44">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="I44">
         <v>0.6899999999999999</v>
       </c>
       <c r="J44">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
       <c r="K44">
         <v>0.7</v>
@@ -2289,16 +2289,16 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1985</v>
+        <v>1984</v>
       </c>
       <c r="D45">
-        <v>1927</v>
+        <v>1934</v>
       </c>
       <c r="E45">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="F45">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="G45">
         <v>1926</v>
@@ -2333,22 +2333,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="D46">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="E46">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="F46">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="G46">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="H46">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I46">
         <v>0.79</v>
@@ -2377,25 +2377,25 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="D47">
-        <v>1731</v>
+        <v>1733</v>
       </c>
       <c r="E47">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F47">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="G47">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="H47">
-        <v>1960</v>
+        <v>1959</v>
       </c>
       <c r="I47">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J47">
         <v>0.83</v>
@@ -2421,25 +2421,25 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1677</v>
+        <v>1672</v>
       </c>
       <c r="D48">
-        <v>1632</v>
+        <v>1629</v>
       </c>
       <c r="E48">
-        <v>1729</v>
+        <v>1723</v>
       </c>
       <c r="F48">
-        <v>1849</v>
+        <v>1846</v>
       </c>
       <c r="G48">
         <v>1799</v>
       </c>
       <c r="H48">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="I48">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J48">
         <v>0.88</v>
@@ -2448,7 +2448,7 @@
         <v>0.91</v>
       </c>
       <c r="L48">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M48">
         <v>0.8</v>
@@ -2465,22 +2465,22 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1458</v>
+        <v>1460</v>
       </c>
       <c r="D49">
         <v>1408</v>
       </c>
       <c r="E49">
-        <v>1514</v>
+        <v>1505</v>
       </c>
       <c r="F49">
-        <v>1717</v>
+        <v>1715</v>
       </c>
       <c r="G49">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="H49">
-        <v>1770</v>
+        <v>1765</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2489,7 +2489,7 @@
         <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2512,19 +2512,19 @@
         <v>1319</v>
       </c>
       <c r="D50">
-        <v>1275</v>
+        <v>1264</v>
       </c>
       <c r="E50">
-        <v>1365</v>
+        <v>1361</v>
       </c>
       <c r="F50">
-        <v>1559</v>
+        <v>1558</v>
       </c>
       <c r="G50">
-        <v>1511</v>
+        <v>1508</v>
       </c>
       <c r="H50">
-        <v>1611</v>
+        <v>1606</v>
       </c>
       <c r="I50">
         <v>0.79</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1570</v>
+        <v>1568</v>
       </c>
       <c r="D51">
-        <v>1519</v>
+        <v>1524</v>
       </c>
       <c r="E51">
-        <v>1633</v>
+        <v>1610</v>
       </c>
       <c r="F51">
-        <v>1506</v>
+        <v>1504</v>
       </c>
       <c r="G51">
-        <v>1458</v>
+        <v>1456</v>
       </c>
       <c r="H51">
-        <v>1560</v>
+        <v>1550</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2577,13 +2577,13 @@
         <v>0.77</v>
       </c>
       <c r="K51">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L51">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M51">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="N51">
         <v>0.84</v>
@@ -2597,22 +2597,22 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="D52">
-        <v>1325</v>
+        <v>1321</v>
       </c>
       <c r="E52">
-        <v>1432</v>
+        <v>1427</v>
       </c>
       <c r="F52">
         <v>1430</v>
       </c>
       <c r="G52">
-        <v>1381</v>
+        <v>1379</v>
       </c>
       <c r="H52">
-        <v>1486</v>
+        <v>1476</v>
       </c>
       <c r="I52">
         <v>0.77</v>
@@ -2641,28 +2641,28 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D53">
-        <v>1257</v>
+        <v>1264</v>
       </c>
       <c r="E53">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="F53">
         <v>1393</v>
       </c>
       <c r="G53">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="H53">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="I53">
         <v>0.8100000000000001</v>
       </c>
       <c r="J53">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="K53">
         <v>0.83</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D54">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E54">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="F54">
         <v>1388</v>
       </c>
       <c r="G54">
-        <v>1339</v>
+        <v>1341</v>
       </c>
       <c r="H54">
-        <v>1442</v>
+        <v>1437</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2732,19 +2732,19 @@
         <v>1159</v>
       </c>
       <c r="D55">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E55">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="F55">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="G55">
         <v>1239</v>
       </c>
       <c r="H55">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="I55">
         <v>0.85</v>
@@ -2753,7 +2753,7 @@
         <v>0.83</v>
       </c>
       <c r="K55">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L55">
         <v>0.8100000000000001</v>
@@ -2776,25 +2776,25 @@
         <v>1019</v>
       </c>
       <c r="D56">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="E56">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F56">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="G56">
         <v>1153</v>
       </c>
       <c r="H56">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="I56">
         <v>0.84</v>
       </c>
       <c r="J56">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K56">
         <v>0.86</v>
@@ -2806,7 +2806,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="N56">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2817,22 +2817,22 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="D57">
         <v>885</v>
       </c>
       <c r="E57">
-        <v>977</v>
+        <v>966</v>
       </c>
       <c r="F57">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G57">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="H57">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="I57">
         <v>0.79</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="D58">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E58">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="F58">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="G58">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H58">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2905,22 +2905,22 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>933</v>
+        <v>941</v>
       </c>
       <c r="D59">
-        <v>883</v>
+        <v>897</v>
       </c>
       <c r="E59">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="F59">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="G59">
-        <v>958</v>
+        <v>960</v>
       </c>
       <c r="H59">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="I59">
         <v>0.78</v>
@@ -2949,22 +2949,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="D60">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="E60">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="F60">
         <v>969</v>
       </c>
       <c r="G60">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="H60">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2973,7 +2973,7 @@
         <v>0.79</v>
       </c>
       <c r="K60">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L60">
         <v>0.8100000000000001</v>
@@ -2993,19 +2993,19 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D61">
-        <v>888</v>
+        <v>895</v>
       </c>
       <c r="E61">
-        <v>989</v>
+        <v>1001</v>
       </c>
       <c r="F61">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G61">
-        <v>922</v>
+        <v>928</v>
       </c>
       <c r="H61">
         <v>1019</v>
@@ -3014,7 +3014,7 @@
         <v>0.88</v>
       </c>
       <c r="J61">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K61">
         <v>0.91</v>
@@ -3023,10 +3023,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="M61">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="N61">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3037,28 +3037,28 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="D62">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E62">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="F62">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="G62">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="H62">
-        <v>939</v>
+        <v>943</v>
       </c>
       <c r="I62">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J62">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K62">
         <v>0.87</v>
@@ -3067,7 +3067,7 @@
         <v>0.82</v>
       </c>
       <c r="M62">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N62">
         <v>0.83</v>
@@ -3081,31 +3081,31 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="D63">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="E63">
-        <v>803</v>
+        <v>792</v>
       </c>
       <c r="F63">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="G63">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="H63">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="I63">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J63">
         <v>0.82</v>
       </c>
       <c r="K63">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L63">
         <v>0.85</v>
@@ -3125,22 +3125,22 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="D64">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="E64">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F64">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G64">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="H64">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="I64">
         <v>0.85</v>
@@ -3172,16 +3172,16 @@
         <v>925</v>
       </c>
       <c r="D65">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="E65">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="F65">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G65">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H65">
         <v>866</v>
@@ -3199,7 +3199,7 @@
         <v>0.89</v>
       </c>
       <c r="M65">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="N65">
         <v>0.91</v>
@@ -3213,40 +3213,40 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="D66">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="E66">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="F66">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="G66">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H66">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="I66">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J66">
         <v>0.89</v>
       </c>
       <c r="K66">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="L66">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M66">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="N66">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3257,22 +3257,22 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D67">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="E67">
-        <v>849</v>
+        <v>835</v>
       </c>
       <c r="F67">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G67">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="H67">
-        <v>891</v>
+        <v>880</v>
       </c>
       <c r="I67">
         <v>0.98</v>
@@ -3281,7 +3281,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="K67">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L67">
         <v>0.9</v>
@@ -3301,28 +3301,28 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="D68">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="E68">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="F68">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G68">
-        <v>756</v>
+        <v>763</v>
       </c>
       <c r="H68">
-        <v>875</v>
+        <v>868</v>
       </c>
       <c r="I68">
         <v>0.99</v>
       </c>
       <c r="J68">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K68">
         <v>1.04</v>
@@ -3345,37 +3345,37 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>658</v>
+        <v>664</v>
       </c>
       <c r="D69">
-        <v>602</v>
+        <v>614</v>
       </c>
       <c r="E69">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="F69">
         <v>749</v>
       </c>
       <c r="G69">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="H69">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="I69">
         <v>0.92</v>
       </c>
       <c r="J69">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="K69">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="L69">
         <v>0.89</v>
       </c>
       <c r="M69">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="N69">
         <v>0.92</v>
@@ -3389,40 +3389,40 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>601</v>
+        <v>588</v>
       </c>
       <c r="D70">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="E70">
-        <v>672</v>
+        <v>643</v>
       </c>
       <c r="F70">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G70">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="H70">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="I70">
         <v>0.84</v>
       </c>
       <c r="J70">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="K70">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L70">
         <v>0.87</v>
       </c>
       <c r="M70">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="N70">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3436,16 +3436,16 @@
         <v>549</v>
       </c>
       <c r="D71">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="E71">
-        <v>602</v>
+        <v>613</v>
       </c>
       <c r="F71">
         <v>631</v>
       </c>
       <c r="G71">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="H71">
         <v>692</v>
@@ -3454,13 +3454,13 @@
         <v>0.76</v>
       </c>
       <c r="J71">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="K71">
         <v>0.8</v>
       </c>
       <c r="L71">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M71">
         <v>0.83</v>
@@ -3477,40 +3477,40 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D72">
-        <v>568</v>
+        <v>586</v>
       </c>
       <c r="E72">
-        <v>757</v>
+        <v>719</v>
       </c>
       <c r="F72">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G72">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="H72">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="I72">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="J72">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="K72">
+        <v>0.79</v>
+      </c>
+      <c r="L72">
+        <v>0.85</v>
+      </c>
+      <c r="M72">
         <v>0.82</v>
       </c>
-      <c r="L72">
-        <v>0.84</v>
-      </c>
-      <c r="M72">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="N72">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3521,31 +3521,31 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="D73">
-        <v>562</v>
+        <v>575</v>
       </c>
       <c r="E73">
-        <v>753</v>
+        <v>729</v>
       </c>
       <c r="F73">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="G73">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="H73">
-        <v>696</v>
+        <v>676</v>
       </c>
       <c r="I73">
         <v>0.82</v>
       </c>
       <c r="J73">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K73">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="L73">
         <v>0.83</v>
@@ -3554,7 +3554,7 @@
         <v>0.8</v>
       </c>
       <c r="N73">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3565,40 +3565,40 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>601</v>
+        <v>575</v>
       </c>
       <c r="D74">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="E74">
-        <v>729</v>
+        <v>682</v>
       </c>
       <c r="F74">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G74">
-        <v>521</v>
+        <v>532</v>
       </c>
       <c r="H74">
-        <v>710</v>
+        <v>686</v>
       </c>
       <c r="I74">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J74">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K74">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="L74">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="M74">
         <v>0.8</v>
       </c>
       <c r="N74">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3609,40 +3609,40 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>617</v>
+        <v>575</v>
       </c>
       <c r="D75">
-        <v>444</v>
+        <v>462</v>
       </c>
       <c r="E75">
-        <v>809</v>
+        <v>700</v>
       </c>
       <c r="F75">
-        <v>631</v>
+        <v>615</v>
       </c>
       <c r="G75">
-        <v>510</v>
+        <v>524</v>
       </c>
       <c r="H75">
-        <v>762</v>
+        <v>707</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="J75">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="K75">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="L75">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="M75">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N75">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3653,40 +3653,40 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>531</v>
+        <v>576</v>
       </c>
       <c r="D76">
-        <v>343</v>
+        <v>395</v>
       </c>
       <c r="E76">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="F76">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G76">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="H76">
-        <v>755</v>
+        <v>718</v>
       </c>
       <c r="I76">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J76">
+        <v>0.85</v>
+      </c>
+      <c r="K76">
+        <v>1.08</v>
+      </c>
+      <c r="L76">
+        <v>0.9</v>
+      </c>
+      <c r="M76">
         <v>0.82</v>
       </c>
-      <c r="K76">
-        <v>1.13</v>
-      </c>
-      <c r="L76">
-        <v>0.87</v>
-      </c>
-      <c r="M76">
-        <v>0.79</v>
-      </c>
       <c r="N76">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3697,31 +3697,75 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>405</v>
+        <v>548</v>
       </c>
       <c r="D77">
-        <v>246</v>
+        <v>347</v>
       </c>
       <c r="E77">
-        <v>582</v>
+        <v>740</v>
       </c>
       <c r="F77">
-        <v>539</v>
+        <v>569</v>
       </c>
       <c r="G77">
-        <v>375</v>
+        <v>419</v>
       </c>
       <c r="H77">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="I77">
-        <v>0.88</v>
+        <v>0.93</v>
       </c>
       <c r="J77">
-        <v>0.73</v>
+        <v>0.79</v>
       </c>
       <c r="K77">
-        <v>1.05</v>
+        <v>1.09</v>
+      </c>
+      <c r="L77">
+        <v>0.92</v>
+      </c>
+      <c r="M77">
+        <v>0.84</v>
+      </c>
+      <c r="N77">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43968</v>
+      </c>
+      <c r="C78">
+        <v>475</v>
+      </c>
+      <c r="D78">
+        <v>273</v>
+      </c>
+      <c r="E78">
+        <v>701</v>
+      </c>
+      <c r="F78">
+        <v>543</v>
+      </c>
+      <c r="G78">
+        <v>369</v>
+      </c>
+      <c r="H78">
+        <v>725</v>
+      </c>
+      <c r="I78">
+        <v>0.89</v>
+      </c>
+      <c r="J78">
+        <v>0.74</v>
+      </c>
+      <c r="K78">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glä</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glätttung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glät</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N78"/>
+  <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,13 +469,13 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F2">
         <v>227</v>
@@ -498,16 +498,16 @@
         <v>329</v>
       </c>
       <c r="D3">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E3">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F3">
         <v>264</v>
       </c>
       <c r="G3">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H3">
         <v>279</v>
@@ -524,16 +524,16 @@
         <v>455</v>
       </c>
       <c r="D4">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E4">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F4">
         <v>331</v>
       </c>
       <c r="G4">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H4">
         <v>348</v>
@@ -550,16 +550,16 @@
         <v>503</v>
       </c>
       <c r="D5">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E5">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F5">
         <v>399</v>
       </c>
       <c r="G5">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H5">
         <v>418</v>
@@ -573,28 +573,28 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D6">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E6">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="F6">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G6">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H6">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I6">
         <v>2.25</v>
       </c>
       <c r="J6">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="K6">
         <v>2.34</v>
@@ -606,7 +606,7 @@
         <v>2.27</v>
       </c>
       <c r="N6">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,10 +617,10 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>985</v>
+        <v>987</v>
       </c>
       <c r="D7">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="E7">
         <v>1014</v>
@@ -629,7 +629,7 @@
         <v>676</v>
       </c>
       <c r="G7">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H7">
         <v>702</v>
@@ -638,10 +638,10 @@
         <v>2.56</v>
       </c>
       <c r="J7">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="K7">
-        <v>2.65</v>
+        <v>2.66</v>
       </c>
       <c r="L7">
         <v>2.54</v>
@@ -661,19 +661,19 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="D8">
         <v>1299</v>
       </c>
       <c r="E8">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F8">
         <v>896</v>
       </c>
       <c r="G8">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H8">
         <v>925</v>
@@ -691,10 +691,10 @@
         <v>2.89</v>
       </c>
       <c r="M8">
-        <v>2.83</v>
+        <v>2.84</v>
       </c>
       <c r="N8">
-        <v>2.96</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,31 +705,31 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="D9">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="E9">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="F9">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G9">
-        <v>1236</v>
+        <v>1233</v>
       </c>
       <c r="H9">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="I9">
         <v>3.18</v>
       </c>
       <c r="J9">
-        <v>3.08</v>
+        <v>3.09</v>
       </c>
       <c r="K9">
-        <v>3.26</v>
+        <v>3.25</v>
       </c>
       <c r="L9">
         <v>3.1</v>
@@ -749,22 +749,22 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2565</v>
+        <v>2564</v>
       </c>
       <c r="D10">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E10">
-        <v>2611</v>
+        <v>2614</v>
       </c>
       <c r="F10">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="G10">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="H10">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="I10">
         <v>3.36</v>
@@ -793,37 +793,37 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3236</v>
+        <v>3238</v>
       </c>
       <c r="D11">
-        <v>3185</v>
+        <v>3186</v>
       </c>
       <c r="E11">
-        <v>3288</v>
+        <v>3286</v>
       </c>
       <c r="F11">
         <v>2281</v>
       </c>
       <c r="G11">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="H11">
-        <v>2325</v>
+        <v>2322</v>
       </c>
       <c r="I11">
         <v>3.37</v>
       </c>
       <c r="J11">
-        <v>3.31</v>
+        <v>3.3</v>
       </c>
       <c r="K11">
-        <v>3.44</v>
+        <v>3.43</v>
       </c>
       <c r="L11">
         <v>3.1</v>
       </c>
       <c r="M11">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="N11">
         <v>3.13</v>
@@ -840,28 +840,28 @@
         <v>3605</v>
       </c>
       <c r="D12">
-        <v>3546</v>
+        <v>3556</v>
       </c>
       <c r="E12">
-        <v>3667</v>
+        <v>3660</v>
       </c>
       <c r="F12">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="G12">
-        <v>2799</v>
+        <v>2801</v>
       </c>
       <c r="H12">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="I12">
         <v>3.18</v>
       </c>
       <c r="J12">
-        <v>3.12</v>
+        <v>3.13</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="L12">
         <v>2.85</v>
@@ -881,34 +881,34 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4397</v>
+        <v>4395</v>
       </c>
       <c r="D13">
         <v>4343</v>
       </c>
       <c r="E13">
-        <v>4457</v>
+        <v>4455</v>
       </c>
       <c r="F13">
         <v>3451</v>
       </c>
       <c r="G13">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="H13">
-        <v>3506</v>
+        <v>3504</v>
       </c>
       <c r="I13">
-        <v>2.72</v>
+        <v>2.73</v>
       </c>
       <c r="J13">
         <v>2.68</v>
       </c>
       <c r="K13">
-        <v>2.76</v>
+        <v>2.77</v>
       </c>
       <c r="L13">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="M13">
         <v>2.49</v>
@@ -925,22 +925,22 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4475</v>
+        <v>4481</v>
       </c>
       <c r="D14">
-        <v>4413</v>
+        <v>4419</v>
       </c>
       <c r="E14">
-        <v>4535</v>
+        <v>4537</v>
       </c>
       <c r="F14">
-        <v>3928</v>
+        <v>3930</v>
       </c>
       <c r="G14">
-        <v>3872</v>
+        <v>3876</v>
       </c>
       <c r="H14">
-        <v>3987</v>
+        <v>3984</v>
       </c>
       <c r="I14">
         <v>2.29</v>
@@ -958,7 +958,7 @@
         <v>2.18</v>
       </c>
       <c r="N14">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,34 +969,34 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4716</v>
+        <v>4722</v>
       </c>
       <c r="D15">
-        <v>4658</v>
+        <v>4660</v>
       </c>
       <c r="E15">
-        <v>4776</v>
+        <v>4785</v>
       </c>
       <c r="F15">
-        <v>4298</v>
+        <v>4301</v>
       </c>
       <c r="G15">
-        <v>4240</v>
+        <v>4244</v>
       </c>
       <c r="H15">
         <v>4359</v>
       </c>
       <c r="I15">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J15">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="K15">
         <v>1.91</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="M15">
         <v>1.99</v>
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6025</v>
+        <v>6022</v>
       </c>
       <c r="D16">
-        <v>5949</v>
+        <v>5945</v>
       </c>
       <c r="E16">
-        <v>6091</v>
+        <v>6077</v>
       </c>
       <c r="F16">
-        <v>4903</v>
+        <v>4905</v>
       </c>
       <c r="G16">
-        <v>4840</v>
+        <v>4842</v>
       </c>
       <c r="H16">
-        <v>4965</v>
+        <v>4963</v>
       </c>
       <c r="I16">
         <v>1.72</v>
@@ -1057,22 +1057,22 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5242</v>
+        <v>5239</v>
       </c>
       <c r="D17">
-        <v>5161</v>
+        <v>5170</v>
       </c>
       <c r="E17">
-        <v>5311</v>
+        <v>5306</v>
       </c>
       <c r="F17">
-        <v>5115</v>
+        <v>5116</v>
       </c>
       <c r="G17">
-        <v>5045</v>
+        <v>5048</v>
       </c>
       <c r="H17">
-        <v>5178</v>
+        <v>5176</v>
       </c>
       <c r="I17">
         <v>1.48</v>
@@ -1101,22 +1101,22 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5315</v>
+        <v>5319</v>
       </c>
       <c r="D18">
-        <v>5253</v>
+        <v>5252</v>
       </c>
       <c r="E18">
-        <v>5391</v>
+        <v>5386</v>
       </c>
       <c r="F18">
-        <v>5325</v>
+        <v>5326</v>
       </c>
       <c r="G18">
-        <v>5255</v>
+        <v>5256</v>
       </c>
       <c r="H18">
-        <v>5392</v>
+        <v>5388</v>
       </c>
       <c r="I18">
         <v>1.36</v>
@@ -1145,22 +1145,22 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4739</v>
+        <v>4727</v>
       </c>
       <c r="D19">
-        <v>4676</v>
+        <v>4657</v>
       </c>
       <c r="E19">
-        <v>4812</v>
+        <v>4795</v>
       </c>
       <c r="F19">
-        <v>5330</v>
+        <v>5327</v>
       </c>
       <c r="G19">
-        <v>5260</v>
+        <v>5256</v>
       </c>
       <c r="H19">
-        <v>5401</v>
+        <v>5391</v>
       </c>
       <c r="I19">
         <v>1.24</v>
@@ -1189,22 +1189,22 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="D20">
-        <v>5249</v>
+        <v>5247</v>
       </c>
       <c r="E20">
-        <v>5393</v>
+        <v>5381</v>
       </c>
       <c r="F20">
-        <v>5153</v>
+        <v>5150</v>
       </c>
       <c r="G20">
-        <v>5085</v>
+        <v>5081</v>
       </c>
       <c r="H20">
-        <v>5226</v>
+        <v>5217</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1222,7 +1222,7 @@
         <v>1.12</v>
       </c>
       <c r="N20">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4437</v>
+        <v>4435</v>
       </c>
       <c r="D21">
-        <v>4371</v>
+        <v>4374</v>
       </c>
       <c r="E21">
-        <v>4505</v>
+        <v>4495</v>
       </c>
       <c r="F21">
-        <v>4952</v>
+        <v>4949</v>
       </c>
       <c r="G21">
-        <v>4887</v>
+        <v>4882</v>
       </c>
       <c r="H21">
-        <v>5025</v>
+        <v>5014</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3845</v>
+        <v>3851</v>
       </c>
       <c r="D22">
-        <v>3781</v>
+        <v>3787</v>
       </c>
       <c r="E22">
-        <v>3910</v>
+        <v>3909</v>
       </c>
       <c r="F22">
-        <v>4585</v>
+        <v>4582</v>
       </c>
       <c r="G22">
-        <v>4519</v>
+        <v>4516</v>
       </c>
       <c r="H22">
-        <v>4655</v>
+        <v>4645</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5164</v>
+        <v>5165</v>
       </c>
       <c r="D23">
-        <v>5104</v>
+        <v>5102</v>
       </c>
       <c r="E23">
-        <v>5235</v>
+        <v>5219</v>
       </c>
       <c r="F23">
-        <v>4691</v>
+        <v>4692</v>
       </c>
       <c r="G23">
-        <v>4626</v>
+        <v>4627</v>
       </c>
       <c r="H23">
-        <v>4761</v>
+        <v>4751</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1351,10 +1351,10 @@
         <v>0.92</v>
       </c>
       <c r="M23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="N23">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1365,13 +1365,13 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4125</v>
+        <v>4120</v>
       </c>
       <c r="D24">
-        <v>4066</v>
+        <v>4056</v>
       </c>
       <c r="E24">
-        <v>4191</v>
+        <v>4178</v>
       </c>
       <c r="F24">
         <v>4393</v>
@@ -1380,7 +1380,7 @@
         <v>4330</v>
       </c>
       <c r="H24">
-        <v>4460</v>
+        <v>4450</v>
       </c>
       <c r="I24">
         <v>0.85</v>
@@ -1392,7 +1392,7 @@
         <v>0.86</v>
       </c>
       <c r="L24">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M24">
         <v>0.89</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4407</v>
+        <v>4395</v>
       </c>
       <c r="D25">
-        <v>4350</v>
+        <v>4332</v>
       </c>
       <c r="E25">
-        <v>4475</v>
+        <v>4469</v>
       </c>
       <c r="F25">
-        <v>4386</v>
+        <v>4383</v>
       </c>
       <c r="G25">
-        <v>4325</v>
+        <v>4319</v>
       </c>
       <c r="H25">
-        <v>4453</v>
+        <v>4444</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1453,28 +1453,28 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4016</v>
+        <v>4015</v>
       </c>
       <c r="D26">
-        <v>3957</v>
+        <v>3947</v>
       </c>
       <c r="E26">
-        <v>4083</v>
+        <v>4096</v>
       </c>
       <c r="F26">
-        <v>4428</v>
+        <v>4424</v>
       </c>
       <c r="G26">
-        <v>4369</v>
+        <v>4359</v>
       </c>
       <c r="H26">
-        <v>4496</v>
+        <v>4490</v>
       </c>
       <c r="I26">
         <v>0.97</v>
       </c>
       <c r="J26">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K26">
         <v>0.98</v>
@@ -1497,19 +1497,19 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4122</v>
+        <v>4123</v>
       </c>
       <c r="D27">
-        <v>4067</v>
+        <v>4066</v>
       </c>
       <c r="E27">
-        <v>4179</v>
+        <v>4185</v>
       </c>
       <c r="F27">
-        <v>4168</v>
+        <v>4163</v>
       </c>
       <c r="G27">
-        <v>4110</v>
+        <v>4100</v>
       </c>
       <c r="H27">
         <v>4232</v>
@@ -1541,31 +1541,31 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3895</v>
+        <v>3893</v>
       </c>
       <c r="D28">
-        <v>3824</v>
+        <v>3831</v>
       </c>
       <c r="E28">
-        <v>3963</v>
+        <v>3962</v>
       </c>
       <c r="F28">
-        <v>4110</v>
+        <v>4107</v>
       </c>
       <c r="G28">
-        <v>4050</v>
+        <v>4044</v>
       </c>
       <c r="H28">
-        <v>4175</v>
+        <v>4178</v>
       </c>
       <c r="I28">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="J28">
         <v>0.93</v>
       </c>
       <c r="K28">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L28">
         <v>0.91</v>
@@ -1588,28 +1588,28 @@
         <v>3314</v>
       </c>
       <c r="D29">
-        <v>3255</v>
+        <v>3251</v>
       </c>
       <c r="E29">
-        <v>3383</v>
+        <v>3367</v>
       </c>
       <c r="F29">
-        <v>3837</v>
+        <v>3836</v>
       </c>
       <c r="G29">
-        <v>3776</v>
+        <v>3774</v>
       </c>
       <c r="H29">
         <v>3902</v>
       </c>
       <c r="I29">
+        <v>0.88</v>
+      </c>
+      <c r="J29">
         <v>0.87</v>
       </c>
-      <c r="J29">
-        <v>0.86</v>
-      </c>
       <c r="K29">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L29">
         <v>0.9</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4373</v>
+        <v>4385</v>
       </c>
       <c r="D30">
-        <v>4290</v>
+        <v>4314</v>
       </c>
       <c r="E30">
-        <v>4447</v>
+        <v>4440</v>
       </c>
       <c r="F30">
-        <v>3926</v>
+        <v>3929</v>
       </c>
       <c r="G30">
-        <v>3859</v>
+        <v>3865</v>
       </c>
       <c r="H30">
-        <v>3993</v>
+        <v>3988</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3587</v>
+        <v>3582</v>
       </c>
       <c r="D31">
-        <v>3518</v>
+        <v>3521</v>
       </c>
       <c r="E31">
-        <v>3657</v>
+        <v>3655</v>
       </c>
       <c r="F31">
-        <v>3792</v>
+        <v>3793</v>
       </c>
       <c r="G31">
-        <v>3722</v>
+        <v>3729</v>
       </c>
       <c r="H31">
-        <v>3862</v>
+        <v>3856</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4028</v>
+        <v>4033</v>
       </c>
       <c r="D32">
         <v>3959</v>
       </c>
       <c r="E32">
-        <v>4107</v>
+        <v>4106</v>
       </c>
       <c r="F32">
-        <v>3825</v>
+        <v>3828</v>
       </c>
       <c r="G32">
-        <v>3755</v>
+        <v>3761</v>
       </c>
       <c r="H32">
-        <v>3898</v>
+        <v>3892</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3756</v>
+        <v>3757</v>
       </c>
       <c r="D33">
-        <v>3692</v>
+        <v>3697</v>
       </c>
       <c r="E33">
-        <v>3821</v>
+        <v>3828</v>
       </c>
       <c r="F33">
-        <v>3936</v>
+        <v>3939</v>
       </c>
       <c r="G33">
-        <v>3864</v>
+        <v>3872</v>
       </c>
       <c r="H33">
-        <v>4008</v>
+        <v>4007</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3758</v>
+        <v>3753</v>
       </c>
       <c r="D34">
-        <v>3695</v>
+        <v>3692</v>
       </c>
       <c r="E34">
         <v>3820</v>
       </c>
       <c r="F34">
-        <v>3782</v>
+        <v>3781</v>
       </c>
       <c r="G34">
-        <v>3716</v>
+        <v>3717</v>
       </c>
       <c r="H34">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3051</v>
+        <v>3050</v>
       </c>
       <c r="D35">
-        <v>2984</v>
+        <v>2975</v>
       </c>
       <c r="E35">
-        <v>3113</v>
+        <v>3122</v>
       </c>
       <c r="F35">
         <v>3648</v>
       </c>
       <c r="G35">
-        <v>3582</v>
+        <v>3581</v>
       </c>
       <c r="H35">
-        <v>3715</v>
+        <v>3719</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2735</v>
+        <v>2738</v>
       </c>
       <c r="D36">
-        <v>2677</v>
+        <v>2678</v>
       </c>
       <c r="E36">
-        <v>2793</v>
+        <v>2792</v>
       </c>
       <c r="F36">
         <v>3325</v>
       </c>
       <c r="G36">
-        <v>3262</v>
+        <v>3260</v>
       </c>
       <c r="H36">
-        <v>3386</v>
+        <v>3390</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3354</v>
+        <v>3361</v>
       </c>
       <c r="D37">
-        <v>3292</v>
+        <v>3299</v>
       </c>
       <c r="E37">
-        <v>3419</v>
+        <v>3418</v>
       </c>
       <c r="F37">
         <v>3225</v>
       </c>
       <c r="G37">
-        <v>3162</v>
+        <v>3161</v>
       </c>
       <c r="H37">
-        <v>3286</v>
+        <v>3288</v>
       </c>
       <c r="I37">
         <v>0.82</v>
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3091</v>
+        <v>3082</v>
       </c>
       <c r="D38">
-        <v>3027</v>
+        <v>3014</v>
       </c>
       <c r="E38">
-        <v>3167</v>
+        <v>3135</v>
       </c>
       <c r="F38">
         <v>3058</v>
       </c>
       <c r="G38">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="H38">
-        <v>3123</v>
+        <v>3116</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2008,7 +2008,7 @@
         <v>0.82</v>
       </c>
       <c r="L38">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="M38">
         <v>0.87</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2895</v>
+        <v>2898</v>
       </c>
       <c r="D39">
-        <v>2835</v>
+        <v>2833</v>
       </c>
       <c r="E39">
-        <v>2960</v>
+        <v>2969</v>
       </c>
       <c r="F39">
-        <v>3019</v>
+        <v>3020</v>
       </c>
       <c r="G39">
-        <v>2958</v>
+        <v>2956</v>
       </c>
       <c r="H39">
-        <v>3085</v>
+        <v>3078</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2069,22 +2069,22 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2709</v>
+        <v>2703</v>
       </c>
       <c r="D40">
-        <v>2655</v>
+        <v>2648</v>
       </c>
       <c r="E40">
-        <v>2770</v>
+        <v>2764</v>
       </c>
       <c r="F40">
-        <v>3012</v>
+        <v>3011</v>
       </c>
       <c r="G40">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="H40">
-        <v>3079</v>
+        <v>3071</v>
       </c>
       <c r="I40">
         <v>0.91</v>
@@ -2113,22 +2113,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="D41">
-        <v>2278</v>
+        <v>2280</v>
       </c>
       <c r="E41">
-        <v>2390</v>
+        <v>2394</v>
       </c>
       <c r="F41">
-        <v>2756</v>
+        <v>2754</v>
       </c>
       <c r="G41">
-        <v>2699</v>
+        <v>2694</v>
       </c>
       <c r="H41">
-        <v>2822</v>
+        <v>2815</v>
       </c>
       <c r="I41">
         <v>0.85</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D42">
-        <v>1959</v>
+        <v>1967</v>
       </c>
       <c r="E42">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="F42">
-        <v>2488</v>
+        <v>2487</v>
       </c>
       <c r="G42">
         <v>2432</v>
       </c>
       <c r="H42">
-        <v>2548</v>
+        <v>2549</v>
       </c>
       <c r="I42">
         <v>0.8100000000000001</v>
@@ -2201,16 +2201,16 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="D43">
         <v>1939</v>
       </c>
       <c r="E43">
-        <v>2038</v>
+        <v>2042</v>
       </c>
       <c r="F43">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="G43">
         <v>2208</v>
@@ -2245,28 +2245,28 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1925</v>
+        <v>1929</v>
       </c>
       <c r="D44">
-        <v>1875</v>
+        <v>1879</v>
       </c>
       <c r="E44">
-        <v>1974</v>
+        <v>1986</v>
       </c>
       <c r="F44">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="G44">
-        <v>2013</v>
+        <v>2016</v>
       </c>
       <c r="H44">
-        <v>2118</v>
+        <v>2123</v>
       </c>
       <c r="I44">
         <v>0.6899999999999999</v>
       </c>
       <c r="J44">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="K44">
         <v>0.7</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="D45">
         <v>1934</v>
       </c>
       <c r="E45">
-        <v>2031</v>
+        <v>2035</v>
       </c>
       <c r="F45">
-        <v>1978</v>
+        <v>1980</v>
       </c>
       <c r="G45">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="H45">
-        <v>2028</v>
+        <v>2033</v>
       </c>
       <c r="I45">
         <v>0.72</v>
@@ -2333,22 +2333,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="D46">
-        <v>1901</v>
+        <v>1892</v>
       </c>
       <c r="E46">
-        <v>1999</v>
+        <v>2004</v>
       </c>
       <c r="F46">
-        <v>1960</v>
+        <v>1964</v>
       </c>
       <c r="G46">
-        <v>1912</v>
+        <v>1911</v>
       </c>
       <c r="H46">
-        <v>2010</v>
+        <v>2017</v>
       </c>
       <c r="I46">
         <v>0.79</v>
@@ -2377,25 +2377,25 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1782</v>
+        <v>1784</v>
       </c>
       <c r="D47">
-        <v>1733</v>
+        <v>1728</v>
       </c>
       <c r="E47">
-        <v>1834</v>
+        <v>1837</v>
       </c>
       <c r="F47">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="G47">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="H47">
-        <v>1959</v>
+        <v>1965</v>
       </c>
       <c r="I47">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J47">
         <v>0.83</v>
@@ -2421,22 +2421,22 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="D48">
-        <v>1629</v>
+        <v>1611</v>
       </c>
       <c r="E48">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="F48">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="G48">
-        <v>1799</v>
+        <v>1791</v>
       </c>
       <c r="H48">
-        <v>1897</v>
+        <v>1899</v>
       </c>
       <c r="I48">
         <v>0.89</v>
@@ -2448,7 +2448,7 @@
         <v>0.91</v>
       </c>
       <c r="L48">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M48">
         <v>0.8</v>
@@ -2465,19 +2465,19 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1460</v>
+        <v>1457</v>
       </c>
       <c r="D49">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="E49">
-        <v>1505</v>
+        <v>1499</v>
       </c>
       <c r="F49">
         <v>1715</v>
       </c>
       <c r="G49">
-        <v>1668</v>
+        <v>1659</v>
       </c>
       <c r="H49">
         <v>1765</v>
@@ -2509,22 +2509,22 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1319</v>
+        <v>1322</v>
       </c>
       <c r="D50">
-        <v>1264</v>
+        <v>1282</v>
       </c>
       <c r="E50">
-        <v>1361</v>
+        <v>1371</v>
       </c>
       <c r="F50">
         <v>1558</v>
       </c>
       <c r="G50">
-        <v>1508</v>
+        <v>1507</v>
       </c>
       <c r="H50">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="I50">
         <v>0.79</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1568</v>
+        <v>1570</v>
       </c>
       <c r="D51">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="E51">
-        <v>1610</v>
+        <v>1614</v>
       </c>
       <c r="F51">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="G51">
         <v>1456</v>
       </c>
       <c r="H51">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2583,7 +2583,7 @@
         <v>0.84</v>
       </c>
       <c r="M51">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N51">
         <v>0.84</v>
@@ -2597,22 +2597,22 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1373</v>
+        <v>1376</v>
       </c>
       <c r="D52">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="E52">
-        <v>1427</v>
+        <v>1418</v>
       </c>
       <c r="F52">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="G52">
-        <v>1379</v>
+        <v>1386</v>
       </c>
       <c r="H52">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="I52">
         <v>0.77</v>
@@ -2641,28 +2641,28 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1311</v>
+        <v>1308</v>
       </c>
       <c r="D53">
-        <v>1264</v>
+        <v>1266</v>
       </c>
       <c r="E53">
-        <v>1366</v>
+        <v>1350</v>
       </c>
       <c r="F53">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="G53">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="H53">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="I53">
         <v>0.8100000000000001</v>
       </c>
       <c r="J53">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K53">
         <v>0.83</v>
@@ -2671,7 +2671,7 @@
         <v>0.83</v>
       </c>
       <c r="M53">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N53">
         <v>0.84</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="D54">
-        <v>1256</v>
+        <v>1247</v>
       </c>
       <c r="E54">
-        <v>1344</v>
+        <v>1350</v>
       </c>
       <c r="F54">
         <v>1388</v>
       </c>
       <c r="G54">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="H54">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2729,22 +2729,22 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1159</v>
+        <v>1153</v>
       </c>
       <c r="D55">
-        <v>1115</v>
+        <v>1100</v>
       </c>
       <c r="E55">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="F55">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="G55">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="H55">
-        <v>1335</v>
+        <v>1328</v>
       </c>
       <c r="I55">
         <v>0.85</v>
@@ -2753,7 +2753,7 @@
         <v>0.83</v>
       </c>
       <c r="K55">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L55">
         <v>0.8100000000000001</v>
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1019</v>
+        <v>1022</v>
       </c>
       <c r="D56">
-        <v>978</v>
+        <v>982</v>
       </c>
       <c r="E56">
-        <v>1060</v>
+        <v>1065</v>
       </c>
       <c r="F56">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="G56">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="H56">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2817,22 +2817,22 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="D57">
-        <v>885</v>
+        <v>894</v>
       </c>
       <c r="E57">
-        <v>966</v>
+        <v>970</v>
       </c>
       <c r="F57">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G57">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="H57">
-        <v>1143</v>
+        <v>1145</v>
       </c>
       <c r="I57">
         <v>0.79</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1125</v>
+        <v>1130</v>
       </c>
       <c r="D58">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="E58">
-        <v>1169</v>
+        <v>1183</v>
       </c>
       <c r="F58">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="G58">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="H58">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2905,22 +2905,22 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D59">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="E59">
-        <v>979</v>
+        <v>995</v>
       </c>
       <c r="F59">
-        <v>1003</v>
+        <v>1006</v>
       </c>
       <c r="G59">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="H59">
-        <v>1044</v>
+        <v>1053</v>
       </c>
       <c r="I59">
         <v>0.78</v>
@@ -2938,7 +2938,7 @@
         <v>0.8</v>
       </c>
       <c r="N59">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -2949,22 +2949,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="D60">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E60">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F60">
-        <v>969</v>
+        <v>971</v>
       </c>
       <c r="G60">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="H60">
-        <v>1010</v>
+        <v>1019</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2973,13 +2973,13 @@
         <v>0.79</v>
       </c>
       <c r="K60">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="L60">
         <v>0.8100000000000001</v>
       </c>
       <c r="M60">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="N60">
         <v>0.82</v>
@@ -2993,22 +2993,22 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="D61">
-        <v>895</v>
+        <v>902</v>
       </c>
       <c r="E61">
-        <v>1001</v>
+        <v>987</v>
       </c>
       <c r="F61">
         <v>974</v>
       </c>
       <c r="G61">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="H61">
-        <v>1019</v>
+        <v>1023</v>
       </c>
       <c r="I61">
         <v>0.88</v>
@@ -3026,7 +3026,7 @@
         <v>0.8</v>
       </c>
       <c r="N61">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3037,25 +3037,25 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="D62">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E62">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="F62">
         <v>895</v>
       </c>
       <c r="G62">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H62">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="I62">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J62">
         <v>0.82</v>
@@ -3081,28 +3081,28 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D63">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E63">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="F63">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="G63">
         <v>802</v>
       </c>
       <c r="H63">
-        <v>896</v>
+        <v>893</v>
       </c>
       <c r="I63">
         <v>0.84</v>
       </c>
       <c r="J63">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K63">
         <v>0.87</v>
@@ -3125,22 +3125,22 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="D64">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="E64">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F64">
         <v>822</v>
       </c>
       <c r="G64">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="H64">
-        <v>874</v>
+        <v>868</v>
       </c>
       <c r="I64">
         <v>0.85</v>
@@ -3169,22 +3169,22 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="D65">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="E65">
-        <v>969</v>
+        <v>985</v>
       </c>
       <c r="F65">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G65">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H65">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="I65">
         <v>0.84</v>
@@ -3213,28 +3213,28 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D66">
         <v>781</v>
       </c>
       <c r="E66">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="F66">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G66">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="H66">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="I66">
         <v>0.92</v>
       </c>
       <c r="J66">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K66">
         <v>0.95</v>
@@ -3243,7 +3243,7 @@
         <v>0.91</v>
       </c>
       <c r="M66">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="N66">
         <v>0.93</v>
@@ -3257,22 +3257,22 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="D67">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="E67">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="F67">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G67">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="H67">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="I67">
         <v>0.98</v>
@@ -3281,16 +3281,16 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="K67">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L67">
         <v>0.9</v>
       </c>
       <c r="M67">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="N67">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3301,22 +3301,22 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="D68">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="E68">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="F68">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="G68">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H68">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="I68">
         <v>0.99</v>
@@ -3325,7 +3325,7 @@
         <v>0.95</v>
       </c>
       <c r="K68">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L68">
         <v>0.9</v>
@@ -3334,7 +3334,7 @@
         <v>0.88</v>
       </c>
       <c r="N68">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3345,31 +3345,31 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="D69">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E69">
-        <v>727</v>
+        <v>702</v>
       </c>
       <c r="F69">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="G69">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="H69">
-        <v>807</v>
+        <v>795</v>
       </c>
       <c r="I69">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="J69">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="K69">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="L69">
         <v>0.89</v>
@@ -3378,7 +3378,7 @@
         <v>0.87</v>
       </c>
       <c r="N69">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3389,22 +3389,22 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D70">
-        <v>531</v>
+        <v>542</v>
       </c>
       <c r="E70">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F70">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G70">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="H70">
-        <v>748</v>
+        <v>736</v>
       </c>
       <c r="I70">
         <v>0.84</v>
@@ -3413,7 +3413,7 @@
         <v>0.8</v>
       </c>
       <c r="K70">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L70">
         <v>0.87</v>
@@ -3422,7 +3422,7 @@
         <v>0.85</v>
       </c>
       <c r="N70">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3433,22 +3433,22 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D71">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="E71">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F71">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="G71">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="H71">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="I71">
         <v>0.76</v>
@@ -3460,7 +3460,7 @@
         <v>0.8</v>
       </c>
       <c r="L71">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="M71">
         <v>0.83</v>
@@ -3477,31 +3477,31 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="D72">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="E72">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F72">
         <v>614</v>
       </c>
       <c r="G72">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="H72">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="I72">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="J72">
-        <v>0.71</v>
+        <v>0.72</v>
       </c>
       <c r="K72">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="L72">
         <v>0.85</v>
@@ -3521,28 +3521,28 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="D73">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="E73">
-        <v>729</v>
+        <v>704</v>
       </c>
       <c r="F73">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G73">
-        <v>546</v>
+        <v>553</v>
       </c>
       <c r="H73">
-        <v>676</v>
+        <v>667</v>
       </c>
       <c r="I73">
         <v>0.82</v>
       </c>
       <c r="J73">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="K73">
         <v>0.86</v>
@@ -3565,28 +3565,28 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D74">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="E74">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="F74">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G74">
-        <v>532</v>
+        <v>541</v>
       </c>
       <c r="H74">
-        <v>686</v>
+        <v>669</v>
       </c>
       <c r="I74">
         <v>0.88</v>
       </c>
       <c r="J74">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="K74">
         <v>0.95</v>
@@ -3595,10 +3595,10 @@
         <v>0.84</v>
       </c>
       <c r="M74">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N74">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3609,40 +3609,40 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>575</v>
+        <v>556</v>
       </c>
       <c r="D75">
-        <v>462</v>
+        <v>480</v>
       </c>
       <c r="E75">
-        <v>700</v>
+        <v>640</v>
       </c>
       <c r="F75">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="G75">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="H75">
-        <v>707</v>
+        <v>678</v>
       </c>
       <c r="I75">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J75">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K75">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="L75">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="M75">
         <v>0.82</v>
       </c>
       <c r="N75">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3653,40 +3653,40 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>576</v>
+        <v>550</v>
       </c>
       <c r="D76">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="E76">
-        <v>760</v>
+        <v>685</v>
       </c>
       <c r="F76">
-        <v>595</v>
+        <v>580</v>
       </c>
       <c r="G76">
-        <v>476</v>
+        <v>493</v>
       </c>
       <c r="H76">
-        <v>718</v>
+        <v>670</v>
       </c>
       <c r="I76">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="J76">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K76">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="L76">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="M76">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="N76">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3697,40 +3697,40 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>548</v>
+        <v>510</v>
       </c>
       <c r="D77">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="E77">
-        <v>740</v>
+        <v>639</v>
       </c>
       <c r="F77">
-        <v>569</v>
+        <v>547</v>
       </c>
       <c r="G77">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="H77">
-        <v>720</v>
+        <v>654</v>
       </c>
       <c r="I77">
-        <v>0.93</v>
+        <v>0.9</v>
       </c>
       <c r="J77">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K77">
-        <v>1.09</v>
+        <v>0.99</v>
       </c>
       <c r="L77">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="M77">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="N77">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3741,31 +3741,75 @@
         <v>43968</v>
       </c>
       <c r="C78">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="D78">
-        <v>273</v>
+        <v>311</v>
       </c>
       <c r="E78">
-        <v>701</v>
+        <v>643</v>
       </c>
       <c r="F78">
-        <v>543</v>
+        <v>520</v>
       </c>
       <c r="G78">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="H78">
-        <v>725</v>
+        <v>652</v>
       </c>
       <c r="I78">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="J78">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="K78">
-        <v>1.07</v>
+        <v>0.99</v>
+      </c>
+      <c r="L78">
+        <v>0.91</v>
+      </c>
+      <c r="M78">
+        <v>0.83</v>
+      </c>
+      <c r="N78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43969</v>
+      </c>
+      <c r="C79">
+        <v>538</v>
+      </c>
+      <c r="D79">
+        <v>337</v>
+      </c>
+      <c r="E79">
+        <v>786</v>
+      </c>
+      <c r="F79">
+        <v>515</v>
+      </c>
+      <c r="G79">
+        <v>363</v>
+      </c>
+      <c r="H79">
+        <v>688</v>
+      </c>
+      <c r="I79">
+        <v>0.85</v>
+      </c>
+      <c r="J79">
+        <v>0.71</v>
+      </c>
+      <c r="K79">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glä</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glät</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N79"/>
+  <dimension ref="A1:N80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +469,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="F2">
         <v>227</v>
       </c>
       <c r="G2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -498,7 +498,7 @@
         <v>329</v>
       </c>
       <c r="D3">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="E3">
         <v>348</v>
@@ -507,10 +507,10 @@
         <v>264</v>
       </c>
       <c r="G3">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H3">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -521,19 +521,19 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D4">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E4">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F4">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G4">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H4">
         <v>348</v>
@@ -547,16 +547,16 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="D5">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E5">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F5">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G5">
         <v>380</v>
@@ -573,13 +573,13 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D6">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E6">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="F6">
         <v>511</v>
@@ -588,7 +588,7 @@
         <v>490</v>
       </c>
       <c r="H6">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="I6">
         <v>2.25</v>
@@ -603,10 +603,10 @@
         <v>2.32</v>
       </c>
       <c r="M6">
-        <v>2.27</v>
+        <v>2.28</v>
       </c>
       <c r="N6">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,34 +617,34 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D7">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E7">
-        <v>1014</v>
+        <v>1020</v>
       </c>
       <c r="F7">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G7">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H7">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I7">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="J7">
-        <v>2.46</v>
+        <v>2.47</v>
       </c>
       <c r="K7">
-        <v>2.66</v>
+        <v>2.64</v>
       </c>
       <c r="L7">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
       <c r="M7">
         <v>2.48</v>
@@ -661,34 +661,34 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="D8">
         <v>1299</v>
       </c>
       <c r="E8">
-        <v>1368</v>
+        <v>1370</v>
       </c>
       <c r="F8">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="G8">
         <v>866</v>
       </c>
       <c r="H8">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="I8">
         <v>2.71</v>
       </c>
       <c r="J8">
-        <v>2.62</v>
+        <v>2.64</v>
       </c>
       <c r="K8">
-        <v>2.79</v>
+        <v>2.8</v>
       </c>
       <c r="L8">
-        <v>2.89</v>
+        <v>2.9</v>
       </c>
       <c r="M8">
         <v>2.84</v>
@@ -705,13 +705,13 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="D9">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="E9">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="F9">
         <v>1266</v>
@@ -726,10 +726,10 @@
         <v>3.18</v>
       </c>
       <c r="J9">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="K9">
-        <v>3.25</v>
+        <v>3.28</v>
       </c>
       <c r="L9">
         <v>3.1</v>
@@ -738,7 +738,7 @@
         <v>3.05</v>
       </c>
       <c r="N9">
-        <v>3.15</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +749,40 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2564</v>
+        <v>2571</v>
       </c>
       <c r="D10">
-        <v>2516</v>
+        <v>2523</v>
       </c>
       <c r="E10">
-        <v>2614</v>
+        <v>2625</v>
       </c>
       <c r="F10">
-        <v>1718</v>
+        <v>1719</v>
       </c>
       <c r="G10">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="H10">
-        <v>1754</v>
+        <v>1760</v>
       </c>
       <c r="I10">
-        <v>3.36</v>
+        <v>3.37</v>
       </c>
       <c r="J10">
-        <v>3.28</v>
+        <v>3.29</v>
       </c>
       <c r="K10">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="L10">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="M10">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="N10">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,40 +793,40 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3238</v>
+        <v>3237</v>
       </c>
       <c r="D11">
-        <v>3186</v>
+        <v>3187</v>
       </c>
       <c r="E11">
-        <v>3286</v>
+        <v>3289</v>
       </c>
       <c r="F11">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="G11">
-        <v>2237</v>
+        <v>2239</v>
       </c>
       <c r="H11">
-        <v>2322</v>
+        <v>2327</v>
       </c>
       <c r="I11">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="J11">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="K11">
-        <v>3.43</v>
+        <v>3.45</v>
       </c>
       <c r="L11">
         <v>3.1</v>
       </c>
       <c r="M11">
-        <v>3.05</v>
+        <v>3.07</v>
       </c>
       <c r="N11">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,37 +837,37 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3605</v>
+        <v>3608</v>
       </c>
       <c r="D12">
-        <v>3556</v>
+        <v>3552</v>
       </c>
       <c r="E12">
         <v>3660</v>
       </c>
       <c r="F12">
-        <v>2848</v>
+        <v>2851</v>
       </c>
       <c r="G12">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="H12">
-        <v>2895</v>
+        <v>2900</v>
       </c>
       <c r="I12">
-        <v>3.18</v>
+        <v>3.19</v>
       </c>
       <c r="J12">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
       <c r="K12">
-        <v>3.24</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
         <v>2.85</v>
       </c>
       <c r="M12">
-        <v>2.82</v>
+        <v>2.83</v>
       </c>
       <c r="N12">
         <v>2.88</v>
@@ -881,28 +881,28 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4395</v>
+        <v>4397</v>
       </c>
       <c r="D13">
-        <v>4343</v>
+        <v>4334</v>
       </c>
       <c r="E13">
-        <v>4455</v>
+        <v>4454</v>
       </c>
       <c r="F13">
-        <v>3451</v>
+        <v>3453</v>
       </c>
       <c r="G13">
-        <v>3400</v>
+        <v>3399</v>
       </c>
       <c r="H13">
-        <v>3504</v>
+        <v>3507</v>
       </c>
       <c r="I13">
         <v>2.73</v>
       </c>
       <c r="J13">
-        <v>2.68</v>
+        <v>2.69</v>
       </c>
       <c r="K13">
         <v>2.77</v>
@@ -925,31 +925,31 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4481</v>
+        <v>4475</v>
       </c>
       <c r="D14">
-        <v>4419</v>
+        <v>4422</v>
       </c>
       <c r="E14">
-        <v>4537</v>
+        <v>4541</v>
       </c>
       <c r="F14">
-        <v>3930</v>
+        <v>3929</v>
       </c>
       <c r="G14">
-        <v>3876</v>
+        <v>3874</v>
       </c>
       <c r="H14">
-        <v>3984</v>
+        <v>3986</v>
       </c>
       <c r="I14">
         <v>2.29</v>
       </c>
       <c r="J14">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="L14">
         <v>2.2</v>
@@ -958,7 +958,7 @@
         <v>2.18</v>
       </c>
       <c r="N14">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,34 +969,34 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4722</v>
+        <v>4719</v>
       </c>
       <c r="D15">
-        <v>4660</v>
+        <v>4668</v>
       </c>
       <c r="E15">
-        <v>4785</v>
+        <v>4789</v>
       </c>
       <c r="F15">
-        <v>4301</v>
+        <v>4300</v>
       </c>
       <c r="G15">
         <v>4244</v>
       </c>
       <c r="H15">
-        <v>4359</v>
+        <v>4361</v>
       </c>
       <c r="I15">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J15">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="K15">
         <v>1.91</v>
       </c>
       <c r="L15">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>1.99</v>
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6022</v>
+        <v>6027</v>
       </c>
       <c r="D16">
-        <v>5945</v>
+        <v>5966</v>
       </c>
       <c r="E16">
-        <v>6077</v>
+        <v>6095</v>
       </c>
       <c r="F16">
-        <v>4905</v>
+        <v>4904</v>
       </c>
       <c r="G16">
-        <v>4842</v>
+        <v>4847</v>
       </c>
       <c r="H16">
-        <v>4963</v>
+        <v>4970</v>
       </c>
       <c r="I16">
         <v>1.72</v>
@@ -1057,22 +1057,22 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5239</v>
+        <v>5233</v>
       </c>
       <c r="D17">
-        <v>5170</v>
+        <v>5165</v>
       </c>
       <c r="E17">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="F17">
-        <v>5116</v>
+        <v>5114</v>
       </c>
       <c r="G17">
-        <v>5048</v>
+        <v>5055</v>
       </c>
       <c r="H17">
-        <v>5176</v>
+        <v>5182</v>
       </c>
       <c r="I17">
         <v>1.48</v>
@@ -1101,25 +1101,25 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5319</v>
+        <v>5316</v>
       </c>
       <c r="D18">
-        <v>5252</v>
+        <v>5251</v>
       </c>
       <c r="E18">
         <v>5386</v>
       </c>
       <c r="F18">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="G18">
-        <v>5256</v>
+        <v>5262</v>
       </c>
       <c r="H18">
-        <v>5388</v>
+        <v>5393</v>
       </c>
       <c r="I18">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J18">
         <v>1.34</v>
@@ -1148,19 +1148,19 @@
         <v>4727</v>
       </c>
       <c r="D19">
-        <v>4657</v>
+        <v>4663</v>
       </c>
       <c r="E19">
-        <v>4795</v>
+        <v>4786</v>
       </c>
       <c r="F19">
-        <v>5327</v>
+        <v>5326</v>
       </c>
       <c r="G19">
-        <v>5256</v>
+        <v>5261</v>
       </c>
       <c r="H19">
-        <v>5391</v>
+        <v>5392</v>
       </c>
       <c r="I19">
         <v>1.24</v>
@@ -1189,22 +1189,22 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="D20">
-        <v>5247</v>
+        <v>5246</v>
       </c>
       <c r="E20">
-        <v>5381</v>
+        <v>5376</v>
       </c>
       <c r="F20">
-        <v>5150</v>
+        <v>5147</v>
       </c>
       <c r="G20">
         <v>5081</v>
       </c>
       <c r="H20">
-        <v>5217</v>
+        <v>5213</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1233,19 +1233,19 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4435</v>
+        <v>4445</v>
       </c>
       <c r="D21">
-        <v>4374</v>
+        <v>4386</v>
       </c>
       <c r="E21">
-        <v>4495</v>
+        <v>4510</v>
       </c>
       <c r="F21">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="G21">
-        <v>4882</v>
+        <v>4887</v>
       </c>
       <c r="H21">
         <v>5014</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3851</v>
+        <v>3852</v>
       </c>
       <c r="D22">
-        <v>3787</v>
+        <v>3788</v>
       </c>
       <c r="E22">
-        <v>3909</v>
+        <v>3916</v>
       </c>
       <c r="F22">
-        <v>4582</v>
+        <v>4584</v>
       </c>
       <c r="G22">
-        <v>4516</v>
+        <v>4521</v>
       </c>
       <c r="H22">
-        <v>4645</v>
+        <v>4647</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5165</v>
+        <v>5164</v>
       </c>
       <c r="D23">
-        <v>5102</v>
+        <v>5098</v>
       </c>
       <c r="E23">
-        <v>5219</v>
+        <v>5232</v>
       </c>
       <c r="F23">
-        <v>4692</v>
+        <v>4693</v>
       </c>
       <c r="G23">
-        <v>4627</v>
+        <v>4629</v>
       </c>
       <c r="H23">
-        <v>4751</v>
+        <v>4758</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1365,28 +1365,28 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4120</v>
+        <v>4117</v>
       </c>
       <c r="D24">
         <v>4056</v>
       </c>
       <c r="E24">
-        <v>4178</v>
+        <v>4184</v>
       </c>
       <c r="F24">
-        <v>4393</v>
+        <v>4394</v>
       </c>
       <c r="G24">
-        <v>4330</v>
+        <v>4332</v>
       </c>
       <c r="H24">
-        <v>4450</v>
+        <v>4460</v>
       </c>
       <c r="I24">
         <v>0.85</v>
       </c>
       <c r="J24">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="K24">
         <v>0.86</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4395</v>
+        <v>4403</v>
       </c>
       <c r="D25">
-        <v>4332</v>
+        <v>4335</v>
       </c>
       <c r="E25">
-        <v>4469</v>
+        <v>4461</v>
       </c>
       <c r="F25">
-        <v>4383</v>
+        <v>4384</v>
       </c>
       <c r="G25">
         <v>4319</v>
       </c>
       <c r="H25">
-        <v>4444</v>
+        <v>4448</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1453,22 +1453,22 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4015</v>
+        <v>4019</v>
       </c>
       <c r="D26">
-        <v>3947</v>
+        <v>3967</v>
       </c>
       <c r="E26">
-        <v>4096</v>
+        <v>4080</v>
       </c>
       <c r="F26">
-        <v>4424</v>
+        <v>4426</v>
       </c>
       <c r="G26">
-        <v>4359</v>
+        <v>4364</v>
       </c>
       <c r="H26">
-        <v>4490</v>
+        <v>4489</v>
       </c>
       <c r="I26">
         <v>0.97</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4123</v>
+        <v>4131</v>
       </c>
       <c r="D27">
-        <v>4066</v>
+        <v>4063</v>
       </c>
       <c r="E27">
-        <v>4185</v>
+        <v>4193</v>
       </c>
       <c r="F27">
-        <v>4163</v>
+        <v>4167</v>
       </c>
       <c r="G27">
-        <v>4100</v>
+        <v>4105</v>
       </c>
       <c r="H27">
-        <v>4232</v>
+        <v>4229</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,25 +1541,25 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3893</v>
+        <v>3894</v>
       </c>
       <c r="D28">
-        <v>3831</v>
+        <v>3820</v>
       </c>
       <c r="E28">
-        <v>3962</v>
+        <v>3965</v>
       </c>
       <c r="F28">
-        <v>4107</v>
+        <v>4112</v>
       </c>
       <c r="G28">
-        <v>4044</v>
+        <v>4046</v>
       </c>
       <c r="H28">
-        <v>4178</v>
+        <v>4175</v>
       </c>
       <c r="I28">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J28">
         <v>0.93</v>
@@ -1585,22 +1585,22 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3314</v>
+        <v>3317</v>
       </c>
       <c r="D29">
-        <v>3251</v>
+        <v>3253</v>
       </c>
       <c r="E29">
-        <v>3367</v>
+        <v>3376</v>
       </c>
       <c r="F29">
-        <v>3836</v>
+        <v>3840</v>
       </c>
       <c r="G29">
-        <v>3774</v>
+        <v>3776</v>
       </c>
       <c r="H29">
-        <v>3902</v>
+        <v>3903</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1609,7 +1609,7 @@
         <v>0.87</v>
       </c>
       <c r="K29">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L29">
         <v>0.9</v>
@@ -1635,16 +1635,16 @@
         <v>4314</v>
       </c>
       <c r="E30">
-        <v>4440</v>
+        <v>4459</v>
       </c>
       <c r="F30">
-        <v>3929</v>
+        <v>3932</v>
       </c>
       <c r="G30">
-        <v>3865</v>
+        <v>3862</v>
       </c>
       <c r="H30">
-        <v>3988</v>
+        <v>3998</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1659,7 +1659,7 @@
         <v>0.92</v>
       </c>
       <c r="M30">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="N30">
         <v>0.93</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3582</v>
+        <v>3583</v>
       </c>
       <c r="D31">
         <v>3521</v>
       </c>
       <c r="E31">
-        <v>3655</v>
+        <v>3642</v>
       </c>
       <c r="F31">
-        <v>3793</v>
+        <v>3795</v>
       </c>
       <c r="G31">
-        <v>3729</v>
+        <v>3727</v>
       </c>
       <c r="H31">
-        <v>3856</v>
+        <v>3860</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,19 +1717,19 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4033</v>
+        <v>4022</v>
       </c>
       <c r="D32">
-        <v>3959</v>
+        <v>3961</v>
       </c>
       <c r="E32">
-        <v>4106</v>
+        <v>4092</v>
       </c>
       <c r="F32">
-        <v>3828</v>
+        <v>3827</v>
       </c>
       <c r="G32">
-        <v>3761</v>
+        <v>3762</v>
       </c>
       <c r="H32">
         <v>3892</v>
@@ -1761,25 +1761,25 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3757</v>
+        <v>3753</v>
       </c>
       <c r="D33">
-        <v>3697</v>
+        <v>3681</v>
       </c>
       <c r="E33">
-        <v>3828</v>
+        <v>3819</v>
       </c>
       <c r="F33">
-        <v>3939</v>
+        <v>3936</v>
       </c>
       <c r="G33">
-        <v>3872</v>
+        <v>3869</v>
       </c>
       <c r="H33">
-        <v>4007</v>
+        <v>4003</v>
       </c>
       <c r="I33">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J33">
         <v>1.01</v>
@@ -1788,7 +1788,7 @@
         <v>1.04</v>
       </c>
       <c r="L33">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M33">
         <v>0.9399999999999999</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3753</v>
+        <v>3741</v>
       </c>
       <c r="D34">
-        <v>3692</v>
+        <v>3676</v>
       </c>
       <c r="E34">
-        <v>3820</v>
+        <v>3808</v>
       </c>
       <c r="F34">
-        <v>3781</v>
+        <v>3775</v>
       </c>
       <c r="G34">
-        <v>3717</v>
+        <v>3710</v>
       </c>
       <c r="H34">
-        <v>3852</v>
+        <v>3840</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3050</v>
+        <v>3051</v>
       </c>
       <c r="D35">
-        <v>2975</v>
+        <v>2984</v>
       </c>
       <c r="E35">
-        <v>3122</v>
+        <v>3110</v>
       </c>
       <c r="F35">
-        <v>3648</v>
+        <v>3642</v>
       </c>
       <c r="G35">
-        <v>3581</v>
+        <v>3575</v>
       </c>
       <c r="H35">
-        <v>3719</v>
+        <v>3707</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1876,7 +1876,7 @@
         <v>0.97</v>
       </c>
       <c r="L35">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="M35">
         <v>0.92</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2738</v>
+        <v>2739</v>
       </c>
       <c r="D36">
-        <v>2678</v>
+        <v>2694</v>
       </c>
       <c r="E36">
         <v>2792</v>
       </c>
       <c r="F36">
-        <v>3325</v>
+        <v>3321</v>
       </c>
       <c r="G36">
-        <v>3260</v>
+        <v>3259</v>
       </c>
       <c r="H36">
-        <v>3390</v>
+        <v>3382</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3361</v>
+        <v>3362</v>
       </c>
       <c r="D37">
         <v>3299</v>
       </c>
       <c r="E37">
-        <v>3418</v>
+        <v>3425</v>
       </c>
       <c r="F37">
-        <v>3225</v>
+        <v>3223</v>
       </c>
       <c r="G37">
-        <v>3161</v>
+        <v>3163</v>
       </c>
       <c r="H37">
-        <v>3288</v>
+        <v>3284</v>
       </c>
       <c r="I37">
         <v>0.82</v>
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3082</v>
+        <v>3087</v>
       </c>
       <c r="D38">
-        <v>3014</v>
+        <v>3026</v>
       </c>
       <c r="E38">
-        <v>3135</v>
+        <v>3141</v>
       </c>
       <c r="F38">
-        <v>3058</v>
+        <v>3059</v>
       </c>
       <c r="G38">
-        <v>2992</v>
+        <v>3000</v>
       </c>
       <c r="H38">
-        <v>3116</v>
+        <v>3117</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2008,7 +2008,7 @@
         <v>0.82</v>
       </c>
       <c r="L38">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M38">
         <v>0.87</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="D39">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="E39">
-        <v>2969</v>
+        <v>2957</v>
       </c>
       <c r="F39">
         <v>3020</v>
       </c>
       <c r="G39">
-        <v>2956</v>
+        <v>2962</v>
       </c>
       <c r="H39">
-        <v>3078</v>
+        <v>3079</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2069,19 +2069,19 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2703</v>
+        <v>2709</v>
       </c>
       <c r="D40">
-        <v>2648</v>
+        <v>2662</v>
       </c>
       <c r="E40">
-        <v>2764</v>
+        <v>2763</v>
       </c>
       <c r="F40">
-        <v>3011</v>
+        <v>3013</v>
       </c>
       <c r="G40">
-        <v>2948</v>
+        <v>2954</v>
       </c>
       <c r="H40">
         <v>3071</v>
@@ -2090,7 +2090,7 @@
         <v>0.91</v>
       </c>
       <c r="J40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K40">
         <v>0.92</v>
@@ -2099,7 +2099,7 @@
         <v>0.83</v>
       </c>
       <c r="M40">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N40">
         <v>0.84</v>
@@ -2113,22 +2113,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2332</v>
+        <v>2328</v>
       </c>
       <c r="D41">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="E41">
-        <v>2394</v>
+        <v>2381</v>
       </c>
       <c r="F41">
-        <v>2754</v>
+        <v>2755</v>
       </c>
       <c r="G41">
-        <v>2694</v>
+        <v>2698</v>
       </c>
       <c r="H41">
-        <v>2815</v>
+        <v>2810</v>
       </c>
       <c r="I41">
         <v>0.85</v>
@@ -2140,7 +2140,7 @@
         <v>0.87</v>
       </c>
       <c r="L41">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M41">
         <v>0.8</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="D42">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="E42">
-        <v>2069</v>
+        <v>2064</v>
       </c>
       <c r="F42">
         <v>2487</v>
       </c>
       <c r="G42">
-        <v>2432</v>
+        <v>2434</v>
       </c>
       <c r="H42">
-        <v>2549</v>
+        <v>2541</v>
       </c>
       <c r="I42">
         <v>0.8100000000000001</v>
@@ -2181,7 +2181,7 @@
         <v>0.8</v>
       </c>
       <c r="K42">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="L42">
         <v>0.8100000000000001</v>
@@ -2201,22 +2201,22 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="D43">
-        <v>1939</v>
+        <v>1943</v>
       </c>
       <c r="E43">
-        <v>2042</v>
+        <v>2036</v>
       </c>
       <c r="F43">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="G43">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="H43">
-        <v>2317</v>
+        <v>2311</v>
       </c>
       <c r="I43">
         <v>0.75</v>
@@ -2245,13 +2245,13 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="D44">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="E44">
-        <v>1986</v>
+        <v>1988</v>
       </c>
       <c r="F44">
         <v>2066</v>
@@ -2260,7 +2260,7 @@
         <v>2016</v>
       </c>
       <c r="H44">
-        <v>2123</v>
+        <v>2117</v>
       </c>
       <c r="I44">
         <v>0.6899999999999999</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="D45">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="E45">
-        <v>2035</v>
+        <v>2030</v>
       </c>
       <c r="F45">
-        <v>1980</v>
+        <v>1979</v>
       </c>
       <c r="G45">
         <v>1930</v>
       </c>
       <c r="H45">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="I45">
         <v>0.72</v>
@@ -2333,22 +2333,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="D46">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E46">
-        <v>2004</v>
+        <v>1997</v>
       </c>
       <c r="F46">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="G46">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="H46">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="I46">
         <v>0.79</v>
@@ -2377,25 +2377,25 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1784</v>
+        <v>1779</v>
       </c>
       <c r="D47">
-        <v>1728</v>
+        <v>1734</v>
       </c>
       <c r="E47">
-        <v>1837</v>
+        <v>1829</v>
       </c>
       <c r="F47">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="G47">
-        <v>1858</v>
+        <v>1860</v>
       </c>
       <c r="H47">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="I47">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J47">
         <v>0.83</v>
@@ -2424,19 +2424,19 @@
         <v>1669</v>
       </c>
       <c r="D48">
-        <v>1611</v>
+        <v>1624</v>
       </c>
       <c r="E48">
-        <v>1722</v>
+        <v>1718</v>
       </c>
       <c r="F48">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="G48">
-        <v>1791</v>
+        <v>1796</v>
       </c>
       <c r="H48">
-        <v>1899</v>
+        <v>1893</v>
       </c>
       <c r="I48">
         <v>0.89</v>
@@ -2448,7 +2448,7 @@
         <v>0.91</v>
       </c>
       <c r="L48">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M48">
         <v>0.8</v>
@@ -2468,19 +2468,19 @@
         <v>1457</v>
       </c>
       <c r="D49">
-        <v>1407</v>
+        <v>1413</v>
       </c>
       <c r="E49">
-        <v>1499</v>
+        <v>1505</v>
       </c>
       <c r="F49">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="G49">
-        <v>1659</v>
+        <v>1667</v>
       </c>
       <c r="H49">
-        <v>1765</v>
+        <v>1762</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2509,22 +2509,22 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="D50">
-        <v>1282</v>
+        <v>1271</v>
       </c>
       <c r="E50">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="F50">
-        <v>1558</v>
+        <v>1556</v>
       </c>
       <c r="G50">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H50">
-        <v>1607</v>
+        <v>1604</v>
       </c>
       <c r="I50">
         <v>0.79</v>
@@ -2553,19 +2553,19 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1570</v>
+        <v>1562</v>
       </c>
       <c r="D51">
-        <v>1523</v>
+        <v>1520</v>
       </c>
       <c r="E51">
-        <v>1614</v>
+        <v>1618</v>
       </c>
       <c r="F51">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="G51">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="H51">
         <v>1551</v>
@@ -2580,7 +2580,7 @@
         <v>0.8</v>
       </c>
       <c r="L51">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="M51">
         <v>0.83</v>
@@ -2597,22 +2597,22 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="D52">
-        <v>1333</v>
+        <v>1336</v>
       </c>
       <c r="E52">
-        <v>1418</v>
+        <v>1422</v>
       </c>
       <c r="F52">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="G52">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="H52">
-        <v>1475</v>
+        <v>1477</v>
       </c>
       <c r="I52">
         <v>0.77</v>
@@ -2641,28 +2641,28 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="D53">
         <v>1266</v>
       </c>
       <c r="E53">
-        <v>1350</v>
+        <v>1356</v>
       </c>
       <c r="F53">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="G53">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="H53">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="I53">
         <v>0.8100000000000001</v>
       </c>
       <c r="J53">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="K53">
         <v>0.83</v>
@@ -2671,7 +2671,7 @@
         <v>0.83</v>
       </c>
       <c r="M53">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N53">
         <v>0.84</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="D54">
-        <v>1247</v>
+        <v>1256</v>
       </c>
       <c r="E54">
-        <v>1350</v>
+        <v>1343</v>
       </c>
       <c r="F54">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="G54">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="H54">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2729,31 +2729,31 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1153</v>
+        <v>1155</v>
       </c>
       <c r="D55">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="E55">
-        <v>1195</v>
+        <v>1201</v>
       </c>
       <c r="F55">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G55">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="H55">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="I55">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J55">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="K55">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L55">
         <v>0.8100000000000001</v>
@@ -2773,28 +2773,28 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="D56">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="E56">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F56">
         <v>1196</v>
       </c>
       <c r="G56">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="H56">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="I56">
         <v>0.84</v>
       </c>
       <c r="J56">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K56">
         <v>0.86</v>
@@ -2803,7 +2803,7 @@
         <v>0.83</v>
       </c>
       <c r="M56">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N56">
         <v>0.84</v>
@@ -2817,19 +2817,19 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D57">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="E57">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F57">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G57">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="H57">
         <v>1145</v>
@@ -2861,19 +2861,19 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="D58">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="E58">
-        <v>1183</v>
+        <v>1177</v>
       </c>
       <c r="F58">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="G58">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="H58">
         <v>1103</v>
@@ -2908,19 +2908,19 @@
         <v>940</v>
       </c>
       <c r="D59">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="E59">
-        <v>995</v>
+        <v>982</v>
       </c>
       <c r="F59">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="G59">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="H59">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="I59">
         <v>0.78</v>
@@ -2929,7 +2929,7 @@
         <v>0.76</v>
       </c>
       <c r="K59">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L59">
         <v>0.8100000000000001</v>
@@ -2949,22 +2949,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="D60">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E60">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="F60">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G60">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H60">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2973,13 +2973,13 @@
         <v>0.79</v>
       </c>
       <c r="K60">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L60">
         <v>0.8100000000000001</v>
       </c>
       <c r="M60">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="N60">
         <v>0.82</v>
@@ -2993,22 +2993,22 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="D61">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="E61">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F61">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="G61">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H61">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="I61">
         <v>0.88</v>
@@ -3023,7 +3023,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="M61">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="N61">
         <v>0.82</v>
@@ -3037,22 +3037,22 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="D62">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="E62">
-        <v>866</v>
+        <v>852</v>
       </c>
       <c r="F62">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="G62">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="H62">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="I62">
         <v>0.84</v>
@@ -3067,7 +3067,7 @@
         <v>0.82</v>
       </c>
       <c r="M62">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="N62">
         <v>0.83</v>
@@ -3081,22 +3081,22 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D63">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="E63">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="F63">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="G63">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H63">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="I63">
         <v>0.84</v>
@@ -3125,28 +3125,28 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="D64">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="E64">
-        <v>827</v>
+        <v>823</v>
       </c>
       <c r="F64">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G64">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="H64">
-        <v>868</v>
+        <v>862</v>
       </c>
       <c r="I64">
         <v>0.85</v>
       </c>
       <c r="J64">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K64">
         <v>0.88</v>
@@ -3172,19 +3172,19 @@
         <v>918</v>
       </c>
       <c r="D65">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="E65">
-        <v>985</v>
+        <v>964</v>
       </c>
       <c r="F65">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="G65">
-        <v>770</v>
+        <v>774</v>
       </c>
       <c r="H65">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="I65">
         <v>0.84</v>
@@ -3213,28 +3213,28 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="D66">
-        <v>781</v>
+        <v>794</v>
       </c>
       <c r="E66">
-        <v>879</v>
+        <v>894</v>
       </c>
       <c r="F66">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="G66">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="H66">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="I66">
         <v>0.92</v>
       </c>
       <c r="J66">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K66">
         <v>0.95</v>
@@ -3257,37 +3257,37 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D67">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="E67">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="F67">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G67">
-        <v>780</v>
+        <v>784</v>
       </c>
       <c r="H67">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="I67">
         <v>0.98</v>
       </c>
       <c r="J67">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K67">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="L67">
         <v>0.9</v>
       </c>
       <c r="M67">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="N67">
         <v>0.91</v>
@@ -3301,22 +3301,22 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D68">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="E68">
-        <v>778</v>
+        <v>756</v>
       </c>
       <c r="F68">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="G68">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="H68">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="I68">
         <v>0.99</v>
@@ -3345,37 +3345,37 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="D69">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="E69">
-        <v>702</v>
+        <v>718</v>
       </c>
       <c r="F69">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="G69">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="H69">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="I69">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="J69">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="K69">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="L69">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M69">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="N69">
         <v>0.91</v>
@@ -3389,19 +3389,19 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="D70">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E70">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="F70">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="G70">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="H70">
         <v>736</v>
@@ -3433,22 +3433,22 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="D71">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E71">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="F71">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="G71">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="H71">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I71">
         <v>0.76</v>
@@ -3457,13 +3457,13 @@
         <v>0.73</v>
       </c>
       <c r="K71">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="L71">
         <v>0.86</v>
       </c>
       <c r="M71">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="N71">
         <v>0.88</v>
@@ -3477,28 +3477,28 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>656</v>
+        <v>665</v>
       </c>
       <c r="D72">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="E72">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F72">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="G72">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H72">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="I72">
         <v>0.76</v>
       </c>
       <c r="J72">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="K72">
         <v>0.8</v>
@@ -3521,28 +3521,28 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D73">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="E73">
-        <v>704</v>
+        <v>721</v>
       </c>
       <c r="F73">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="G73">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="H73">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="I73">
         <v>0.82</v>
       </c>
       <c r="J73">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K73">
         <v>0.86</v>
@@ -3551,7 +3551,7 @@
         <v>0.83</v>
       </c>
       <c r="M73">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N73">
         <v>0.86</v>
@@ -3565,22 +3565,22 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="D74">
-        <v>492</v>
+        <v>520</v>
       </c>
       <c r="E74">
-        <v>652</v>
+        <v>630</v>
       </c>
       <c r="F74">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="G74">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="H74">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="I74">
         <v>0.88</v>
@@ -3589,16 +3589,16 @@
         <v>0.83</v>
       </c>
       <c r="K74">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L74">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="M74">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="N74">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3609,40 +3609,40 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>556</v>
+        <v>513</v>
       </c>
       <c r="D75">
-        <v>480</v>
+        <v>443</v>
       </c>
       <c r="E75">
-        <v>640</v>
+        <v>595</v>
       </c>
       <c r="F75">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="G75">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H75">
-        <v>678</v>
+        <v>666</v>
       </c>
       <c r="I75">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J75">
         <v>0.89</v>
       </c>
       <c r="K75">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="L75">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="M75">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N75">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3653,40 +3653,40 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>550</v>
+        <v>660</v>
       </c>
       <c r="D76">
-        <v>420</v>
+        <v>546</v>
       </c>
       <c r="E76">
-        <v>685</v>
+        <v>787</v>
       </c>
       <c r="F76">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="G76">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="H76">
-        <v>670</v>
+        <v>683</v>
       </c>
       <c r="I76">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="J76">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="K76">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="L76">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="M76">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="N76">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3697,37 +3697,37 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="D77">
-        <v>385</v>
+        <v>431</v>
       </c>
       <c r="E77">
-        <v>639</v>
+        <v>653</v>
       </c>
       <c r="F77">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="G77">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="H77">
-        <v>654</v>
+        <v>666</v>
       </c>
       <c r="I77">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="J77">
-        <v>0.8</v>
+        <v>0.84</v>
       </c>
       <c r="K77">
-        <v>0.99</v>
+        <v>1.01</v>
       </c>
       <c r="L77">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="M77">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="N77">
         <v>0.97</v>
@@ -3741,40 +3741,40 @@
         <v>43968</v>
       </c>
       <c r="C78">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="D78">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="E78">
-        <v>643</v>
+        <v>569</v>
       </c>
       <c r="F78">
-        <v>520</v>
+        <v>544</v>
       </c>
       <c r="G78">
-        <v>399</v>
+        <v>438</v>
       </c>
       <c r="H78">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I78">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="J78">
-        <v>0.73</v>
+        <v>0.8</v>
       </c>
       <c r="K78">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L78">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M78">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3785,31 +3785,75 @@
         <v>43969</v>
       </c>
       <c r="C79">
-        <v>538</v>
+        <v>563</v>
       </c>
       <c r="D79">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="E79">
-        <v>786</v>
+        <v>717</v>
       </c>
       <c r="F79">
-        <v>515</v>
+        <v>557</v>
       </c>
       <c r="G79">
-        <v>363</v>
+        <v>430</v>
       </c>
       <c r="H79">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="I79">
-        <v>0.85</v>
+        <v>0.93</v>
       </c>
       <c r="J79">
+        <v>0.79</v>
+      </c>
+      <c r="K79">
+        <v>1.03</v>
+      </c>
+      <c r="L79">
+        <v>0.89</v>
+      </c>
+      <c r="M79">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N79">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43970</v>
+      </c>
+      <c r="C80">
+        <v>408</v>
+      </c>
+      <c r="D80">
+        <v>216</v>
+      </c>
+      <c r="E80">
+        <v>620</v>
+      </c>
+      <c r="F80">
+        <v>494</v>
+      </c>
+      <c r="G80">
+        <v>347</v>
+      </c>
+      <c r="H80">
+        <v>640</v>
+      </c>
+      <c r="I80">
+        <v>0.83</v>
+      </c>
+      <c r="J80">
         <v>0.71</v>
       </c>
-      <c r="K79">
-        <v>1</v>
+      <c r="K80">
+        <v>0.95</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +469,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H2">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -495,22 +495,22 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D3">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E3">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F3">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G3">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H3">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -521,22 +521,22 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D4">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E4">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F4">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G4">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H4">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,22 +547,22 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="D5">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="E5">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F5">
         <v>398</v>
       </c>
       <c r="G5">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H5">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,25 +573,25 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D6">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E6">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="F6">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G6">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H6">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I6">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="J6">
         <v>2.17</v>
@@ -600,13 +600,13 @@
         <v>2.34</v>
       </c>
       <c r="L6">
-        <v>2.32</v>
+        <v>2.33</v>
       </c>
       <c r="M6">
         <v>2.28</v>
       </c>
       <c r="N6">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,40 +617,40 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="D7">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="E7">
-        <v>1020</v>
+        <v>1011</v>
       </c>
       <c r="F7">
         <v>675</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H7">
         <v>700</v>
       </c>
       <c r="I7">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="J7">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="K7">
         <v>2.64</v>
       </c>
       <c r="L7">
-        <v>2.53</v>
+        <v>2.55</v>
       </c>
       <c r="M7">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="N7">
-        <v>2.59</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -661,31 +661,31 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="D8">
-        <v>1299</v>
+        <v>1306</v>
       </c>
       <c r="E8">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="F8">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="G8">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="H8">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I8">
-        <v>2.71</v>
+        <v>2.73</v>
       </c>
       <c r="J8">
         <v>2.64</v>
       </c>
       <c r="K8">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
       <c r="L8">
         <v>2.9</v>
@@ -705,31 +705,31 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="D9">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="E9">
-        <v>2025</v>
+        <v>2032</v>
       </c>
       <c r="F9">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="G9">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="H9">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="I9">
         <v>3.18</v>
       </c>
       <c r="J9">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="K9">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="L9">
         <v>3.1</v>
@@ -738,7 +738,7 @@
         <v>3.05</v>
       </c>
       <c r="N9">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,31 +749,31 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="D10">
-        <v>2523</v>
+        <v>2529</v>
       </c>
       <c r="E10">
-        <v>2625</v>
+        <v>2613</v>
       </c>
       <c r="F10">
         <v>1719</v>
       </c>
       <c r="G10">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="H10">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="I10">
-        <v>3.37</v>
+        <v>3.36</v>
       </c>
       <c r="J10">
-        <v>3.29</v>
+        <v>3.28</v>
       </c>
       <c r="K10">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="L10">
         <v>3.19</v>
@@ -793,22 +793,22 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3237</v>
+        <v>3240</v>
       </c>
       <c r="D11">
-        <v>3187</v>
+        <v>3189</v>
       </c>
       <c r="E11">
-        <v>3289</v>
+        <v>3293</v>
       </c>
       <c r="F11">
-        <v>2282</v>
+        <v>2284</v>
       </c>
       <c r="G11">
-        <v>2239</v>
+        <v>2242</v>
       </c>
       <c r="H11">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="I11">
         <v>3.38</v>
@@ -817,13 +817,13 @@
         <v>3.32</v>
       </c>
       <c r="K11">
-        <v>3.45</v>
+        <v>3.46</v>
       </c>
       <c r="L11">
         <v>3.1</v>
       </c>
       <c r="M11">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="N11">
         <v>3.14</v>
@@ -837,40 +837,40 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3608</v>
+        <v>3620</v>
       </c>
       <c r="D12">
-        <v>3552</v>
+        <v>3564</v>
       </c>
       <c r="E12">
-        <v>3660</v>
+        <v>3683</v>
       </c>
       <c r="F12">
-        <v>2851</v>
+        <v>2854</v>
       </c>
       <c r="G12">
-        <v>2802</v>
+        <v>2806</v>
       </c>
       <c r="H12">
-        <v>2900</v>
+        <v>2905</v>
       </c>
       <c r="I12">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="J12">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
       <c r="K12">
-        <v>3.25</v>
+        <v>3.24</v>
       </c>
       <c r="L12">
         <v>2.85</v>
       </c>
       <c r="M12">
-        <v>2.83</v>
+        <v>2.82</v>
       </c>
       <c r="N12">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -884,25 +884,25 @@
         <v>4397</v>
       </c>
       <c r="D13">
-        <v>4334</v>
+        <v>4336</v>
       </c>
       <c r="E13">
-        <v>4454</v>
+        <v>4460</v>
       </c>
       <c r="F13">
-        <v>3453</v>
+        <v>3457</v>
       </c>
       <c r="G13">
-        <v>3399</v>
+        <v>3404</v>
       </c>
       <c r="H13">
-        <v>3507</v>
+        <v>3512</v>
       </c>
       <c r="I13">
         <v>2.73</v>
       </c>
       <c r="J13">
-        <v>2.69</v>
+        <v>2.68</v>
       </c>
       <c r="K13">
         <v>2.77</v>
@@ -925,28 +925,28 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4475</v>
+        <v>4469</v>
       </c>
       <c r="D14">
-        <v>4422</v>
+        <v>4414</v>
       </c>
       <c r="E14">
-        <v>4541</v>
+        <v>4519</v>
       </c>
       <c r="F14">
-        <v>3929</v>
+        <v>3931</v>
       </c>
       <c r="G14">
-        <v>3874</v>
+        <v>3876</v>
       </c>
       <c r="H14">
-        <v>3986</v>
+        <v>3989</v>
       </c>
       <c r="I14">
         <v>2.29</v>
       </c>
       <c r="J14">
-        <v>2.25</v>
+        <v>2.26</v>
       </c>
       <c r="K14">
         <v>2.31</v>
@@ -958,7 +958,7 @@
         <v>2.18</v>
       </c>
       <c r="N14">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,22 +969,22 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4719</v>
+        <v>4724</v>
       </c>
       <c r="D15">
-        <v>4668</v>
+        <v>4661</v>
       </c>
       <c r="E15">
-        <v>4789</v>
+        <v>4786</v>
       </c>
       <c r="F15">
-        <v>4300</v>
+        <v>4302</v>
       </c>
       <c r="G15">
         <v>4244</v>
       </c>
       <c r="H15">
-        <v>4361</v>
+        <v>4362</v>
       </c>
       <c r="I15">
         <v>1.88</v>
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6027</v>
+        <v>6026</v>
       </c>
       <c r="D16">
-        <v>5966</v>
+        <v>5953</v>
       </c>
       <c r="E16">
-        <v>6095</v>
+        <v>6090</v>
       </c>
       <c r="F16">
         <v>4904</v>
       </c>
       <c r="G16">
-        <v>4847</v>
+        <v>4841</v>
       </c>
       <c r="H16">
-        <v>4970</v>
+        <v>4964</v>
       </c>
       <c r="I16">
         <v>1.72</v>
@@ -1057,28 +1057,28 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5233</v>
+        <v>5229</v>
       </c>
       <c r="D17">
-        <v>5165</v>
+        <v>5163</v>
       </c>
       <c r="E17">
-        <v>5304</v>
+        <v>5299</v>
       </c>
       <c r="F17">
-        <v>5114</v>
+        <v>5112</v>
       </c>
       <c r="G17">
-        <v>5055</v>
+        <v>5048</v>
       </c>
       <c r="H17">
-        <v>5182</v>
+        <v>5173</v>
       </c>
       <c r="I17">
         <v>1.48</v>
       </c>
       <c r="J17">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="K17">
         <v>1.5</v>
@@ -1101,19 +1101,19 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5316</v>
+        <v>5322</v>
       </c>
       <c r="D18">
-        <v>5251</v>
+        <v>5255</v>
       </c>
       <c r="E18">
-        <v>5386</v>
+        <v>5399</v>
       </c>
       <c r="F18">
-        <v>5324</v>
+        <v>5325</v>
       </c>
       <c r="G18">
-        <v>5262</v>
+        <v>5258</v>
       </c>
       <c r="H18">
         <v>5393</v>
@@ -1145,19 +1145,19 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4727</v>
+        <v>4715</v>
       </c>
       <c r="D19">
-        <v>4663</v>
+        <v>4645</v>
       </c>
       <c r="E19">
-        <v>4786</v>
+        <v>4782</v>
       </c>
       <c r="F19">
-        <v>5326</v>
+        <v>5323</v>
       </c>
       <c r="G19">
-        <v>5261</v>
+        <v>5254</v>
       </c>
       <c r="H19">
         <v>5392</v>
@@ -1166,7 +1166,7 @@
         <v>1.24</v>
       </c>
       <c r="J19">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -1189,22 +1189,22 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5313</v>
+        <v>5308</v>
       </c>
       <c r="D20">
-        <v>5246</v>
+        <v>5244</v>
       </c>
       <c r="E20">
-        <v>5376</v>
+        <v>5369</v>
       </c>
       <c r="F20">
-        <v>5147</v>
+        <v>5144</v>
       </c>
       <c r="G20">
-        <v>5081</v>
+        <v>5077</v>
       </c>
       <c r="H20">
-        <v>5213</v>
+        <v>5212</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4445</v>
+        <v>4437</v>
       </c>
       <c r="D21">
-        <v>4386</v>
+        <v>4366</v>
       </c>
       <c r="E21">
-        <v>4510</v>
+        <v>4511</v>
       </c>
       <c r="F21">
-        <v>4950</v>
+        <v>4945</v>
       </c>
       <c r="G21">
-        <v>4887</v>
+        <v>4877</v>
       </c>
       <c r="H21">
-        <v>5014</v>
+        <v>5015</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1257,7 +1257,7 @@
         <v>0.96</v>
       </c>
       <c r="K21">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L21">
         <v>1.03</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3852</v>
+        <v>3841</v>
       </c>
       <c r="D22">
-        <v>3788</v>
+        <v>3776</v>
       </c>
       <c r="E22">
-        <v>3916</v>
+        <v>3913</v>
       </c>
       <c r="F22">
-        <v>4584</v>
+        <v>4575</v>
       </c>
       <c r="G22">
-        <v>4521</v>
+        <v>4508</v>
       </c>
       <c r="H22">
-        <v>4647</v>
+        <v>4644</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5164</v>
+        <v>5163</v>
       </c>
       <c r="D23">
-        <v>5098</v>
+        <v>5101</v>
       </c>
       <c r="E23">
-        <v>5232</v>
+        <v>5229</v>
       </c>
       <c r="F23">
-        <v>4693</v>
+        <v>4687</v>
       </c>
       <c r="G23">
-        <v>4629</v>
+        <v>4622</v>
       </c>
       <c r="H23">
-        <v>4758</v>
+        <v>4755</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1351,7 +1351,7 @@
         <v>0.92</v>
       </c>
       <c r="M23">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="N23">
         <v>0.92</v>
@@ -1365,22 +1365,22 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4117</v>
+        <v>4118</v>
       </c>
       <c r="D24">
-        <v>4056</v>
+        <v>4046</v>
       </c>
       <c r="E24">
-        <v>4184</v>
+        <v>4192</v>
       </c>
       <c r="F24">
-        <v>4394</v>
+        <v>4390</v>
       </c>
       <c r="G24">
-        <v>4332</v>
+        <v>4322</v>
       </c>
       <c r="H24">
-        <v>4460</v>
+        <v>4461</v>
       </c>
       <c r="I24">
         <v>0.85</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4403</v>
+        <v>4407</v>
       </c>
       <c r="D25">
-        <v>4335</v>
+        <v>4347</v>
       </c>
       <c r="E25">
-        <v>4461</v>
+        <v>4469</v>
       </c>
       <c r="F25">
-        <v>4384</v>
+        <v>4382</v>
       </c>
       <c r="G25">
-        <v>4319</v>
+        <v>4317</v>
       </c>
       <c r="H25">
-        <v>4448</v>
+        <v>4450</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1433,7 +1433,7 @@
         <v>0.88</v>
       </c>
       <c r="K25">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="L25">
         <v>0.9</v>
@@ -1453,22 +1453,22 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4019</v>
+        <v>4017</v>
       </c>
       <c r="D26">
-        <v>3967</v>
+        <v>3965</v>
       </c>
       <c r="E26">
-        <v>4080</v>
+        <v>4085</v>
       </c>
       <c r="F26">
         <v>4426</v>
       </c>
       <c r="G26">
-        <v>4364</v>
+        <v>4365</v>
       </c>
       <c r="H26">
-        <v>4489</v>
+        <v>4493</v>
       </c>
       <c r="I26">
         <v>0.97</v>
@@ -1480,7 +1480,7 @@
         <v>0.98</v>
       </c>
       <c r="L26">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M26">
         <v>0.88</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4131</v>
+        <v>4129</v>
       </c>
       <c r="D27">
-        <v>4063</v>
+        <v>4062</v>
       </c>
       <c r="E27">
-        <v>4193</v>
+        <v>4189</v>
       </c>
       <c r="F27">
-        <v>4167</v>
+        <v>4168</v>
       </c>
       <c r="G27">
         <v>4105</v>
       </c>
       <c r="H27">
-        <v>4229</v>
+        <v>4233</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,22 +1541,22 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3894</v>
+        <v>3892</v>
       </c>
       <c r="D28">
-        <v>3820</v>
+        <v>3843</v>
       </c>
       <c r="E28">
-        <v>3965</v>
+        <v>3955</v>
       </c>
       <c r="F28">
-        <v>4112</v>
+        <v>4111</v>
       </c>
       <c r="G28">
-        <v>4046</v>
+        <v>4054</v>
       </c>
       <c r="H28">
-        <v>4175</v>
+        <v>4174</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
@@ -1565,7 +1565,7 @@
         <v>0.93</v>
       </c>
       <c r="K28">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L28">
         <v>0.91</v>
@@ -1588,19 +1588,19 @@
         <v>3317</v>
       </c>
       <c r="D29">
-        <v>3253</v>
+        <v>3258</v>
       </c>
       <c r="E29">
-        <v>3376</v>
+        <v>3378</v>
       </c>
       <c r="F29">
-        <v>3840</v>
+        <v>3839</v>
       </c>
       <c r="G29">
-        <v>3776</v>
+        <v>3782</v>
       </c>
       <c r="H29">
-        <v>3903</v>
+        <v>3901</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1609,7 +1609,7 @@
         <v>0.87</v>
       </c>
       <c r="K29">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L29">
         <v>0.9</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4385</v>
+        <v>4381</v>
       </c>
       <c r="D30">
-        <v>4314</v>
+        <v>4315</v>
       </c>
       <c r="E30">
-        <v>4459</v>
+        <v>4455</v>
       </c>
       <c r="F30">
-        <v>3932</v>
+        <v>3930</v>
       </c>
       <c r="G30">
-        <v>3862</v>
+        <v>3869</v>
       </c>
       <c r="H30">
-        <v>3998</v>
+        <v>3994</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1659,7 +1659,7 @@
         <v>0.92</v>
       </c>
       <c r="M30">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="N30">
         <v>0.93</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3583</v>
+        <v>3577</v>
       </c>
       <c r="D31">
-        <v>3521</v>
+        <v>3506</v>
       </c>
       <c r="E31">
-        <v>3642</v>
+        <v>3644</v>
       </c>
       <c r="F31">
-        <v>3795</v>
+        <v>3792</v>
       </c>
       <c r="G31">
-        <v>3727</v>
+        <v>3730</v>
       </c>
       <c r="H31">
-        <v>3860</v>
+        <v>3858</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4022</v>
+        <v>4021</v>
       </c>
       <c r="D32">
-        <v>3961</v>
+        <v>3964</v>
       </c>
       <c r="E32">
-        <v>4092</v>
+        <v>4082</v>
       </c>
       <c r="F32">
-        <v>3827</v>
+        <v>3824</v>
       </c>
       <c r="G32">
-        <v>3762</v>
+        <v>3760</v>
       </c>
       <c r="H32">
-        <v>3892</v>
+        <v>3889</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3753</v>
+        <v>3749</v>
       </c>
       <c r="D33">
-        <v>3681</v>
+        <v>3687</v>
       </c>
       <c r="E33">
-        <v>3819</v>
+        <v>3808</v>
       </c>
       <c r="F33">
-        <v>3936</v>
+        <v>3932</v>
       </c>
       <c r="G33">
-        <v>3869</v>
+        <v>3868</v>
       </c>
       <c r="H33">
-        <v>4003</v>
+        <v>3997</v>
       </c>
       <c r="I33">
         <v>1.02</v>
@@ -1785,7 +1785,7 @@
         <v>1.01</v>
       </c>
       <c r="K33">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="L33">
         <v>0.9399999999999999</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3741</v>
+        <v>3749</v>
       </c>
       <c r="D34">
-        <v>3676</v>
+        <v>3692</v>
       </c>
       <c r="E34">
-        <v>3808</v>
+        <v>3813</v>
       </c>
       <c r="F34">
-        <v>3775</v>
+        <v>3774</v>
       </c>
       <c r="G34">
-        <v>3710</v>
+        <v>3712</v>
       </c>
       <c r="H34">
-        <v>3840</v>
+        <v>3837</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3051</v>
+        <v>3044</v>
       </c>
       <c r="D35">
-        <v>2984</v>
+        <v>2989</v>
       </c>
       <c r="E35">
-        <v>3110</v>
+        <v>3112</v>
       </c>
       <c r="F35">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="G35">
-        <v>3575</v>
+        <v>3583</v>
       </c>
       <c r="H35">
-        <v>3707</v>
+        <v>3704</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,19 +1893,19 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2739</v>
+        <v>2733</v>
       </c>
       <c r="D36">
-        <v>2694</v>
+        <v>2674</v>
       </c>
       <c r="E36">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="F36">
-        <v>3321</v>
+        <v>3319</v>
       </c>
       <c r="G36">
-        <v>3259</v>
+        <v>3260</v>
       </c>
       <c r="H36">
         <v>3382</v>
@@ -1937,16 +1937,16 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3362</v>
+        <v>3354</v>
       </c>
       <c r="D37">
         <v>3299</v>
       </c>
       <c r="E37">
-        <v>3425</v>
+        <v>3418</v>
       </c>
       <c r="F37">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="G37">
         <v>3163</v>
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3087</v>
+        <v>3094</v>
       </c>
       <c r="D38">
-        <v>3026</v>
+        <v>3036</v>
       </c>
       <c r="E38">
-        <v>3141</v>
+        <v>3155</v>
       </c>
       <c r="F38">
-        <v>3059</v>
+        <v>3056</v>
       </c>
       <c r="G38">
-        <v>3000</v>
+        <v>2999</v>
       </c>
       <c r="H38">
-        <v>3117</v>
+        <v>3119</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2895</v>
+        <v>2900</v>
       </c>
       <c r="D39">
-        <v>2832</v>
+        <v>2844</v>
       </c>
       <c r="E39">
-        <v>2957</v>
+        <v>2968</v>
       </c>
       <c r="F39">
         <v>3020</v>
       </c>
       <c r="G39">
-        <v>2962</v>
+        <v>2963</v>
       </c>
       <c r="H39">
-        <v>3079</v>
+        <v>3083</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2069,28 +2069,28 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2709</v>
+        <v>2710</v>
       </c>
       <c r="D40">
-        <v>2662</v>
+        <v>2649</v>
       </c>
       <c r="E40">
-        <v>2763</v>
+        <v>2764</v>
       </c>
       <c r="F40">
-        <v>3013</v>
+        <v>3014</v>
       </c>
       <c r="G40">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="H40">
-        <v>3071</v>
+        <v>3076</v>
       </c>
       <c r="I40">
         <v>0.91</v>
       </c>
       <c r="J40">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K40">
         <v>0.92</v>
@@ -2113,25 +2113,25 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2328</v>
+        <v>2330</v>
       </c>
       <c r="D41">
         <v>2274</v>
       </c>
       <c r="E41">
-        <v>2381</v>
+        <v>2386</v>
       </c>
       <c r="F41">
-        <v>2755</v>
+        <v>2758</v>
       </c>
       <c r="G41">
-        <v>2698</v>
+        <v>2701</v>
       </c>
       <c r="H41">
-        <v>2810</v>
+        <v>2818</v>
       </c>
       <c r="I41">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J41">
         <v>0.84</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="D42">
-        <v>1968</v>
+        <v>1952</v>
       </c>
       <c r="E42">
-        <v>2064</v>
+        <v>2057</v>
       </c>
       <c r="F42">
         <v>2487</v>
       </c>
       <c r="G42">
-        <v>2434</v>
+        <v>2430</v>
       </c>
       <c r="H42">
-        <v>2541</v>
+        <v>2544</v>
       </c>
       <c r="I42">
         <v>0.8100000000000001</v>
@@ -2201,22 +2201,22 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1988</v>
+        <v>1978</v>
       </c>
       <c r="D43">
-        <v>1943</v>
+        <v>1926</v>
       </c>
       <c r="E43">
-        <v>2036</v>
+        <v>2027</v>
       </c>
       <c r="F43">
-        <v>2261</v>
+        <v>2257</v>
       </c>
       <c r="G43">
-        <v>2212</v>
+        <v>2200</v>
       </c>
       <c r="H43">
-        <v>2311</v>
+        <v>2308</v>
       </c>
       <c r="I43">
         <v>0.75</v>
@@ -2228,7 +2228,7 @@
         <v>0.76</v>
       </c>
       <c r="L43">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M43">
         <v>0.78</v>
@@ -2245,34 +2245,34 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="D44">
-        <v>1880</v>
+        <v>1865</v>
       </c>
       <c r="E44">
-        <v>1988</v>
+        <v>1982</v>
       </c>
       <c r="F44">
-        <v>2066</v>
+        <v>2059</v>
       </c>
       <c r="G44">
-        <v>2016</v>
+        <v>2004</v>
       </c>
       <c r="H44">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="I44">
+        <v>0.68</v>
+      </c>
+      <c r="J44">
+        <v>0.67</v>
+      </c>
+      <c r="K44">
         <v>0.6899999999999999</v>
       </c>
-      <c r="J44">
-        <v>0.68</v>
-      </c>
-      <c r="K44">
-        <v>0.7</v>
-      </c>
       <c r="L44">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M44">
         <v>0.78</v>
@@ -2292,25 +2292,25 @@
         <v>1982</v>
       </c>
       <c r="D45">
-        <v>1929</v>
+        <v>1934</v>
       </c>
       <c r="E45">
-        <v>2030</v>
+        <v>2044</v>
       </c>
       <c r="F45">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="G45">
-        <v>1930</v>
+        <v>1919</v>
       </c>
       <c r="H45">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="I45">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="J45">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="K45">
         <v>0.73</v>
@@ -2322,7 +2322,7 @@
         <v>0.77</v>
       </c>
       <c r="N45">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2333,28 +2333,28 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1949</v>
+        <v>1943</v>
       </c>
       <c r="D46">
-        <v>1897</v>
+        <v>1892</v>
       </c>
       <c r="E46">
-        <v>1997</v>
+        <v>1990</v>
       </c>
       <c r="F46">
-        <v>1962</v>
+        <v>1956</v>
       </c>
       <c r="G46">
-        <v>1912</v>
+        <v>1904</v>
       </c>
       <c r="H46">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="I46">
         <v>0.79</v>
       </c>
       <c r="J46">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K46">
         <v>0.8</v>
@@ -2377,22 +2377,22 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1779</v>
+        <v>1777</v>
       </c>
       <c r="D47">
-        <v>1734</v>
+        <v>1727</v>
       </c>
       <c r="E47">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="F47">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="G47">
-        <v>1860</v>
+        <v>1854</v>
       </c>
       <c r="H47">
-        <v>1961</v>
+        <v>1960</v>
       </c>
       <c r="I47">
         <v>0.84</v>
@@ -2404,7 +2404,7 @@
         <v>0.86</v>
       </c>
       <c r="L47">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M47">
         <v>0.78</v>
@@ -2421,22 +2421,22 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1669</v>
+        <v>1665</v>
       </c>
       <c r="D48">
-        <v>1624</v>
+        <v>1617</v>
       </c>
       <c r="E48">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="F48">
-        <v>1845</v>
+        <v>1842</v>
       </c>
       <c r="G48">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="H48">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I48">
         <v>0.89</v>
@@ -2465,22 +2465,22 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="D49">
-        <v>1413</v>
+        <v>1418</v>
       </c>
       <c r="E49">
-        <v>1505</v>
+        <v>1507</v>
       </c>
       <c r="F49">
-        <v>1714</v>
+        <v>1712</v>
       </c>
       <c r="G49">
-        <v>1667</v>
+        <v>1663</v>
       </c>
       <c r="H49">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2489,7 +2489,7 @@
         <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2509,19 +2509,19 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="D50">
-        <v>1271</v>
+        <v>1273</v>
       </c>
       <c r="E50">
-        <v>1364</v>
+        <v>1366</v>
       </c>
       <c r="F50">
-        <v>1556</v>
+        <v>1554</v>
       </c>
       <c r="G50">
-        <v>1510</v>
+        <v>1508</v>
       </c>
       <c r="H50">
         <v>1604</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1562</v>
+        <v>1566</v>
       </c>
       <c r="D51">
-        <v>1520</v>
+        <v>1517</v>
       </c>
       <c r="E51">
-        <v>1618</v>
+        <v>1610</v>
       </c>
       <c r="F51">
         <v>1502</v>
       </c>
       <c r="G51">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="H51">
-        <v>1551</v>
+        <v>1550</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2580,7 +2580,7 @@
         <v>0.8</v>
       </c>
       <c r="L51">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M51">
         <v>0.83</v>
@@ -2597,22 +2597,22 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="D52">
-        <v>1336</v>
+        <v>1319</v>
       </c>
       <c r="E52">
-        <v>1422</v>
+        <v>1416</v>
       </c>
       <c r="F52">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G52">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="H52">
-        <v>1477</v>
+        <v>1474</v>
       </c>
       <c r="I52">
         <v>0.77</v>
@@ -2644,19 +2644,19 @@
         <v>1310</v>
       </c>
       <c r="D53">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E53">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="F53">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="G53">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="H53">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="I53">
         <v>0.8100000000000001</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="D54">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="E54">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="F54">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="G54">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="H54">
-        <v>1435</v>
+        <v>1433</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2729,37 +2729,37 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="D55">
-        <v>1106</v>
+        <v>1119</v>
       </c>
       <c r="E55">
-        <v>1201</v>
+        <v>1206</v>
       </c>
       <c r="F55">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="G55">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H55">
-        <v>1330</v>
+        <v>1332</v>
       </c>
       <c r="I55">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J55">
         <v>0.84</v>
       </c>
       <c r="K55">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L55">
         <v>0.8100000000000001</v>
       </c>
       <c r="M55">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N55">
         <v>0.82</v>
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1019</v>
+        <v>1030</v>
       </c>
       <c r="D56">
-        <v>971</v>
+        <v>990</v>
       </c>
       <c r="E56">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F56">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="G56">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="H56">
-        <v>1241</v>
+        <v>1244</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2817,19 +2817,19 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="D57">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E57">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="F57">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="G57">
-        <v>1057</v>
+        <v>1065</v>
       </c>
       <c r="H57">
         <v>1145</v>
@@ -2838,7 +2838,7 @@
         <v>0.79</v>
       </c>
       <c r="J57">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="K57">
         <v>0.8100000000000001</v>
@@ -2861,28 +2861,28 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D58">
         <v>1085</v>
       </c>
       <c r="E58">
-        <v>1177</v>
+        <v>1159</v>
       </c>
       <c r="F58">
         <v>1058</v>
       </c>
       <c r="G58">
-        <v>1015</v>
+        <v>1022</v>
       </c>
       <c r="H58">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="I58">
         <v>0.76</v>
       </c>
       <c r="J58">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="K58">
         <v>0.78</v>
@@ -2905,22 +2905,22 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="D59">
-        <v>891</v>
+        <v>902</v>
       </c>
       <c r="E59">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F59">
         <v>1005</v>
       </c>
       <c r="G59">
-        <v>961</v>
+        <v>968</v>
       </c>
       <c r="H59">
-        <v>1049</v>
+        <v>1041</v>
       </c>
       <c r="I59">
         <v>0.78</v>
@@ -2929,7 +2929,7 @@
         <v>0.76</v>
       </c>
       <c r="K59">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L59">
         <v>0.8100000000000001</v>
@@ -2949,22 +2949,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="D60">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="E60">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="F60">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="G60">
-        <v>927</v>
+        <v>931</v>
       </c>
       <c r="H60">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2993,22 +2993,22 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="D61">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="E61">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="F61">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="G61">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="H61">
-        <v>1018</v>
+        <v>1009</v>
       </c>
       <c r="I61">
         <v>0.88</v>
@@ -3017,13 +3017,13 @@
         <v>0.86</v>
       </c>
       <c r="K61">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L61">
         <v>0.8100000000000001</v>
       </c>
       <c r="M61">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="N61">
         <v>0.82</v>
@@ -3037,22 +3037,22 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="D62">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="E62">
+        <v>844</v>
+      </c>
+      <c r="F62">
+        <v>892</v>
+      </c>
+      <c r="G62">
         <v>852</v>
       </c>
-      <c r="F62">
-        <v>893</v>
-      </c>
-      <c r="G62">
-        <v>850</v>
-      </c>
       <c r="H62">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I62">
         <v>0.84</v>
@@ -3061,7 +3061,7 @@
         <v>0.82</v>
       </c>
       <c r="K62">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L62">
         <v>0.82</v>
@@ -3081,22 +3081,22 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>749</v>
+        <v>738</v>
       </c>
       <c r="D63">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="E63">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="F63">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="G63">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="H63">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="I63">
         <v>0.84</v>
@@ -3105,10 +3105,10 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="K63">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L63">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="M63">
         <v>0.83</v>
@@ -3125,31 +3125,31 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="D64">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="E64">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="F64">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="G64">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="H64">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="I64">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J64">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K64">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L64">
         <v>0.86</v>
@@ -3158,7 +3158,7 @@
         <v>0.84</v>
       </c>
       <c r="N64">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3169,40 +3169,40 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="D65">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="E65">
-        <v>964</v>
+        <v>951</v>
       </c>
       <c r="F65">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="G65">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="H65">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="I65">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J65">
         <v>0.8100000000000001</v>
       </c>
       <c r="K65">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="L65">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M65">
         <v>0.87</v>
       </c>
       <c r="N65">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3213,31 +3213,31 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>838</v>
+        <v>826</v>
       </c>
       <c r="D66">
-        <v>794</v>
+        <v>779</v>
       </c>
       <c r="E66">
-        <v>894</v>
+        <v>877</v>
       </c>
       <c r="F66">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="G66">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="H66">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="I66">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="J66">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K66">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L66">
         <v>0.91</v>
@@ -3246,7 +3246,7 @@
         <v>0.89</v>
       </c>
       <c r="N66">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3257,34 +3257,34 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="D67">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="E67">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="F67">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="G67">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="H67">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="I67">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J67">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K67">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L67">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M67">
         <v>0.88</v>
@@ -3301,22 +3301,22 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="D68">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E68">
         <v>756</v>
       </c>
       <c r="F68">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="G68">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H68">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="I68">
         <v>0.99</v>
@@ -3325,7 +3325,7 @@
         <v>0.95</v>
       </c>
       <c r="K68">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L68">
         <v>0.9</v>
@@ -3345,22 +3345,22 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="D69">
-        <v>618</v>
+        <v>636</v>
       </c>
       <c r="E69">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="F69">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="G69">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="H69">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="I69">
         <v>0.92</v>
@@ -3372,7 +3372,7 @@
         <v>0.96</v>
       </c>
       <c r="L69">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M69">
         <v>0.88</v>
@@ -3389,31 +3389,31 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>600</v>
+        <v>587</v>
       </c>
       <c r="D70">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="E70">
-        <v>654</v>
+        <v>624</v>
       </c>
       <c r="F70">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G70">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="H70">
-        <v>736</v>
+        <v>725</v>
       </c>
       <c r="I70">
         <v>0.84</v>
       </c>
       <c r="J70">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K70">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L70">
         <v>0.87</v>
@@ -3433,37 +3433,37 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D71">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="E71">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="F71">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="G71">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="H71">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="I71">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J71">
         <v>0.73</v>
       </c>
       <c r="K71">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="L71">
         <v>0.86</v>
       </c>
       <c r="M71">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="N71">
         <v>0.88</v>
@@ -3477,28 +3477,28 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D72">
-        <v>600</v>
+        <v>627</v>
       </c>
       <c r="E72">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="F72">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="G72">
-        <v>566</v>
+        <v>582</v>
       </c>
       <c r="H72">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="I72">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="J72">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="K72">
         <v>0.8</v>
@@ -3507,7 +3507,7 @@
         <v>0.85</v>
       </c>
       <c r="M72">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N72">
         <v>0.87</v>
@@ -3521,37 +3521,37 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D73">
-        <v>570</v>
+        <v>600</v>
       </c>
       <c r="E73">
-        <v>721</v>
+        <v>683</v>
       </c>
       <c r="F73">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="G73">
-        <v>554</v>
+        <v>573</v>
       </c>
       <c r="H73">
-        <v>671</v>
+        <v>650</v>
       </c>
       <c r="I73">
         <v>0.82</v>
       </c>
       <c r="J73">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="K73">
         <v>0.86</v>
       </c>
       <c r="L73">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M73">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N73">
         <v>0.86</v>
@@ -3565,37 +3565,37 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="D74">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E74">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="F74">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G74">
-        <v>548</v>
+        <v>565</v>
       </c>
       <c r="H74">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="I74">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J74">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="K74">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L74">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M74">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="N74">
         <v>0.86</v>
@@ -3609,40 +3609,40 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>513</v>
+        <v>519</v>
       </c>
       <c r="D75">
-        <v>443</v>
+        <v>479</v>
       </c>
       <c r="E75">
-        <v>595</v>
+        <v>566</v>
       </c>
       <c r="F75">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="G75">
-        <v>533</v>
+        <v>557</v>
       </c>
       <c r="H75">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="I75">
         <v>0.95</v>
       </c>
       <c r="J75">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="K75">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L75">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M75">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="N75">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3653,40 +3653,40 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="D76">
-        <v>546</v>
+        <v>600</v>
       </c>
       <c r="E76">
-        <v>787</v>
+        <v>746</v>
       </c>
       <c r="F76">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="G76">
-        <v>520</v>
+        <v>550</v>
       </c>
       <c r="H76">
-        <v>683</v>
+        <v>654</v>
       </c>
       <c r="I76">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J76">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="K76">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="L76">
         <v>0.9</v>
       </c>
       <c r="M76">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="N76">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3697,40 +3697,40 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>543</v>
+        <v>515</v>
       </c>
       <c r="D77">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="E77">
-        <v>653</v>
+        <v>571</v>
       </c>
       <c r="F77">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="G77">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="H77">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="I77">
         <v>0.93</v>
       </c>
       <c r="J77">
-        <v>0.84</v>
+        <v>0.88</v>
       </c>
       <c r="K77">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="L77">
         <v>0.92</v>
       </c>
       <c r="M77">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="N77">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3741,40 +3741,40 @@
         <v>43968</v>
       </c>
       <c r="C78">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="D78">
-        <v>331</v>
+        <v>388</v>
       </c>
       <c r="E78">
-        <v>569</v>
+        <v>501</v>
       </c>
       <c r="F78">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G78">
-        <v>438</v>
+        <v>482</v>
       </c>
       <c r="H78">
-        <v>651</v>
+        <v>596</v>
       </c>
       <c r="I78">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J78">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="K78">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L78">
         <v>0.9399999999999999</v>
       </c>
       <c r="M78">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="N78">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3785,40 +3785,40 @@
         <v>43969</v>
       </c>
       <c r="C79">
-        <v>563</v>
+        <v>594</v>
       </c>
       <c r="D79">
-        <v>411</v>
+        <v>502</v>
       </c>
       <c r="E79">
-        <v>717</v>
+        <v>674</v>
       </c>
       <c r="F79">
         <v>557</v>
       </c>
       <c r="G79">
-        <v>430</v>
+        <v>488</v>
       </c>
       <c r="H79">
-        <v>681</v>
+        <v>623</v>
       </c>
       <c r="I79">
         <v>0.93</v>
       </c>
       <c r="J79">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="K79">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="L79">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M79">
-        <v>0.8100000000000001</v>
+        <v>0.86</v>
       </c>
       <c r="N79">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3829,31 +3829,207 @@
         <v>43970</v>
       </c>
       <c r="C80">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="D80">
-        <v>216</v>
+        <v>382</v>
       </c>
       <c r="E80">
-        <v>620</v>
+        <v>524</v>
       </c>
       <c r="F80">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="G80">
-        <v>347</v>
+        <v>434</v>
       </c>
       <c r="H80">
-        <v>640</v>
+        <v>567</v>
       </c>
       <c r="I80">
         <v>0.83</v>
       </c>
       <c r="J80">
-        <v>0.71</v>
+        <v>0.77</v>
       </c>
       <c r="K80">
-        <v>0.95</v>
+        <v>0.91</v>
+      </c>
+      <c r="L80">
+        <v>0.9</v>
+      </c>
+      <c r="M80">
+        <v>0.85</v>
+      </c>
+      <c r="N80">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43971</v>
+      </c>
+      <c r="C81">
+        <v>509</v>
+      </c>
+      <c r="D81">
+        <v>403</v>
+      </c>
+      <c r="E81">
+        <v>612</v>
+      </c>
+      <c r="F81">
+        <v>501</v>
+      </c>
+      <c r="G81">
+        <v>419</v>
+      </c>
+      <c r="H81">
+        <v>578</v>
+      </c>
+      <c r="I81">
+        <v>0.88</v>
+      </c>
+      <c r="J81">
+        <v>0.8</v>
+      </c>
+      <c r="K81">
+        <v>0.96</v>
+      </c>
+      <c r="L81">
+        <v>0.87</v>
+      </c>
+      <c r="M81">
+        <v>0.82</v>
+      </c>
+      <c r="N81">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43972</v>
+      </c>
+      <c r="C82">
+        <v>323</v>
+      </c>
+      <c r="D82">
+        <v>234</v>
+      </c>
+      <c r="E82">
+        <v>416</v>
+      </c>
+      <c r="F82">
+        <v>470</v>
+      </c>
+      <c r="G82">
+        <v>380</v>
+      </c>
+      <c r="H82">
+        <v>556</v>
+      </c>
+      <c r="I82">
+        <v>0.87</v>
+      </c>
+      <c r="J82">
+        <v>0.79</v>
+      </c>
+      <c r="K82">
+        <v>0.97</v>
+      </c>
+      <c r="L82">
+        <v>0.79</v>
+      </c>
+      <c r="M82">
+        <v>0.74</v>
+      </c>
+      <c r="N82">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43973</v>
+      </c>
+      <c r="C83">
+        <v>277</v>
+      </c>
+      <c r="D83">
+        <v>183</v>
+      </c>
+      <c r="E83">
+        <v>379</v>
+      </c>
+      <c r="F83">
+        <v>390</v>
+      </c>
+      <c r="G83">
+        <v>300</v>
+      </c>
+      <c r="H83">
+        <v>483</v>
+      </c>
+      <c r="I83">
+        <v>0.7</v>
+      </c>
+      <c r="J83">
+        <v>0.63</v>
+      </c>
+      <c r="K83">
+        <v>0.8</v>
+      </c>
+      <c r="L83">
+        <v>0.76</v>
+      </c>
+      <c r="M83">
+        <v>0.7</v>
+      </c>
+      <c r="N83">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43974</v>
+      </c>
+      <c r="C84">
+        <v>245</v>
+      </c>
+      <c r="D84">
+        <v>139</v>
+      </c>
+      <c r="E84">
+        <v>389</v>
+      </c>
+      <c r="F84">
+        <v>338</v>
+      </c>
+      <c r="G84">
+        <v>239</v>
+      </c>
+      <c r="H84">
+        <v>449</v>
+      </c>
+      <c r="I84">
+        <v>0.68</v>
+      </c>
+      <c r="J84">
+        <v>0.57</v>
+      </c>
+      <c r="K84">
+        <v>0.79</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -22,10 +22,10 @@
     <t>Punktschätzer der Anzahl Neuerkrankungen (ohne Glättung)</t>
   </si>
   <si>
-    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Untere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glä</t>
   </si>
   <si>
-    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glättung)</t>
+    <t>Obere Grenze des 95%-Prädiktionsintervalls der Anzahl Neuerkrankungen (ohne Glät</t>
   </si>
   <si>
     <t>Punktschätzer der Anzahl Neuerkrankungen</t>
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N84"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,10 +469,10 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E2">
         <v>323</v>
@@ -481,7 +481,7 @@
         <v>226</v>
       </c>
       <c r="G2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="H2">
         <v>239</v>
@@ -495,19 +495,19 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D3">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="E3">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F3">
         <v>263</v>
       </c>
       <c r="G3">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3">
         <v>278</v>
@@ -521,13 +521,13 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="D4">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="E4">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="F4">
         <v>329</v>
@@ -536,7 +536,7 @@
         <v>313</v>
       </c>
       <c r="H4">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -550,19 +550,19 @@
         <v>507</v>
       </c>
       <c r="D5">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E5">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="F5">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G5">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H5">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,28 +573,28 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="D6">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="E6">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="F6">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G6">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="H6">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I6">
         <v>2.26</v>
       </c>
       <c r="J6">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="K6">
         <v>2.34</v>
@@ -603,10 +603,10 @@
         <v>2.33</v>
       </c>
       <c r="M6">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="N6">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,40 +617,40 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D7">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E7">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="F7">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G7">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H7">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I7">
         <v>2.57</v>
       </c>
       <c r="J7">
+        <v>2.47</v>
+      </c>
+      <c r="K7">
+        <v>2.68</v>
+      </c>
+      <c r="L7">
+        <v>2.54</v>
+      </c>
+      <c r="M7">
         <v>2.48</v>
       </c>
-      <c r="K7">
-        <v>2.64</v>
-      </c>
-      <c r="L7">
-        <v>2.55</v>
-      </c>
-      <c r="M7">
-        <v>2.49</v>
-      </c>
       <c r="N7">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -661,40 +661,40 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="D8">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="E8">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="F8">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="G8">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="H8">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="I8">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="J8">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
       <c r="K8">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="L8">
-        <v>2.9</v>
+        <v>2.89</v>
       </c>
       <c r="M8">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="N8">
-        <v>2.95</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1986</v>
+        <v>1981</v>
       </c>
       <c r="D9">
-        <v>1944</v>
+        <v>1942</v>
       </c>
       <c r="E9">
-        <v>2032</v>
+        <v>2025</v>
       </c>
       <c r="F9">
-        <v>1267</v>
+        <v>1263</v>
       </c>
       <c r="G9">
-        <v>1234</v>
+        <v>1230</v>
       </c>
       <c r="H9">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="I9">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="J9">
+        <v>3.08</v>
+      </c>
+      <c r="K9">
+        <v>3.25</v>
+      </c>
+      <c r="L9">
         <v>3.09</v>
       </c>
-      <c r="K9">
-        <v>3.26</v>
-      </c>
-      <c r="L9">
-        <v>3.1</v>
-      </c>
       <c r="M9">
-        <v>3.05</v>
+        <v>3.04</v>
       </c>
       <c r="N9">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +749,40 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2569</v>
+        <v>2550</v>
       </c>
       <c r="D10">
-        <v>2529</v>
+        <v>2498</v>
       </c>
       <c r="E10">
-        <v>2613</v>
+        <v>2599</v>
       </c>
       <c r="F10">
-        <v>1719</v>
+        <v>1711</v>
       </c>
       <c r="G10">
-        <v>1682</v>
+        <v>1672</v>
       </c>
       <c r="H10">
-        <v>1756</v>
+        <v>1751</v>
       </c>
       <c r="I10">
-        <v>3.36</v>
+        <v>3.35</v>
       </c>
       <c r="J10">
-        <v>3.28</v>
+        <v>3.27</v>
       </c>
       <c r="K10">
         <v>3.44</v>
       </c>
       <c r="L10">
-        <v>3.19</v>
+        <v>3.18</v>
       </c>
       <c r="M10">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="N10">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,40 +793,40 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3240</v>
+        <v>3219</v>
       </c>
       <c r="D11">
-        <v>3189</v>
+        <v>3169</v>
       </c>
       <c r="E11">
-        <v>3293</v>
+        <v>3275</v>
       </c>
       <c r="F11">
-        <v>2284</v>
+        <v>2271</v>
       </c>
       <c r="G11">
-        <v>2242</v>
+        <v>2226</v>
       </c>
       <c r="H11">
-        <v>2326</v>
+        <v>2317</v>
       </c>
       <c r="I11">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="J11">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="K11">
-        <v>3.46</v>
+        <v>3.44</v>
       </c>
       <c r="L11">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="M11">
-        <v>3.06</v>
+        <v>3.05</v>
       </c>
       <c r="N11">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,31 +837,31 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3620</v>
+        <v>3594</v>
       </c>
       <c r="D12">
-        <v>3564</v>
+        <v>3543</v>
       </c>
       <c r="E12">
-        <v>3683</v>
+        <v>3650</v>
       </c>
       <c r="F12">
-        <v>2854</v>
+        <v>2836</v>
       </c>
       <c r="G12">
-        <v>2806</v>
+        <v>2788</v>
       </c>
       <c r="H12">
-        <v>2905</v>
+        <v>2887</v>
       </c>
       <c r="I12">
-        <v>3.18</v>
+        <v>3.17</v>
       </c>
       <c r="J12">
-        <v>3.13</v>
+        <v>3.11</v>
       </c>
       <c r="K12">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="L12">
         <v>2.85</v>
@@ -870,7 +870,7 @@
         <v>2.82</v>
       </c>
       <c r="N12">
-        <v>2.89</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -881,40 +881,40 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4397</v>
+        <v>4379</v>
       </c>
       <c r="D13">
-        <v>4336</v>
+        <v>4326</v>
       </c>
       <c r="E13">
-        <v>4460</v>
+        <v>4430</v>
       </c>
       <c r="F13">
-        <v>3457</v>
+        <v>3435</v>
       </c>
       <c r="G13">
-        <v>3404</v>
+        <v>3384</v>
       </c>
       <c r="H13">
-        <v>3512</v>
+        <v>3488</v>
       </c>
       <c r="I13">
-        <v>2.73</v>
+        <v>2.72</v>
       </c>
       <c r="J13">
         <v>2.68</v>
       </c>
       <c r="K13">
-        <v>2.77</v>
+        <v>2.76</v>
       </c>
       <c r="L13">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="M13">
         <v>2.49</v>
       </c>
       <c r="N13">
-        <v>2.54</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -925,28 +925,28 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4469</v>
+        <v>4458</v>
       </c>
       <c r="D14">
-        <v>4414</v>
+        <v>4403</v>
       </c>
       <c r="E14">
-        <v>4519</v>
+        <v>4511</v>
       </c>
       <c r="F14">
-        <v>3931</v>
+        <v>3912</v>
       </c>
       <c r="G14">
-        <v>3876</v>
+        <v>3860</v>
       </c>
       <c r="H14">
-        <v>3989</v>
+        <v>3966</v>
       </c>
       <c r="I14">
         <v>2.29</v>
       </c>
       <c r="J14">
-        <v>2.26</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
         <v>2.31</v>
@@ -958,7 +958,7 @@
         <v>2.18</v>
       </c>
       <c r="N14">
-        <v>2.21</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,34 +969,34 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4724</v>
+        <v>4701</v>
       </c>
       <c r="D15">
-        <v>4661</v>
+        <v>4646</v>
       </c>
       <c r="E15">
-        <v>4786</v>
+        <v>4762</v>
       </c>
       <c r="F15">
-        <v>4302</v>
+        <v>4283</v>
       </c>
       <c r="G15">
-        <v>4244</v>
+        <v>4229</v>
       </c>
       <c r="H15">
-        <v>4362</v>
+        <v>4338</v>
       </c>
       <c r="I15">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="J15">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="K15">
         <v>1.91</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>2.01</v>
       </c>
       <c r="M15">
         <v>1.99</v>
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6026</v>
+        <v>6000</v>
       </c>
       <c r="D16">
-        <v>5953</v>
+        <v>5939</v>
       </c>
       <c r="E16">
-        <v>6090</v>
+        <v>6079</v>
       </c>
       <c r="F16">
-        <v>4904</v>
+        <v>4884</v>
       </c>
       <c r="G16">
-        <v>4841</v>
+        <v>4828</v>
       </c>
       <c r="H16">
-        <v>4964</v>
+        <v>4945</v>
       </c>
       <c r="I16">
         <v>1.72</v>
@@ -1057,28 +1057,28 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5229</v>
+        <v>5197</v>
       </c>
       <c r="D17">
-        <v>5163</v>
+        <v>5132</v>
       </c>
       <c r="E17">
-        <v>5299</v>
+        <v>5273</v>
       </c>
       <c r="F17">
-        <v>5112</v>
+        <v>5089</v>
       </c>
       <c r="G17">
-        <v>5048</v>
+        <v>5030</v>
       </c>
       <c r="H17">
-        <v>5173</v>
+        <v>5156</v>
       </c>
       <c r="I17">
         <v>1.48</v>
       </c>
       <c r="J17">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="K17">
         <v>1.5</v>
@@ -1101,22 +1101,22 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5322</v>
+        <v>5288</v>
       </c>
       <c r="D18">
-        <v>5255</v>
+        <v>5223</v>
       </c>
       <c r="E18">
-        <v>5399</v>
+        <v>5351</v>
       </c>
       <c r="F18">
-        <v>5325</v>
+        <v>5296</v>
       </c>
       <c r="G18">
-        <v>5258</v>
+        <v>5235</v>
       </c>
       <c r="H18">
-        <v>5393</v>
+        <v>5366</v>
       </c>
       <c r="I18">
         <v>1.35</v>
@@ -1128,7 +1128,7 @@
         <v>1.37</v>
       </c>
       <c r="L18">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M18">
         <v>1.39</v>
@@ -1145,28 +1145,28 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4715</v>
+        <v>4682</v>
       </c>
       <c r="D19">
-        <v>4645</v>
+        <v>4618</v>
       </c>
       <c r="E19">
-        <v>4782</v>
+        <v>4748</v>
       </c>
       <c r="F19">
-        <v>5323</v>
+        <v>5292</v>
       </c>
       <c r="G19">
-        <v>5254</v>
+        <v>5228</v>
       </c>
       <c r="H19">
-        <v>5392</v>
+        <v>5362</v>
       </c>
       <c r="I19">
         <v>1.24</v>
       </c>
       <c r="J19">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="K19">
         <v>1.25</v>
@@ -1189,28 +1189,28 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5308</v>
+        <v>5287</v>
       </c>
       <c r="D20">
-        <v>5244</v>
+        <v>5218</v>
       </c>
       <c r="E20">
-        <v>5369</v>
+        <v>5354</v>
       </c>
       <c r="F20">
-        <v>5144</v>
+        <v>5114</v>
       </c>
       <c r="G20">
-        <v>5077</v>
+        <v>5048</v>
       </c>
       <c r="H20">
-        <v>5212</v>
+        <v>5181</v>
       </c>
       <c r="I20">
         <v>1.05</v>
       </c>
       <c r="J20">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="K20">
         <v>1.06</v>
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4437</v>
+        <v>4425</v>
       </c>
       <c r="D21">
-        <v>4366</v>
+        <v>4361</v>
       </c>
       <c r="E21">
-        <v>4511</v>
+        <v>4487</v>
       </c>
       <c r="F21">
-        <v>4945</v>
+        <v>4920</v>
       </c>
       <c r="G21">
-        <v>4877</v>
+        <v>4855</v>
       </c>
       <c r="H21">
-        <v>5015</v>
+        <v>4985</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1257,7 +1257,7 @@
         <v>0.96</v>
       </c>
       <c r="K21">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="L21">
         <v>1.03</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3841</v>
+        <v>3831</v>
       </c>
       <c r="D22">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="E22">
-        <v>3913</v>
+        <v>3884</v>
       </c>
       <c r="F22">
-        <v>4575</v>
+        <v>4556</v>
       </c>
       <c r="G22">
-        <v>4508</v>
+        <v>4493</v>
       </c>
       <c r="H22">
-        <v>4644</v>
+        <v>4618</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5163</v>
+        <v>5151</v>
       </c>
       <c r="D23">
-        <v>5101</v>
+        <v>5080</v>
       </c>
       <c r="E23">
-        <v>5229</v>
+        <v>5217</v>
       </c>
       <c r="F23">
-        <v>4687</v>
+        <v>4673</v>
       </c>
       <c r="G23">
-        <v>4622</v>
+        <v>4609</v>
       </c>
       <c r="H23">
-        <v>4755</v>
+        <v>4735</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1351,7 +1351,7 @@
         <v>0.92</v>
       </c>
       <c r="M23">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="N23">
         <v>0.92</v>
@@ -1365,25 +1365,25 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4118</v>
+        <v>4097</v>
       </c>
       <c r="D24">
-        <v>4046</v>
+        <v>4036</v>
       </c>
       <c r="E24">
-        <v>4192</v>
+        <v>4173</v>
       </c>
       <c r="F24">
-        <v>4390</v>
+        <v>4376</v>
       </c>
       <c r="G24">
-        <v>4322</v>
+        <v>4313</v>
       </c>
       <c r="H24">
-        <v>4461</v>
+        <v>4440</v>
       </c>
       <c r="I24">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J24">
         <v>0.85</v>
@@ -1392,7 +1392,7 @@
         <v>0.86</v>
       </c>
       <c r="L24">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M24">
         <v>0.89</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4407</v>
+        <v>4398</v>
       </c>
       <c r="D25">
-        <v>4347</v>
+        <v>4335</v>
       </c>
       <c r="E25">
-        <v>4469</v>
+        <v>4460</v>
       </c>
       <c r="F25">
-        <v>4382</v>
+        <v>4369</v>
       </c>
       <c r="G25">
-        <v>4317</v>
+        <v>4307</v>
       </c>
       <c r="H25">
-        <v>4450</v>
+        <v>4433</v>
       </c>
       <c r="I25">
         <v>0.89</v>
@@ -1453,22 +1453,22 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4017</v>
+        <v>4004</v>
       </c>
       <c r="D26">
-        <v>3965</v>
+        <v>3934</v>
       </c>
       <c r="E26">
-        <v>4085</v>
+        <v>4063</v>
       </c>
       <c r="F26">
-        <v>4426</v>
+        <v>4413</v>
       </c>
       <c r="G26">
-        <v>4365</v>
+        <v>4346</v>
       </c>
       <c r="H26">
-        <v>4493</v>
+        <v>4478</v>
       </c>
       <c r="I26">
         <v>0.97</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4129</v>
+        <v>4117</v>
       </c>
       <c r="D27">
-        <v>4062</v>
+        <v>4053</v>
       </c>
       <c r="E27">
-        <v>4189</v>
+        <v>4173</v>
       </c>
       <c r="F27">
-        <v>4168</v>
+        <v>4154</v>
       </c>
       <c r="G27">
-        <v>4105</v>
+        <v>4089</v>
       </c>
       <c r="H27">
-        <v>4233</v>
+        <v>4217</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1530,7 +1530,7 @@
         <v>0.89</v>
       </c>
       <c r="N27">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1541,22 +1541,22 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3892</v>
+        <v>3882</v>
       </c>
       <c r="D28">
-        <v>3843</v>
+        <v>3825</v>
       </c>
       <c r="E28">
-        <v>3955</v>
+        <v>3946</v>
       </c>
       <c r="F28">
-        <v>4111</v>
+        <v>4100</v>
       </c>
       <c r="G28">
-        <v>4054</v>
+        <v>4036</v>
       </c>
       <c r="H28">
-        <v>4174</v>
+        <v>4160</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
@@ -1585,22 +1585,22 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3317</v>
+        <v>3310</v>
       </c>
       <c r="D29">
-        <v>3258</v>
+        <v>3243</v>
       </c>
       <c r="E29">
-        <v>3378</v>
+        <v>3371</v>
       </c>
       <c r="F29">
-        <v>3839</v>
+        <v>3828</v>
       </c>
       <c r="G29">
-        <v>3782</v>
+        <v>3764</v>
       </c>
       <c r="H29">
-        <v>3901</v>
+        <v>3888</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1632,19 +1632,19 @@
         <v>4381</v>
       </c>
       <c r="D30">
-        <v>4315</v>
+        <v>4319</v>
       </c>
       <c r="E30">
-        <v>4455</v>
+        <v>4446</v>
       </c>
       <c r="F30">
-        <v>3930</v>
+        <v>3922</v>
       </c>
       <c r="G30">
-        <v>3869</v>
+        <v>3860</v>
       </c>
       <c r="H30">
-        <v>3994</v>
+        <v>3984</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1659,7 +1659,7 @@
         <v>0.92</v>
       </c>
       <c r="M30">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="N30">
         <v>0.93</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3577</v>
+        <v>3579</v>
       </c>
       <c r="D31">
-        <v>3506</v>
+        <v>3518</v>
       </c>
       <c r="E31">
-        <v>3644</v>
+        <v>3645</v>
       </c>
       <c r="F31">
-        <v>3792</v>
+        <v>3788</v>
       </c>
       <c r="G31">
-        <v>3730</v>
+        <v>3726</v>
       </c>
       <c r="H31">
-        <v>3858</v>
+        <v>3852</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1700,7 +1700,7 @@
         <v>0.92</v>
       </c>
       <c r="L31">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M31">
         <v>0.92</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4021</v>
+        <v>4001</v>
       </c>
       <c r="D32">
-        <v>3964</v>
+        <v>3933</v>
       </c>
       <c r="E32">
-        <v>4082</v>
+        <v>4065</v>
       </c>
       <c r="F32">
-        <v>3824</v>
+        <v>3818</v>
       </c>
       <c r="G32">
-        <v>3760</v>
+        <v>3753</v>
       </c>
       <c r="H32">
-        <v>3889</v>
+        <v>3882</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,31 +1761,31 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3749</v>
+        <v>3753</v>
       </c>
       <c r="D33">
-        <v>3687</v>
+        <v>3683</v>
       </c>
       <c r="E33">
-        <v>3808</v>
+        <v>3814</v>
       </c>
       <c r="F33">
-        <v>3932</v>
+        <v>3929</v>
       </c>
       <c r="G33">
-        <v>3868</v>
+        <v>3863</v>
       </c>
       <c r="H33">
-        <v>3997</v>
+        <v>3992</v>
       </c>
       <c r="I33">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J33">
         <v>1.01</v>
       </c>
       <c r="K33">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="L33">
         <v>0.9399999999999999</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3749</v>
+        <v>3732</v>
       </c>
       <c r="D34">
-        <v>3692</v>
+        <v>3673</v>
       </c>
       <c r="E34">
-        <v>3813</v>
+        <v>3787</v>
       </c>
       <c r="F34">
-        <v>3774</v>
+        <v>3766</v>
       </c>
       <c r="G34">
-        <v>3712</v>
+        <v>3702</v>
       </c>
       <c r="H34">
-        <v>3837</v>
+        <v>3828</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3044</v>
+        <v>3035</v>
       </c>
       <c r="D35">
-        <v>2989</v>
+        <v>2969</v>
       </c>
       <c r="E35">
-        <v>3112</v>
+        <v>3095</v>
       </c>
       <c r="F35">
-        <v>3641</v>
+        <v>3630</v>
       </c>
       <c r="G35">
-        <v>3583</v>
+        <v>3564</v>
       </c>
       <c r="H35">
-        <v>3704</v>
+        <v>3690</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1896,19 +1896,19 @@
         <v>2733</v>
       </c>
       <c r="D36">
-        <v>2674</v>
+        <v>2680</v>
       </c>
       <c r="E36">
-        <v>2794</v>
+        <v>2786</v>
       </c>
       <c r="F36">
-        <v>3319</v>
+        <v>3313</v>
       </c>
       <c r="G36">
-        <v>3260</v>
+        <v>3251</v>
       </c>
       <c r="H36">
-        <v>3382</v>
+        <v>3370</v>
       </c>
       <c r="I36">
         <v>0.87</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3354</v>
+        <v>3356</v>
       </c>
       <c r="D37">
-        <v>3299</v>
+        <v>3298</v>
       </c>
       <c r="E37">
         <v>3418</v>
       </c>
       <c r="F37">
-        <v>3220</v>
+        <v>3214</v>
       </c>
       <c r="G37">
-        <v>3163</v>
+        <v>3155</v>
       </c>
       <c r="H37">
-        <v>3284</v>
+        <v>3272</v>
       </c>
       <c r="I37">
         <v>0.82</v>
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3094</v>
+        <v>3095</v>
       </c>
       <c r="D38">
-        <v>3036</v>
+        <v>3041</v>
       </c>
       <c r="E38">
-        <v>3155</v>
+        <v>3154</v>
       </c>
       <c r="F38">
-        <v>3056</v>
+        <v>3055</v>
       </c>
       <c r="G38">
-        <v>2999</v>
+        <v>2997</v>
       </c>
       <c r="H38">
-        <v>3119</v>
+        <v>3113</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2900</v>
+        <v>2909</v>
       </c>
       <c r="D39">
-        <v>2844</v>
+        <v>2851</v>
       </c>
       <c r="E39">
-        <v>2968</v>
+        <v>2969</v>
       </c>
       <c r="F39">
-        <v>3020</v>
+        <v>3023</v>
       </c>
       <c r="G39">
-        <v>2963</v>
+        <v>2967</v>
       </c>
       <c r="H39">
-        <v>3083</v>
+        <v>3082</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2052,7 +2052,7 @@
         <v>0.84</v>
       </c>
       <c r="L39">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="M39">
         <v>0.85</v>
@@ -2069,28 +2069,28 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2710</v>
+        <v>2706</v>
       </c>
       <c r="D40">
         <v>2649</v>
       </c>
       <c r="E40">
-        <v>2764</v>
+        <v>2768</v>
       </c>
       <c r="F40">
-        <v>3014</v>
+        <v>3017</v>
       </c>
       <c r="G40">
-        <v>2957</v>
+        <v>2960</v>
       </c>
       <c r="H40">
-        <v>3076</v>
+        <v>3077</v>
       </c>
       <c r="I40">
         <v>0.91</v>
       </c>
       <c r="J40">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K40">
         <v>0.92</v>
@@ -2113,28 +2113,28 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2330</v>
+        <v>2338</v>
       </c>
       <c r="D41">
-        <v>2274</v>
+        <v>2290</v>
       </c>
       <c r="E41">
-        <v>2386</v>
+        <v>2399</v>
       </c>
       <c r="F41">
-        <v>2758</v>
+        <v>2762</v>
       </c>
       <c r="G41">
-        <v>2701</v>
+        <v>2708</v>
       </c>
       <c r="H41">
-        <v>2818</v>
+        <v>2822</v>
       </c>
       <c r="I41">
         <v>0.86</v>
       </c>
       <c r="J41">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="K41">
         <v>0.87</v>
@@ -2157,31 +2157,31 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="D42">
-        <v>1952</v>
+        <v>1970</v>
       </c>
       <c r="E42">
-        <v>2057</v>
+        <v>2067</v>
       </c>
       <c r="F42">
-        <v>2487</v>
+        <v>2493</v>
       </c>
       <c r="G42">
-        <v>2430</v>
+        <v>2440</v>
       </c>
       <c r="H42">
-        <v>2544</v>
+        <v>2551</v>
       </c>
       <c r="I42">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J42">
         <v>0.8</v>
       </c>
       <c r="K42">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L42">
         <v>0.8100000000000001</v>
@@ -2201,22 +2201,22 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D43">
-        <v>1926</v>
+        <v>1930</v>
       </c>
       <c r="E43">
-        <v>2027</v>
+        <v>2024</v>
       </c>
       <c r="F43">
-        <v>2257</v>
+        <v>2260</v>
       </c>
       <c r="G43">
-        <v>2200</v>
+        <v>2210</v>
       </c>
       <c r="H43">
-        <v>2308</v>
+        <v>2314</v>
       </c>
       <c r="I43">
         <v>0.75</v>
@@ -2228,7 +2228,7 @@
         <v>0.76</v>
       </c>
       <c r="L43">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="M43">
         <v>0.78</v>
@@ -2245,19 +2245,19 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="D44">
-        <v>1865</v>
+        <v>1869</v>
       </c>
       <c r="E44">
-        <v>1982</v>
+        <v>1961</v>
       </c>
       <c r="F44">
-        <v>2059</v>
+        <v>2062</v>
       </c>
       <c r="G44">
-        <v>2004</v>
+        <v>2015</v>
       </c>
       <c r="H44">
         <v>2113</v>
@@ -2272,7 +2272,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="L44">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="M44">
         <v>0.78</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1982</v>
+        <v>1977</v>
       </c>
       <c r="D45">
-        <v>1934</v>
+        <v>1929</v>
       </c>
       <c r="E45">
-        <v>2044</v>
+        <v>2032</v>
       </c>
       <c r="F45">
         <v>1972</v>
       </c>
       <c r="G45">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="H45">
-        <v>2027</v>
+        <v>2021</v>
       </c>
       <c r="I45">
         <v>0.71</v>
@@ -2333,25 +2333,25 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1943</v>
+        <v>1938</v>
       </c>
       <c r="D46">
-        <v>1892</v>
+        <v>1887</v>
       </c>
       <c r="E46">
-        <v>1990</v>
+        <v>1993</v>
       </c>
       <c r="F46">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="G46">
         <v>1904</v>
       </c>
       <c r="H46">
-        <v>2010</v>
+        <v>2002</v>
       </c>
       <c r="I46">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J46">
         <v>0.77</v>
@@ -2377,22 +2377,22 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1777</v>
+        <v>1781</v>
       </c>
       <c r="D47">
-        <v>1727</v>
+        <v>1729</v>
       </c>
       <c r="E47">
-        <v>1826</v>
+        <v>1830</v>
       </c>
       <c r="F47">
-        <v>1906</v>
+        <v>1903</v>
       </c>
       <c r="G47">
-        <v>1854</v>
+        <v>1853</v>
       </c>
       <c r="H47">
-        <v>1960</v>
+        <v>1954</v>
       </c>
       <c r="I47">
         <v>0.84</v>
@@ -2407,7 +2407,7 @@
         <v>0.78</v>
       </c>
       <c r="M47">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="N47">
         <v>0.79</v>
@@ -2421,22 +2421,22 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1665</v>
+        <v>1663</v>
       </c>
       <c r="D48">
-        <v>1617</v>
+        <v>1616</v>
       </c>
       <c r="E48">
-        <v>1717</v>
+        <v>1711</v>
       </c>
       <c r="F48">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="G48">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="H48">
-        <v>1894</v>
+        <v>1891</v>
       </c>
       <c r="I48">
         <v>0.89</v>
@@ -2451,7 +2451,7 @@
         <v>0.8</v>
       </c>
       <c r="M48">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="N48">
         <v>0.8100000000000001</v>
@@ -2465,22 +2465,22 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1461</v>
+        <v>1449</v>
       </c>
       <c r="D49">
-        <v>1418</v>
+        <v>1400</v>
       </c>
       <c r="E49">
-        <v>1507</v>
+        <v>1495</v>
       </c>
       <c r="F49">
-        <v>1712</v>
+        <v>1708</v>
       </c>
       <c r="G49">
-        <v>1663</v>
+        <v>1658</v>
       </c>
       <c r="H49">
-        <v>1760</v>
+        <v>1757</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2489,7 +2489,7 @@
         <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2509,22 +2509,22 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="D50">
-        <v>1273</v>
+        <v>1269</v>
       </c>
       <c r="E50">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="F50">
-        <v>1554</v>
+        <v>1551</v>
       </c>
       <c r="G50">
-        <v>1508</v>
+        <v>1503</v>
       </c>
       <c r="H50">
-        <v>1604</v>
+        <v>1599</v>
       </c>
       <c r="I50">
         <v>0.79</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="D51">
-        <v>1517</v>
+        <v>1522</v>
       </c>
       <c r="E51">
-        <v>1610</v>
+        <v>1621</v>
       </c>
       <c r="F51">
-        <v>1502</v>
+        <v>1499</v>
       </c>
       <c r="G51">
-        <v>1456</v>
+        <v>1451</v>
       </c>
       <c r="H51">
-        <v>1550</v>
+        <v>1546</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2580,7 +2580,7 @@
         <v>0.8</v>
       </c>
       <c r="L51">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="M51">
         <v>0.83</v>
@@ -2597,22 +2597,22 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1367</v>
+        <v>1363</v>
       </c>
       <c r="D52">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E52">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="F52">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="G52">
-        <v>1382</v>
+        <v>1377</v>
       </c>
       <c r="H52">
-        <v>1474</v>
+        <v>1471</v>
       </c>
       <c r="I52">
         <v>0.77</v>
@@ -2641,28 +2641,28 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="D53">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="E53">
-        <v>1358</v>
+        <v>1353</v>
       </c>
       <c r="F53">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="G53">
         <v>1344</v>
       </c>
       <c r="H53">
-        <v>1437</v>
+        <v>1435</v>
       </c>
       <c r="I53">
         <v>0.8100000000000001</v>
       </c>
       <c r="J53">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K53">
         <v>0.83</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D54">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="E54">
-        <v>1348</v>
+        <v>1331</v>
       </c>
       <c r="F54">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="G54">
         <v>1340</v>
       </c>
       <c r="H54">
-        <v>1433</v>
+        <v>1428</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2729,22 +2729,22 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="D55">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="E55">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="F55">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="G55">
         <v>1240</v>
       </c>
       <c r="H55">
-        <v>1332</v>
+        <v>1322</v>
       </c>
       <c r="I55">
         <v>0.85</v>
@@ -2756,7 +2756,7 @@
         <v>0.87</v>
       </c>
       <c r="L55">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="M55">
         <v>0.8100000000000001</v>
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="D56">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E56">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="F56">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="G56">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="H56">
-        <v>1244</v>
+        <v>1236</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2817,28 +2817,28 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>925</v>
+        <v>920</v>
       </c>
       <c r="D57">
-        <v>894</v>
+        <v>879</v>
       </c>
       <c r="E57">
-        <v>961</v>
+        <v>965</v>
       </c>
       <c r="F57">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G57">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="H57">
-        <v>1145</v>
+        <v>1139</v>
       </c>
       <c r="I57">
         <v>0.79</v>
       </c>
       <c r="J57">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K57">
         <v>0.8100000000000001</v>
@@ -2861,28 +2861,28 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1121</v>
+        <v>1125</v>
       </c>
       <c r="D58">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="E58">
-        <v>1159</v>
+        <v>1165</v>
       </c>
       <c r="F58">
         <v>1058</v>
       </c>
       <c r="G58">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="H58">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="I58">
         <v>0.76</v>
       </c>
       <c r="J58">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="K58">
         <v>0.78</v>
@@ -2905,31 +2905,31 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="D59">
-        <v>902</v>
+        <v>917</v>
       </c>
       <c r="E59">
-        <v>980</v>
+        <v>990</v>
       </c>
       <c r="F59">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G59">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="H59">
-        <v>1041</v>
+        <v>1045</v>
       </c>
       <c r="I59">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J59">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="K59">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L59">
         <v>0.8100000000000001</v>
@@ -2949,22 +2949,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D60">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="E60">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F60">
-        <v>966</v>
+        <v>969</v>
       </c>
       <c r="G60">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H60">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2993,31 +2993,31 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="D61">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="E61">
-        <v>976</v>
+        <v>984</v>
       </c>
       <c r="F61">
-        <v>971</v>
+        <v>975</v>
       </c>
       <c r="G61">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="H61">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="I61">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J61">
         <v>0.86</v>
       </c>
       <c r="K61">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L61">
         <v>0.8100000000000001</v>
@@ -3026,7 +3026,7 @@
         <v>0.8</v>
       </c>
       <c r="N61">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3037,37 +3037,37 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D62">
-        <v>763</v>
+        <v>776</v>
       </c>
       <c r="E62">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F62">
-        <v>892</v>
+        <v>896</v>
       </c>
       <c r="G62">
-        <v>852</v>
+        <v>859</v>
       </c>
       <c r="H62">
-        <v>930</v>
+        <v>934</v>
       </c>
       <c r="I62">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J62">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K62">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L62">
         <v>0.82</v>
       </c>
       <c r="M62">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N62">
         <v>0.83</v>
@@ -3081,22 +3081,22 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="D63">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="E63">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="F63">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G63">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="H63">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="I63">
         <v>0.84</v>
@@ -3108,7 +3108,7 @@
         <v>0.86</v>
       </c>
       <c r="L63">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="M63">
         <v>0.83</v>
@@ -3125,22 +3125,22 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="D64">
         <v>734</v>
       </c>
       <c r="E64">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="F64">
-        <v>816</v>
+        <v>819</v>
       </c>
       <c r="G64">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="H64">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="I64">
         <v>0.84</v>
@@ -3155,10 +3155,10 @@
         <v>0.86</v>
       </c>
       <c r="M64">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="N64">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3169,19 +3169,19 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>907</v>
+        <v>912</v>
       </c>
       <c r="D65">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E65">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="F65">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="G65">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="H65">
         <v>850</v>
@@ -3190,13 +3190,13 @@
         <v>0.83</v>
       </c>
       <c r="J65">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K65">
         <v>0.86</v>
       </c>
       <c r="L65">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M65">
         <v>0.87</v>
@@ -3213,28 +3213,28 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>826</v>
+        <v>835</v>
       </c>
       <c r="D66">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="E66">
-        <v>877</v>
+        <v>886</v>
       </c>
       <c r="F66">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="G66">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="H66">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="I66">
         <v>0.91</v>
       </c>
       <c r="J66">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="K66">
         <v>0.9399999999999999</v>
@@ -3246,7 +3246,7 @@
         <v>0.89</v>
       </c>
       <c r="N66">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3257,28 +3257,28 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="D67">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="E67">
-        <v>811</v>
+        <v>818</v>
       </c>
       <c r="F67">
-        <v>820</v>
+        <v>826</v>
       </c>
       <c r="G67">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="H67">
-        <v>865</v>
+        <v>871</v>
       </c>
       <c r="I67">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="J67">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="K67">
         <v>1.01</v>
@@ -3301,37 +3301,37 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="D68">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="E68">
         <v>756</v>
       </c>
       <c r="F68">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="G68">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="H68">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="I68">
         <v>0.99</v>
       </c>
       <c r="J68">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="K68">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="L68">
         <v>0.9</v>
       </c>
       <c r="M68">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="N68">
         <v>0.92</v>
@@ -3345,25 +3345,25 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D69">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E69">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F69">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="G69">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="H69">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="I69">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J69">
         <v>0.89</v>
@@ -3372,7 +3372,7 @@
         <v>0.96</v>
       </c>
       <c r="L69">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M69">
         <v>0.88</v>
@@ -3389,25 +3389,25 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>587</v>
+        <v>600</v>
       </c>
       <c r="D70">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="E70">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="F70">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="G70">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H70">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="I70">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J70">
         <v>0.8100000000000001</v>
@@ -3419,7 +3419,7 @@
         <v>0.87</v>
       </c>
       <c r="M70">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="N70">
         <v>0.89</v>
@@ -3433,34 +3433,34 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="D71">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="E71">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F71">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="G71">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="H71">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I71">
         <v>0.77</v>
       </c>
       <c r="J71">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="K71">
         <v>0.8</v>
       </c>
       <c r="L71">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="M71">
         <v>0.85</v>
@@ -3477,22 +3477,22 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="D72">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="E72">
-        <v>705</v>
+        <v>718</v>
       </c>
       <c r="F72">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="G72">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="H72">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="I72">
         <v>0.77</v>
@@ -3507,7 +3507,7 @@
         <v>0.85</v>
       </c>
       <c r="M72">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="N72">
         <v>0.87</v>
@@ -3521,22 +3521,22 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="D73">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="E73">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="F73">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="G73">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="H73">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="I73">
         <v>0.82</v>
@@ -3565,22 +3565,22 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="D74">
-        <v>522</v>
+        <v>540</v>
       </c>
       <c r="E74">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="F74">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="G74">
-        <v>565</v>
+        <v>574</v>
       </c>
       <c r="H74">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="I74">
         <v>0.89</v>
@@ -3589,7 +3589,7 @@
         <v>0.85</v>
       </c>
       <c r="K74">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="L74">
         <v>0.84</v>
@@ -3609,22 +3609,22 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D75">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="E75">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="F75">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="G75">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="H75">
-        <v>643</v>
+        <v>651</v>
       </c>
       <c r="I75">
         <v>0.95</v>
@@ -3639,7 +3639,7 @@
         <v>0.88</v>
       </c>
       <c r="M75">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="N75">
         <v>0.91</v>
@@ -3653,37 +3653,37 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="D76">
-        <v>600</v>
+        <v>618</v>
       </c>
       <c r="E76">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="F76">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="G76">
-        <v>550</v>
+        <v>563</v>
       </c>
       <c r="H76">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="I76">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J76">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K76">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L76">
         <v>0.9</v>
       </c>
       <c r="M76">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="N76">
         <v>0.93</v>
@@ -3697,22 +3697,22 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>515</v>
+        <v>536</v>
       </c>
       <c r="D77">
-        <v>462</v>
+        <v>476</v>
       </c>
       <c r="E77">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="F77">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="G77">
-        <v>516</v>
+        <v>530</v>
       </c>
       <c r="H77">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="I77">
         <v>0.93</v>
@@ -3721,7 +3721,7 @@
         <v>0.88</v>
       </c>
       <c r="K77">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L77">
         <v>0.92</v>
@@ -3730,7 +3730,7 @@
         <v>0.89</v>
       </c>
       <c r="N77">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3741,40 +3741,40 @@
         <v>43968</v>
       </c>
       <c r="C78">
-        <v>447</v>
+        <v>469</v>
       </c>
       <c r="D78">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="E78">
-        <v>501</v>
+        <v>521</v>
       </c>
       <c r="F78">
-        <v>538</v>
+        <v>551</v>
       </c>
       <c r="G78">
-        <v>482</v>
+        <v>499</v>
       </c>
       <c r="H78">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="I78">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J78">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="K78">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="L78">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="M78">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="N78">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3785,40 +3785,40 @@
         <v>43969</v>
       </c>
       <c r="C79">
-        <v>594</v>
+        <v>640</v>
       </c>
       <c r="D79">
-        <v>502</v>
+        <v>565</v>
       </c>
       <c r="E79">
-        <v>674</v>
+        <v>727</v>
       </c>
       <c r="F79">
-        <v>557</v>
+        <v>580</v>
       </c>
       <c r="G79">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="H79">
-        <v>623</v>
+        <v>646</v>
       </c>
       <c r="I79">
+        <v>0.96</v>
+      </c>
+      <c r="J79">
+        <v>0.89</v>
+      </c>
+      <c r="K79">
+        <v>1.03</v>
+      </c>
+      <c r="L79">
         <v>0.93</v>
       </c>
-      <c r="J79">
-        <v>0.85</v>
-      </c>
-      <c r="K79">
-        <v>1.01</v>
-      </c>
-      <c r="L79">
-        <v>0.9</v>
-      </c>
       <c r="M79">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3829,40 +3829,40 @@
         <v>43970</v>
       </c>
       <c r="C80">
-        <v>453</v>
+        <v>522</v>
       </c>
       <c r="D80">
-        <v>382</v>
+        <v>435</v>
       </c>
       <c r="E80">
-        <v>524</v>
+        <v>618</v>
       </c>
       <c r="F80">
-        <v>502</v>
+        <v>542</v>
       </c>
       <c r="G80">
-        <v>434</v>
+        <v>473</v>
       </c>
       <c r="H80">
-        <v>567</v>
+        <v>616</v>
       </c>
       <c r="I80">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="J80">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="K80">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="L80">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M80">
         <v>0.9</v>
       </c>
-      <c r="M80">
-        <v>0.85</v>
-      </c>
       <c r="N80">
-        <v>0.9399999999999999</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3873,40 +3873,40 @@
         <v>43971</v>
       </c>
       <c r="C81">
-        <v>509</v>
+        <v>578</v>
       </c>
       <c r="D81">
-        <v>403</v>
+        <v>470</v>
       </c>
       <c r="E81">
-        <v>612</v>
+        <v>674</v>
       </c>
       <c r="F81">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="G81">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="H81">
-        <v>578</v>
+        <v>635</v>
       </c>
       <c r="I81">
+        <v>0.96</v>
+      </c>
+      <c r="J81">
+        <v>0.87</v>
+      </c>
+      <c r="K81">
+        <v>1.04</v>
+      </c>
+      <c r="L81">
+        <v>0.92</v>
+      </c>
+      <c r="M81">
         <v>0.88</v>
       </c>
-      <c r="J81">
-        <v>0.8</v>
-      </c>
-      <c r="K81">
-        <v>0.96</v>
-      </c>
-      <c r="L81">
-        <v>0.87</v>
-      </c>
-      <c r="M81">
-        <v>0.82</v>
-      </c>
       <c r="N81">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3917,40 +3917,40 @@
         <v>43972</v>
       </c>
       <c r="C82">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="D82">
-        <v>234</v>
+        <v>275</v>
       </c>
       <c r="E82">
-        <v>416</v>
+        <v>468</v>
       </c>
       <c r="F82">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="G82">
-        <v>380</v>
+        <v>436</v>
       </c>
       <c r="H82">
-        <v>556</v>
+        <v>622</v>
       </c>
       <c r="I82">
-        <v>0.87</v>
+        <v>0.96</v>
       </c>
       <c r="J82">
-        <v>0.79</v>
+        <v>0.86</v>
       </c>
       <c r="K82">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="L82">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="M82">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="N82">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3961,40 +3961,40 @@
         <v>43973</v>
       </c>
       <c r="C83">
-        <v>277</v>
+        <v>338</v>
       </c>
       <c r="D83">
-        <v>183</v>
+        <v>257</v>
       </c>
       <c r="E83">
-        <v>379</v>
+        <v>421</v>
       </c>
       <c r="F83">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="G83">
-        <v>300</v>
+        <v>359</v>
       </c>
       <c r="H83">
-        <v>483</v>
+        <v>545</v>
       </c>
       <c r="I83">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="J83">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="K83">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="L83">
-        <v>0.76</v>
+        <v>0.82</v>
       </c>
       <c r="M83">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="N83">
-        <v>0.8100000000000001</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4005,31 +4005,75 @@
         <v>43974</v>
       </c>
       <c r="C84">
-        <v>245</v>
+        <v>309</v>
       </c>
       <c r="D84">
-        <v>139</v>
+        <v>198</v>
       </c>
       <c r="E84">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="F84">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="G84">
-        <v>239</v>
+        <v>300</v>
       </c>
       <c r="H84">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="I84">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="J84">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
       <c r="K84">
-        <v>0.79</v>
+        <v>0.85</v>
+      </c>
+      <c r="L84">
+        <v>0.78</v>
+      </c>
+      <c r="M84">
+        <v>0.73</v>
+      </c>
+      <c r="N84">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43975</v>
+      </c>
+      <c r="C85">
+        <v>324</v>
+      </c>
+      <c r="D85">
+        <v>201</v>
+      </c>
+      <c r="E85">
+        <v>460</v>
+      </c>
+      <c r="F85">
+        <v>335</v>
+      </c>
+      <c r="G85">
+        <v>232</v>
+      </c>
+      <c r="H85">
+        <v>442</v>
+      </c>
+      <c r="I85">
+        <v>0.61</v>
+      </c>
+      <c r="J85">
+        <v>0.51</v>
+      </c>
+      <c r="K85">
+        <v>0.72</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,22 +469,22 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E2">
         <v>323</v>
       </c>
       <c r="F2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H2">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -495,22 +495,22 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D3">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="E3">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="F3">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G3">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H3">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -521,22 +521,22 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D4">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="E4">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F4">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G4">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H4">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,22 +547,22 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D5">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E5">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F5">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G5">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H5">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,37 +573,37 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>756</v>
+        <v>764</v>
       </c>
       <c r="D6">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="E6">
-        <v>783</v>
+        <v>791</v>
       </c>
       <c r="F6">
         <v>511</v>
       </c>
       <c r="G6">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="H6">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="I6">
-        <v>2.26</v>
+        <v>2.27</v>
       </c>
       <c r="J6">
         <v>2.18</v>
       </c>
       <c r="K6">
+        <v>2.36</v>
+      </c>
+      <c r="L6">
         <v>2.34</v>
       </c>
-      <c r="L6">
-        <v>2.33</v>
-      </c>
       <c r="M6">
-        <v>2.27</v>
+        <v>2.29</v>
       </c>
       <c r="N6">
         <v>2.39</v>
@@ -617,40 +617,40 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>979</v>
+        <v>985</v>
       </c>
       <c r="D7">
-        <v>952</v>
+        <v>958</v>
       </c>
       <c r="E7">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="F7">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G7">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="H7">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="I7">
-        <v>2.57</v>
+        <v>2.59</v>
       </c>
       <c r="J7">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="K7">
         <v>2.68</v>
       </c>
       <c r="L7">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="M7">
-        <v>2.48</v>
+        <v>2.51</v>
       </c>
       <c r="N7">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -661,40 +661,40 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="D8">
-        <v>1298</v>
+        <v>1302</v>
       </c>
       <c r="E8">
-        <v>1372</v>
+        <v>1377</v>
       </c>
       <c r="F8">
-        <v>895</v>
+        <v>899</v>
       </c>
       <c r="G8">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="H8">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="I8">
-        <v>2.72</v>
+        <v>2.76</v>
       </c>
       <c r="J8">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="K8">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="L8">
-        <v>2.89</v>
+        <v>2.92</v>
       </c>
       <c r="M8">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="N8">
-        <v>2.94</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1981</v>
+        <v>1998</v>
       </c>
       <c r="D9">
-        <v>1942</v>
+        <v>1958</v>
       </c>
       <c r="E9">
-        <v>2025</v>
+        <v>2041</v>
       </c>
       <c r="F9">
-        <v>1263</v>
+        <v>1272</v>
       </c>
       <c r="G9">
-        <v>1230</v>
+        <v>1239</v>
       </c>
       <c r="H9">
-        <v>1297</v>
+        <v>1305</v>
       </c>
       <c r="I9">
+        <v>3.21</v>
+      </c>
+      <c r="J9">
+        <v>3.11</v>
+      </c>
+      <c r="K9">
+        <v>3.31</v>
+      </c>
+      <c r="L9">
+        <v>3.12</v>
+      </c>
+      <c r="M9">
+        <v>3.06</v>
+      </c>
+      <c r="N9">
         <v>3.17</v>
-      </c>
-      <c r="J9">
-        <v>3.08</v>
-      </c>
-      <c r="K9">
-        <v>3.25</v>
-      </c>
-      <c r="L9">
-        <v>3.09</v>
-      </c>
-      <c r="M9">
-        <v>3.04</v>
-      </c>
-      <c r="N9">
-        <v>3.14</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +749,40 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2550</v>
+        <v>2573</v>
       </c>
       <c r="D10">
-        <v>2498</v>
+        <v>2529</v>
       </c>
       <c r="E10">
-        <v>2599</v>
+        <v>2621</v>
       </c>
       <c r="F10">
-        <v>1711</v>
+        <v>1724</v>
       </c>
       <c r="G10">
-        <v>1672</v>
+        <v>1686</v>
       </c>
       <c r="H10">
-        <v>1751</v>
+        <v>1763</v>
       </c>
       <c r="I10">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="J10">
-        <v>3.27</v>
+        <v>3.29</v>
       </c>
       <c r="K10">
-        <v>3.44</v>
+        <v>3.47</v>
       </c>
       <c r="L10">
-        <v>3.18</v>
+        <v>3.2</v>
       </c>
       <c r="M10">
-        <v>3.14</v>
+        <v>3.16</v>
       </c>
       <c r="N10">
-        <v>3.23</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,40 +793,40 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3219</v>
+        <v>3238</v>
       </c>
       <c r="D11">
-        <v>3169</v>
+        <v>3184</v>
       </c>
       <c r="E11">
-        <v>3275</v>
+        <v>3287</v>
       </c>
       <c r="F11">
-        <v>2271</v>
+        <v>2288</v>
       </c>
       <c r="G11">
-        <v>2226</v>
+        <v>2243</v>
       </c>
       <c r="H11">
-        <v>2317</v>
+        <v>2331</v>
       </c>
       <c r="I11">
-        <v>3.37</v>
+        <v>3.38</v>
       </c>
       <c r="J11">
-        <v>3.29</v>
+        <v>3.32</v>
       </c>
       <c r="K11">
-        <v>3.44</v>
+        <v>3.45</v>
       </c>
       <c r="L11">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="M11">
-        <v>3.05</v>
+        <v>3.06</v>
       </c>
       <c r="N11">
-        <v>3.13</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,31 +837,31 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3594</v>
+        <v>3605</v>
       </c>
       <c r="D12">
-        <v>3543</v>
+        <v>3547</v>
       </c>
       <c r="E12">
-        <v>3650</v>
+        <v>3665</v>
       </c>
       <c r="F12">
-        <v>2836</v>
+        <v>2854</v>
       </c>
       <c r="G12">
-        <v>2788</v>
+        <v>2804</v>
       </c>
       <c r="H12">
-        <v>2887</v>
+        <v>2903</v>
       </c>
       <c r="I12">
         <v>3.17</v>
       </c>
       <c r="J12">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="K12">
-        <v>3.23</v>
+        <v>3.22</v>
       </c>
       <c r="L12">
         <v>2.85</v>
@@ -870,7 +870,7 @@
         <v>2.82</v>
       </c>
       <c r="N12">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -881,31 +881,31 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4379</v>
+        <v>4393</v>
       </c>
       <c r="D13">
-        <v>4326</v>
+        <v>4340</v>
       </c>
       <c r="E13">
-        <v>4430</v>
+        <v>4448</v>
       </c>
       <c r="F13">
-        <v>3435</v>
+        <v>3452</v>
       </c>
       <c r="G13">
-        <v>3384</v>
+        <v>3400</v>
       </c>
       <c r="H13">
-        <v>3488</v>
+        <v>3505</v>
       </c>
       <c r="I13">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
       <c r="J13">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="K13">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="L13">
         <v>2.51</v>
@@ -928,37 +928,37 @@
         <v>4458</v>
       </c>
       <c r="D14">
-        <v>4403</v>
+        <v>4394</v>
       </c>
       <c r="E14">
-        <v>4511</v>
+        <v>4525</v>
       </c>
       <c r="F14">
-        <v>3912</v>
+        <v>3924</v>
       </c>
       <c r="G14">
-        <v>3860</v>
+        <v>3866</v>
       </c>
       <c r="H14">
-        <v>3966</v>
+        <v>3981</v>
       </c>
       <c r="I14">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="J14">
         <v>2.25</v>
       </c>
       <c r="K14">
-        <v>2.31</v>
+        <v>2.3</v>
       </c>
       <c r="L14">
-        <v>2.2</v>
+        <v>2.19</v>
       </c>
       <c r="M14">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="N14">
-        <v>2.22</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,40 +969,40 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4701</v>
+        <v>4720</v>
       </c>
       <c r="D15">
-        <v>4646</v>
+        <v>4657</v>
       </c>
       <c r="E15">
-        <v>4762</v>
+        <v>4780</v>
       </c>
       <c r="F15">
-        <v>4283</v>
+        <v>4294</v>
       </c>
       <c r="G15">
-        <v>4229</v>
+        <v>4234</v>
       </c>
       <c r="H15">
-        <v>4338</v>
+        <v>4354</v>
       </c>
       <c r="I15">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="J15">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="K15">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="L15">
-        <v>2.01</v>
+        <v>2</v>
       </c>
       <c r="M15">
         <v>1.99</v>
       </c>
       <c r="N15">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6000</v>
+        <v>6031</v>
       </c>
       <c r="D16">
-        <v>5939</v>
+        <v>5971</v>
       </c>
       <c r="E16">
-        <v>6079</v>
+        <v>6097</v>
       </c>
       <c r="F16">
-        <v>4884</v>
+        <v>4901</v>
       </c>
       <c r="G16">
-        <v>4828</v>
+        <v>4840</v>
       </c>
       <c r="H16">
-        <v>4945</v>
+        <v>4962</v>
       </c>
       <c r="I16">
         <v>1.72</v>
@@ -1057,22 +1057,22 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5197</v>
+        <v>5241</v>
       </c>
       <c r="D17">
-        <v>5132</v>
+        <v>5169</v>
       </c>
       <c r="E17">
-        <v>5273</v>
+        <v>5302</v>
       </c>
       <c r="F17">
-        <v>5089</v>
+        <v>5113</v>
       </c>
       <c r="G17">
-        <v>5030</v>
+        <v>5048</v>
       </c>
       <c r="H17">
-        <v>5156</v>
+        <v>5176</v>
       </c>
       <c r="I17">
         <v>1.48</v>
@@ -1101,34 +1101,34 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5288</v>
+        <v>5323</v>
       </c>
       <c r="D18">
-        <v>5223</v>
+        <v>5259</v>
       </c>
       <c r="E18">
-        <v>5351</v>
+        <v>5388</v>
       </c>
       <c r="F18">
-        <v>5296</v>
+        <v>5329</v>
       </c>
       <c r="G18">
-        <v>5235</v>
+        <v>5264</v>
       </c>
       <c r="H18">
-        <v>5366</v>
+        <v>5392</v>
       </c>
       <c r="I18">
+        <v>1.36</v>
+      </c>
+      <c r="J18">
         <v>1.35</v>
-      </c>
-      <c r="J18">
-        <v>1.34</v>
       </c>
       <c r="K18">
         <v>1.37</v>
       </c>
       <c r="L18">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M18">
         <v>1.39</v>
@@ -1145,22 +1145,22 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4682</v>
+        <v>4730</v>
       </c>
       <c r="D19">
-        <v>4618</v>
+        <v>4675</v>
       </c>
       <c r="E19">
-        <v>4748</v>
+        <v>4791</v>
       </c>
       <c r="F19">
-        <v>5292</v>
+        <v>5331</v>
       </c>
       <c r="G19">
-        <v>5228</v>
+        <v>5268</v>
       </c>
       <c r="H19">
-        <v>5362</v>
+        <v>5394</v>
       </c>
       <c r="I19">
         <v>1.24</v>
@@ -1189,28 +1189,28 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5287</v>
+        <v>5314</v>
       </c>
       <c r="D20">
-        <v>5218</v>
+        <v>5250</v>
       </c>
       <c r="E20">
-        <v>5354</v>
+        <v>5371</v>
       </c>
       <c r="F20">
-        <v>5114</v>
+        <v>5152</v>
       </c>
       <c r="G20">
-        <v>5048</v>
+        <v>5088</v>
       </c>
       <c r="H20">
-        <v>5181</v>
+        <v>5213</v>
       </c>
       <c r="I20">
         <v>1.05</v>
       </c>
       <c r="J20">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="K20">
         <v>1.06</v>
@@ -1222,7 +1222,7 @@
         <v>1.12</v>
       </c>
       <c r="N20">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4425</v>
+        <v>4434</v>
       </c>
       <c r="D21">
-        <v>4361</v>
+        <v>4368</v>
       </c>
       <c r="E21">
-        <v>4487</v>
+        <v>4499</v>
       </c>
       <c r="F21">
-        <v>4920</v>
+        <v>4950</v>
       </c>
       <c r="G21">
-        <v>4855</v>
+        <v>4888</v>
       </c>
       <c r="H21">
-        <v>4985</v>
+        <v>5012</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3831</v>
+        <v>3827</v>
       </c>
       <c r="D22">
-        <v>3777</v>
+        <v>3766</v>
       </c>
       <c r="E22">
-        <v>3884</v>
+        <v>3885</v>
       </c>
       <c r="F22">
-        <v>4556</v>
+        <v>4576</v>
       </c>
       <c r="G22">
-        <v>4493</v>
+        <v>4515</v>
       </c>
       <c r="H22">
-        <v>4618</v>
+        <v>4636</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5151</v>
+        <v>5157</v>
       </c>
       <c r="D23">
-        <v>5080</v>
+        <v>5092</v>
       </c>
       <c r="E23">
-        <v>5217</v>
+        <v>5222</v>
       </c>
       <c r="F23">
-        <v>4673</v>
+        <v>4683</v>
       </c>
       <c r="G23">
-        <v>4609</v>
+        <v>4619</v>
       </c>
       <c r="H23">
-        <v>4735</v>
+        <v>4744</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1351,7 +1351,7 @@
         <v>0.92</v>
       </c>
       <c r="M23">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="N23">
         <v>0.92</v>
@@ -1365,34 +1365,34 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4097</v>
+        <v>4092</v>
       </c>
       <c r="D24">
-        <v>4036</v>
+        <v>4026</v>
       </c>
       <c r="E24">
-        <v>4173</v>
+        <v>4148</v>
       </c>
       <c r="F24">
-        <v>4376</v>
+        <v>4378</v>
       </c>
       <c r="G24">
         <v>4313</v>
       </c>
       <c r="H24">
-        <v>4440</v>
+        <v>4438</v>
       </c>
       <c r="I24">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J24">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K24">
         <v>0.86</v>
       </c>
       <c r="L24">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M24">
         <v>0.89</v>
@@ -1409,31 +1409,31 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4398</v>
+        <v>4402</v>
       </c>
       <c r="D25">
-        <v>4335</v>
+        <v>4337</v>
       </c>
       <c r="E25">
-        <v>4460</v>
+        <v>4473</v>
       </c>
       <c r="F25">
-        <v>4369</v>
+        <v>4370</v>
       </c>
       <c r="G25">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="H25">
-        <v>4433</v>
+        <v>4432</v>
       </c>
       <c r="I25">
+        <v>0.88</v>
+      </c>
+      <c r="J25">
+        <v>0.87</v>
+      </c>
+      <c r="K25">
         <v>0.89</v>
-      </c>
-      <c r="J25">
-        <v>0.88</v>
-      </c>
-      <c r="K25">
-        <v>0.9</v>
       </c>
       <c r="L25">
         <v>0.9</v>
@@ -1453,22 +1453,22 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4004</v>
+        <v>4021</v>
       </c>
       <c r="D26">
-        <v>3934</v>
+        <v>3966</v>
       </c>
       <c r="E26">
-        <v>4063</v>
+        <v>4086</v>
       </c>
       <c r="F26">
-        <v>4413</v>
+        <v>4418</v>
       </c>
       <c r="G26">
-        <v>4346</v>
+        <v>4355</v>
       </c>
       <c r="H26">
-        <v>4478</v>
+        <v>4482</v>
       </c>
       <c r="I26">
         <v>0.97</v>
@@ -1480,7 +1480,7 @@
         <v>0.98</v>
       </c>
       <c r="L26">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M26">
         <v>0.88</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4117</v>
+        <v>4137</v>
       </c>
       <c r="D27">
-        <v>4053</v>
+        <v>4083</v>
       </c>
       <c r="E27">
-        <v>4173</v>
+        <v>4199</v>
       </c>
       <c r="F27">
-        <v>4154</v>
+        <v>4163</v>
       </c>
       <c r="G27">
-        <v>4089</v>
+        <v>4103</v>
       </c>
       <c r="H27">
-        <v>4217</v>
+        <v>4227</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1530,7 +1530,7 @@
         <v>0.89</v>
       </c>
       <c r="N27">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1541,22 +1541,22 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3882</v>
+        <v>3892</v>
       </c>
       <c r="D28">
-        <v>3825</v>
+        <v>3835</v>
       </c>
       <c r="E28">
-        <v>3946</v>
+        <v>3963</v>
       </c>
       <c r="F28">
-        <v>4100</v>
+        <v>4113</v>
       </c>
       <c r="G28">
-        <v>4036</v>
+        <v>4055</v>
       </c>
       <c r="H28">
-        <v>4160</v>
+        <v>4180</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
@@ -1585,22 +1585,22 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3310</v>
+        <v>3295</v>
       </c>
       <c r="D29">
-        <v>3243</v>
+        <v>3233</v>
       </c>
       <c r="E29">
-        <v>3371</v>
+        <v>3352</v>
       </c>
       <c r="F29">
-        <v>3828</v>
+        <v>3836</v>
       </c>
       <c r="G29">
-        <v>3764</v>
+        <v>3779</v>
       </c>
       <c r="H29">
-        <v>3888</v>
+        <v>3900</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4381</v>
+        <v>4396</v>
       </c>
       <c r="D30">
-        <v>4319</v>
+        <v>4332</v>
       </c>
       <c r="E30">
-        <v>4446</v>
+        <v>4461</v>
       </c>
       <c r="F30">
-        <v>3922</v>
+        <v>3930</v>
       </c>
       <c r="G30">
-        <v>3860</v>
+        <v>3871</v>
       </c>
       <c r="H30">
-        <v>3984</v>
+        <v>3994</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3579</v>
+        <v>3591</v>
       </c>
       <c r="D31">
-        <v>3518</v>
+        <v>3536</v>
       </c>
       <c r="E31">
-        <v>3645</v>
+        <v>3655</v>
       </c>
       <c r="F31">
-        <v>3788</v>
+        <v>3794</v>
       </c>
       <c r="G31">
-        <v>3726</v>
+        <v>3734</v>
       </c>
       <c r="H31">
-        <v>3852</v>
+        <v>3858</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4001</v>
+        <v>4021</v>
       </c>
       <c r="D32">
-        <v>3933</v>
+        <v>3954</v>
       </c>
       <c r="E32">
-        <v>4065</v>
+        <v>4083</v>
       </c>
       <c r="F32">
-        <v>3818</v>
+        <v>3826</v>
       </c>
       <c r="G32">
-        <v>3753</v>
+        <v>3764</v>
       </c>
       <c r="H32">
-        <v>3882</v>
+        <v>3888</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3753</v>
+        <v>3741</v>
       </c>
       <c r="D33">
-        <v>3683</v>
+        <v>3671</v>
       </c>
       <c r="E33">
         <v>3814</v>
       </c>
       <c r="F33">
-        <v>3929</v>
+        <v>3937</v>
       </c>
       <c r="G33">
-        <v>3863</v>
+        <v>3873</v>
       </c>
       <c r="H33">
-        <v>3992</v>
+        <v>4003</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3732</v>
+        <v>3735</v>
       </c>
       <c r="D34">
-        <v>3673</v>
+        <v>3677</v>
       </c>
       <c r="E34">
-        <v>3787</v>
+        <v>3799</v>
       </c>
       <c r="F34">
-        <v>3766</v>
+        <v>3772</v>
       </c>
       <c r="G34">
-        <v>3702</v>
+        <v>3709</v>
       </c>
       <c r="H34">
-        <v>3828</v>
+        <v>3838</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1835,7 +1835,7 @@
         <v>0.93</v>
       </c>
       <c r="M34">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="N34">
         <v>0.9399999999999999</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3035</v>
+        <v>3017</v>
       </c>
       <c r="D35">
-        <v>2969</v>
+        <v>2948</v>
       </c>
       <c r="E35">
-        <v>3095</v>
+        <v>3075</v>
       </c>
       <c r="F35">
-        <v>3630</v>
+        <v>3628</v>
       </c>
       <c r="G35">
-        <v>3564</v>
+        <v>3562</v>
       </c>
       <c r="H35">
-        <v>3690</v>
+        <v>3693</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,34 +1893,34 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2733</v>
+        <v>2724</v>
       </c>
       <c r="D36">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="E36">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="F36">
-        <v>3313</v>
+        <v>3304</v>
       </c>
       <c r="G36">
-        <v>3251</v>
+        <v>3241</v>
       </c>
       <c r="H36">
-        <v>3370</v>
+        <v>3367</v>
       </c>
       <c r="I36">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="J36">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K36">
         <v>0.88</v>
       </c>
       <c r="L36">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M36">
         <v>0.89</v>
@@ -1937,31 +1937,31 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3356</v>
+        <v>3346</v>
       </c>
       <c r="D37">
-        <v>3298</v>
+        <v>3292</v>
       </c>
       <c r="E37">
-        <v>3418</v>
+        <v>3419</v>
       </c>
       <c r="F37">
-        <v>3214</v>
+        <v>3206</v>
       </c>
       <c r="G37">
-        <v>3155</v>
+        <v>3146</v>
       </c>
       <c r="H37">
-        <v>3272</v>
+        <v>3269</v>
       </c>
       <c r="I37">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J37">
+        <v>0.8</v>
+      </c>
+      <c r="K37">
         <v>0.82</v>
-      </c>
-      <c r="J37">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="K37">
-        <v>0.83</v>
       </c>
       <c r="L37">
         <v>0.89</v>
@@ -1970,7 +1970,7 @@
         <v>0.88</v>
       </c>
       <c r="N37">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3095</v>
+        <v>3086</v>
       </c>
       <c r="D38">
-        <v>3041</v>
+        <v>3024</v>
       </c>
       <c r="E38">
-        <v>3154</v>
+        <v>3157</v>
       </c>
       <c r="F38">
-        <v>3055</v>
+        <v>3043</v>
       </c>
       <c r="G38">
-        <v>2997</v>
+        <v>2983</v>
       </c>
       <c r="H38">
-        <v>3113</v>
+        <v>3108</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2008,7 +2008,7 @@
         <v>0.82</v>
       </c>
       <c r="L38">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="M38">
         <v>0.87</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2909</v>
+        <v>2900</v>
       </c>
       <c r="D39">
-        <v>2851</v>
+        <v>2847</v>
       </c>
       <c r="E39">
-        <v>2969</v>
+        <v>2954</v>
       </c>
       <c r="F39">
-        <v>3023</v>
+        <v>3014</v>
       </c>
       <c r="G39">
-        <v>2967</v>
+        <v>2958</v>
       </c>
       <c r="H39">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2052,7 +2052,7 @@
         <v>0.84</v>
       </c>
       <c r="L39">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M39">
         <v>0.85</v>
@@ -2069,22 +2069,22 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2706</v>
+        <v>2701</v>
       </c>
       <c r="D40">
-        <v>2649</v>
+        <v>2651</v>
       </c>
       <c r="E40">
-        <v>2768</v>
+        <v>2770</v>
       </c>
       <c r="F40">
-        <v>3017</v>
+        <v>3008</v>
       </c>
       <c r="G40">
-        <v>2960</v>
+        <v>2953</v>
       </c>
       <c r="H40">
-        <v>3077</v>
+        <v>3075</v>
       </c>
       <c r="I40">
         <v>0.91</v>
@@ -2113,22 +2113,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2338</v>
+        <v>2332</v>
       </c>
       <c r="D41">
-        <v>2290</v>
+        <v>2272</v>
       </c>
       <c r="E41">
-        <v>2399</v>
+        <v>2385</v>
       </c>
       <c r="F41">
-        <v>2762</v>
+        <v>2755</v>
       </c>
       <c r="G41">
-        <v>2708</v>
+        <v>2698</v>
       </c>
       <c r="H41">
-        <v>2822</v>
+        <v>2816</v>
       </c>
       <c r="I41">
         <v>0.86</v>
@@ -2157,28 +2157,28 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="D42">
-        <v>1970</v>
+        <v>1951</v>
       </c>
       <c r="E42">
-        <v>2067</v>
+        <v>2056</v>
       </c>
       <c r="F42">
-        <v>2493</v>
+        <v>2485</v>
       </c>
       <c r="G42">
-        <v>2440</v>
+        <v>2430</v>
       </c>
       <c r="H42">
-        <v>2551</v>
+        <v>2541</v>
       </c>
       <c r="I42">
         <v>0.82</v>
       </c>
       <c r="J42">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K42">
         <v>0.83</v>
@@ -2201,28 +2201,28 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1976</v>
+        <v>1961</v>
       </c>
       <c r="D43">
-        <v>1930</v>
+        <v>1910</v>
       </c>
       <c r="E43">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="F43">
-        <v>2260</v>
+        <v>2250</v>
       </c>
       <c r="G43">
-        <v>2210</v>
+        <v>2196</v>
       </c>
       <c r="H43">
-        <v>2314</v>
+        <v>2305</v>
       </c>
       <c r="I43">
         <v>0.75</v>
       </c>
       <c r="J43">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="K43">
         <v>0.76</v>
@@ -2245,22 +2245,22 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1916</v>
+        <v>1903</v>
       </c>
       <c r="D44">
-        <v>1869</v>
+        <v>1849</v>
       </c>
       <c r="E44">
-        <v>1961</v>
+        <v>1969</v>
       </c>
       <c r="F44">
-        <v>2062</v>
+        <v>2051</v>
       </c>
       <c r="G44">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="H44">
-        <v>2113</v>
+        <v>2105</v>
       </c>
       <c r="I44">
         <v>0.68</v>
@@ -2272,7 +2272,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="L44">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M44">
         <v>0.78</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D45">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="E45">
-        <v>2032</v>
+        <v>2022</v>
       </c>
       <c r="F45">
-        <v>1972</v>
+        <v>1961</v>
       </c>
       <c r="G45">
-        <v>1924</v>
+        <v>1909</v>
       </c>
       <c r="H45">
-        <v>2021</v>
+        <v>2014</v>
       </c>
       <c r="I45">
         <v>0.71</v>
@@ -2313,7 +2313,7 @@
         <v>0.7</v>
       </c>
       <c r="K45">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="L45">
         <v>0.78</v>
@@ -2333,22 +2333,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1938</v>
+        <v>1941</v>
       </c>
       <c r="D46">
-        <v>1887</v>
+        <v>1891</v>
       </c>
       <c r="E46">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="F46">
-        <v>1952</v>
+        <v>1945</v>
       </c>
       <c r="G46">
-        <v>1904</v>
+        <v>1894</v>
       </c>
       <c r="H46">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="I46">
         <v>0.78</v>
@@ -2366,7 +2366,7 @@
         <v>0.75</v>
       </c>
       <c r="N46">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2377,19 +2377,19 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1781</v>
+        <v>1783</v>
       </c>
       <c r="D47">
-        <v>1729</v>
+        <v>1733</v>
       </c>
       <c r="E47">
-        <v>1830</v>
+        <v>1833</v>
       </c>
       <c r="F47">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="G47">
-        <v>1853</v>
+        <v>1850</v>
       </c>
       <c r="H47">
         <v>1954</v>
@@ -2407,7 +2407,7 @@
         <v>0.78</v>
       </c>
       <c r="M47">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="N47">
         <v>0.79</v>
@@ -2421,37 +2421,37 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1663</v>
+        <v>1670</v>
       </c>
       <c r="D48">
-        <v>1616</v>
+        <v>1629</v>
       </c>
       <c r="E48">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="F48">
-        <v>1840</v>
+        <v>1842</v>
       </c>
       <c r="G48">
-        <v>1790</v>
+        <v>1795</v>
       </c>
       <c r="H48">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="I48">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J48">
         <v>0.88</v>
       </c>
       <c r="K48">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="L48">
         <v>0.8</v>
       </c>
       <c r="M48">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="N48">
         <v>0.8100000000000001</v>
@@ -2468,16 +2468,16 @@
         <v>1449</v>
       </c>
       <c r="D49">
-        <v>1400</v>
+        <v>1406</v>
       </c>
       <c r="E49">
-        <v>1495</v>
+        <v>1492</v>
       </c>
       <c r="F49">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="G49">
-        <v>1658</v>
+        <v>1664</v>
       </c>
       <c r="H49">
         <v>1757</v>
@@ -2486,10 +2486,10 @@
         <v>0.87</v>
       </c>
       <c r="J49">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K49">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2509,25 +2509,25 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1312</v>
+        <v>1295</v>
       </c>
       <c r="D50">
-        <v>1269</v>
+        <v>1249</v>
       </c>
       <c r="E50">
-        <v>1359</v>
+        <v>1336</v>
       </c>
       <c r="F50">
-        <v>1551</v>
+        <v>1549</v>
       </c>
       <c r="G50">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="H50">
-        <v>1599</v>
+        <v>1592</v>
       </c>
       <c r="I50">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J50">
         <v>0.78</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1570</v>
+        <v>1565</v>
       </c>
       <c r="D51">
-        <v>1522</v>
+        <v>1512</v>
       </c>
       <c r="E51">
-        <v>1621</v>
+        <v>1604</v>
       </c>
       <c r="F51">
-        <v>1499</v>
+        <v>1495</v>
       </c>
       <c r="G51">
-        <v>1451</v>
+        <v>1449</v>
       </c>
       <c r="H51">
-        <v>1546</v>
+        <v>1535</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2580,7 +2580,7 @@
         <v>0.8</v>
       </c>
       <c r="L51">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="M51">
         <v>0.83</v>
@@ -2597,31 +2597,31 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1363</v>
+        <v>1356</v>
       </c>
       <c r="D52">
-        <v>1320</v>
+        <v>1314</v>
       </c>
       <c r="E52">
-        <v>1409</v>
+        <v>1399</v>
       </c>
       <c r="F52">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="G52">
-        <v>1377</v>
+        <v>1370</v>
       </c>
       <c r="H52">
-        <v>1471</v>
+        <v>1457</v>
       </c>
       <c r="I52">
         <v>0.77</v>
       </c>
       <c r="J52">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="K52">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L52">
         <v>0.82</v>
@@ -2641,31 +2641,31 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1308</v>
+        <v>1312</v>
       </c>
       <c r="D53">
-        <v>1266</v>
+        <v>1271</v>
       </c>
       <c r="E53">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F53">
-        <v>1388</v>
+        <v>1382</v>
       </c>
       <c r="G53">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="H53">
-        <v>1435</v>
+        <v>1423</v>
       </c>
       <c r="I53">
         <v>0.8100000000000001</v>
       </c>
       <c r="J53">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="K53">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="L53">
         <v>0.83</v>
@@ -2688,19 +2688,19 @@
         <v>1294</v>
       </c>
       <c r="D54">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E54">
-        <v>1331</v>
+        <v>1335</v>
       </c>
       <c r="F54">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="G54">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="H54">
-        <v>1428</v>
+        <v>1423</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2718,7 +2718,7 @@
         <v>0.8</v>
       </c>
       <c r="N54">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2729,37 +2729,37 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="D55">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="E55">
-        <v>1197</v>
+        <v>1202</v>
       </c>
       <c r="F55">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="G55">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H55">
         <v>1322</v>
       </c>
       <c r="I55">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J55">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K55">
         <v>0.87</v>
       </c>
       <c r="L55">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M55">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="N55">
         <v>0.82</v>
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="D56">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E56">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="F56">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="G56">
         <v>1157</v>
       </c>
       <c r="H56">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2817,28 +2817,28 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="D57">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E57">
-        <v>965</v>
+        <v>954</v>
       </c>
       <c r="F57">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="G57">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="H57">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="I57">
         <v>0.79</v>
       </c>
       <c r="J57">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="K57">
         <v>0.8100000000000001</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="D58">
-        <v>1084</v>
+        <v>1078</v>
       </c>
       <c r="E58">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="F58">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="G58">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="H58">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2894,7 +2894,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="N58">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2905,31 +2905,31 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="D59">
-        <v>917</v>
+        <v>901</v>
       </c>
       <c r="E59">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="F59">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="G59">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="H59">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="I59">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J59">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="K59">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L59">
         <v>0.8100000000000001</v>
@@ -2949,22 +2949,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="D60">
         <v>840</v>
       </c>
       <c r="E60">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="F60">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="G60">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="H60">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2993,25 +2993,25 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="D61">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="E61">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="F61">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="G61">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="H61">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="I61">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="J61">
         <v>0.86</v>
@@ -3026,7 +3026,7 @@
         <v>0.8</v>
       </c>
       <c r="N61">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3037,22 +3037,22 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="D62">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="E62">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F62">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="G62">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="H62">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="I62">
         <v>0.85</v>
@@ -3067,7 +3067,7 @@
         <v>0.82</v>
       </c>
       <c r="M62">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="N62">
         <v>0.83</v>
@@ -3081,34 +3081,34 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="D63">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="E63">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="F63">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="G63">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="H63">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="I63">
         <v>0.84</v>
       </c>
       <c r="J63">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K63">
         <v>0.86</v>
       </c>
       <c r="L63">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="M63">
         <v>0.83</v>
@@ -3125,22 +3125,22 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>780</v>
+        <v>769</v>
       </c>
       <c r="D64">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="E64">
-        <v>832</v>
+        <v>801</v>
       </c>
       <c r="F64">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="G64">
-        <v>780</v>
+        <v>776</v>
       </c>
       <c r="H64">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="I64">
         <v>0.84</v>
@@ -3155,10 +3155,10 @@
         <v>0.86</v>
       </c>
       <c r="M64">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="N64">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3169,22 +3169,22 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="D65">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="E65">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="F65">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="G65">
-        <v>772</v>
+        <v>768</v>
       </c>
       <c r="H65">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="I65">
         <v>0.83</v>
@@ -3193,7 +3193,7 @@
         <v>0.8</v>
       </c>
       <c r="K65">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L65">
         <v>0.89</v>
@@ -3213,31 +3213,31 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D66">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="E66">
-        <v>886</v>
+        <v>869</v>
       </c>
       <c r="F66">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="G66">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="H66">
-        <v>860</v>
+        <v>845</v>
       </c>
       <c r="I66">
         <v>0.91</v>
       </c>
       <c r="J66">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="K66">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L66">
         <v>0.91</v>
@@ -3246,7 +3246,7 @@
         <v>0.89</v>
       </c>
       <c r="N66">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3257,22 +3257,22 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="D67">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="E67">
-        <v>818</v>
+        <v>801</v>
       </c>
       <c r="F67">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="G67">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="H67">
-        <v>871</v>
+        <v>853</v>
       </c>
       <c r="I67">
         <v>0.98</v>
@@ -3301,22 +3301,22 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="D68">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="E68">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="F68">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G68">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="H68">
-        <v>852</v>
+        <v>838</v>
       </c>
       <c r="I68">
         <v>0.99</v>
@@ -3325,7 +3325,7 @@
         <v>0.96</v>
       </c>
       <c r="K68">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="L68">
         <v>0.9</v>
@@ -3345,28 +3345,28 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="D69">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="E69">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="F69">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="G69">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="H69">
-        <v>791</v>
+        <v>781</v>
       </c>
       <c r="I69">
         <v>0.93</v>
       </c>
       <c r="J69">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K69">
         <v>0.96</v>
@@ -3389,34 +3389,34 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D70">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E70">
-        <v>634</v>
+        <v>619</v>
       </c>
       <c r="F70">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="G70">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="H70">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="I70">
         <v>0.85</v>
       </c>
       <c r="J70">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K70">
+        <v>0.87</v>
+      </c>
+      <c r="L70">
         <v>0.88</v>
-      </c>
-      <c r="L70">
-        <v>0.87</v>
       </c>
       <c r="M70">
         <v>0.86</v>
@@ -3433,28 +3433,28 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>549</v>
+        <v>566</v>
       </c>
       <c r="D71">
-        <v>517</v>
+        <v>535</v>
       </c>
       <c r="E71">
-        <v>584</v>
+        <v>600</v>
       </c>
       <c r="F71">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G71">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="H71">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I71">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J71">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="K71">
         <v>0.8</v>
@@ -3466,7 +3466,7 @@
         <v>0.85</v>
       </c>
       <c r="N71">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3477,31 +3477,31 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="D72">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="E72">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="F72">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="G72">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="H72">
         <v>660</v>
       </c>
       <c r="I72">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J72">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="K72">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L72">
         <v>0.85</v>
@@ -3521,22 +3521,22 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>651</v>
+        <v>625</v>
       </c>
       <c r="D73">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="E73">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="F73">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G73">
         <v>579</v>
       </c>
       <c r="H73">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="I73">
         <v>0.82</v>
@@ -3545,13 +3545,13 @@
         <v>0.79</v>
       </c>
       <c r="K73">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L73">
         <v>0.84</v>
       </c>
       <c r="M73">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N73">
         <v>0.86</v>
@@ -3565,28 +3565,28 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="D74">
-        <v>540</v>
+        <v>556</v>
       </c>
       <c r="E74">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="F74">
         <v>612</v>
       </c>
       <c r="G74">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="H74">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="I74">
         <v>0.89</v>
       </c>
       <c r="J74">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K74">
         <v>0.92</v>
@@ -3595,7 +3595,7 @@
         <v>0.84</v>
       </c>
       <c r="M74">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N74">
         <v>0.86</v>
@@ -3609,22 +3609,22 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="D75">
-        <v>485</v>
+        <v>500</v>
       </c>
       <c r="E75">
-        <v>572</v>
+        <v>563</v>
       </c>
       <c r="F75">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G75">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="H75">
-        <v>651</v>
+        <v>639</v>
       </c>
       <c r="I75">
         <v>0.95</v>
@@ -3633,7 +3633,7 @@
         <v>0.91</v>
       </c>
       <c r="K75">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L75">
         <v>0.88</v>
@@ -3642,7 +3642,7 @@
         <v>0.86</v>
       </c>
       <c r="N75">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3653,22 +3653,22 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D76">
-        <v>618</v>
+        <v>647</v>
       </c>
       <c r="E76">
-        <v>739</v>
+        <v>712</v>
       </c>
       <c r="F76">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G76">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="H76">
-        <v>657</v>
+        <v>640</v>
       </c>
       <c r="I76">
         <v>0.97</v>
@@ -3680,10 +3680,10 @@
         <v>1.01</v>
       </c>
       <c r="L76">
+        <v>0.91</v>
+      </c>
+      <c r="M76">
         <v>0.9</v>
-      </c>
-      <c r="M76">
-        <v>0.88</v>
       </c>
       <c r="N76">
         <v>0.93</v>
@@ -3697,40 +3697,40 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="D77">
-        <v>476</v>
+        <v>514</v>
       </c>
       <c r="E77">
-        <v>597</v>
+        <v>572</v>
       </c>
       <c r="F77">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="G77">
-        <v>530</v>
+        <v>554</v>
       </c>
       <c r="H77">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="I77">
+        <v>0.96</v>
+      </c>
+      <c r="J77">
+        <v>0.92</v>
+      </c>
+      <c r="K77">
+        <v>0.99</v>
+      </c>
+      <c r="L77">
         <v>0.93</v>
       </c>
-      <c r="J77">
-        <v>0.88</v>
-      </c>
-      <c r="K77">
-        <v>0.98</v>
-      </c>
-      <c r="L77">
-        <v>0.92</v>
-      </c>
       <c r="M77">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
       <c r="N77">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3741,40 +3741,40 @@
         <v>43968</v>
       </c>
       <c r="C78">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D78">
-        <v>415</v>
+        <v>431</v>
       </c>
       <c r="E78">
-        <v>521</v>
+        <v>498</v>
       </c>
       <c r="F78">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G78">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="H78">
-        <v>607</v>
+        <v>586</v>
       </c>
       <c r="I78">
         <v>0.9</v>
       </c>
       <c r="J78">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="K78">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L78">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="M78">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="N78">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3785,40 +3785,40 @@
         <v>43969</v>
       </c>
       <c r="C79">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="D79">
-        <v>565</v>
+        <v>587</v>
       </c>
       <c r="E79">
-        <v>727</v>
+        <v>663</v>
       </c>
       <c r="F79">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G79">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="H79">
-        <v>646</v>
+        <v>611</v>
       </c>
       <c r="I79">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="J79">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="K79">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="L79">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="M79">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="N79">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3829,40 +3829,40 @@
         <v>43970</v>
       </c>
       <c r="C80">
-        <v>522</v>
+        <v>483</v>
       </c>
       <c r="D80">
-        <v>435</v>
+        <v>453</v>
       </c>
       <c r="E80">
-        <v>618</v>
+        <v>515</v>
       </c>
       <c r="F80">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="G80">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="H80">
-        <v>616</v>
+        <v>562</v>
       </c>
       <c r="I80">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="J80">
-        <v>0.82</v>
+        <v>0.84</v>
       </c>
       <c r="K80">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="L80">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="M80">
         <v>0.9</v>
       </c>
       <c r="N80">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -3873,40 +3873,40 @@
         <v>43971</v>
       </c>
       <c r="C81">
-        <v>578</v>
+        <v>555</v>
       </c>
       <c r="D81">
-        <v>470</v>
+        <v>519</v>
       </c>
       <c r="E81">
-        <v>674</v>
+        <v>590</v>
       </c>
       <c r="F81">
-        <v>552</v>
+        <v>530</v>
       </c>
       <c r="G81">
-        <v>471</v>
+        <v>497</v>
       </c>
       <c r="H81">
-        <v>635</v>
+        <v>567</v>
       </c>
       <c r="I81">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="J81">
         <v>0.87</v>
       </c>
       <c r="K81">
-        <v>1.04</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L81">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M81">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="N81">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -3917,40 +3917,40 @@
         <v>43972</v>
       </c>
       <c r="C82">
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="D82">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="E82">
-        <v>468</v>
+        <v>419</v>
       </c>
       <c r="F82">
-        <v>527</v>
+        <v>510</v>
       </c>
       <c r="G82">
-        <v>436</v>
+        <v>478</v>
       </c>
       <c r="H82">
-        <v>622</v>
+        <v>547</v>
       </c>
       <c r="I82">
+        <v>0.92</v>
+      </c>
+      <c r="J82">
+        <v>0.89</v>
+      </c>
+      <c r="K82">
         <v>0.96</v>
-      </c>
-      <c r="J82">
-        <v>0.86</v>
-      </c>
-      <c r="K82">
-        <v>1.06</v>
       </c>
       <c r="L82">
         <v>0.85</v>
       </c>
       <c r="M82">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="N82">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3961,40 +3961,40 @@
         <v>43973</v>
       </c>
       <c r="C83">
-        <v>338</v>
+        <v>393</v>
       </c>
       <c r="D83">
-        <v>257</v>
+        <v>364</v>
       </c>
       <c r="E83">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F83">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="G83">
-        <v>359</v>
+        <v>422</v>
       </c>
       <c r="H83">
-        <v>545</v>
+        <v>487</v>
       </c>
       <c r="I83">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J83">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="K83">
-        <v>0.87</v>
+        <v>0.82</v>
       </c>
       <c r="L83">
+        <v>0.84</v>
+      </c>
+      <c r="M83">
         <v>0.82</v>
       </c>
-      <c r="M83">
-        <v>0.77</v>
-      </c>
       <c r="N83">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4005,40 +4005,40 @@
         <v>43974</v>
       </c>
       <c r="C84">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="D84">
-        <v>198</v>
+        <v>347</v>
       </c>
       <c r="E84">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F84">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="G84">
-        <v>300</v>
+        <v>396</v>
       </c>
       <c r="H84">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="I84">
-        <v>0.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J84">
-        <v>0.63</v>
+        <v>0.78</v>
       </c>
       <c r="K84">
         <v>0.85</v>
       </c>
       <c r="L84">
-        <v>0.78</v>
+        <v>0.83</v>
       </c>
       <c r="M84">
-        <v>0.73</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N84">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4049,31 +4049,427 @@
         <v>43975</v>
       </c>
       <c r="C85">
-        <v>324</v>
+        <v>395</v>
       </c>
       <c r="D85">
-        <v>201</v>
+        <v>362</v>
       </c>
       <c r="E85">
-        <v>460</v>
+        <v>428</v>
       </c>
       <c r="F85">
-        <v>335</v>
+        <v>388</v>
       </c>
       <c r="G85">
-        <v>232</v>
+        <v>356</v>
       </c>
       <c r="H85">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="I85">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="J85">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="K85">
+        <v>0.77</v>
+      </c>
+      <c r="L85">
+        <v>0.82</v>
+      </c>
+      <c r="M85">
+        <v>0.8</v>
+      </c>
+      <c r="N85">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43976</v>
+      </c>
+      <c r="C86">
+        <v>458</v>
+      </c>
+      <c r="D86">
+        <v>416</v>
+      </c>
+      <c r="E86">
+        <v>503</v>
+      </c>
+      <c r="F86">
+        <v>407</v>
+      </c>
+      <c r="G86">
+        <v>372</v>
+      </c>
+      <c r="H86">
+        <v>443</v>
+      </c>
+      <c r="I86">
+        <v>0.8</v>
+      </c>
+      <c r="J86">
+        <v>0.75</v>
+      </c>
+      <c r="K86">
+        <v>0.84</v>
+      </c>
+      <c r="L86">
+        <v>0.87</v>
+      </c>
+      <c r="M86">
+        <v>0.84</v>
+      </c>
+      <c r="N86">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43977</v>
+      </c>
+      <c r="C87">
+        <v>436</v>
+      </c>
+      <c r="D87">
+        <v>379</v>
+      </c>
+      <c r="E87">
+        <v>497</v>
+      </c>
+      <c r="F87">
+        <v>418</v>
+      </c>
+      <c r="G87">
+        <v>376</v>
+      </c>
+      <c r="H87">
+        <v>462</v>
+      </c>
+      <c r="I87">
+        <v>0.92</v>
+      </c>
+      <c r="J87">
+        <v>0.87</v>
+      </c>
+      <c r="K87">
+        <v>0.98</v>
+      </c>
+      <c r="L87">
+        <v>0.88</v>
+      </c>
+      <c r="M87">
+        <v>0.85</v>
+      </c>
+      <c r="N87">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43978</v>
+      </c>
+      <c r="C88">
+        <v>451</v>
+      </c>
+      <c r="D88">
+        <v>396</v>
+      </c>
+      <c r="E88">
+        <v>500</v>
+      </c>
+      <c r="F88">
+        <v>435</v>
+      </c>
+      <c r="G88">
+        <v>388</v>
+      </c>
+      <c r="H88">
+        <v>482</v>
+      </c>
+      <c r="I88">
+        <v>1.02</v>
+      </c>
+      <c r="J88">
+        <v>0.95</v>
+      </c>
+      <c r="K88">
+        <v>1.09</v>
+      </c>
+      <c r="L88">
+        <v>0.9</v>
+      </c>
+      <c r="M88">
+        <v>0.86</v>
+      </c>
+      <c r="N88">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43979</v>
+      </c>
+      <c r="C89">
+        <v>365</v>
+      </c>
+      <c r="D89">
+        <v>311</v>
+      </c>
+      <c r="E89">
+        <v>418</v>
+      </c>
+      <c r="F89">
+        <v>428</v>
+      </c>
+      <c r="G89">
+        <v>375</v>
+      </c>
+      <c r="H89">
+        <v>480</v>
+      </c>
+      <c r="I89">
+        <v>1.1</v>
+      </c>
+      <c r="J89">
+        <v>1.02</v>
+      </c>
+      <c r="K89">
+        <v>1.2</v>
+      </c>
+      <c r="L89">
+        <v>0.92</v>
+      </c>
+      <c r="M89">
+        <v>0.88</v>
+      </c>
+      <c r="N89">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43980</v>
+      </c>
+      <c r="C90">
+        <v>316</v>
+      </c>
+      <c r="D90">
+        <v>264</v>
+      </c>
+      <c r="E90">
+        <v>365</v>
+      </c>
+      <c r="F90">
+        <v>392</v>
+      </c>
+      <c r="G90">
+        <v>337</v>
+      </c>
+      <c r="H90">
+        <v>445</v>
+      </c>
+      <c r="I90">
+        <v>0.96</v>
+      </c>
+      <c r="J90">
+        <v>0.89</v>
+      </c>
+      <c r="K90">
+        <v>1.05</v>
+      </c>
+      <c r="L90">
+        <v>0.9</v>
+      </c>
+      <c r="M90">
+        <v>0.86</v>
+      </c>
+      <c r="N90">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" s="2">
+        <v>43981</v>
+      </c>
+      <c r="C91">
+        <v>290</v>
+      </c>
+      <c r="D91">
+        <v>221</v>
+      </c>
+      <c r="E91">
+        <v>372</v>
+      </c>
+      <c r="F91">
+        <v>356</v>
+      </c>
+      <c r="G91">
+        <v>298</v>
+      </c>
+      <c r="H91">
+        <v>414</v>
+      </c>
+      <c r="I91">
+        <v>0.85</v>
+      </c>
+      <c r="J91">
+        <v>0.77</v>
+      </c>
+      <c r="K91">
+        <v>0.96</v>
+      </c>
+      <c r="L91">
+        <v>0.89</v>
+      </c>
+      <c r="M91">
+        <v>0.84</v>
+      </c>
+      <c r="N91">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" s="2">
+        <v>43982</v>
+      </c>
+      <c r="C92">
+        <v>275</v>
+      </c>
+      <c r="D92">
+        <v>192</v>
+      </c>
+      <c r="E92">
+        <v>355</v>
+      </c>
+      <c r="F92">
+        <v>312</v>
+      </c>
+      <c r="G92">
+        <v>247</v>
+      </c>
+      <c r="H92">
+        <v>378</v>
+      </c>
+      <c r="I92">
         <v>0.72</v>
+      </c>
+      <c r="J92">
+        <v>0.62</v>
+      </c>
+      <c r="K92">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L92">
+        <v>0.85</v>
+      </c>
+      <c r="M92">
+        <v>0.79</v>
+      </c>
+      <c r="N92">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" s="2">
+        <v>43983</v>
+      </c>
+      <c r="C93">
+        <v>322</v>
+      </c>
+      <c r="D93">
+        <v>206</v>
+      </c>
+      <c r="E93">
+        <v>438</v>
+      </c>
+      <c r="F93">
+        <v>301</v>
+      </c>
+      <c r="G93">
+        <v>221</v>
+      </c>
+      <c r="H93">
+        <v>383</v>
+      </c>
+      <c r="I93">
+        <v>0.7</v>
+      </c>
+      <c r="J93">
+        <v>0.6</v>
+      </c>
+      <c r="K93">
+        <v>0.82</v>
+      </c>
+      <c r="L93">
+        <v>0.89</v>
+      </c>
+      <c r="M93">
+        <v>0.8</v>
+      </c>
+      <c r="N93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" s="2">
+        <v>43984</v>
+      </c>
+      <c r="C94">
+        <v>481</v>
+      </c>
+      <c r="D94">
+        <v>263</v>
+      </c>
+      <c r="E94">
+        <v>753</v>
+      </c>
+      <c r="F94">
+        <v>342</v>
+      </c>
+      <c r="G94">
+        <v>221</v>
+      </c>
+      <c r="H94">
+        <v>479</v>
+      </c>
+      <c r="I94">
+        <v>0.87</v>
+      </c>
+      <c r="J94">
+        <v>0.73</v>
+      </c>
+      <c r="K94">
+        <v>1.07</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N94"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,19 +469,19 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="E2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F2">
         <v>225</v>
       </c>
       <c r="G2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H2">
         <v>238</v>
@@ -495,22 +495,22 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D3">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="E3">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F3">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G3">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H3">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -524,16 +524,16 @@
         <v>450</v>
       </c>
       <c r="D4">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E4">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F4">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G4">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H4">
         <v>343</v>
@@ -547,22 +547,22 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D5">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E5">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F5">
         <v>396</v>
       </c>
       <c r="G5">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H5">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -576,7 +576,7 @@
         <v>764</v>
       </c>
       <c r="D6">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="E6">
         <v>791</v>
@@ -585,7 +585,7 @@
         <v>511</v>
       </c>
       <c r="G6">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="H6">
         <v>532</v>
@@ -617,31 +617,31 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D7">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="E7">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="F7">
         <v>676</v>
       </c>
       <c r="G7">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="H7">
         <v>701</v>
       </c>
       <c r="I7">
-        <v>2.59</v>
+        <v>2.58</v>
       </c>
       <c r="J7">
         <v>2.5</v>
       </c>
       <c r="K7">
-        <v>2.68</v>
+        <v>2.67</v>
       </c>
       <c r="L7">
         <v>2.56</v>
@@ -650,7 +650,7 @@
         <v>2.51</v>
       </c>
       <c r="N7">
-        <v>2.62</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -661,37 +661,37 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="D8">
-        <v>1302</v>
+        <v>1312</v>
       </c>
       <c r="E8">
-        <v>1377</v>
+        <v>1373</v>
       </c>
       <c r="F8">
         <v>899</v>
       </c>
       <c r="G8">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="H8">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="I8">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
       <c r="J8">
         <v>2.67</v>
       </c>
       <c r="K8">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="L8">
-        <v>2.92</v>
+        <v>2.93</v>
       </c>
       <c r="M8">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="N8">
         <v>2.98</v>
@@ -705,37 +705,37 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>1998</v>
+        <v>2006</v>
       </c>
       <c r="D9">
-        <v>1958</v>
+        <v>1969</v>
       </c>
       <c r="E9">
-        <v>2041</v>
+        <v>2046</v>
       </c>
       <c r="F9">
-        <v>1272</v>
+        <v>1274</v>
       </c>
       <c r="G9">
-        <v>1239</v>
+        <v>1246</v>
       </c>
       <c r="H9">
-        <v>1305</v>
+        <v>1307</v>
       </c>
       <c r="I9">
-        <v>3.21</v>
+        <v>3.22</v>
       </c>
       <c r="J9">
-        <v>3.11</v>
+        <v>3.13</v>
       </c>
       <c r="K9">
-        <v>3.31</v>
+        <v>3.32</v>
       </c>
       <c r="L9">
         <v>3.12</v>
       </c>
       <c r="M9">
-        <v>3.06</v>
+        <v>3.07</v>
       </c>
       <c r="N9">
         <v>3.17</v>
@@ -749,22 +749,22 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2573</v>
+        <v>2568</v>
       </c>
       <c r="D10">
-        <v>2529</v>
+        <v>2521</v>
       </c>
       <c r="E10">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="F10">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="G10">
-        <v>1686</v>
+        <v>1691</v>
       </c>
       <c r="H10">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="I10">
         <v>3.38</v>
@@ -773,7 +773,7 @@
         <v>3.29</v>
       </c>
       <c r="K10">
-        <v>3.47</v>
+        <v>3.45</v>
       </c>
       <c r="L10">
         <v>3.2</v>
@@ -793,25 +793,25 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="D11">
-        <v>3184</v>
+        <v>3188</v>
       </c>
       <c r="E11">
-        <v>3287</v>
+        <v>3288</v>
       </c>
       <c r="F11">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="G11">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="H11">
         <v>2331</v>
       </c>
       <c r="I11">
-        <v>3.38</v>
+        <v>3.39</v>
       </c>
       <c r="J11">
         <v>3.32</v>
@@ -837,22 +837,22 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3605</v>
+        <v>3599</v>
       </c>
       <c r="D12">
-        <v>3547</v>
+        <v>3550</v>
       </c>
       <c r="E12">
-        <v>3665</v>
+        <v>3646</v>
       </c>
       <c r="F12">
-        <v>2854</v>
+        <v>2852</v>
       </c>
       <c r="G12">
-        <v>2804</v>
+        <v>2807</v>
       </c>
       <c r="H12">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="I12">
         <v>3.17</v>
@@ -861,16 +861,16 @@
         <v>3.12</v>
       </c>
       <c r="K12">
-        <v>3.22</v>
+        <v>3.24</v>
       </c>
       <c r="L12">
-        <v>2.85</v>
+        <v>2.84</v>
       </c>
       <c r="M12">
-        <v>2.82</v>
+        <v>2.81</v>
       </c>
       <c r="N12">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -881,25 +881,25 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4393</v>
+        <v>4383</v>
       </c>
       <c r="D13">
-        <v>4340</v>
+        <v>4332</v>
       </c>
       <c r="E13">
-        <v>4448</v>
+        <v>4442</v>
       </c>
       <c r="F13">
-        <v>3452</v>
+        <v>3446</v>
       </c>
       <c r="G13">
-        <v>3400</v>
+        <v>3398</v>
       </c>
       <c r="H13">
-        <v>3505</v>
+        <v>3499</v>
       </c>
       <c r="I13">
-        <v>2.71</v>
+        <v>2.7</v>
       </c>
       <c r="J13">
         <v>2.67</v>
@@ -911,7 +911,7 @@
         <v>2.51</v>
       </c>
       <c r="M13">
-        <v>2.49</v>
+        <v>2.48</v>
       </c>
       <c r="N13">
         <v>2.53</v>
@@ -925,28 +925,28 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4458</v>
+        <v>4459</v>
       </c>
       <c r="D14">
-        <v>4394</v>
+        <v>4411</v>
       </c>
       <c r="E14">
-        <v>4525</v>
+        <v>4512</v>
       </c>
       <c r="F14">
-        <v>3924</v>
+        <v>3919</v>
       </c>
       <c r="G14">
-        <v>3866</v>
+        <v>3870</v>
       </c>
       <c r="H14">
-        <v>3981</v>
+        <v>3972</v>
       </c>
       <c r="I14">
-        <v>2.28</v>
+        <v>2.27</v>
       </c>
       <c r="J14">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -969,28 +969,28 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4720</v>
+        <v>4705</v>
       </c>
       <c r="D15">
-        <v>4657</v>
+        <v>4649</v>
       </c>
       <c r="E15">
-        <v>4780</v>
+        <v>4766</v>
       </c>
       <c r="F15">
-        <v>4294</v>
+        <v>4287</v>
       </c>
       <c r="G15">
-        <v>4234</v>
+        <v>4235</v>
       </c>
       <c r="H15">
-        <v>4354</v>
+        <v>4341</v>
       </c>
       <c r="I15">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="J15">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="K15">
         <v>1.9</v>
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6031</v>
+        <v>6045</v>
       </c>
       <c r="D16">
-        <v>5971</v>
+        <v>5972</v>
       </c>
       <c r="E16">
-        <v>6097</v>
+        <v>6105</v>
       </c>
       <c r="F16">
-        <v>4901</v>
+        <v>4898</v>
       </c>
       <c r="G16">
-        <v>4840</v>
+        <v>4841</v>
       </c>
       <c r="H16">
-        <v>4962</v>
+        <v>4956</v>
       </c>
       <c r="I16">
         <v>1.72</v>
@@ -1057,25 +1057,25 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5241</v>
+        <v>5263</v>
       </c>
       <c r="D17">
-        <v>5169</v>
+        <v>5201</v>
       </c>
       <c r="E17">
-        <v>5302</v>
+        <v>5336</v>
       </c>
       <c r="F17">
-        <v>5113</v>
+        <v>5118</v>
       </c>
       <c r="G17">
-        <v>5048</v>
+        <v>5058</v>
       </c>
       <c r="H17">
-        <v>5176</v>
+        <v>5179</v>
       </c>
       <c r="I17">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="J17">
         <v>1.47</v>
@@ -1087,7 +1087,7 @@
         <v>1.56</v>
       </c>
       <c r="M17">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="N17">
         <v>1.57</v>
@@ -1101,22 +1101,22 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5323</v>
+        <v>5312</v>
       </c>
       <c r="D18">
-        <v>5259</v>
+        <v>5250</v>
       </c>
       <c r="E18">
-        <v>5388</v>
+        <v>5378</v>
       </c>
       <c r="F18">
-        <v>5329</v>
+        <v>5331</v>
       </c>
       <c r="G18">
-        <v>5264</v>
+        <v>5268</v>
       </c>
       <c r="H18">
-        <v>5392</v>
+        <v>5396</v>
       </c>
       <c r="I18">
         <v>1.36</v>
@@ -1134,7 +1134,7 @@
         <v>1.39</v>
       </c>
       <c r="N18">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1145,34 +1145,34 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4730</v>
+        <v>4736</v>
       </c>
       <c r="D19">
-        <v>4675</v>
+        <v>4679</v>
       </c>
       <c r="E19">
-        <v>4791</v>
+        <v>4797</v>
       </c>
       <c r="F19">
-        <v>5331</v>
+        <v>5339</v>
       </c>
       <c r="G19">
-        <v>5268</v>
+        <v>5275</v>
       </c>
       <c r="H19">
-        <v>5394</v>
+        <v>5404</v>
       </c>
       <c r="I19">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J19">
         <v>1.23</v>
       </c>
       <c r="K19">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="L19">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M19">
         <v>1.23</v>
@@ -1192,19 +1192,19 @@
         <v>5314</v>
       </c>
       <c r="D20">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="E20">
-        <v>5371</v>
+        <v>5378</v>
       </c>
       <c r="F20">
-        <v>5152</v>
+        <v>5156</v>
       </c>
       <c r="G20">
-        <v>5088</v>
+        <v>5094</v>
       </c>
       <c r="H20">
-        <v>5213</v>
+        <v>5222</v>
       </c>
       <c r="I20">
         <v>1.05</v>
@@ -1236,19 +1236,19 @@
         <v>4434</v>
       </c>
       <c r="D21">
-        <v>4368</v>
+        <v>4376</v>
       </c>
       <c r="E21">
-        <v>4499</v>
+        <v>4488</v>
       </c>
       <c r="F21">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="G21">
         <v>4888</v>
       </c>
       <c r="H21">
-        <v>5012</v>
+        <v>5010</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3827</v>
+        <v>3815</v>
       </c>
       <c r="D22">
-        <v>3766</v>
+        <v>3764</v>
       </c>
       <c r="E22">
-        <v>3885</v>
+        <v>3870</v>
       </c>
       <c r="F22">
-        <v>4576</v>
+        <v>4575</v>
       </c>
       <c r="G22">
-        <v>4515</v>
+        <v>4516</v>
       </c>
       <c r="H22">
-        <v>4636</v>
+        <v>4633</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1304,7 +1304,7 @@
         <v>0.87</v>
       </c>
       <c r="L22">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="M22">
         <v>0.97</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5157</v>
+        <v>5156</v>
       </c>
       <c r="D23">
-        <v>5092</v>
+        <v>5097</v>
       </c>
       <c r="E23">
-        <v>5222</v>
+        <v>5221</v>
       </c>
       <c r="F23">
-        <v>4683</v>
+        <v>4680</v>
       </c>
       <c r="G23">
-        <v>4619</v>
+        <v>4621</v>
       </c>
       <c r="H23">
-        <v>4744</v>
+        <v>4739</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1345,7 +1345,7 @@
         <v>0.87</v>
       </c>
       <c r="K23">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L23">
         <v>0.92</v>
@@ -1365,22 +1365,22 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4092</v>
+        <v>4095</v>
       </c>
       <c r="D24">
-        <v>4026</v>
+        <v>4034</v>
       </c>
       <c r="E24">
-        <v>4148</v>
+        <v>4162</v>
       </c>
       <c r="F24">
-        <v>4378</v>
+        <v>4375</v>
       </c>
       <c r="G24">
-        <v>4313</v>
+        <v>4318</v>
       </c>
       <c r="H24">
-        <v>4438</v>
+        <v>4435</v>
       </c>
       <c r="I24">
         <v>0.85</v>
@@ -1412,19 +1412,19 @@
         <v>4402</v>
       </c>
       <c r="D25">
-        <v>4337</v>
+        <v>4346</v>
       </c>
       <c r="E25">
-        <v>4473</v>
+        <v>4468</v>
       </c>
       <c r="F25">
-        <v>4370</v>
+        <v>4367</v>
       </c>
       <c r="G25">
-        <v>4305</v>
+        <v>4310</v>
       </c>
       <c r="H25">
-        <v>4432</v>
+        <v>4430</v>
       </c>
       <c r="I25">
         <v>0.88</v>
@@ -1436,7 +1436,7 @@
         <v>0.89</v>
       </c>
       <c r="L25">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M25">
         <v>0.89</v>
@@ -1453,19 +1453,19 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4021</v>
+        <v>4015</v>
       </c>
       <c r="D26">
-        <v>3966</v>
+        <v>3946</v>
       </c>
       <c r="E26">
-        <v>4086</v>
+        <v>4077</v>
       </c>
       <c r="F26">
-        <v>4418</v>
+        <v>4417</v>
       </c>
       <c r="G26">
-        <v>4355</v>
+        <v>4356</v>
       </c>
       <c r="H26">
         <v>4482</v>
@@ -1477,7 +1477,7 @@
         <v>0.96</v>
       </c>
       <c r="K26">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="L26">
         <v>0.88</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4137</v>
+        <v>4132</v>
       </c>
       <c r="D27">
-        <v>4083</v>
+        <v>4071</v>
       </c>
       <c r="E27">
-        <v>4199</v>
+        <v>4184</v>
       </c>
       <c r="F27">
-        <v>4163</v>
+        <v>4161</v>
       </c>
       <c r="G27">
-        <v>4103</v>
+        <v>4099</v>
       </c>
       <c r="H27">
-        <v>4227</v>
+        <v>4222</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,22 +1541,22 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3892</v>
+        <v>3887</v>
       </c>
       <c r="D28">
-        <v>3835</v>
+        <v>3833</v>
       </c>
       <c r="E28">
-        <v>3963</v>
+        <v>3936</v>
       </c>
       <c r="F28">
-        <v>4113</v>
+        <v>4109</v>
       </c>
       <c r="G28">
-        <v>4055</v>
+        <v>4049</v>
       </c>
       <c r="H28">
-        <v>4180</v>
+        <v>4166</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
@@ -1585,22 +1585,22 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3295</v>
+        <v>3277</v>
       </c>
       <c r="D29">
-        <v>3233</v>
+        <v>3222</v>
       </c>
       <c r="E29">
-        <v>3352</v>
+        <v>3340</v>
       </c>
       <c r="F29">
-        <v>3836</v>
+        <v>3828</v>
       </c>
       <c r="G29">
-        <v>3779</v>
+        <v>3768</v>
       </c>
       <c r="H29">
-        <v>3900</v>
+        <v>3884</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4396</v>
+        <v>4401</v>
       </c>
       <c r="D30">
-        <v>4332</v>
+        <v>4335</v>
       </c>
       <c r="E30">
-        <v>4461</v>
+        <v>4465</v>
       </c>
       <c r="F30">
-        <v>3930</v>
+        <v>3924</v>
       </c>
       <c r="G30">
-        <v>3871</v>
+        <v>3865</v>
       </c>
       <c r="H30">
-        <v>3994</v>
+        <v>3981</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3591</v>
+        <v>3594</v>
       </c>
       <c r="D31">
-        <v>3536</v>
+        <v>3540</v>
       </c>
       <c r="E31">
-        <v>3655</v>
+        <v>3652</v>
       </c>
       <c r="F31">
-        <v>3794</v>
+        <v>3790</v>
       </c>
       <c r="G31">
-        <v>3734</v>
+        <v>3732</v>
       </c>
       <c r="H31">
-        <v>3858</v>
+        <v>3848</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4021</v>
+        <v>4039</v>
       </c>
       <c r="D32">
-        <v>3954</v>
+        <v>3978</v>
       </c>
       <c r="E32">
-        <v>4083</v>
+        <v>4113</v>
       </c>
       <c r="F32">
-        <v>3826</v>
+        <v>3828</v>
       </c>
       <c r="G32">
-        <v>3764</v>
+        <v>3769</v>
       </c>
       <c r="H32">
-        <v>3888</v>
+        <v>3892</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,34 +1761,34 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3741</v>
+        <v>3731</v>
       </c>
       <c r="D33">
-        <v>3671</v>
+        <v>3673</v>
       </c>
       <c r="E33">
-        <v>3814</v>
+        <v>3794</v>
       </c>
       <c r="F33">
-        <v>3937</v>
+        <v>3941</v>
       </c>
       <c r="G33">
-        <v>3873</v>
+        <v>3881</v>
       </c>
       <c r="H33">
-        <v>4003</v>
+        <v>4006</v>
       </c>
       <c r="I33">
         <v>1.03</v>
       </c>
       <c r="J33">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="K33">
         <v>1.04</v>
       </c>
       <c r="L33">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="M33">
         <v>0.9399999999999999</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3735</v>
+        <v>3737</v>
       </c>
       <c r="D34">
-        <v>3677</v>
+        <v>3679</v>
       </c>
       <c r="E34">
-        <v>3799</v>
+        <v>3801</v>
       </c>
       <c r="F34">
-        <v>3772</v>
+        <v>3776</v>
       </c>
       <c r="G34">
-        <v>3709</v>
+        <v>3717</v>
       </c>
       <c r="H34">
-        <v>3838</v>
+        <v>3840</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1835,7 +1835,7 @@
         <v>0.93</v>
       </c>
       <c r="M34">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="N34">
         <v>0.9399999999999999</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3017</v>
+        <v>3024</v>
       </c>
       <c r="D35">
-        <v>2948</v>
+        <v>2967</v>
       </c>
       <c r="E35">
-        <v>3075</v>
+        <v>3081</v>
       </c>
       <c r="F35">
-        <v>3628</v>
+        <v>3633</v>
       </c>
       <c r="G35">
-        <v>3562</v>
+        <v>3574</v>
       </c>
       <c r="H35">
-        <v>3693</v>
+        <v>3697</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2724</v>
+        <v>2716</v>
       </c>
       <c r="D36">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="E36">
-        <v>2783</v>
+        <v>2774</v>
       </c>
       <c r="F36">
-        <v>3304</v>
+        <v>3302</v>
       </c>
       <c r="G36">
-        <v>3241</v>
+        <v>3245</v>
       </c>
       <c r="H36">
-        <v>3367</v>
+        <v>3362</v>
       </c>
       <c r="I36">
         <v>0.86</v>
@@ -1917,7 +1917,7 @@
         <v>0.85</v>
       </c>
       <c r="K36">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L36">
         <v>0.89</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3346</v>
+        <v>3340</v>
       </c>
       <c r="D37">
-        <v>3292</v>
+        <v>3287</v>
       </c>
       <c r="E37">
-        <v>3419</v>
+        <v>3404</v>
       </c>
       <c r="F37">
-        <v>3206</v>
+        <v>3204</v>
       </c>
       <c r="G37">
-        <v>3146</v>
+        <v>3148</v>
       </c>
       <c r="H37">
-        <v>3269</v>
+        <v>3265</v>
       </c>
       <c r="I37">
         <v>0.8100000000000001</v>
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3086</v>
+        <v>3079</v>
       </c>
       <c r="D38">
-        <v>3024</v>
+        <v>3018</v>
       </c>
       <c r="E38">
-        <v>3157</v>
+        <v>3140</v>
       </c>
       <c r="F38">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="G38">
         <v>2983</v>
       </c>
       <c r="H38">
-        <v>3108</v>
+        <v>3099</v>
       </c>
       <c r="I38">
         <v>0.8100000000000001</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2900</v>
+        <v>2892</v>
       </c>
       <c r="D39">
-        <v>2847</v>
+        <v>2840</v>
       </c>
       <c r="E39">
-        <v>2954</v>
+        <v>2957</v>
       </c>
       <c r="F39">
-        <v>3014</v>
+        <v>3007</v>
       </c>
       <c r="G39">
-        <v>2958</v>
+        <v>2951</v>
       </c>
       <c r="H39">
-        <v>3078</v>
+        <v>3068</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2055,7 +2055,7 @@
         <v>0.85</v>
       </c>
       <c r="M39">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="N39">
         <v>0.86</v>
@@ -2069,22 +2069,22 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2701</v>
+        <v>2689</v>
       </c>
       <c r="D40">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="E40">
-        <v>2770</v>
+        <v>2755</v>
       </c>
       <c r="F40">
-        <v>3008</v>
+        <v>3000</v>
       </c>
       <c r="G40">
-        <v>2953</v>
+        <v>2946</v>
       </c>
       <c r="H40">
-        <v>3075</v>
+        <v>3064</v>
       </c>
       <c r="I40">
         <v>0.91</v>
@@ -2099,7 +2099,7 @@
         <v>0.83</v>
       </c>
       <c r="M40">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="N40">
         <v>0.84</v>
@@ -2113,28 +2113,28 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2332</v>
+        <v>2323</v>
       </c>
       <c r="D41">
-        <v>2272</v>
+        <v>2269</v>
       </c>
       <c r="E41">
-        <v>2385</v>
+        <v>2371</v>
       </c>
       <c r="F41">
-        <v>2755</v>
+        <v>2746</v>
       </c>
       <c r="G41">
-        <v>2698</v>
+        <v>2692</v>
       </c>
       <c r="H41">
-        <v>2816</v>
+        <v>2806</v>
       </c>
       <c r="I41">
         <v>0.86</v>
       </c>
       <c r="J41">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="K41">
         <v>0.87</v>
@@ -2157,28 +2157,28 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2007</v>
+        <v>2014</v>
       </c>
       <c r="D42">
-        <v>1951</v>
+        <v>1968</v>
       </c>
       <c r="E42">
-        <v>2056</v>
+        <v>2062</v>
       </c>
       <c r="F42">
-        <v>2485</v>
+        <v>2479</v>
       </c>
       <c r="G42">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="H42">
-        <v>2541</v>
+        <v>2536</v>
       </c>
       <c r="I42">
         <v>0.82</v>
       </c>
       <c r="J42">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="K42">
         <v>0.83</v>
@@ -2201,28 +2201,28 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1961</v>
+        <v>1964</v>
       </c>
       <c r="D43">
-        <v>1910</v>
+        <v>1916</v>
       </c>
       <c r="E43">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="F43">
-        <v>2250</v>
+        <v>2248</v>
       </c>
       <c r="G43">
-        <v>2196</v>
+        <v>2198</v>
       </c>
       <c r="H43">
-        <v>2305</v>
+        <v>2300</v>
       </c>
       <c r="I43">
         <v>0.75</v>
       </c>
       <c r="J43">
-        <v>0.73</v>
+        <v>0.74</v>
       </c>
       <c r="K43">
         <v>0.76</v>
@@ -2245,22 +2245,22 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="D44">
-        <v>1849</v>
+        <v>1852</v>
       </c>
       <c r="E44">
-        <v>1969</v>
+        <v>1957</v>
       </c>
       <c r="F44">
-        <v>2051</v>
+        <v>2050</v>
       </c>
       <c r="G44">
-        <v>1995</v>
+        <v>2001</v>
       </c>
       <c r="H44">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="I44">
         <v>0.68</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1975</v>
+        <v>1958</v>
       </c>
       <c r="D45">
-        <v>1926</v>
+        <v>1912</v>
       </c>
       <c r="E45">
-        <v>2022</v>
+        <v>2007</v>
       </c>
       <c r="F45">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="G45">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="H45">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="I45">
         <v>0.71</v>
@@ -2333,22 +2333,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1941</v>
+        <v>1929</v>
       </c>
       <c r="D46">
-        <v>1891</v>
+        <v>1876</v>
       </c>
       <c r="E46">
-        <v>1994</v>
+        <v>1976</v>
       </c>
       <c r="F46">
-        <v>1945</v>
+        <v>1938</v>
       </c>
       <c r="G46">
-        <v>1894</v>
+        <v>1889</v>
       </c>
       <c r="H46">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="I46">
         <v>0.78</v>
@@ -2357,7 +2357,7 @@
         <v>0.77</v>
       </c>
       <c r="K46">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="L46">
         <v>0.76</v>
@@ -2377,22 +2377,22 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1783</v>
+        <v>1768</v>
       </c>
       <c r="D47">
-        <v>1733</v>
+        <v>1722</v>
       </c>
       <c r="E47">
-        <v>1833</v>
+        <v>1816</v>
       </c>
       <c r="F47">
-        <v>1901</v>
+        <v>1889</v>
       </c>
       <c r="G47">
-        <v>1850</v>
+        <v>1840</v>
       </c>
       <c r="H47">
-        <v>1954</v>
+        <v>1939</v>
       </c>
       <c r="I47">
         <v>0.84</v>
@@ -2421,37 +2421,37 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1670</v>
+        <v>1663</v>
       </c>
       <c r="D48">
-        <v>1629</v>
+        <v>1609</v>
       </c>
       <c r="E48">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="F48">
-        <v>1842</v>
+        <v>1829</v>
       </c>
       <c r="G48">
-        <v>1795</v>
+        <v>1779</v>
       </c>
       <c r="H48">
-        <v>1889</v>
+        <v>1877</v>
       </c>
       <c r="I48">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J48">
         <v>0.88</v>
       </c>
       <c r="K48">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="L48">
         <v>0.8</v>
       </c>
       <c r="M48">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="N48">
         <v>0.8100000000000001</v>
@@ -2465,31 +2465,31 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="D49">
-        <v>1406</v>
+        <v>1399</v>
       </c>
       <c r="E49">
-        <v>1492</v>
+        <v>1482</v>
       </c>
       <c r="F49">
-        <v>1711</v>
+        <v>1701</v>
       </c>
       <c r="G49">
-        <v>1664</v>
+        <v>1651</v>
       </c>
       <c r="H49">
-        <v>1757</v>
+        <v>1746</v>
       </c>
       <c r="I49">
         <v>0.87</v>
       </c>
       <c r="J49">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="K49">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L49">
         <v>0.8100000000000001</v>
@@ -2509,22 +2509,22 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1295</v>
+        <v>1310</v>
       </c>
       <c r="D50">
-        <v>1249</v>
+        <v>1265</v>
       </c>
       <c r="E50">
-        <v>1336</v>
+        <v>1351</v>
       </c>
       <c r="F50">
-        <v>1549</v>
+        <v>1546</v>
       </c>
       <c r="G50">
-        <v>1504</v>
+        <v>1499</v>
       </c>
       <c r="H50">
-        <v>1592</v>
+        <v>1589</v>
       </c>
       <c r="I50">
         <v>0.8</v>
@@ -2553,31 +2553,31 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1565</v>
+        <v>1576</v>
       </c>
       <c r="D51">
-        <v>1512</v>
+        <v>1533</v>
       </c>
       <c r="E51">
-        <v>1604</v>
+        <v>1622</v>
       </c>
       <c r="F51">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="G51">
-        <v>1449</v>
+        <v>1451</v>
       </c>
       <c r="H51">
-        <v>1535</v>
+        <v>1541</v>
       </c>
       <c r="I51">
         <v>0.79</v>
       </c>
       <c r="J51">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="K51">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L51">
         <v>0.84</v>
@@ -2586,7 +2586,7 @@
         <v>0.83</v>
       </c>
       <c r="N51">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2597,37 +2597,37 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1356</v>
+        <v>1349</v>
       </c>
       <c r="D52">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="E52">
-        <v>1399</v>
+        <v>1397</v>
       </c>
       <c r="F52">
-        <v>1416</v>
+        <v>1419</v>
       </c>
       <c r="G52">
-        <v>1370</v>
+        <v>1376</v>
       </c>
       <c r="H52">
-        <v>1457</v>
+        <v>1463</v>
       </c>
       <c r="I52">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="J52">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K52">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="L52">
         <v>0.82</v>
       </c>
       <c r="M52">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="N52">
         <v>0.83</v>
@@ -2641,31 +2641,31 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="D53">
-        <v>1271</v>
+        <v>1264</v>
       </c>
       <c r="E53">
-        <v>1354</v>
+        <v>1344</v>
       </c>
       <c r="F53">
-        <v>1382</v>
+        <v>1385</v>
       </c>
       <c r="G53">
-        <v>1336</v>
+        <v>1342</v>
       </c>
       <c r="H53">
-        <v>1423</v>
+        <v>1429</v>
       </c>
       <c r="I53">
         <v>0.8100000000000001</v>
       </c>
       <c r="J53">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K53">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L53">
         <v>0.83</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="D54">
-        <v>1255</v>
+        <v>1238</v>
       </c>
       <c r="E54">
+        <v>1326</v>
+      </c>
+      <c r="F54">
+        <v>1378</v>
+      </c>
+      <c r="G54">
         <v>1335</v>
       </c>
-      <c r="F54">
-        <v>1382</v>
-      </c>
-      <c r="G54">
-        <v>1338</v>
-      </c>
       <c r="H54">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2718,7 +2718,7 @@
         <v>0.8</v>
       </c>
       <c r="N54">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2729,25 +2729,25 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1159</v>
+        <v>1161</v>
       </c>
       <c r="D55">
-        <v>1115</v>
+        <v>1121</v>
       </c>
       <c r="E55">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="F55">
-        <v>1280</v>
+        <v>1274</v>
       </c>
       <c r="G55">
-        <v>1239</v>
+        <v>1232</v>
       </c>
       <c r="H55">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="I55">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="J55">
         <v>0.83</v>
@@ -2756,13 +2756,13 @@
         <v>0.87</v>
       </c>
       <c r="L55">
+        <v>0.82</v>
+      </c>
+      <c r="M55">
         <v>0.8100000000000001</v>
       </c>
-      <c r="M55">
-        <v>0.8</v>
-      </c>
       <c r="N55">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="D56">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E56">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="F56">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="G56">
-        <v>1157</v>
+        <v>1151</v>
       </c>
       <c r="H56">
-        <v>1237</v>
+        <v>1233</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2817,28 +2817,28 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="D57">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="E57">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="F57">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="G57">
-        <v>1058</v>
+        <v>1052</v>
       </c>
       <c r="H57">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="I57">
         <v>0.79</v>
       </c>
       <c r="J57">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K57">
         <v>0.8100000000000001</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="D58">
-        <v>1078</v>
+        <v>1069</v>
       </c>
       <c r="E58">
-        <v>1163</v>
+        <v>1157</v>
       </c>
       <c r="F58">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="G58">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="H58">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2894,7 +2894,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="N58">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -2905,22 +2905,22 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D59">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="E59">
         <v>986</v>
       </c>
       <c r="F59">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="G59">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="H59">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="I59">
         <v>0.78</v>
@@ -2949,31 +2949,31 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D60">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="E60">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="F60">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="G60">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="H60">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="I60">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="J60">
         <v>0.79</v>
       </c>
       <c r="K60">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="L60">
         <v>0.8100000000000001</v>
@@ -2996,19 +2996,19 @@
         <v>936</v>
       </c>
       <c r="D61">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="E61">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F61">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="G61">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H61">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I61">
         <v>0.88</v>
@@ -3037,28 +3037,28 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D62">
-        <v>770</v>
+        <v>766</v>
       </c>
       <c r="E62">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F62">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="G62">
         <v>851</v>
       </c>
       <c r="H62">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="I62">
         <v>0.85</v>
       </c>
       <c r="J62">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="K62">
         <v>0.87</v>
@@ -3081,28 +3081,28 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="D63">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E63">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F63">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="G63">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="H63">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="I63">
         <v>0.84</v>
       </c>
       <c r="J63">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K63">
         <v>0.86</v>
@@ -3125,22 +3125,22 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="D64">
-        <v>740</v>
+        <v>729</v>
       </c>
       <c r="E64">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F64">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="G64">
-        <v>776</v>
+        <v>772</v>
       </c>
       <c r="H64">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="I64">
         <v>0.84</v>
@@ -3152,7 +3152,7 @@
         <v>0.87</v>
       </c>
       <c r="L64">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M64">
         <v>0.84</v>
@@ -3169,22 +3169,22 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="D65">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E65">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="F65">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="G65">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="H65">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I65">
         <v>0.83</v>
@@ -3196,7 +3196,7 @@
         <v>0.85</v>
       </c>
       <c r="L65">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="M65">
         <v>0.87</v>
@@ -3213,22 +3213,22 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="D66">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="E66">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="F66">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="G66">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="H66">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="I66">
         <v>0.91</v>
@@ -3257,25 +3257,25 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="D67">
-        <v>738</v>
+        <v>720</v>
       </c>
       <c r="E67">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="F67">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="G67">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="H67">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="I67">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="J67">
         <v>0.95</v>
@@ -3301,22 +3301,22 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="D68">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="E68">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="F68">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="G68">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="H68">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="I68">
         <v>0.99</v>
@@ -3345,22 +3345,22 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="D69">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="E69">
         <v>713</v>
       </c>
       <c r="F69">
-        <v>748</v>
+        <v>744</v>
       </c>
       <c r="G69">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="H69">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="I69">
         <v>0.93</v>
@@ -3389,40 +3389,40 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="D70">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="E70">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="F70">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="G70">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H70">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I70">
         <v>0.85</v>
       </c>
       <c r="J70">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K70">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L70">
         <v>0.88</v>
       </c>
       <c r="M70">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="N70">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3433,13 +3433,13 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D71">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E71">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="F71">
         <v>636</v>
@@ -3448,13 +3448,13 @@
         <v>605</v>
       </c>
       <c r="H71">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I71">
         <v>0.78</v>
       </c>
       <c r="J71">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K71">
         <v>0.8</v>
@@ -3463,7 +3463,7 @@
         <v>0.87</v>
       </c>
       <c r="M71">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="N71">
         <v>0.89</v>
@@ -3477,34 +3477,34 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D72">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E72">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F72">
         <v>626</v>
       </c>
       <c r="G72">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="H72">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I72">
         <v>0.78</v>
       </c>
       <c r="J72">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K72">
         <v>0.8100000000000001</v>
       </c>
       <c r="L72">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="M72">
         <v>0.84</v>
@@ -3521,22 +3521,22 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D73">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="E73">
         <v>657</v>
       </c>
       <c r="F73">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G73">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H73">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I73">
         <v>0.82</v>
@@ -3548,7 +3548,7 @@
         <v>0.85</v>
       </c>
       <c r="L73">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="M73">
         <v>0.83</v>
@@ -3565,22 +3565,22 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D74">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="E74">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F74">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G74">
-        <v>578</v>
+        <v>581</v>
       </c>
       <c r="H74">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="I74">
         <v>0.89</v>
@@ -3609,31 +3609,31 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D75">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E75">
         <v>563</v>
       </c>
       <c r="F75">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="G75">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="H75">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="I75">
         <v>0.95</v>
       </c>
       <c r="J75">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K75">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L75">
         <v>0.88</v>
@@ -3653,31 +3653,31 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="D76">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="E76">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="F76">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G76">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H76">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="I76">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J76">
         <v>0.93</v>
       </c>
       <c r="K76">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L76">
         <v>0.91</v>
@@ -3697,34 +3697,34 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="D77">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E77">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="F77">
         <v>585</v>
       </c>
       <c r="G77">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="H77">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="I77">
         <v>0.96</v>
       </c>
       <c r="J77">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="K77">
         <v>0.99</v>
       </c>
       <c r="L77">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="M77">
         <v>0.91</v>
@@ -3741,22 +3741,22 @@
         <v>43968</v>
       </c>
       <c r="C78">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="D78">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="E78">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="F78">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="G78">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="H78">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="I78">
         <v>0.9</v>
@@ -3785,31 +3785,31 @@
         <v>43969</v>
       </c>
       <c r="C79">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D79">
         <v>587</v>
       </c>
       <c r="E79">
-        <v>663</v>
+        <v>646</v>
       </c>
       <c r="F79">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G79">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="H79">
-        <v>611</v>
+        <v>602</v>
       </c>
       <c r="I79">
         <v>0.95</v>
       </c>
       <c r="J79">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K79">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="L79">
         <v>0.92</v>
@@ -3829,31 +3829,31 @@
         <v>43970</v>
       </c>
       <c r="C80">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D80">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E80">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="F80">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="G80">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H80">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="I80">
         <v>0.87</v>
       </c>
       <c r="J80">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K80">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="L80">
         <v>0.92</v>
@@ -3873,28 +3873,28 @@
         <v>43971</v>
       </c>
       <c r="C81">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D81">
-        <v>519</v>
+        <v>535</v>
       </c>
       <c r="E81">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="F81">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G81">
         <v>497</v>
       </c>
       <c r="H81">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="I81">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J81">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K81">
         <v>0.9399999999999999</v>
@@ -3917,25 +3917,25 @@
         <v>43972</v>
       </c>
       <c r="C82">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D82">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="E82">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F82">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G82">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="H82">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="I82">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="J82">
         <v>0.89</v>
@@ -3961,28 +3961,28 @@
         <v>43973</v>
       </c>
       <c r="C83">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D83">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E83">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="F83">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G83">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="H83">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="I83">
         <v>0.79</v>
       </c>
       <c r="J83">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
       <c r="K83">
         <v>0.82</v>
@@ -3994,7 +3994,7 @@
         <v>0.82</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4005,28 +4005,28 @@
         <v>43974</v>
       </c>
       <c r="C84">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="D84">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E84">
-        <v>418</v>
+        <v>401</v>
       </c>
       <c r="F84">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G84">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="H84">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="I84">
         <v>0.8100000000000001</v>
       </c>
       <c r="J84">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K84">
         <v>0.85</v>
@@ -4049,31 +4049,31 @@
         <v>43975</v>
       </c>
       <c r="C85">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="D85">
         <v>362</v>
       </c>
       <c r="E85">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="F85">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G85">
         <v>356</v>
       </c>
       <c r="H85">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="I85">
         <v>0.73</v>
       </c>
       <c r="J85">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K85">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="L85">
         <v>0.82</v>
@@ -4093,31 +4093,31 @@
         <v>43976</v>
       </c>
       <c r="C86">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="D86">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="E86">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="F86">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="G86">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H86">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="I86">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J86">
         <v>0.75</v>
       </c>
       <c r="K86">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="L86">
         <v>0.87</v>
@@ -4137,40 +4137,40 @@
         <v>43977</v>
       </c>
       <c r="C87">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D87">
-        <v>379</v>
+        <v>406</v>
       </c>
       <c r="E87">
-        <v>497</v>
+        <v>470</v>
       </c>
       <c r="F87">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G87">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="H87">
-        <v>462</v>
+        <v>443</v>
       </c>
       <c r="I87">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="J87">
+        <v>0.88</v>
+      </c>
+      <c r="K87">
+        <v>0.96</v>
+      </c>
+      <c r="L87">
+        <v>0.89</v>
+      </c>
+      <c r="M87">
         <v>0.87</v>
       </c>
-      <c r="K87">
-        <v>0.98</v>
-      </c>
-      <c r="L87">
-        <v>0.88</v>
-      </c>
-      <c r="M87">
-        <v>0.85</v>
-      </c>
       <c r="N87">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4181,37 +4181,37 @@
         <v>43978</v>
       </c>
       <c r="C88">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="D88">
-        <v>396</v>
+        <v>439</v>
       </c>
       <c r="E88">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F88">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="G88">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="H88">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="I88">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J88">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="K88">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="L88">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="M88">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="N88">
         <v>0.9399999999999999</v>
@@ -4225,40 +4225,40 @@
         <v>43979</v>
       </c>
       <c r="C89">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="D89">
-        <v>311</v>
+        <v>363</v>
       </c>
       <c r="E89">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="F89">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="G89">
-        <v>375</v>
+        <v>411</v>
       </c>
       <c r="H89">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="I89">
+        <v>1.15</v>
+      </c>
+      <c r="J89">
         <v>1.1</v>
       </c>
-      <c r="J89">
-        <v>1.02</v>
-      </c>
       <c r="K89">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="L89">
+        <v>0.95</v>
+      </c>
+      <c r="M89">
         <v>0.92</v>
       </c>
-      <c r="M89">
-        <v>0.88</v>
-      </c>
       <c r="N89">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4269,40 +4269,40 @@
         <v>43980</v>
       </c>
       <c r="C90">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="D90">
-        <v>264</v>
+        <v>319</v>
       </c>
       <c r="E90">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="F90">
-        <v>392</v>
+        <v>413</v>
       </c>
       <c r="G90">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="H90">
         <v>445</v>
       </c>
       <c r="I90">
+        <v>1.03</v>
+      </c>
+      <c r="J90">
+        <v>0.98</v>
+      </c>
+      <c r="K90">
+        <v>1.08</v>
+      </c>
+      <c r="L90">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M90">
+        <v>0.91</v>
+      </c>
+      <c r="N90">
         <v>0.96</v>
-      </c>
-      <c r="J90">
-        <v>0.89</v>
-      </c>
-      <c r="K90">
-        <v>1.05</v>
-      </c>
-      <c r="L90">
-        <v>0.9</v>
-      </c>
-      <c r="M90">
-        <v>0.86</v>
-      </c>
-      <c r="N90">
-        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4313,37 +4313,37 @@
         <v>43981</v>
       </c>
       <c r="C91">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="D91">
-        <v>221</v>
+        <v>271</v>
       </c>
       <c r="E91">
-        <v>372</v>
+        <v>333</v>
       </c>
       <c r="F91">
-        <v>356</v>
+        <v>379</v>
       </c>
       <c r="G91">
-        <v>298</v>
+        <v>348</v>
       </c>
       <c r="H91">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="I91">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="J91">
-        <v>0.77</v>
+        <v>0.87</v>
       </c>
       <c r="K91">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="L91">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="M91">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="N91">
         <v>0.95</v>
@@ -4357,40 +4357,40 @@
         <v>43982</v>
       </c>
       <c r="C92">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="D92">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="E92">
-        <v>355</v>
+        <v>283</v>
       </c>
       <c r="F92">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="G92">
-        <v>247</v>
+        <v>295</v>
       </c>
       <c r="H92">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="I92">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="J92">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="K92">
-        <v>0.8100000000000001</v>
+        <v>0.79</v>
       </c>
       <c r="L92">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="M92">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="N92">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4401,40 +4401,40 @@
         <v>43983</v>
       </c>
       <c r="C93">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D93">
-        <v>206</v>
+        <v>285</v>
       </c>
       <c r="E93">
-        <v>438</v>
+        <v>367</v>
       </c>
       <c r="F93">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="G93">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="H93">
-        <v>383</v>
+        <v>341</v>
       </c>
       <c r="I93">
         <v>0.7</v>
       </c>
       <c r="J93">
-        <v>0.6</v>
+        <v>0.65</v>
       </c>
       <c r="K93">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="L93">
         <v>0.89</v>
       </c>
       <c r="M93">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4445,31 +4445,339 @@
         <v>43984</v>
       </c>
       <c r="C94">
-        <v>481</v>
+        <v>450</v>
       </c>
       <c r="D94">
-        <v>263</v>
+        <v>392</v>
       </c>
       <c r="E94">
-        <v>753</v>
+        <v>504</v>
       </c>
       <c r="F94">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="G94">
-        <v>221</v>
+        <v>293</v>
       </c>
       <c r="H94">
-        <v>479</v>
+        <v>372</v>
       </c>
       <c r="I94">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J94">
+        <v>0.74</v>
+      </c>
+      <c r="K94">
+        <v>0.86</v>
+      </c>
+      <c r="L94">
+        <v>0.88</v>
+      </c>
+      <c r="M94">
+        <v>0.85</v>
+      </c>
+      <c r="N94">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" s="2">
+        <v>43985</v>
+      </c>
+      <c r="C95">
+        <v>404</v>
+      </c>
+      <c r="D95">
+        <v>346</v>
+      </c>
+      <c r="E95">
+        <v>476</v>
+      </c>
+      <c r="F95">
+        <v>358</v>
+      </c>
+      <c r="G95">
+        <v>312</v>
+      </c>
+      <c r="H95">
+        <v>408</v>
+      </c>
+      <c r="I95">
+        <v>0.95</v>
+      </c>
+      <c r="J95">
+        <v>0.88</v>
+      </c>
+      <c r="K95">
+        <v>1.01</v>
+      </c>
+      <c r="L95">
+        <v>0.91</v>
+      </c>
+      <c r="M95">
         <v>0.87</v>
       </c>
-      <c r="J94">
-        <v>0.73</v>
-      </c>
-      <c r="K94">
-        <v>1.07</v>
+      <c r="N95">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" s="2">
+        <v>43986</v>
+      </c>
+      <c r="C96">
+        <v>348</v>
+      </c>
+      <c r="D96">
+        <v>284</v>
+      </c>
+      <c r="E96">
+        <v>403</v>
+      </c>
+      <c r="F96">
+        <v>381</v>
+      </c>
+      <c r="G96">
+        <v>327</v>
+      </c>
+      <c r="H96">
+        <v>438</v>
+      </c>
+      <c r="I96">
+        <v>1.17</v>
+      </c>
+      <c r="J96">
+        <v>1.08</v>
+      </c>
+      <c r="K96">
+        <v>1.27</v>
+      </c>
+      <c r="L96">
+        <v>0.95</v>
+      </c>
+      <c r="M96">
+        <v>0.89</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" s="2">
+        <v>43987</v>
+      </c>
+      <c r="C97">
+        <v>326</v>
+      </c>
+      <c r="D97">
+        <v>247</v>
+      </c>
+      <c r="E97">
+        <v>410</v>
+      </c>
+      <c r="F97">
+        <v>382</v>
+      </c>
+      <c r="G97">
+        <v>317</v>
+      </c>
+      <c r="H97">
+        <v>448</v>
+      </c>
+      <c r="I97">
+        <v>1.24</v>
+      </c>
+      <c r="J97">
+        <v>1.1</v>
+      </c>
+      <c r="K97">
+        <v>1.37</v>
+      </c>
+      <c r="L97">
+        <v>0.95</v>
+      </c>
+      <c r="M97">
+        <v>0.89</v>
+      </c>
+      <c r="N97">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" s="2">
+        <v>43988</v>
+      </c>
+      <c r="C98">
+        <v>306</v>
+      </c>
+      <c r="D98">
+        <v>223</v>
+      </c>
+      <c r="E98">
+        <v>392</v>
+      </c>
+      <c r="F98">
+        <v>346</v>
+      </c>
+      <c r="G98">
+        <v>275</v>
+      </c>
+      <c r="H98">
+        <v>420</v>
+      </c>
+      <c r="I98">
+        <v>1.04</v>
+      </c>
+      <c r="J98">
+        <v>0.92</v>
+      </c>
+      <c r="K98">
+        <v>1.17</v>
+      </c>
+      <c r="L98">
+        <v>0.97</v>
+      </c>
+      <c r="M98">
+        <v>0.91</v>
+      </c>
+      <c r="N98">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" s="2">
+        <v>43989</v>
+      </c>
+      <c r="C99">
+        <v>255</v>
+      </c>
+      <c r="D99">
+        <v>167</v>
+      </c>
+      <c r="E99">
+        <v>352</v>
+      </c>
+      <c r="F99">
+        <v>309</v>
+      </c>
+      <c r="G99">
+        <v>230</v>
+      </c>
+      <c r="H99">
+        <v>389</v>
+      </c>
+      <c r="I99">
+        <v>0.86</v>
+      </c>
+      <c r="J99">
+        <v>0.74</v>
+      </c>
+      <c r="K99">
+        <v>0.97</v>
+      </c>
+      <c r="L99">
+        <v>1.04</v>
+      </c>
+      <c r="M99">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N99">
+        <v>1.13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" s="2">
+        <v>43990</v>
+      </c>
+      <c r="C100">
+        <v>433</v>
+      </c>
+      <c r="D100">
+        <v>277</v>
+      </c>
+      <c r="E100">
+        <v>578</v>
+      </c>
+      <c r="F100">
+        <v>330</v>
+      </c>
+      <c r="G100">
+        <v>228</v>
+      </c>
+      <c r="H100">
+        <v>433</v>
+      </c>
+      <c r="I100">
+        <v>0.87</v>
+      </c>
+      <c r="J100">
+        <v>0.7</v>
+      </c>
+      <c r="K100">
+        <v>1.03</v>
+      </c>
+      <c r="L100">
+        <v>1.09</v>
+      </c>
+      <c r="M100">
+        <v>0.97</v>
+      </c>
+      <c r="N100">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" s="2">
+        <v>43991</v>
+      </c>
+      <c r="C101">
+        <v>558</v>
+      </c>
+      <c r="D101">
+        <v>321</v>
+      </c>
+      <c r="E101">
+        <v>871</v>
+      </c>
+      <c r="F101">
+        <v>388</v>
+      </c>
+      <c r="G101">
+        <v>247</v>
+      </c>
+      <c r="H101">
+        <v>548</v>
+      </c>
+      <c r="I101">
+        <v>1.02</v>
+      </c>
+      <c r="J101">
+        <v>0.82</v>
+      </c>
+      <c r="K101">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:N111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,13 +469,13 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="F2">
         <v>225</v>
@@ -495,13 +495,13 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D3">
         <v>311</v>
       </c>
       <c r="E3">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F3">
         <v>262</v>
@@ -510,7 +510,7 @@
         <v>249</v>
       </c>
       <c r="H3">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -521,22 +521,22 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D4">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="E4">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F4">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G4">
         <v>312</v>
       </c>
       <c r="H4">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,22 +547,22 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D5">
         <v>484</v>
       </c>
       <c r="E5">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="F5">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="G5">
         <v>379</v>
       </c>
       <c r="H5">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,40 +573,40 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D6">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="E6">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="F6">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G6">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="H6">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="I6">
         <v>2.27</v>
       </c>
       <c r="J6">
-        <v>2.18</v>
+        <v>2.19</v>
       </c>
       <c r="K6">
-        <v>2.36</v>
+        <v>2.35</v>
       </c>
       <c r="L6">
         <v>2.34</v>
       </c>
       <c r="M6">
-        <v>2.29</v>
+        <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.39</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,37 +617,37 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="D7">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="E7">
-        <v>1017</v>
+        <v>1024</v>
       </c>
       <c r="F7">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="G7">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="H7">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="I7">
-        <v>2.58</v>
+        <v>2.59</v>
       </c>
       <c r="J7">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="K7">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
       <c r="L7">
         <v>2.56</v>
       </c>
       <c r="M7">
-        <v>2.51</v>
+        <v>2.52</v>
       </c>
       <c r="N7">
         <v>2.61</v>
@@ -661,22 +661,22 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="D8">
-        <v>1312</v>
+        <v>1305</v>
       </c>
       <c r="E8">
-        <v>1373</v>
+        <v>1369</v>
       </c>
       <c r="F8">
         <v>899</v>
       </c>
       <c r="G8">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="H8">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="I8">
         <v>2.75</v>
@@ -688,10 +688,10 @@
         <v>2.82</v>
       </c>
       <c r="L8">
-        <v>2.93</v>
+        <v>2.92</v>
       </c>
       <c r="M8">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="N8">
         <v>2.98</v>
@@ -705,10 +705,10 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="D9">
-        <v>1969</v>
+        <v>1972</v>
       </c>
       <c r="E9">
         <v>2046</v>
@@ -720,25 +720,25 @@
         <v>1246</v>
       </c>
       <c r="H9">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="I9">
-        <v>3.22</v>
+        <v>3.21</v>
       </c>
       <c r="J9">
         <v>3.13</v>
       </c>
       <c r="K9">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="L9">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="M9">
-        <v>3.07</v>
+        <v>3.06</v>
       </c>
       <c r="N9">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +749,40 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2568</v>
+        <v>2567</v>
       </c>
       <c r="D10">
-        <v>2521</v>
+        <v>2527</v>
       </c>
       <c r="E10">
-        <v>2619</v>
+        <v>2606</v>
       </c>
       <c r="F10">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="G10">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="H10">
-        <v>1764</v>
+        <v>1761</v>
       </c>
       <c r="I10">
-        <v>3.38</v>
+        <v>3.37</v>
       </c>
       <c r="J10">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="K10">
         <v>3.45</v>
       </c>
       <c r="L10">
-        <v>3.2</v>
+        <v>3.19</v>
       </c>
       <c r="M10">
-        <v>3.16</v>
+        <v>3.15</v>
       </c>
       <c r="N10">
-        <v>3.25</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,31 +793,31 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="D11">
-        <v>3188</v>
+        <v>3189</v>
       </c>
       <c r="E11">
-        <v>3288</v>
+        <v>3280</v>
       </c>
       <c r="F11">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="G11">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="H11">
-        <v>2331</v>
+        <v>2325</v>
       </c>
       <c r="I11">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="J11">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="K11">
-        <v>3.45</v>
+        <v>3.42</v>
       </c>
       <c r="L11">
         <v>3.1</v>
@@ -826,7 +826,7 @@
         <v>3.06</v>
       </c>
       <c r="N11">
-        <v>3.14</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,22 +837,22 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3599</v>
+        <v>3601</v>
       </c>
       <c r="D12">
-        <v>3550</v>
+        <v>3551</v>
       </c>
       <c r="E12">
-        <v>3646</v>
+        <v>3649</v>
       </c>
       <c r="F12">
         <v>2852</v>
       </c>
       <c r="G12">
-        <v>2807</v>
+        <v>2810</v>
       </c>
       <c r="H12">
-        <v>2900</v>
+        <v>2895</v>
       </c>
       <c r="I12">
         <v>3.17</v>
@@ -861,7 +861,7 @@
         <v>3.12</v>
       </c>
       <c r="K12">
-        <v>3.24</v>
+        <v>3.22</v>
       </c>
       <c r="L12">
         <v>2.84</v>
@@ -881,22 +881,22 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4383</v>
+        <v>4385</v>
       </c>
       <c r="D13">
         <v>4332</v>
       </c>
       <c r="E13">
-        <v>4442</v>
+        <v>4446</v>
       </c>
       <c r="F13">
-        <v>3446</v>
+        <v>3447</v>
       </c>
       <c r="G13">
-        <v>3398</v>
+        <v>3400</v>
       </c>
       <c r="H13">
-        <v>3499</v>
+        <v>3495</v>
       </c>
       <c r="I13">
         <v>2.7</v>
@@ -908,13 +908,13 @@
         <v>2.75</v>
       </c>
       <c r="L13">
-        <v>2.51</v>
+        <v>2.5</v>
       </c>
       <c r="M13">
         <v>2.48</v>
       </c>
       <c r="N13">
-        <v>2.53</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -925,19 +925,19 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4459</v>
+        <v>4461</v>
       </c>
       <c r="D14">
-        <v>4411</v>
+        <v>4404</v>
       </c>
       <c r="E14">
-        <v>4512</v>
+        <v>4515</v>
       </c>
       <c r="F14">
-        <v>3919</v>
+        <v>3920</v>
       </c>
       <c r="G14">
-        <v>3870</v>
+        <v>3869</v>
       </c>
       <c r="H14">
         <v>3972</v>
@@ -946,7 +946,7 @@
         <v>2.27</v>
       </c>
       <c r="J14">
-        <v>2.24</v>
+        <v>2.25</v>
       </c>
       <c r="K14">
         <v>2.3</v>
@@ -958,7 +958,7 @@
         <v>2.17</v>
       </c>
       <c r="N14">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -969,28 +969,28 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4705</v>
+        <v>4685</v>
       </c>
       <c r="D15">
-        <v>4649</v>
+        <v>4629</v>
       </c>
       <c r="E15">
-        <v>4766</v>
+        <v>4750</v>
       </c>
       <c r="F15">
-        <v>4287</v>
+        <v>4283</v>
       </c>
       <c r="G15">
-        <v>4235</v>
+        <v>4229</v>
       </c>
       <c r="H15">
-        <v>4341</v>
+        <v>4340</v>
       </c>
       <c r="I15">
         <v>1.87</v>
       </c>
       <c r="J15">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="K15">
         <v>1.9</v>
@@ -999,7 +999,7 @@
         <v>2</v>
       </c>
       <c r="M15">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="N15">
         <v>2.01</v>
@@ -1013,22 +1013,22 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6045</v>
+        <v>6038</v>
       </c>
       <c r="D16">
-        <v>5972</v>
+        <v>5969</v>
       </c>
       <c r="E16">
-        <v>6105</v>
+        <v>6104</v>
       </c>
       <c r="F16">
-        <v>4898</v>
+        <v>4893</v>
       </c>
       <c r="G16">
-        <v>4841</v>
+        <v>4833</v>
       </c>
       <c r="H16">
-        <v>4956</v>
+        <v>4954</v>
       </c>
       <c r="I16">
         <v>1.72</v>
@@ -1037,7 +1037,7 @@
         <v>1.7</v>
       </c>
       <c r="K16">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="L16">
         <v>1.75</v>
@@ -1057,25 +1057,25 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5263</v>
+        <v>5254</v>
       </c>
       <c r="D17">
-        <v>5201</v>
+        <v>5185</v>
       </c>
       <c r="E17">
-        <v>5336</v>
+        <v>5317</v>
       </c>
       <c r="F17">
-        <v>5118</v>
+        <v>5110</v>
       </c>
       <c r="G17">
-        <v>5058</v>
+        <v>5047</v>
       </c>
       <c r="H17">
-        <v>5179</v>
+        <v>5171</v>
       </c>
       <c r="I17">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="J17">
         <v>1.47</v>
@@ -1087,7 +1087,7 @@
         <v>1.56</v>
       </c>
       <c r="M17">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="N17">
         <v>1.57</v>
@@ -1101,22 +1101,22 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5312</v>
+        <v>5305</v>
       </c>
       <c r="D18">
-        <v>5250</v>
+        <v>5240</v>
       </c>
       <c r="E18">
-        <v>5378</v>
+        <v>5373</v>
       </c>
       <c r="F18">
-        <v>5331</v>
+        <v>5321</v>
       </c>
       <c r="G18">
-        <v>5268</v>
+        <v>5256</v>
       </c>
       <c r="H18">
-        <v>5396</v>
+        <v>5386</v>
       </c>
       <c r="I18">
         <v>1.36</v>
@@ -1145,25 +1145,25 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4736</v>
+        <v>4730</v>
       </c>
       <c r="D19">
-        <v>4679</v>
+        <v>4667</v>
       </c>
       <c r="E19">
-        <v>4797</v>
+        <v>4803</v>
       </c>
       <c r="F19">
-        <v>5339</v>
+        <v>5332</v>
       </c>
       <c r="G19">
-        <v>5275</v>
+        <v>5265</v>
       </c>
       <c r="H19">
-        <v>5404</v>
+        <v>5399</v>
       </c>
       <c r="I19">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="J19">
         <v>1.23</v>
@@ -1189,19 +1189,19 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5314</v>
+        <v>5329</v>
       </c>
       <c r="D20">
-        <v>5248</v>
+        <v>5261</v>
       </c>
       <c r="E20">
-        <v>5378</v>
+        <v>5394</v>
       </c>
       <c r="F20">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="G20">
-        <v>5094</v>
+        <v>5088</v>
       </c>
       <c r="H20">
         <v>5222</v>
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4434</v>
+        <v>4438</v>
       </c>
       <c r="D21">
-        <v>4376</v>
+        <v>4372</v>
       </c>
       <c r="E21">
-        <v>4488</v>
+        <v>4504</v>
       </c>
       <c r="F21">
-        <v>4949</v>
+        <v>4950</v>
       </c>
       <c r="G21">
-        <v>4888</v>
+        <v>4885</v>
       </c>
       <c r="H21">
-        <v>5010</v>
+        <v>5018</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1277,22 +1277,22 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3815</v>
+        <v>3814</v>
       </c>
       <c r="D22">
-        <v>3764</v>
+        <v>3757</v>
       </c>
       <c r="E22">
-        <v>3870</v>
+        <v>3881</v>
       </c>
       <c r="F22">
-        <v>4575</v>
+        <v>4578</v>
       </c>
       <c r="G22">
-        <v>4516</v>
+        <v>4514</v>
       </c>
       <c r="H22">
-        <v>4633</v>
+        <v>4645</v>
       </c>
       <c r="I22">
         <v>0.86</v>
@@ -1304,7 +1304,7 @@
         <v>0.87</v>
       </c>
       <c r="L22">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="M22">
         <v>0.97</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5156</v>
+        <v>5154</v>
       </c>
       <c r="D23">
-        <v>5097</v>
+        <v>5094</v>
       </c>
       <c r="E23">
-        <v>5221</v>
+        <v>5213</v>
       </c>
       <c r="F23">
-        <v>4680</v>
+        <v>4684</v>
       </c>
       <c r="G23">
         <v>4621</v>
       </c>
       <c r="H23">
-        <v>4739</v>
+        <v>4748</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1345,7 +1345,7 @@
         <v>0.87</v>
       </c>
       <c r="K23">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="L23">
         <v>0.92</v>
@@ -1365,22 +1365,22 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4095</v>
+        <v>4091</v>
       </c>
       <c r="D24">
-        <v>4034</v>
+        <v>4031</v>
       </c>
       <c r="E24">
-        <v>4162</v>
+        <v>4150</v>
       </c>
       <c r="F24">
-        <v>4375</v>
+        <v>4374</v>
       </c>
       <c r="G24">
-        <v>4318</v>
+        <v>4313</v>
       </c>
       <c r="H24">
-        <v>4435</v>
+        <v>4437</v>
       </c>
       <c r="I24">
         <v>0.85</v>
@@ -1415,16 +1415,16 @@
         <v>4346</v>
       </c>
       <c r="E25">
-        <v>4468</v>
+        <v>4457</v>
       </c>
       <c r="F25">
-        <v>4367</v>
+        <v>4365</v>
       </c>
       <c r="G25">
-        <v>4310</v>
+        <v>4307</v>
       </c>
       <c r="H25">
-        <v>4430</v>
+        <v>4425</v>
       </c>
       <c r="I25">
         <v>0.88</v>
@@ -1436,7 +1436,7 @@
         <v>0.89</v>
       </c>
       <c r="L25">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="M25">
         <v>0.89</v>
@@ -1453,25 +1453,25 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4015</v>
+        <v>4017</v>
       </c>
       <c r="D26">
-        <v>3946</v>
+        <v>3960</v>
       </c>
       <c r="E26">
-        <v>4077</v>
+        <v>4080</v>
       </c>
       <c r="F26">
-        <v>4417</v>
+        <v>4416</v>
       </c>
       <c r="G26">
-        <v>4356</v>
+        <v>4357</v>
       </c>
       <c r="H26">
-        <v>4482</v>
+        <v>4475</v>
       </c>
       <c r="I26">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J26">
         <v>0.96</v>
@@ -1500,19 +1500,19 @@
         <v>4132</v>
       </c>
       <c r="D27">
-        <v>4071</v>
+        <v>4068</v>
       </c>
       <c r="E27">
-        <v>4184</v>
+        <v>4189</v>
       </c>
       <c r="F27">
-        <v>4161</v>
+        <v>4160</v>
       </c>
       <c r="G27">
-        <v>4099</v>
+        <v>4101</v>
       </c>
       <c r="H27">
-        <v>4222</v>
+        <v>4219</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,22 +1541,22 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3887</v>
+        <v>3879</v>
       </c>
       <c r="D28">
-        <v>3833</v>
+        <v>3825</v>
       </c>
       <c r="E28">
-        <v>3936</v>
+        <v>3942</v>
       </c>
       <c r="F28">
-        <v>4109</v>
+        <v>4107</v>
       </c>
       <c r="G28">
-        <v>4049</v>
+        <v>4050</v>
       </c>
       <c r="H28">
-        <v>4166</v>
+        <v>4167</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
@@ -1585,22 +1585,22 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3277</v>
+        <v>3275</v>
       </c>
       <c r="D29">
-        <v>3222</v>
+        <v>3220</v>
       </c>
       <c r="E29">
-        <v>3340</v>
+        <v>3334</v>
       </c>
       <c r="F29">
-        <v>3828</v>
+        <v>3826</v>
       </c>
       <c r="G29">
         <v>3768</v>
       </c>
       <c r="H29">
-        <v>3884</v>
+        <v>3886</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4401</v>
+        <v>4404</v>
       </c>
       <c r="D30">
-        <v>4335</v>
+        <v>4349</v>
       </c>
       <c r="E30">
-        <v>4465</v>
+        <v>4466</v>
       </c>
       <c r="F30">
-        <v>3924</v>
+        <v>3922</v>
       </c>
       <c r="G30">
-        <v>3865</v>
+        <v>3866</v>
       </c>
       <c r="H30">
-        <v>3981</v>
+        <v>3982</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3594</v>
+        <v>3593</v>
       </c>
       <c r="D31">
-        <v>3540</v>
+        <v>3535</v>
       </c>
       <c r="E31">
-        <v>3652</v>
+        <v>3658</v>
       </c>
       <c r="F31">
-        <v>3790</v>
+        <v>3788</v>
       </c>
       <c r="G31">
         <v>3732</v>
       </c>
       <c r="H31">
-        <v>3848</v>
+        <v>3850</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4039</v>
+        <v>4043</v>
       </c>
       <c r="D32">
-        <v>3978</v>
+        <v>3992</v>
       </c>
       <c r="E32">
-        <v>4113</v>
+        <v>4106</v>
       </c>
       <c r="F32">
-        <v>3828</v>
+        <v>3829</v>
       </c>
       <c r="G32">
-        <v>3769</v>
+        <v>3774</v>
       </c>
       <c r="H32">
-        <v>3892</v>
+        <v>3891</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3731</v>
+        <v>3728</v>
       </c>
       <c r="D33">
-        <v>3673</v>
+        <v>3670</v>
       </c>
       <c r="E33">
-        <v>3794</v>
+        <v>3788</v>
       </c>
       <c r="F33">
-        <v>3941</v>
+        <v>3942</v>
       </c>
       <c r="G33">
-        <v>3881</v>
+        <v>3886</v>
       </c>
       <c r="H33">
-        <v>4006</v>
+        <v>4004</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,19 +1805,19 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3737</v>
+        <v>3743</v>
       </c>
       <c r="D34">
-        <v>3679</v>
+        <v>3692</v>
       </c>
       <c r="E34">
-        <v>3801</v>
+        <v>3808</v>
       </c>
       <c r="F34">
-        <v>3776</v>
+        <v>3777</v>
       </c>
       <c r="G34">
-        <v>3717</v>
+        <v>3722</v>
       </c>
       <c r="H34">
         <v>3840</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3024</v>
+        <v>3015</v>
       </c>
       <c r="D35">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="E35">
-        <v>3081</v>
+        <v>3069</v>
       </c>
       <c r="F35">
-        <v>3633</v>
+        <v>3632</v>
       </c>
       <c r="G35">
-        <v>3574</v>
+        <v>3579</v>
       </c>
       <c r="H35">
-        <v>3697</v>
+        <v>3692</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2716</v>
+        <v>2707</v>
       </c>
       <c r="D36">
-        <v>2660</v>
+        <v>2647</v>
       </c>
       <c r="E36">
-        <v>2774</v>
+        <v>2763</v>
       </c>
       <c r="F36">
-        <v>3302</v>
+        <v>3298</v>
       </c>
       <c r="G36">
-        <v>3245</v>
+        <v>3243</v>
       </c>
       <c r="H36">
-        <v>3362</v>
+        <v>3357</v>
       </c>
       <c r="I36">
         <v>0.86</v>
@@ -1940,19 +1940,19 @@
         <v>3340</v>
       </c>
       <c r="D37">
-        <v>3287</v>
+        <v>3284</v>
       </c>
       <c r="E37">
-        <v>3404</v>
+        <v>3394</v>
       </c>
       <c r="F37">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="G37">
-        <v>3148</v>
+        <v>3147</v>
       </c>
       <c r="H37">
-        <v>3265</v>
+        <v>3258</v>
       </c>
       <c r="I37">
         <v>0.8100000000000001</v>
@@ -1981,31 +1981,31 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="D38">
-        <v>3018</v>
+        <v>3023</v>
       </c>
       <c r="E38">
-        <v>3140</v>
+        <v>3131</v>
       </c>
       <c r="F38">
-        <v>3040</v>
+        <v>3034</v>
       </c>
       <c r="G38">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="H38">
-        <v>3099</v>
+        <v>3089</v>
       </c>
       <c r="I38">
+        <v>0.8</v>
+      </c>
+      <c r="J38">
+        <v>0.79</v>
+      </c>
+      <c r="K38">
         <v>0.8100000000000001</v>
-      </c>
-      <c r="J38">
-        <v>0.8</v>
-      </c>
-      <c r="K38">
-        <v>0.82</v>
       </c>
       <c r="L38">
         <v>0.87</v>
@@ -2025,22 +2025,22 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2892</v>
+        <v>2879</v>
       </c>
       <c r="D39">
-        <v>2840</v>
+        <v>2825</v>
       </c>
       <c r="E39">
-        <v>2957</v>
+        <v>2932</v>
       </c>
       <c r="F39">
-        <v>3007</v>
+        <v>3000</v>
       </c>
       <c r="G39">
-        <v>2951</v>
+        <v>2944</v>
       </c>
       <c r="H39">
-        <v>3068</v>
+        <v>3055</v>
       </c>
       <c r="I39">
         <v>0.83</v>
@@ -2069,22 +2069,22 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2689</v>
+        <v>2693</v>
       </c>
       <c r="D40">
-        <v>2641</v>
+        <v>2642</v>
       </c>
       <c r="E40">
-        <v>2755</v>
+        <v>2745</v>
       </c>
       <c r="F40">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="G40">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="H40">
-        <v>3064</v>
+        <v>3050</v>
       </c>
       <c r="I40">
         <v>0.91</v>
@@ -2102,7 +2102,7 @@
         <v>0.82</v>
       </c>
       <c r="N40">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2113,22 +2113,22 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2323</v>
+        <v>2320</v>
       </c>
       <c r="D41">
         <v>2269</v>
       </c>
       <c r="E41">
-        <v>2371</v>
+        <v>2376</v>
       </c>
       <c r="F41">
-        <v>2746</v>
+        <v>2742</v>
       </c>
       <c r="G41">
-        <v>2692</v>
+        <v>2689</v>
       </c>
       <c r="H41">
-        <v>2806</v>
+        <v>2796</v>
       </c>
       <c r="I41">
         <v>0.86</v>
@@ -2140,7 +2140,7 @@
         <v>0.87</v>
       </c>
       <c r="L41">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="M41">
         <v>0.8</v>
@@ -2157,22 +2157,22 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2014</v>
+        <v>2009</v>
       </c>
       <c r="D42">
-        <v>1968</v>
+        <v>1960</v>
       </c>
       <c r="E42">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="F42">
-        <v>2479</v>
+        <v>2475</v>
       </c>
       <c r="G42">
-        <v>2429</v>
+        <v>2424</v>
       </c>
       <c r="H42">
-        <v>2536</v>
+        <v>2528</v>
       </c>
       <c r="I42">
         <v>0.82</v>
@@ -2201,22 +2201,22 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="D43">
-        <v>1916</v>
+        <v>1911</v>
       </c>
       <c r="E43">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="F43">
-        <v>2248</v>
+        <v>2246</v>
       </c>
       <c r="G43">
-        <v>2198</v>
+        <v>2195</v>
       </c>
       <c r="H43">
-        <v>2300</v>
+        <v>2296</v>
       </c>
       <c r="I43">
         <v>0.75</v>
@@ -2228,7 +2228,7 @@
         <v>0.76</v>
       </c>
       <c r="L43">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="M43">
         <v>0.78</v>
@@ -2245,22 +2245,22 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="D44">
-        <v>1852</v>
+        <v>1855</v>
       </c>
       <c r="E44">
-        <v>1957</v>
+        <v>1951</v>
       </c>
       <c r="F44">
-        <v>2050</v>
+        <v>2047</v>
       </c>
       <c r="G44">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="H44">
-        <v>2101</v>
+        <v>2097</v>
       </c>
       <c r="I44">
         <v>0.68</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="D45">
-        <v>1912</v>
+        <v>1905</v>
       </c>
       <c r="E45">
-        <v>2007</v>
+        <v>2004</v>
       </c>
       <c r="F45">
-        <v>1959</v>
+        <v>1956</v>
       </c>
       <c r="G45">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="H45">
-        <v>2010</v>
+        <v>2004</v>
       </c>
       <c r="I45">
         <v>0.71</v>
@@ -2333,22 +2333,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1929</v>
+        <v>1932</v>
       </c>
       <c r="D46">
-        <v>1876</v>
+        <v>1885</v>
       </c>
       <c r="E46">
-        <v>1976</v>
+        <v>1980</v>
       </c>
       <c r="F46">
-        <v>1938</v>
+        <v>1937</v>
       </c>
       <c r="G46">
         <v>1889</v>
       </c>
       <c r="H46">
-        <v>1988</v>
+        <v>1985</v>
       </c>
       <c r="I46">
         <v>0.78</v>
@@ -2357,7 +2357,7 @@
         <v>0.77</v>
       </c>
       <c r="K46">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="L46">
         <v>0.76</v>
@@ -2377,22 +2377,22 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="D47">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="E47">
-        <v>1816</v>
+        <v>1811</v>
       </c>
       <c r="F47">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="G47">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="H47">
-        <v>1939</v>
+        <v>1936</v>
       </c>
       <c r="I47">
         <v>0.84</v>
@@ -2421,22 +2421,22 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1663</v>
+        <v>1653</v>
       </c>
       <c r="D48">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="E48">
-        <v>1709</v>
+        <v>1701</v>
       </c>
       <c r="F48">
-        <v>1829</v>
+        <v>1826</v>
       </c>
       <c r="G48">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="H48">
-        <v>1877</v>
+        <v>1874</v>
       </c>
       <c r="I48">
         <v>0.89</v>
@@ -2465,22 +2465,22 @@
         <v>43939</v>
       </c>
       <c r="C49">
-        <v>1443</v>
+        <v>1431</v>
       </c>
       <c r="D49">
-        <v>1399</v>
+        <v>1389</v>
       </c>
       <c r="E49">
-        <v>1482</v>
+        <v>1478</v>
       </c>
       <c r="F49">
-        <v>1701</v>
+        <v>1695</v>
       </c>
       <c r="G49">
         <v>1651</v>
       </c>
       <c r="H49">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2509,25 +2509,25 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="D50">
-        <v>1265</v>
+        <v>1270</v>
       </c>
       <c r="E50">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F50">
-        <v>1546</v>
+        <v>1539</v>
       </c>
       <c r="G50">
-        <v>1499</v>
+        <v>1497</v>
       </c>
       <c r="H50">
-        <v>1589</v>
+        <v>1586</v>
       </c>
       <c r="I50">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J50">
         <v>0.78</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1576</v>
+        <v>1574</v>
       </c>
       <c r="D51">
-        <v>1533</v>
+        <v>1532</v>
       </c>
       <c r="E51">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="F51">
-        <v>1498</v>
+        <v>1492</v>
       </c>
       <c r="G51">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="H51">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2586,7 +2586,7 @@
         <v>0.83</v>
       </c>
       <c r="N51">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2603,13 +2603,13 @@
         <v>1306</v>
       </c>
       <c r="E52">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="F52">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="G52">
-        <v>1376</v>
+        <v>1374</v>
       </c>
       <c r="H52">
         <v>1463</v>
@@ -2630,7 +2630,7 @@
         <v>0.82</v>
       </c>
       <c r="N52">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2641,25 +2641,25 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="D53">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="E53">
-        <v>1344</v>
+        <v>1354</v>
       </c>
       <c r="F53">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="G53">
         <v>1342</v>
       </c>
       <c r="H53">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="I53">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J53">
         <v>0.8</v>
@@ -2685,22 +2685,22 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1284</v>
+        <v>1275</v>
       </c>
       <c r="D54">
-        <v>1238</v>
+        <v>1230</v>
       </c>
       <c r="E54">
-        <v>1326</v>
+        <v>1322</v>
       </c>
       <c r="F54">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="G54">
-        <v>1335</v>
+        <v>1332</v>
       </c>
       <c r="H54">
-        <v>1422</v>
+        <v>1424</v>
       </c>
       <c r="I54">
         <v>0.89</v>
@@ -2729,22 +2729,22 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1161</v>
+        <v>1154</v>
       </c>
       <c r="D55">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="E55">
-        <v>1200</v>
+        <v>1193</v>
       </c>
       <c r="F55">
-        <v>1274</v>
+        <v>1270</v>
       </c>
       <c r="G55">
-        <v>1232</v>
+        <v>1228</v>
       </c>
       <c r="H55">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="I55">
         <v>0.85</v>
@@ -2773,22 +2773,22 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="D56">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="E56">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="F56">
-        <v>1193</v>
+        <v>1187</v>
       </c>
       <c r="G56">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="H56">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="I56">
         <v>0.84</v>
@@ -2817,22 +2817,22 @@
         <v>43947</v>
       </c>
       <c r="C57">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D57">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="E57">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="F57">
-        <v>1094</v>
+        <v>1088</v>
       </c>
       <c r="G57">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="H57">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="I57">
         <v>0.79</v>
@@ -2841,7 +2841,7 @@
         <v>0.77</v>
       </c>
       <c r="K57">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L57">
         <v>0.82</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D58">
-        <v>1069</v>
+        <v>1072</v>
       </c>
       <c r="E58">
-        <v>1157</v>
+        <v>1141</v>
       </c>
       <c r="F58">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="G58">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="H58">
-        <v>1091</v>
+        <v>1084</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2905,28 +2905,28 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="D59">
-        <v>905</v>
+        <v>912</v>
       </c>
       <c r="E59">
         <v>986</v>
       </c>
       <c r="F59">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="G59">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="H59">
-        <v>1038</v>
+        <v>1032</v>
       </c>
       <c r="I59">
         <v>0.78</v>
       </c>
       <c r="J59">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="K59">
         <v>0.8</v>
@@ -2949,31 +2949,31 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="D60">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="E60">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="F60">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="G60">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="H60">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="I60">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J60">
         <v>0.79</v>
       </c>
       <c r="K60">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L60">
         <v>0.8100000000000001</v>
@@ -2993,28 +2993,28 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D61">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="E61">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F61">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="G61">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="H61">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="I61">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="J61">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="K61">
         <v>0.91</v>
@@ -3037,28 +3037,28 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>802</v>
+        <v>810</v>
       </c>
       <c r="D62">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="E62">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F62">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G62">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="H62">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="I62">
         <v>0.85</v>
       </c>
       <c r="J62">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K62">
         <v>0.87</v>
@@ -3067,7 +3067,7 @@
         <v>0.82</v>
       </c>
       <c r="M62">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N62">
         <v>0.83</v>
@@ -3081,37 +3081,37 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="D63">
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="E63">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="F63">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G63">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="H63">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="I63">
         <v>0.84</v>
       </c>
       <c r="J63">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="K63">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L63">
+        <v>0.85</v>
+      </c>
+      <c r="M63">
         <v>0.84</v>
-      </c>
-      <c r="M63">
-        <v>0.83</v>
       </c>
       <c r="N63">
         <v>0.86</v>
@@ -3125,22 +3125,22 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="D64">
         <v>729</v>
       </c>
       <c r="E64">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="F64">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="G64">
-        <v>772</v>
+        <v>776</v>
       </c>
       <c r="H64">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="I64">
         <v>0.84</v>
@@ -3152,10 +3152,10 @@
         <v>0.87</v>
       </c>
       <c r="L64">
+        <v>0.86</v>
+      </c>
+      <c r="M64">
         <v>0.85</v>
-      </c>
-      <c r="M64">
-        <v>0.84</v>
       </c>
       <c r="N64">
         <v>0.87</v>
@@ -3169,19 +3169,19 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="D65">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E65">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="F65">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="G65">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="H65">
         <v>836</v>
@@ -3190,13 +3190,13 @@
         <v>0.83</v>
       </c>
       <c r="J65">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K65">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="L65">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="M65">
         <v>0.87</v>
@@ -3213,22 +3213,22 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D66">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="E66">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="F66">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G66">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="H66">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I66">
         <v>0.91</v>
@@ -3257,31 +3257,31 @@
         <v>43957</v>
       </c>
       <c r="C67">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="D67">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="E67">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="F67">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="G67">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="H67">
-        <v>848</v>
+        <v>842</v>
       </c>
       <c r="I67">
         <v>0.97</v>
       </c>
       <c r="J67">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K67">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L67">
         <v>0.89</v>
@@ -3290,7 +3290,7 @@
         <v>0.88</v>
       </c>
       <c r="N67">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3301,31 +3301,31 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D68">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="E68">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="F68">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="G68">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="H68">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="I68">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="J68">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K68">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L68">
         <v>0.9</v>
@@ -3334,7 +3334,7 @@
         <v>0.89</v>
       </c>
       <c r="N68">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3345,34 +3345,34 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D69">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E69">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="F69">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="G69">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="H69">
-        <v>777</v>
+        <v>773</v>
       </c>
       <c r="I69">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J69">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K69">
         <v>0.96</v>
       </c>
       <c r="L69">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="M69">
         <v>0.88</v>
@@ -3389,40 +3389,40 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D70">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="E70">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F70">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="G70">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="H70">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="I70">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="J70">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="K70">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="L70">
         <v>0.88</v>
       </c>
       <c r="M70">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="N70">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3433,22 +3433,22 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D71">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E71">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F71">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="G71">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H71">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="I71">
         <v>0.78</v>
@@ -3457,16 +3457,16 @@
         <v>0.76</v>
       </c>
       <c r="K71">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L71">
         <v>0.87</v>
       </c>
       <c r="M71">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="N71">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3477,22 +3477,22 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D72">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E72">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="F72">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G72">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="H72">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="I72">
         <v>0.78</v>
@@ -3504,7 +3504,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="L72">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M72">
         <v>0.84</v>
@@ -3521,34 +3521,34 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D73">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="E73">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="F73">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="G73">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="H73">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="I73">
         <v>0.82</v>
       </c>
       <c r="J73">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K73">
         <v>0.85</v>
       </c>
       <c r="L73">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
       <c r="M73">
         <v>0.83</v>
@@ -3565,22 +3565,22 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="D74">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="E74">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F74">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="G74">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="H74">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="I74">
         <v>0.89</v>
@@ -3609,28 +3609,28 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>532</v>
+        <v>521</v>
       </c>
       <c r="D75">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="E75">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="F75">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="G75">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="H75">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="I75">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J75">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="K75">
         <v>0.98</v>
@@ -3639,7 +3639,7 @@
         <v>0.88</v>
       </c>
       <c r="M75">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="N75">
         <v>0.9</v>
@@ -3653,25 +3653,25 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>670</v>
+        <v>680</v>
       </c>
       <c r="D76">
-        <v>635</v>
+        <v>649</v>
       </c>
       <c r="E76">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="F76">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="G76">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="H76">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="I76">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J76">
         <v>0.93</v>
@@ -3680,7 +3680,7 @@
         <v>1</v>
       </c>
       <c r="L76">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M76">
         <v>0.9</v>
@@ -3697,16 +3697,16 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="D77">
-        <v>510</v>
+        <v>523</v>
       </c>
       <c r="E77">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="F77">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G77">
         <v>552</v>
@@ -3718,7 +3718,7 @@
         <v>0.96</v>
       </c>
       <c r="J77">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K77">
         <v>0.99</v>
@@ -3741,25 +3741,25 @@
         <v>43968</v>
       </c>
       <c r="C78">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D78">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E78">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F78">
         <v>550</v>
       </c>
       <c r="G78">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H78">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="I78">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="J78">
         <v>0.87</v>
@@ -3785,31 +3785,31 @@
         <v>43969</v>
       </c>
       <c r="C79">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D79">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="E79">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F79">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="G79">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="H79">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="I79">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J79">
-        <v>0.91</v>
+        <v>0.93</v>
       </c>
       <c r="K79">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="L79">
         <v>0.92</v>
@@ -3818,7 +3818,7 @@
         <v>0.9</v>
       </c>
       <c r="N79">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -3829,37 +3829,37 @@
         <v>43970</v>
       </c>
       <c r="C80">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="D80">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E80">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F80">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G80">
         <v>491</v>
       </c>
       <c r="H80">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="I80">
         <v>0.87</v>
       </c>
       <c r="J80">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="K80">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="L80">
         <v>0.92</v>
       </c>
       <c r="M80">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="N80">
         <v>0.9399999999999999</v>
@@ -3873,16 +3873,16 @@
         <v>43971</v>
       </c>
       <c r="C81">
-        <v>560</v>
+        <v>573</v>
       </c>
       <c r="D81">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="E81">
-        <v>585</v>
+        <v>596</v>
       </c>
       <c r="F81">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G81">
         <v>497</v>
@@ -3894,16 +3894,16 @@
         <v>0.9</v>
       </c>
       <c r="J81">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="K81">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="L81">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M81">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="N81">
         <v>0.93</v>
@@ -3917,37 +3917,37 @@
         <v>43972</v>
       </c>
       <c r="C82">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="D82">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="E82">
-        <v>413</v>
+        <v>424</v>
       </c>
       <c r="F82">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="G82">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="H82">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="I82">
         <v>0.93</v>
       </c>
       <c r="J82">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K82">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="L82">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="M82">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="N82">
         <v>0.87</v>
@@ -3961,40 +3961,40 @@
         <v>43973</v>
       </c>
       <c r="C83">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="D83">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="E83">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F83">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="G83">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="H83">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="I83">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="J83">
-        <v>0.76</v>
+        <v>0.77</v>
       </c>
       <c r="K83">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="L83">
         <v>0.84</v>
       </c>
       <c r="M83">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N83">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4005,31 +4005,31 @@
         <v>43974</v>
       </c>
       <c r="C84">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D84">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E84">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="F84">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="G84">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="H84">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I84">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="J84">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="K84">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="L84">
         <v>0.83</v>
@@ -4038,7 +4038,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="N84">
-        <v>0.85</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4049,40 +4049,40 @@
         <v>43975</v>
       </c>
       <c r="C85">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D85">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E85">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="F85">
         <v>383</v>
       </c>
       <c r="G85">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="H85">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="I85">
         <v>0.73</v>
       </c>
       <c r="J85">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="K85">
         <v>0.76</v>
       </c>
       <c r="L85">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M85">
         <v>0.8</v>
       </c>
       <c r="N85">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4093,40 +4093,40 @@
         <v>43976</v>
       </c>
       <c r="C86">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D86">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E86">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F86">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G86">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H86">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="I86">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J86">
         <v>0.75</v>
       </c>
       <c r="K86">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L86">
         <v>0.87</v>
       </c>
       <c r="M86">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="N86">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4137,31 +4137,31 @@
         <v>43977</v>
       </c>
       <c r="C87">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D87">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E87">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F87">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="G87">
         <v>386</v>
       </c>
       <c r="H87">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="I87">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J87">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="K87">
-        <v>0.96</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L87">
         <v>0.89</v>
@@ -4181,40 +4181,40 @@
         <v>43978</v>
       </c>
       <c r="C88">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="D88">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E88">
-        <v>503</v>
+        <v>485</v>
       </c>
       <c r="F88">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G88">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H88">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="I88">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="J88">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="K88">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="L88">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M88">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="N88">
-        <v>0.9399999999999999</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4225,40 +4225,40 @@
         <v>43979</v>
       </c>
       <c r="C89">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D89">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="E89">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="F89">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="G89">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="H89">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="I89">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="J89">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="K89">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="L89">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="M89">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="N89">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4269,40 +4269,40 @@
         <v>43980</v>
       </c>
       <c r="C90">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D90">
         <v>319</v>
       </c>
       <c r="E90">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F90">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="G90">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H90">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="I90">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J90">
         <v>0.98</v>
       </c>
       <c r="K90">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="L90">
+        <v>0.92</v>
+      </c>
+      <c r="M90">
+        <v>0.9</v>
+      </c>
+      <c r="N90">
         <v>0.9399999999999999</v>
-      </c>
-      <c r="M90">
-        <v>0.91</v>
-      </c>
-      <c r="N90">
-        <v>0.96</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4313,31 +4313,31 @@
         <v>43981</v>
       </c>
       <c r="C91">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D91">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="E91">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="F91">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="G91">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H91">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="I91">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="J91">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K91">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="L91">
         <v>0.92</v>
@@ -4346,7 +4346,7 @@
         <v>0.9</v>
       </c>
       <c r="N91">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4357,37 +4357,37 @@
         <v>43982</v>
       </c>
       <c r="C92">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="D92">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E92">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F92">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G92">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H92">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="I92">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="J92">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="K92">
         <v>0.79</v>
       </c>
       <c r="L92">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M92">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="N92">
         <v>0.9</v>
@@ -4401,28 +4401,28 @@
         <v>43983</v>
       </c>
       <c r="C93">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="D93">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E93">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F93">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="G93">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="H93">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="I93">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="J93">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="K93">
         <v>0.75</v>
@@ -4431,7 +4431,7 @@
         <v>0.89</v>
       </c>
       <c r="M93">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="N93">
         <v>0.92</v>
@@ -4445,37 +4445,37 @@
         <v>43984</v>
       </c>
       <c r="C94">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="D94">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="E94">
-        <v>504</v>
+        <v>482</v>
       </c>
       <c r="F94">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G94">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="H94">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="I94">
-        <v>0.8100000000000001</v>
+        <v>0.82</v>
       </c>
       <c r="J94">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="K94">
+        <v>0.87</v>
+      </c>
+      <c r="L94">
+        <v>0.89</v>
+      </c>
+      <c r="M94">
         <v>0.86</v>
-      </c>
-      <c r="L94">
-        <v>0.88</v>
-      </c>
-      <c r="M94">
-        <v>0.85</v>
       </c>
       <c r="N94">
         <v>0.92</v>
@@ -4489,40 +4489,40 @@
         <v>43985</v>
       </c>
       <c r="C95">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D95">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="E95">
-        <v>476</v>
+        <v>427</v>
       </c>
       <c r="F95">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G95">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="H95">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="I95">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="J95">
-        <v>0.88</v>
+        <v>0.91</v>
       </c>
       <c r="K95">
         <v>1.01</v>
       </c>
       <c r="L95">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="M95">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="N95">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4533,40 +4533,40 @@
         <v>43986</v>
       </c>
       <c r="C96">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="D96">
-        <v>284</v>
+        <v>338</v>
       </c>
       <c r="E96">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="F96">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G96">
-        <v>327</v>
+        <v>357</v>
       </c>
       <c r="H96">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="I96">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="J96">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="K96">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="L96">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="M96">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4577,40 +4577,40 @@
         <v>43987</v>
       </c>
       <c r="C97">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D97">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="E97">
-        <v>410</v>
+        <v>347</v>
       </c>
       <c r="F97">
         <v>382</v>
       </c>
       <c r="G97">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="H97">
-        <v>448</v>
+        <v>412</v>
       </c>
       <c r="I97">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="J97">
-        <v>1.1</v>
+        <v>1.16</v>
       </c>
       <c r="K97">
-        <v>1.37</v>
+        <v>1.29</v>
       </c>
       <c r="L97">
         <v>0.95</v>
       </c>
       <c r="M97">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="N97">
-        <v>1.01</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4621,40 +4621,40 @@
         <v>43988</v>
       </c>
       <c r="C98">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="D98">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="E98">
-        <v>392</v>
+        <v>325</v>
       </c>
       <c r="F98">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G98">
-        <v>275</v>
+        <v>319</v>
       </c>
       <c r="H98">
-        <v>420</v>
+        <v>373</v>
       </c>
       <c r="I98">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="J98">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="K98">
-        <v>1.17</v>
+        <v>1.09</v>
       </c>
       <c r="L98">
         <v>0.97</v>
       </c>
       <c r="M98">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N98">
-        <v>1.03</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4665,40 +4665,40 @@
         <v>43989</v>
       </c>
       <c r="C99">
-        <v>255</v>
+        <v>233</v>
       </c>
       <c r="D99">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="E99">
-        <v>352</v>
+        <v>262</v>
       </c>
       <c r="F99">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="G99">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="H99">
-        <v>389</v>
+        <v>332</v>
       </c>
       <c r="I99">
-        <v>0.86</v>
+        <v>0.84</v>
       </c>
       <c r="J99">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="K99">
+        <v>0.89</v>
+      </c>
+      <c r="L99">
+        <v>1</v>
+      </c>
+      <c r="M99">
         <v>0.97</v>
       </c>
-      <c r="L99">
-        <v>1.04</v>
-      </c>
-      <c r="M99">
-        <v>0.9399999999999999</v>
-      </c>
       <c r="N99">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4709,40 +4709,40 @@
         <v>43990</v>
       </c>
       <c r="C100">
-        <v>433</v>
+        <v>398</v>
       </c>
       <c r="D100">
-        <v>277</v>
+        <v>367</v>
       </c>
       <c r="E100">
-        <v>578</v>
+        <v>429</v>
       </c>
       <c r="F100">
-        <v>330</v>
+        <v>312</v>
       </c>
       <c r="G100">
-        <v>228</v>
+        <v>284</v>
       </c>
       <c r="H100">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="I100">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J100">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="K100">
-        <v>1.03</v>
+        <v>0.86</v>
       </c>
       <c r="L100">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="M100">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="N100">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4753,31 +4753,471 @@
         <v>43991</v>
       </c>
       <c r="C101">
-        <v>558</v>
+        <v>433</v>
       </c>
       <c r="D101">
-        <v>321</v>
+        <v>397</v>
       </c>
       <c r="E101">
+        <v>473</v>
+      </c>
+      <c r="F101">
+        <v>340</v>
+      </c>
+      <c r="G101">
+        <v>308</v>
+      </c>
+      <c r="H101">
+        <v>372</v>
+      </c>
+      <c r="I101">
+        <v>0.89</v>
+      </c>
+      <c r="J101">
+        <v>0.84</v>
+      </c>
+      <c r="K101">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L101">
+        <v>1.01</v>
+      </c>
+      <c r="M101">
+        <v>0.98</v>
+      </c>
+      <c r="N101">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" s="2">
+        <v>43992</v>
+      </c>
+      <c r="C102">
+        <v>408</v>
+      </c>
+      <c r="D102">
+        <v>354</v>
+      </c>
+      <c r="E102">
+        <v>445</v>
+      </c>
+      <c r="F102">
+        <v>368</v>
+      </c>
+      <c r="G102">
+        <v>330</v>
+      </c>
+      <c r="H102">
+        <v>402</v>
+      </c>
+      <c r="I102">
+        <v>1.07</v>
+      </c>
+      <c r="J102">
+        <v>1.01</v>
+      </c>
+      <c r="K102">
+        <v>1.12</v>
+      </c>
+      <c r="L102">
+        <v>1.02</v>
+      </c>
+      <c r="M102">
+        <v>0.98</v>
+      </c>
+      <c r="N102">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="2">
+        <v>43993</v>
+      </c>
+      <c r="C103">
+        <v>349</v>
+      </c>
+      <c r="D103">
+        <v>299</v>
+      </c>
+      <c r="E103">
+        <v>396</v>
+      </c>
+      <c r="F103">
+        <v>397</v>
+      </c>
+      <c r="G103">
+        <v>354</v>
+      </c>
+      <c r="H103">
+        <v>436</v>
+      </c>
+      <c r="I103">
+        <v>1.31</v>
+      </c>
+      <c r="J103">
+        <v>1.21</v>
+      </c>
+      <c r="K103">
+        <v>1.4</v>
+      </c>
+      <c r="L103">
+        <v>1</v>
+      </c>
+      <c r="M103">
+        <v>0.96</v>
+      </c>
+      <c r="N103">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="2">
+        <v>43994</v>
+      </c>
+      <c r="C104">
+        <v>345</v>
+      </c>
+      <c r="D104">
+        <v>295</v>
+      </c>
+      <c r="E104">
+        <v>403</v>
+      </c>
+      <c r="F104">
+        <v>384</v>
+      </c>
+      <c r="G104">
+        <v>336</v>
+      </c>
+      <c r="H104">
+        <v>429</v>
+      </c>
+      <c r="I104">
+        <v>1.23</v>
+      </c>
+      <c r="J104">
+        <v>1.14</v>
+      </c>
+      <c r="K104">
+        <v>1.33</v>
+      </c>
+      <c r="L104">
+        <v>1.03</v>
+      </c>
+      <c r="M104">
+        <v>0.98</v>
+      </c>
+      <c r="N104">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" s="2">
+        <v>43995</v>
+      </c>
+      <c r="C105">
+        <v>344</v>
+      </c>
+      <c r="D105">
+        <v>288</v>
+      </c>
+      <c r="E105">
+        <v>400</v>
+      </c>
+      <c r="F105">
+        <v>361</v>
+      </c>
+      <c r="G105">
+        <v>309</v>
+      </c>
+      <c r="H105">
+        <v>411</v>
+      </c>
+      <c r="I105">
+        <v>1.06</v>
+      </c>
+      <c r="J105">
+        <v>0.98</v>
+      </c>
+      <c r="K105">
+        <v>1.14</v>
+      </c>
+      <c r="L105">
+        <v>1.07</v>
+      </c>
+      <c r="M105">
+        <v>1.01</v>
+      </c>
+      <c r="N105">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" s="2">
+        <v>43996</v>
+      </c>
+      <c r="C106">
+        <v>340</v>
+      </c>
+      <c r="D106">
+        <v>259</v>
+      </c>
+      <c r="E106">
+        <v>412</v>
+      </c>
+      <c r="F106">
+        <v>344</v>
+      </c>
+      <c r="G106">
+        <v>285</v>
+      </c>
+      <c r="H106">
+        <v>403</v>
+      </c>
+      <c r="I106">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="J106">
+        <v>0.85</v>
+      </c>
+      <c r="K106">
+        <v>1.01</v>
+      </c>
+      <c r="L106">
+        <v>1.2</v>
+      </c>
+      <c r="M106">
+        <v>1.12</v>
+      </c>
+      <c r="N106">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" s="2">
+        <v>43997</v>
+      </c>
+      <c r="C107">
+        <v>706</v>
+      </c>
+      <c r="D107">
+        <v>549</v>
+      </c>
+      <c r="E107">
+        <v>879</v>
+      </c>
+      <c r="F107">
+        <v>434</v>
+      </c>
+      <c r="G107">
+        <v>347</v>
+      </c>
+      <c r="H107">
+        <v>523</v>
+      </c>
+      <c r="I107">
+        <v>1.09</v>
+      </c>
+      <c r="J107">
+        <v>0.97</v>
+      </c>
+      <c r="K107">
+        <v>1.22</v>
+      </c>
+      <c r="L107">
+        <v>1.65</v>
+      </c>
+      <c r="M107">
+        <v>1.43</v>
+      </c>
+      <c r="N107">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108" s="2">
+        <v>43998</v>
+      </c>
+      <c r="C108">
+        <v>1566</v>
+      </c>
+      <c r="D108">
+        <v>1033</v>
+      </c>
+      <c r="E108">
+        <v>2040</v>
+      </c>
+      <c r="F108">
+        <v>739</v>
+      </c>
+      <c r="G108">
+        <v>532</v>
+      </c>
+      <c r="H108">
+        <v>933</v>
+      </c>
+      <c r="I108">
+        <v>1.93</v>
+      </c>
+      <c r="J108">
+        <v>1.57</v>
+      </c>
+      <c r="K108">
+        <v>2.3</v>
+      </c>
+      <c r="L108">
+        <v>1.72</v>
+      </c>
+      <c r="M108">
+        <v>1.48</v>
+      </c>
+      <c r="N108">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109" s="2">
+        <v>43999</v>
+      </c>
+      <c r="C109">
+        <v>667</v>
+      </c>
+      <c r="D109">
+        <v>480</v>
+      </c>
+      <c r="E109">
+        <v>845</v>
+      </c>
+      <c r="F109">
+        <v>820</v>
+      </c>
+      <c r="G109">
+        <v>580</v>
+      </c>
+      <c r="H109">
+        <v>1044</v>
+      </c>
+      <c r="I109">
+        <v>2.27</v>
+      </c>
+      <c r="J109">
+        <v>1.85</v>
+      </c>
+      <c r="K109">
+        <v>2.68</v>
+      </c>
+      <c r="L109">
+        <v>1.72</v>
+      </c>
+      <c r="M109">
+        <v>1.48</v>
+      </c>
+      <c r="N109">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110" s="2">
+        <v>44000</v>
+      </c>
+      <c r="C110">
+        <v>537</v>
+      </c>
+      <c r="D110">
+        <v>369</v>
+      </c>
+      <c r="E110">
+        <v>700</v>
+      </c>
+      <c r="F110">
+        <v>869</v>
+      </c>
+      <c r="G110">
+        <v>608</v>
+      </c>
+      <c r="H110">
+        <v>1116</v>
+      </c>
+      <c r="I110">
+        <v>2.53</v>
+      </c>
+      <c r="J110">
+        <v>2.08</v>
+      </c>
+      <c r="K110">
+        <v>2.92</v>
+      </c>
+      <c r="L110">
+        <v>1.67</v>
+      </c>
+      <c r="M110">
+        <v>1.4</v>
+      </c>
+      <c r="N110">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111" s="2">
+        <v>44001</v>
+      </c>
+      <c r="C111">
+        <v>715</v>
+      </c>
+      <c r="D111">
+        <v>245</v>
+      </c>
+      <c r="E111">
+        <v>1178</v>
+      </c>
+      <c r="F111">
         <v>871</v>
       </c>
-      <c r="F101">
-        <v>388</v>
-      </c>
-      <c r="G101">
-        <v>247</v>
-      </c>
-      <c r="H101">
-        <v>548</v>
-      </c>
-      <c r="I101">
-        <v>1.02</v>
-      </c>
-      <c r="J101">
-        <v>0.82</v>
-      </c>
-      <c r="K101">
-        <v>1.3</v>
+      <c r="G111">
+        <v>532</v>
+      </c>
+      <c r="H111">
+        <v>1191</v>
+      </c>
+      <c r="I111">
+        <v>2.02</v>
+      </c>
+      <c r="J111">
+        <v>1.53</v>
+      </c>
+      <c r="K111">
+        <v>2.41</v>
       </c>
     </row>
   </sheetData>

--- a/rki_nowcasting_data.xlsx
+++ b/rki_nowcasting_data.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -469,13 +469,13 @@
         <v>43892</v>
       </c>
       <c r="C2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E2">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F2">
         <v>225</v>
@@ -495,22 +495,22 @@
         <v>43893</v>
       </c>
       <c r="C3">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D3">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="E3">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="F3">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G3">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H3">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -521,22 +521,22 @@
         <v>43894</v>
       </c>
       <c r="C4">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D4">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E4">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F4">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G4">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="H4">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -547,22 +547,22 @@
         <v>43895</v>
       </c>
       <c r="C5">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D5">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E5">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F5">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G5">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H5">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,31 +573,31 @@
         <v>43896</v>
       </c>
       <c r="C6">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="D6">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="E6">
-        <v>792</v>
+        <v>781</v>
       </c>
       <c r="F6">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G6">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="H6">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="I6">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="J6">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="K6">
-        <v>2.35</v>
+        <v>2.34</v>
       </c>
       <c r="L6">
         <v>2.34</v>
@@ -606,7 +606,7 @@
         <v>2.3</v>
       </c>
       <c r="N6">
-        <v>2.4</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,37 +617,37 @@
         <v>43897</v>
       </c>
       <c r="C7">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D7">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="E7">
-        <v>1024</v>
+        <v>1015</v>
       </c>
       <c r="F7">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="G7">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H7">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="I7">
         <v>2.59</v>
       </c>
       <c r="J7">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="K7">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="L7">
         <v>2.56</v>
       </c>
       <c r="M7">
-        <v>2.52</v>
+        <v>2.51</v>
       </c>
       <c r="N7">
         <v>2.61</v>
@@ -661,22 +661,22 @@
         <v>43898</v>
       </c>
       <c r="C8">
-        <v>1334</v>
+        <v>1337</v>
       </c>
       <c r="D8">
-        <v>1305</v>
+        <v>1308</v>
       </c>
       <c r="E8">
-        <v>1369</v>
+        <v>1375</v>
       </c>
       <c r="F8">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="G8">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="H8">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="I8">
         <v>2.75</v>
@@ -688,10 +688,10 @@
         <v>2.82</v>
       </c>
       <c r="L8">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="M8">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="N8">
         <v>2.98</v>
@@ -705,40 +705,40 @@
         <v>43899</v>
       </c>
       <c r="C9">
-        <v>2007</v>
+        <v>2026</v>
       </c>
       <c r="D9">
-        <v>1972</v>
+        <v>1987</v>
       </c>
       <c r="E9">
-        <v>2046</v>
+        <v>2069</v>
       </c>
       <c r="F9">
-        <v>1274</v>
+        <v>1278</v>
       </c>
       <c r="G9">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="H9">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="I9">
-        <v>3.21</v>
+        <v>3.24</v>
       </c>
       <c r="J9">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
       <c r="K9">
-        <v>3.29</v>
+        <v>3.33</v>
       </c>
       <c r="L9">
-        <v>3.11</v>
+        <v>3.14</v>
       </c>
       <c r="M9">
-        <v>3.06</v>
+        <v>3.09</v>
       </c>
       <c r="N9">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,40 +749,40 @@
         <v>43900</v>
       </c>
       <c r="C10">
-        <v>2567</v>
+        <v>2576</v>
       </c>
       <c r="D10">
-        <v>2527</v>
+        <v>2534</v>
       </c>
       <c r="E10">
-        <v>2606</v>
+        <v>2617</v>
       </c>
       <c r="F10">
-        <v>1724</v>
+        <v>1732</v>
       </c>
       <c r="G10">
-        <v>1692</v>
+        <v>1697</v>
       </c>
       <c r="H10">
-        <v>1761</v>
+        <v>1769</v>
       </c>
       <c r="I10">
-        <v>3.37</v>
+        <v>3.41</v>
       </c>
       <c r="J10">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="K10">
-        <v>3.45</v>
+        <v>3.48</v>
       </c>
       <c r="L10">
-        <v>3.19</v>
+        <v>3.22</v>
       </c>
       <c r="M10">
-        <v>3.15</v>
+        <v>3.18</v>
       </c>
       <c r="N10">
-        <v>3.23</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -793,40 +793,40 @@
         <v>43901</v>
       </c>
       <c r="C11">
-        <v>3232</v>
+        <v>3238</v>
       </c>
       <c r="D11">
-        <v>3189</v>
+        <v>3188</v>
       </c>
       <c r="E11">
-        <v>3280</v>
+        <v>3291</v>
       </c>
       <c r="F11">
-        <v>2285</v>
+        <v>2294</v>
       </c>
       <c r="G11">
-        <v>2248</v>
+        <v>2254</v>
       </c>
       <c r="H11">
-        <v>2325</v>
+        <v>2338</v>
       </c>
       <c r="I11">
-        <v>3.37</v>
+        <v>3.4</v>
       </c>
       <c r="J11">
-        <v>3.3</v>
+        <v>3.33</v>
       </c>
       <c r="K11">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="L11">
-        <v>3.1</v>
+        <v>3.12</v>
       </c>
       <c r="M11">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="N11">
-        <v>3.13</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -837,31 +837,31 @@
         <v>43902</v>
       </c>
       <c r="C12">
-        <v>3601</v>
+        <v>3607</v>
       </c>
       <c r="D12">
-        <v>3551</v>
+        <v>3555</v>
       </c>
       <c r="E12">
-        <v>3649</v>
+        <v>3666</v>
       </c>
       <c r="F12">
-        <v>2852</v>
+        <v>2862</v>
       </c>
       <c r="G12">
-        <v>2810</v>
+        <v>2816</v>
       </c>
       <c r="H12">
-        <v>2895</v>
+        <v>2911</v>
       </c>
       <c r="I12">
-        <v>3.17</v>
+        <v>3.19</v>
       </c>
       <c r="J12">
-        <v>3.12</v>
+        <v>3.14</v>
       </c>
       <c r="K12">
-        <v>3.22</v>
+        <v>3.25</v>
       </c>
       <c r="L12">
         <v>2.84</v>
@@ -881,31 +881,31 @@
         <v>43903</v>
       </c>
       <c r="C13">
-        <v>4385</v>
+        <v>4366</v>
       </c>
       <c r="D13">
-        <v>4332</v>
+        <v>4310</v>
       </c>
       <c r="E13">
-        <v>4446</v>
+        <v>4422</v>
       </c>
       <c r="F13">
         <v>3447</v>
       </c>
       <c r="G13">
-        <v>3400</v>
+        <v>3397</v>
       </c>
       <c r="H13">
-        <v>3495</v>
+        <v>3499</v>
       </c>
       <c r="I13">
         <v>2.7</v>
       </c>
       <c r="J13">
-        <v>2.67</v>
+        <v>2.66</v>
       </c>
       <c r="K13">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
       <c r="L13">
         <v>2.5</v>
@@ -925,37 +925,37 @@
         <v>43904</v>
       </c>
       <c r="C14">
-        <v>4461</v>
+        <v>4447</v>
       </c>
       <c r="D14">
-        <v>4404</v>
+        <v>4391</v>
       </c>
       <c r="E14">
-        <v>4515</v>
+        <v>4503</v>
       </c>
       <c r="F14">
-        <v>3920</v>
+        <v>3914</v>
       </c>
       <c r="G14">
-        <v>3869</v>
+        <v>3861</v>
       </c>
       <c r="H14">
-        <v>3972</v>
+        <v>3970</v>
       </c>
       <c r="I14">
-        <v>2.27</v>
+        <v>2.26</v>
       </c>
       <c r="J14">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="K14">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="L14">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="M14">
-        <v>2.17</v>
+        <v>2.16</v>
       </c>
       <c r="N14">
         <v>2.2</v>
@@ -969,40 +969,40 @@
         <v>43905</v>
       </c>
       <c r="C15">
-        <v>4685</v>
+        <v>4668</v>
       </c>
       <c r="D15">
-        <v>4629</v>
+        <v>4611</v>
       </c>
       <c r="E15">
-        <v>4750</v>
+        <v>4728</v>
       </c>
       <c r="F15">
-        <v>4283</v>
+        <v>4272</v>
       </c>
       <c r="G15">
-        <v>4229</v>
+        <v>4217</v>
       </c>
       <c r="H15">
-        <v>4340</v>
+        <v>4329</v>
       </c>
       <c r="I15">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="J15">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="K15">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="L15">
+        <v>1.99</v>
+      </c>
+      <c r="M15">
+        <v>1.97</v>
+      </c>
+      <c r="N15">
         <v>2</v>
-      </c>
-      <c r="M15">
-        <v>1.98</v>
-      </c>
-      <c r="N15">
-        <v>2.01</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1013,40 +1013,40 @@
         <v>43906</v>
       </c>
       <c r="C16">
-        <v>6038</v>
+        <v>6017</v>
       </c>
       <c r="D16">
-        <v>5969</v>
+        <v>5944</v>
       </c>
       <c r="E16">
-        <v>6104</v>
+        <v>6084</v>
       </c>
       <c r="F16">
-        <v>4893</v>
+        <v>4875</v>
       </c>
       <c r="G16">
-        <v>4833</v>
+        <v>4814</v>
       </c>
       <c r="H16">
-        <v>4954</v>
+        <v>4934</v>
       </c>
       <c r="I16">
+        <v>1.7</v>
+      </c>
+      <c r="J16">
+        <v>1.68</v>
+      </c>
+      <c r="K16">
         <v>1.72</v>
       </c>
-      <c r="J16">
-        <v>1.7</v>
-      </c>
-      <c r="K16">
+      <c r="L16">
+        <v>1.74</v>
+      </c>
+      <c r="M16">
         <v>1.73</v>
       </c>
-      <c r="L16">
+      <c r="N16">
         <v>1.75</v>
-      </c>
-      <c r="M16">
-        <v>1.74</v>
-      </c>
-      <c r="N16">
-        <v>1.76</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1057,31 +1057,31 @@
         <v>43907</v>
       </c>
       <c r="C17">
-        <v>5254</v>
+        <v>5234</v>
       </c>
       <c r="D17">
-        <v>5185</v>
+        <v>5173</v>
       </c>
       <c r="E17">
-        <v>5317</v>
+        <v>5301</v>
       </c>
       <c r="F17">
-        <v>5110</v>
+        <v>5092</v>
       </c>
       <c r="G17">
-        <v>5047</v>
+        <v>5030</v>
       </c>
       <c r="H17">
-        <v>5171</v>
+        <v>5154</v>
       </c>
       <c r="I17">
         <v>1.48</v>
       </c>
       <c r="J17">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="K17">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="L17">
         <v>1.56</v>
@@ -1101,40 +1101,40 @@
         <v>43908</v>
       </c>
       <c r="C18">
-        <v>5305</v>
+        <v>5296</v>
       </c>
       <c r="D18">
+        <v>5231</v>
+      </c>
+      <c r="E18">
+        <v>5357</v>
+      </c>
+      <c r="F18">
+        <v>5304</v>
+      </c>
+      <c r="G18">
         <v>5240</v>
       </c>
-      <c r="E18">
-        <v>5373</v>
-      </c>
-      <c r="F18">
-        <v>5321</v>
-      </c>
-      <c r="G18">
-        <v>5256</v>
-      </c>
       <c r="H18">
-        <v>5386</v>
+        <v>5367</v>
       </c>
       <c r="I18">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="J18">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="K18">
         <v>1.37</v>
       </c>
       <c r="L18">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M18">
         <v>1.39</v>
       </c>
       <c r="N18">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1145,25 +1145,25 @@
         <v>43909</v>
       </c>
       <c r="C19">
-        <v>4730</v>
+        <v>4731</v>
       </c>
       <c r="D19">
-        <v>4667</v>
+        <v>4669</v>
       </c>
       <c r="E19">
-        <v>4803</v>
+        <v>4800</v>
       </c>
       <c r="F19">
-        <v>5332</v>
+        <v>5319</v>
       </c>
       <c r="G19">
-        <v>5265</v>
+        <v>5254</v>
       </c>
       <c r="H19">
-        <v>5399</v>
+        <v>5385</v>
       </c>
       <c r="I19">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="J19">
         <v>1.23</v>
@@ -1189,37 +1189,37 @@
         <v>43910</v>
       </c>
       <c r="C20">
-        <v>5329</v>
+        <v>5332</v>
       </c>
       <c r="D20">
-        <v>5261</v>
+        <v>5269</v>
       </c>
       <c r="E20">
-        <v>5394</v>
+        <v>5397</v>
       </c>
       <c r="F20">
-        <v>5154</v>
+        <v>5148</v>
       </c>
       <c r="G20">
-        <v>5088</v>
+        <v>5086</v>
       </c>
       <c r="H20">
-        <v>5222</v>
+        <v>5214</v>
       </c>
       <c r="I20">
+        <v>1.06</v>
+      </c>
+      <c r="J20">
         <v>1.05</v>
       </c>
-      <c r="J20">
-        <v>1.04</v>
-      </c>
       <c r="K20">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="L20">
         <v>1.13</v>
       </c>
       <c r="M20">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N20">
         <v>1.14</v>
@@ -1233,22 +1233,22 @@
         <v>43911</v>
       </c>
       <c r="C21">
-        <v>4438</v>
+        <v>4442</v>
       </c>
       <c r="D21">
-        <v>4372</v>
+        <v>4395</v>
       </c>
       <c r="E21">
-        <v>4504</v>
+        <v>4501</v>
       </c>
       <c r="F21">
         <v>4950</v>
       </c>
       <c r="G21">
-        <v>4885</v>
+        <v>4891</v>
       </c>
       <c r="H21">
-        <v>5018</v>
+        <v>5014</v>
       </c>
       <c r="I21">
         <v>0.97</v>
@@ -1260,7 +1260,7 @@
         <v>0.98</v>
       </c>
       <c r="L21">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="M21">
         <v>1.03</v>
@@ -1277,28 +1277,28 @@
         <v>43912</v>
       </c>
       <c r="C22">
-        <v>3814</v>
+        <v>3812</v>
       </c>
       <c r="D22">
-        <v>3757</v>
+        <v>3754</v>
       </c>
       <c r="E22">
-        <v>3881</v>
+        <v>3867</v>
       </c>
       <c r="F22">
-        <v>4578</v>
+        <v>4579</v>
       </c>
       <c r="G22">
-        <v>4514</v>
+        <v>4522</v>
       </c>
       <c r="H22">
-        <v>4645</v>
+        <v>4641</v>
       </c>
       <c r="I22">
         <v>0.86</v>
       </c>
       <c r="J22">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="K22">
         <v>0.87</v>
@@ -1321,22 +1321,22 @@
         <v>43913</v>
       </c>
       <c r="C23">
-        <v>5154</v>
+        <v>5151</v>
       </c>
       <c r="D23">
-        <v>5094</v>
+        <v>5091</v>
       </c>
       <c r="E23">
-        <v>5213</v>
+        <v>5209</v>
       </c>
       <c r="F23">
         <v>4684</v>
       </c>
       <c r="G23">
-        <v>4621</v>
+        <v>4627</v>
       </c>
       <c r="H23">
-        <v>4748</v>
+        <v>4743</v>
       </c>
       <c r="I23">
         <v>0.88</v>
@@ -1365,22 +1365,22 @@
         <v>43914</v>
       </c>
       <c r="C24">
-        <v>4091</v>
+        <v>4068</v>
       </c>
       <c r="D24">
-        <v>4031</v>
+        <v>4012</v>
       </c>
       <c r="E24">
-        <v>4150</v>
+        <v>4136</v>
       </c>
       <c r="F24">
-        <v>4374</v>
+        <v>4368</v>
       </c>
       <c r="G24">
         <v>4313</v>
       </c>
       <c r="H24">
-        <v>4437</v>
+        <v>4428</v>
       </c>
       <c r="I24">
         <v>0.85</v>
@@ -1409,22 +1409,22 @@
         <v>43915</v>
       </c>
       <c r="C25">
-        <v>4402</v>
+        <v>4423</v>
       </c>
       <c r="D25">
-        <v>4346</v>
+        <v>4364</v>
       </c>
       <c r="E25">
-        <v>4457</v>
+        <v>4483</v>
       </c>
       <c r="F25">
-        <v>4365</v>
+        <v>4363</v>
       </c>
       <c r="G25">
-        <v>4307</v>
+        <v>4305</v>
       </c>
       <c r="H25">
-        <v>4425</v>
+        <v>4423</v>
       </c>
       <c r="I25">
         <v>0.88</v>
@@ -1453,28 +1453,28 @@
         <v>43916</v>
       </c>
       <c r="C26">
-        <v>4017</v>
+        <v>4003</v>
       </c>
       <c r="D26">
-        <v>3960</v>
+        <v>3948</v>
       </c>
       <c r="E26">
-        <v>4080</v>
+        <v>4054</v>
       </c>
       <c r="F26">
-        <v>4416</v>
+        <v>4411</v>
       </c>
       <c r="G26">
-        <v>4357</v>
+        <v>4354</v>
       </c>
       <c r="H26">
-        <v>4475</v>
+        <v>4470</v>
       </c>
       <c r="I26">
         <v>0.96</v>
       </c>
       <c r="J26">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="K26">
         <v>0.97</v>
@@ -1497,22 +1497,22 @@
         <v>43917</v>
       </c>
       <c r="C27">
-        <v>4132</v>
+        <v>4121</v>
       </c>
       <c r="D27">
-        <v>4068</v>
+        <v>4066</v>
       </c>
       <c r="E27">
-        <v>4189</v>
+        <v>4182</v>
       </c>
       <c r="F27">
-        <v>4160</v>
+        <v>4154</v>
       </c>
       <c r="G27">
-        <v>4101</v>
+        <v>4097</v>
       </c>
       <c r="H27">
-        <v>4219</v>
+        <v>4214</v>
       </c>
       <c r="I27">
         <v>0.89</v>
@@ -1541,22 +1541,22 @@
         <v>43918</v>
       </c>
       <c r="C28">
-        <v>3879</v>
+        <v>3885</v>
       </c>
       <c r="D28">
-        <v>3825</v>
+        <v>3826</v>
       </c>
       <c r="E28">
-        <v>3942</v>
+        <v>3945</v>
       </c>
       <c r="F28">
-        <v>4107</v>
+        <v>4108</v>
       </c>
       <c r="G28">
-        <v>4050</v>
+        <v>4051</v>
       </c>
       <c r="H28">
-        <v>4167</v>
+        <v>4166</v>
       </c>
       <c r="I28">
         <v>0.9399999999999999</v>
@@ -1568,7 +1568,7 @@
         <v>0.95</v>
       </c>
       <c r="L28">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M28">
         <v>0.9</v>
@@ -1585,22 +1585,22 @@
         <v>43919</v>
       </c>
       <c r="C29">
-        <v>3275</v>
+        <v>3266</v>
       </c>
       <c r="D29">
-        <v>3220</v>
+        <v>3200</v>
       </c>
       <c r="E29">
-        <v>3334</v>
+        <v>3326</v>
       </c>
       <c r="F29">
-        <v>3826</v>
+        <v>3819</v>
       </c>
       <c r="G29">
-        <v>3768</v>
+        <v>3760</v>
       </c>
       <c r="H29">
-        <v>3886</v>
+        <v>3877</v>
       </c>
       <c r="I29">
         <v>0.88</v>
@@ -1609,7 +1609,7 @@
         <v>0.87</v>
       </c>
       <c r="K29">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="L29">
         <v>0.9</v>
@@ -1629,22 +1629,22 @@
         <v>43920</v>
       </c>
       <c r="C30">
-        <v>4404</v>
+        <v>4389</v>
       </c>
       <c r="D30">
-        <v>4349</v>
+        <v>4341</v>
       </c>
       <c r="E30">
-        <v>4466</v>
+        <v>4447</v>
       </c>
       <c r="F30">
-        <v>3922</v>
+        <v>3915</v>
       </c>
       <c r="G30">
-        <v>3866</v>
+        <v>3858</v>
       </c>
       <c r="H30">
-        <v>3982</v>
+        <v>3975</v>
       </c>
       <c r="I30">
         <v>0.89</v>
@@ -1673,22 +1673,22 @@
         <v>43921</v>
       </c>
       <c r="C31">
-        <v>3593</v>
+        <v>3576</v>
       </c>
       <c r="D31">
-        <v>3535</v>
+        <v>3500</v>
       </c>
       <c r="E31">
-        <v>3658</v>
+        <v>3638</v>
       </c>
       <c r="F31">
-        <v>3788</v>
+        <v>3779</v>
       </c>
       <c r="G31">
-        <v>3732</v>
+        <v>3717</v>
       </c>
       <c r="H31">
-        <v>3850</v>
+        <v>3839</v>
       </c>
       <c r="I31">
         <v>0.91</v>
@@ -1717,22 +1717,22 @@
         <v>43922</v>
       </c>
       <c r="C32">
-        <v>4043</v>
+        <v>4049</v>
       </c>
       <c r="D32">
-        <v>3992</v>
+        <v>3987</v>
       </c>
       <c r="E32">
-        <v>4106</v>
+        <v>4107</v>
       </c>
       <c r="F32">
-        <v>3829</v>
+        <v>3820</v>
       </c>
       <c r="G32">
-        <v>3774</v>
+        <v>3757</v>
       </c>
       <c r="H32">
-        <v>3891</v>
+        <v>3879</v>
       </c>
       <c r="I32">
         <v>0.93</v>
@@ -1761,22 +1761,22 @@
         <v>43923</v>
       </c>
       <c r="C33">
-        <v>3728</v>
+        <v>3725</v>
       </c>
       <c r="D33">
-        <v>3670</v>
+        <v>3656</v>
       </c>
       <c r="E33">
-        <v>3788</v>
+        <v>3789</v>
       </c>
       <c r="F33">
-        <v>3942</v>
+        <v>3935</v>
       </c>
       <c r="G33">
-        <v>3886</v>
+        <v>3871</v>
       </c>
       <c r="H33">
-        <v>4004</v>
+        <v>3995</v>
       </c>
       <c r="I33">
         <v>1.03</v>
@@ -1805,22 +1805,22 @@
         <v>43924</v>
       </c>
       <c r="C34">
-        <v>3743</v>
+        <v>3724</v>
       </c>
       <c r="D34">
-        <v>3692</v>
+        <v>3662</v>
       </c>
       <c r="E34">
-        <v>3808</v>
+        <v>3781</v>
       </c>
       <c r="F34">
-        <v>3777</v>
+        <v>3769</v>
       </c>
       <c r="G34">
-        <v>3722</v>
+        <v>3701</v>
       </c>
       <c r="H34">
-        <v>3840</v>
+        <v>3829</v>
       </c>
       <c r="I34">
         <v>0.96</v>
@@ -1835,7 +1835,7 @@
         <v>0.93</v>
       </c>
       <c r="M34">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="N34">
         <v>0.9399999999999999</v>
@@ -1849,22 +1849,22 @@
         <v>43925</v>
       </c>
       <c r="C35">
-        <v>3015</v>
+        <v>3008</v>
       </c>
       <c r="D35">
-        <v>2964</v>
+        <v>2949</v>
       </c>
       <c r="E35">
-        <v>3069</v>
+        <v>3061</v>
       </c>
       <c r="F35">
-        <v>3632</v>
+        <v>3627</v>
       </c>
       <c r="G35">
-        <v>3579</v>
+        <v>3563</v>
       </c>
       <c r="H35">
-        <v>3692</v>
+        <v>3684</v>
       </c>
       <c r="I35">
         <v>0.96</v>
@@ -1893,22 +1893,22 @@
         <v>43926</v>
       </c>
       <c r="C36">
-        <v>2707</v>
+        <v>2687</v>
       </c>
       <c r="D36">
-        <v>2647</v>
+        <v>2625</v>
       </c>
       <c r="E36">
-        <v>2763</v>
+        <v>2746</v>
       </c>
       <c r="F36">
-        <v>3298</v>
+        <v>3286</v>
       </c>
       <c r="G36">
-        <v>3243</v>
+        <v>3223</v>
       </c>
       <c r="H36">
-        <v>3357</v>
+        <v>3344</v>
       </c>
       <c r="I36">
         <v>0.86</v>
@@ -1937,22 +1937,22 @@
         <v>43927</v>
       </c>
       <c r="C37">
-        <v>3340</v>
+        <v>3335</v>
       </c>
       <c r="D37">
-        <v>3284</v>
+        <v>3274</v>
       </c>
       <c r="E37">
-        <v>3394</v>
+        <v>3388</v>
       </c>
       <c r="F37">
-        <v>3201</v>
+        <v>3188</v>
       </c>
       <c r="G37">
-        <v>3147</v>
+        <v>3127</v>
       </c>
       <c r="H37">
-        <v>3258</v>
+        <v>3244</v>
       </c>
       <c r="I37">
         <v>0.8100000000000001</v>
@@ -1981,22 +1981,22 @@
         <v>43928</v>
       </c>
       <c r="C38">
-        <v>3076</v>
+        <v>3050</v>
       </c>
       <c r="D38">
-        <v>3023</v>
+        <v>2984</v>
       </c>
       <c r="E38">
-        <v>3131</v>
+        <v>3112</v>
       </c>
       <c r="F38">
-        <v>3034</v>
+        <v>3020</v>
       </c>
       <c r="G38">
-        <v>2979</v>
+        <v>2958</v>
       </c>
       <c r="H38">
-        <v>3089</v>
+        <v>3077</v>
       </c>
       <c r="I38">
         <v>0.8</v>
@@ -2011,7 +2011,7 @@
         <v>0.87</v>
       </c>
       <c r="M38">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="N38">
         <v>0.88</v>
@@ -2025,31 +2025,31 @@
         <v>43929</v>
       </c>
       <c r="C39">
-        <v>2879</v>
+        <v>2868</v>
       </c>
       <c r="D39">
-        <v>2825</v>
+        <v>2815</v>
       </c>
       <c r="E39">
-        <v>2932</v>
+        <v>2914</v>
       </c>
       <c r="F39">
-        <v>3000</v>
+        <v>2985</v>
       </c>
       <c r="G39">
-        <v>2944</v>
+        <v>2924</v>
       </c>
       <c r="H39">
-        <v>3055</v>
+        <v>3040</v>
       </c>
       <c r="I39">
+        <v>0.82</v>
+      </c>
+      <c r="J39">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K39">
         <v>0.83</v>
-      </c>
-      <c r="J39">
-        <v>0.82</v>
-      </c>
-      <c r="K39">
-        <v>0.84</v>
       </c>
       <c r="L39">
         <v>0.85</v>
@@ -2069,22 +2069,22 @@
         <v>43930</v>
       </c>
       <c r="C40">
-        <v>2693</v>
+        <v>2699</v>
       </c>
       <c r="D40">
-        <v>2642</v>
+        <v>2649</v>
       </c>
       <c r="E40">
-        <v>2745</v>
+        <v>2748</v>
       </c>
       <c r="F40">
-        <v>2997</v>
+        <v>2988</v>
       </c>
       <c r="G40">
-        <v>2943</v>
+        <v>2930</v>
       </c>
       <c r="H40">
-        <v>3050</v>
+        <v>3041</v>
       </c>
       <c r="I40">
         <v>0.91</v>
@@ -2113,28 +2113,28 @@
         <v>43931</v>
       </c>
       <c r="C41">
-        <v>2320</v>
+        <v>2326</v>
       </c>
       <c r="D41">
-        <v>2269</v>
+        <v>2278</v>
       </c>
       <c r="E41">
-        <v>2376</v>
+        <v>2379</v>
       </c>
       <c r="F41">
-        <v>2742</v>
+        <v>2736</v>
       </c>
       <c r="G41">
-        <v>2689</v>
+        <v>2681</v>
       </c>
       <c r="H41">
-        <v>2796</v>
+        <v>2788</v>
       </c>
       <c r="I41">
         <v>0.86</v>
       </c>
       <c r="J41">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="K41">
         <v>0.87</v>
@@ -2157,28 +2157,28 @@
         <v>43932</v>
       </c>
       <c r="C42">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="D42">
-        <v>1960</v>
+        <v>1966</v>
       </c>
       <c r="E42">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="F42">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="G42">
-        <v>2424</v>
+        <v>2427</v>
       </c>
       <c r="H42">
-        <v>2528</v>
+        <v>2524</v>
       </c>
       <c r="I42">
         <v>0.82</v>
       </c>
       <c r="J42">
-        <v>0.8</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K42">
         <v>0.83</v>
@@ -2201,22 +2201,22 @@
         <v>43933</v>
       </c>
       <c r="C43">
-        <v>1960</v>
+        <v>1952</v>
       </c>
       <c r="D43">
-        <v>1911</v>
+        <v>1906</v>
       </c>
       <c r="E43">
-        <v>2005</v>
+        <v>2010</v>
       </c>
       <c r="F43">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="G43">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="H43">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="I43">
         <v>0.75</v>
@@ -2228,7 +2228,7 @@
         <v>0.76</v>
       </c>
       <c r="L43">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="M43">
         <v>0.78</v>
@@ -2245,22 +2245,22 @@
         <v>43934</v>
       </c>
       <c r="C44">
-        <v>1900</v>
+        <v>1887</v>
       </c>
       <c r="D44">
-        <v>1855</v>
+        <v>1840</v>
       </c>
       <c r="E44">
-        <v>1951</v>
+        <v>1934</v>
       </c>
       <c r="F44">
-        <v>2047</v>
+        <v>2044</v>
       </c>
       <c r="G44">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="H44">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="I44">
         <v>0.68</v>
@@ -2269,10 +2269,10 @@
         <v>0.67</v>
       </c>
       <c r="K44">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="L44">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="M44">
         <v>0.78</v>
@@ -2289,22 +2289,22 @@
         <v>43935</v>
       </c>
       <c r="C45">
-        <v>1954</v>
+        <v>1945</v>
       </c>
       <c r="D45">
-        <v>1905</v>
+        <v>1890</v>
       </c>
       <c r="E45">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="F45">
-        <v>1956</v>
+        <v>1949</v>
       </c>
       <c r="G45">
-        <v>1908</v>
+        <v>1900</v>
       </c>
       <c r="H45">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="I45">
         <v>0.71</v>
@@ -2333,22 +2333,22 @@
         <v>43936</v>
       </c>
       <c r="C46">
-        <v>1932</v>
+        <v>1934</v>
       </c>
       <c r="D46">
-        <v>1885</v>
+        <v>1889</v>
       </c>
       <c r="E46">
-        <v>1980</v>
+        <v>1984</v>
       </c>
       <c r="F46">
-        <v>1937</v>
+        <v>1930</v>
       </c>
       <c r="G46">
-        <v>1889</v>
+        <v>1881</v>
       </c>
       <c r="H46">
-        <v>1985</v>
+        <v>1982</v>
       </c>
       <c r="I46">
         <v>0.78</v>
@@ -2357,7 +2357,7 @@
         <v>0.77</v>
       </c>
       <c r="K46">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="L46">
         <v>0.76</v>
@@ -2377,37 +2377,37 @@
         <v>43937</v>
       </c>
       <c r="C47">
-        <v>1764</v>
+        <v>1750</v>
       </c>
       <c r="D47">
-        <v>1720</v>
+        <v>1699</v>
       </c>
       <c r="E47">
-        <v>1811</v>
+        <v>1800</v>
       </c>
       <c r="F47">
-        <v>1887</v>
+        <v>1879</v>
       </c>
       <c r="G47">
-        <v>1841</v>
+        <v>1829</v>
       </c>
       <c r="H47">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="I47">
         <v>0.84</v>
       </c>
       <c r="J47">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="K47">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L47">
         <v>0.78</v>
       </c>
       <c r="M47">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="N47">
         <v>0.79</v>
@@ -2421,22 +2421,22 @@
         <v>43938</v>
       </c>
       <c r="C48">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="D48">
-        <v>1611</v>
+        <v>1601</v>
       </c>
       <c r="E48">
-        <v>1701</v>
+        <v>1698</v>
       </c>
       <c r="F48">
-        <v>1826</v>
+        <v>1820</v>
       </c>
       <c r="G48">
-        <v>1780</v>
+        <v>1769</v>
       </c>
       <c r="H48">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="I48">
         <v>0.89</v>
@@ -2468,19 +2468,19 @@
         <v>1431</v>
       </c>
       <c r="D49">
-        <v>1389</v>
+        <v>1391</v>
       </c>
       <c r="E49">
-        <v>1478</v>
+        <v>1472</v>
       </c>
       <c r="F49">
-        <v>1695</v>
+        <v>1691</v>
       </c>
       <c r="G49">
-        <v>1651</v>
+        <v>1645</v>
       </c>
       <c r="H49">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="I49">
         <v>0.87</v>
@@ -2498,7 +2498,7 @@
         <v>0.8</v>
       </c>
       <c r="N49">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2509,22 +2509,22 @@
         <v>43940</v>
       </c>
       <c r="C50">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="D50">
-        <v>1270</v>
+        <v>1264</v>
       </c>
       <c r="E50">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="F50">
-        <v>1539</v>
+        <v>1534</v>
       </c>
       <c r="G50">
-        <v>1497</v>
+        <v>1489</v>
       </c>
       <c r="H50">
-        <v>1586</v>
+        <v>1580</v>
       </c>
       <c r="I50">
         <v>0.79</v>
@@ -2553,22 +2553,22 @@
         <v>43941</v>
       </c>
       <c r="C51">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="D51">
-        <v>1532</v>
+        <v>1541</v>
       </c>
       <c r="E51">
-        <v>1628</v>
+        <v>1622</v>
       </c>
       <c r="F51">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="G51">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="H51">
-        <v>1540</v>
+        <v>1536</v>
       </c>
       <c r="I51">
         <v>0.79</v>
@@ -2586,7 +2586,7 @@
         <v>0.83</v>
       </c>
       <c r="N51">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2597,22 +2597,22 @@
         <v>43942</v>
       </c>
       <c r="C52">
-        <v>1349</v>
+        <v>1355</v>
       </c>
       <c r="D52">
-        <v>1306</v>
+        <v>1313</v>
       </c>
       <c r="E52">
-        <v>1393</v>
+        <v>1402</v>
       </c>
       <c r="F52">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="G52">
-        <v>1374</v>
+        <v>1377</v>
       </c>
       <c r="H52">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="I52">
         <v>0.78</v>
@@ -2621,10 +2621,10 @@
         <v>0.76</v>
       </c>
       <c r="K52">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="L52">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="M52">
         <v>0.82</v>
@@ -2641,22 +2641,22 @@
         <v>43943</v>
       </c>
       <c r="C53">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D53">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="E53">
-        <v>1354</v>
+        <v>1349</v>
       </c>
       <c r="F53">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G53">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="H53">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I53">
         <v>0.82</v>
@@ -2685,28 +2685,28 @@
         <v>43944</v>
       </c>
       <c r="C54">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D54">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="E54">
-        <v>1322</v>
+        <v>1311</v>
       </c>
       <c r="F54">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G54">
-        <v>1332</v>
+        <v>1335</v>
       </c>
       <c r="H54">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I54">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="J54">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="K54">
         <v>0.91</v>
@@ -2729,40 +2729,40 @@
         <v>43945</v>
       </c>
       <c r="C55">
-        <v>1154</v>
+        <v>1147</v>
       </c>
       <c r="D55">
-        <v>1116</v>
+        <v>1109</v>
       </c>
       <c r="E55">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="F55">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="G55">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H55">
-        <v>1315</v>
+        <v>1311</v>
       </c>
       <c r="I55">
         <v>0.85</v>
       </c>
       <c r="J55">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="K55">
         <v>0.87</v>
       </c>
       <c r="L55">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="M55">
         <v>0.8100000000000001</v>
       </c>
       <c r="N55">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2773,31 +2773,31 @@
         <v>43946</v>
       </c>
       <c r="C56">
-        <v>1017</v>
+        <v>1008</v>
       </c>
       <c r="D56">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="E56">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="F56">
-        <v>1187</v>
+        <v>1182</v>
       </c>
       <c r="G56">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="H56">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="I56">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J56">
         <v>0.82</v>
       </c>
       <c r="K56">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L56">
         <v>0.83</v>
@@ -2823,22 +2823,22 @@
         <v>868</v>
       </c>
       <c r="E57">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="F57">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="G57">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="H57">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="I57">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="J57">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="K57">
         <v>0.8</v>
@@ -2861,22 +2861,22 @@
         <v>43948</v>
       </c>
       <c r="C58">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="D58">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E58">
-        <v>1141</v>
+        <v>1146</v>
       </c>
       <c r="F58">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="G58">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="H58">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="I58">
         <v>0.76</v>
@@ -2885,7 +2885,7 @@
         <v>0.74</v>
       </c>
       <c r="K58">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="L58">
         <v>0.82</v>
@@ -2905,28 +2905,28 @@
         <v>43949</v>
       </c>
       <c r="C59">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="D59">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E59">
         <v>986</v>
       </c>
       <c r="F59">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="G59">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="H59">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="I59">
         <v>0.78</v>
       </c>
       <c r="J59">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="K59">
         <v>0.8</v>
@@ -2949,22 +2949,22 @@
         <v>43950</v>
       </c>
       <c r="C60">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="D60">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="E60">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F60">
         <v>958</v>
       </c>
       <c r="G60">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H60">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="I60">
         <v>0.8100000000000001</v>
@@ -2993,22 +2993,22 @@
         <v>43951</v>
       </c>
       <c r="C61">
-        <v>932</v>
+        <v>938</v>
       </c>
       <c r="D61">
-        <v>897</v>
+        <v>905</v>
       </c>
       <c r="E61">
-        <v>968</v>
+        <v>976</v>
       </c>
       <c r="F61">
         <v>965</v>
       </c>
       <c r="G61">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H61">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="I61">
         <v>0.89</v>
@@ -3026,7 +3026,7 @@
         <v>0.8</v>
       </c>
       <c r="N61">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3037,31 +3037,31 @@
         <v>43952</v>
       </c>
       <c r="C62">
-        <v>810</v>
+        <v>818</v>
       </c>
       <c r="D62">
-        <v>777</v>
+        <v>785</v>
       </c>
       <c r="E62">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="F62">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="G62">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="H62">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="I62">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="J62">
         <v>0.83</v>
       </c>
       <c r="K62">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L62">
         <v>0.82</v>
@@ -3081,28 +3081,28 @@
         <v>43953</v>
       </c>
       <c r="C63">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D63">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="E63">
-        <v>769</v>
+        <v>779</v>
       </c>
       <c r="F63">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="G63">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="H63">
-        <v>872</v>
+        <v>879</v>
       </c>
       <c r="I63">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J63">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K63">
         <v>0.87</v>
@@ -3114,7 +3114,7 @@
         <v>0.84</v>
       </c>
       <c r="N63">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3125,31 +3125,31 @@
         <v>43954</v>
       </c>
       <c r="C64">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="D64">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E64">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="F64">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="G64">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="H64">
-        <v>843</v>
+        <v>851</v>
       </c>
       <c r="I64">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J64">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K64">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="L64">
         <v>0.86</v>
@@ -3158,7 +3158,7 @@
         <v>0.85</v>
       </c>
       <c r="N64">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3169,22 +3169,22 @@
         <v>43955</v>
       </c>
       <c r="C65">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="D65">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="E65">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F65">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="G65">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="H65">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="I65">
         <v>0.83</v>
@@ -3213,25 +3213,25 @@
         <v>43956</v>
       </c>
       <c r="C66">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="D66">
-        <v>795</v>
+        <v>782</v>
       </c>
       <c r="E66">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F66">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G66">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="H66">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="I66">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="J66">
         <v>0.88</v>
@@ -3240,7 +3240,7 @@
         <v>0.93</v>
       </c>
       <c r="L66">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="M66">
         <v>0.89</v>
@@ -3260,34 +3260,34 @@
         <v>748</v>
       </c>
       <c r="D67">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E67">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="F67">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="G67">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="H67">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="I67">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="J67">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="L67">
         <v>0.89</v>
       </c>
       <c r="M67">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="N67">
         <v>0.9</v>
@@ -3301,19 +3301,19 @@
         <v>43958</v>
       </c>
       <c r="C68">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="D68">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="E68">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="F68">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="G68">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="H68">
         <v>829</v>
@@ -3322,7 +3322,7 @@
         <v>0.98</v>
       </c>
       <c r="J68">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K68">
         <v>1.01</v>
@@ -3331,7 +3331,7 @@
         <v>0.9</v>
       </c>
       <c r="M68">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="N68">
         <v>0.91</v>
@@ -3345,22 +3345,22 @@
         <v>43959</v>
       </c>
       <c r="C69">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D69">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="E69">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="F69">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G69">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H69">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I69">
         <v>0.92</v>
@@ -3369,13 +3369,13 @@
         <v>0.89</v>
       </c>
       <c r="K69">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="L69">
         <v>0.89</v>
       </c>
       <c r="M69">
-        <v>0.88</v>
+        <v>0.87</v>
       </c>
       <c r="N69">
         <v>0.91</v>
@@ -3389,34 +3389,34 @@
         <v>43960</v>
       </c>
       <c r="C70">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D70">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="E70">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="F70">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G70">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="H70">
         <v>713</v>
       </c>
       <c r="I70">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="J70">
         <v>0.82</v>
       </c>
       <c r="K70">
+        <v>0.88</v>
+      </c>
+      <c r="L70">
         <v>0.87</v>
-      </c>
-      <c r="L70">
-        <v>0.88</v>
       </c>
       <c r="M70">
         <v>0.86</v>
@@ -3433,25 +3433,25 @@
         <v>43961</v>
       </c>
       <c r="C71">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D71">
         <v>529</v>
       </c>
       <c r="E71">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F71">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G71">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="H71">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I71">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="J71">
         <v>0.76</v>
@@ -3477,16 +3477,16 @@
         <v>43962</v>
       </c>
       <c r="C72">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D72">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E72">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="F72">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G72">
         <v>591</v>
@@ -3521,22 +3521,22 @@
         <v>43963</v>
       </c>
       <c r="C73">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D73">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E73">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F73">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G73">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H73">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I73">
         <v>0.82</v>
@@ -3548,7 +3548,7 @@
         <v>0.85</v>
       </c>
       <c r="L73">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="M73">
         <v>0.83</v>
@@ -3565,22 +3565,22 @@
         <v>43964</v>
       </c>
       <c r="C74">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="D74">
-        <v>549</v>
+        <v>558</v>
       </c>
       <c r="E74">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="F74">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="G74">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="H74">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="I74">
         <v>0.89</v>
@@ -3609,22 +3609,22 @@
         <v>43965</v>
       </c>
       <c r="C75">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="D75">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E75">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F75">
         <v>597</v>
       </c>
       <c r="G75">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="H75">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="I75">
         <v>0.9399999999999999</v>
@@ -3653,22 +3653,22 @@
         <v>43966</v>
       </c>
       <c r="C76">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D76">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E76">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="F76">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="G76">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="H76">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="I76">
         <v>0.97</v>
@@ -3677,7 +3677,7 @@
         <v>0.93</v>
       </c>
       <c r="K76">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="L76">
         <v>0.92</v>
@@ -3697,31 +3697,31 @@
         <v>43967</v>
       </c>
       <c r="C77">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="D77">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="E77">
-        <v>578</v>
+        <v>590</v>
       </c>
       <c r="F77">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G77">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="H77">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="I77">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="J77">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K77">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="L77">
         <v>0.92</v>
@@ -3741,13 +3741,13 @@
         <v>43968</v>
       </c>
       <c r="C78">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D78">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E78">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="F78">
         <v>550</v>
@@ -3756,7 +3756,7 @@
         <v>519</v>
       </c>
       <c r="H78">
-        <v>579</v>
+        <v>582</v>
       </c>
       <c r="I78">
         <v>0.91</v>
@@ -3771,7 +3771,7 @@
         <v>0.95</v>
       </c>
       <c r="M78">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N78">
         <v>0.97</v>
@@ -3785,28 +3785,28 @@
         <v>43969</v>
       </c>
       <c r="C79">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D79">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="E79">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F79">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="G79">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="H79">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="I79">
         <v>0.96</v>
       </c>
       <c r="J79">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="K79">
         <v>0.99</v>
@@ -3829,28 +3829,28 @@
         <v>43970</v>
       </c>
       <c r="C80">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D80">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E80">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F80">
         <v>522</v>
       </c>
       <c r="G80">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="H80">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="I80">
         <v>0.87</v>
       </c>
       <c r="J80">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="K80">
         <v>0.9</v>
@@ -3859,7 +3859,7 @@
         <v>0.92</v>
       </c>
       <c r="M80">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="N80">
         <v>0.9399999999999999</v>
@@ -3873,28 +3873,28 @@
         <v>43971</v>
       </c>
       <c r="C81">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D81">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E81">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="F81">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G81">
         <v>497</v>
       </c>
       <c r="H81">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="I81">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="J81">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="K81">
         <v>0.93</v>
@@ -3903,7 +3903,7 @@
         <v>0.92</v>
       </c>
       <c r="M81">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="N81">
         <v>0.93</v>
@@ -3917,37 +3917,37 @@
         <v>43972</v>
       </c>
       <c r="C82">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D82">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E82">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F82">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="G82">
         <v>485</v>
       </c>
       <c r="H82">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="I82">
         <v>0.93</v>
       </c>
       <c r="J82">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="K82">
         <v>0.97</v>
       </c>
       <c r="L82">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="M82">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="N82">
         <v>0.87</v>
@@ -3961,40 +3961,40 @@
         <v>43973</v>
       </c>
       <c r="C83">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D83">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E83">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F83">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G83">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H83">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="I83">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="J83">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="K83">
+        <v>0.82</v>
+      </c>
+      <c r="L83">
         <v>0.83</v>
       </c>
-      <c r="L83">
-        <v>0.84</v>
-      </c>
       <c r="M83">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="N83">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4005,34 +4005,34 @@
         <v>43974</v>
       </c>
       <c r="C84">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="D84">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="E84">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F84">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G84">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H84">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="I84">
-        <v>0.83</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J84">
         <v>0.79</v>
       </c>
       <c r="K84">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="L84">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="M84">
         <v>0.8100000000000001</v>
@@ -4049,37 +4049,37 @@
         <v>43975</v>
       </c>
       <c r="C85">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D85">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="E85">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F85">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="G85">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="H85">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="I85">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="J85">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K85">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="L85">
         <v>0.8100000000000001</v>
       </c>
       <c r="M85">
-        <v>0.8</v>
+        <v>0.79</v>
       </c>
       <c r="N85">
         <v>0.83</v>
@@ -4093,28 +4093,28 @@
         <v>43976</v>
       </c>
       <c r="C86">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D86">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E86">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="F86">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G86">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H86">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="I86">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="J86">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="K86">
         <v>0.8100000000000001</v>
@@ -4137,22 +4137,22 @@
         <v>43977</v>
       </c>
       <c r="C87">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D87">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E87">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F87">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G87">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H87">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="I87">
         <v>0.9</v>
@@ -4181,31 +4181,31 @@
         <v>43978</v>
       </c>
       <c r="C88">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D88">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E88">
         <v>485</v>
       </c>
       <c r="F88">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G88">
         <v>407</v>
       </c>
       <c r="H88">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I88">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="J88">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="K88">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="L88">
         <v>0.9</v>
@@ -4225,37 +4225,37 @@
         <v>43979</v>
       </c>
       <c r="C89">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D89">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E89">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="F89">
         <v>435</v>
       </c>
       <c r="G89">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="H89">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I89">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="J89">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="K89">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="L89">
-        <v>0.93</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="M89">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="N89">
         <v>0.96</v>
@@ -4269,40 +4269,40 @@
         <v>43980</v>
       </c>
       <c r="C90">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D90">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="E90">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F90">
         <v>407</v>
       </c>
       <c r="G90">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H90">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="I90">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="J90">
         <v>0.98</v>
       </c>
       <c r="K90">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="L90">
-        <v>0.92</v>
+        <v>0.93</v>
       </c>
       <c r="M90">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="N90">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4313,37 +4313,37 @@
         <v>43981</v>
       </c>
       <c r="C91">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="D91">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E91">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="F91">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G91">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H91">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="I91">
         <v>0.91</v>
       </c>
       <c r="J91">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="K91">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L91">
         <v>0.92</v>
       </c>
       <c r="M91">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="N91">
         <v>0.9399999999999999</v>
@@ -4357,31 +4357,31 @@
         <v>43982</v>
       </c>
       <c r="C92">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D92">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E92">
         <v>285</v>
       </c>
       <c r="F92">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G92">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H92">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="I92">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="J92">
         <v>0.71</v>
       </c>
       <c r="K92">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L92">
         <v>0.88</v>
@@ -4401,31 +4401,31 @@
         <v>43983</v>
       </c>
       <c r="C93">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="D93">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="E93">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F93">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G93">
         <v>287</v>
       </c>
       <c r="H93">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="I93">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="J93">
         <v>0.68</v>
       </c>
       <c r="K93">
-        <v>0.75</v>
+        <v>0.74</v>
       </c>
       <c r="L93">
         <v>0.89</v>
@@ -4434,7 +4434,7 @@
         <v>0.87</v>
       </c>
       <c r="N93">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4445,40 +4445,40 @@
         <v>43984</v>
       </c>
       <c r="C94">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D94">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="E94">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="F94">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G94">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H94">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="I94">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J94">
-        <v>0.78</v>
+        <v>0.77</v>
       </c>
       <c r="K94">
-        <v>0.87</v>
+        <v>0.85</v>
       </c>
       <c r="L94">
         <v>0.89</v>
       </c>
       <c r="M94">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="N94">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4489,40 +4489,40 @@
         <v>43985</v>
       </c>
       <c r="C95">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D95">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E95">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F95">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="G95">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="H95">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I95">
         <v>0.96</v>
       </c>
       <c r="J95">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K95">
         <v>1.01</v>
       </c>
       <c r="L95">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="M95">
         <v>0.89</v>
       </c>
       <c r="N95">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4533,40 +4533,40 @@
         <v>43986</v>
       </c>
       <c r="C96">
+        <v>342</v>
+      </c>
+      <c r="D96">
+        <v>321</v>
+      </c>
+      <c r="E96">
         <v>363</v>
       </c>
-      <c r="D96">
-        <v>338</v>
-      </c>
-      <c r="E96">
-        <v>392</v>
-      </c>
       <c r="F96">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="G96">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H96">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="I96">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J96">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="K96">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="L96">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="M96">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="N96">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4577,31 +4577,31 @@
         <v>43987</v>
       </c>
       <c r="C97">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="D97">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E97">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F97">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="G97">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H97">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="I97">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="J97">
         <v>1.16</v>
       </c>
       <c r="K97">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="L97">
         <v>0.95</v>
@@ -4610,7 +4610,7 @@
         <v>0.93</v>
       </c>
       <c r="N97">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4621,40 +4621,40 @@
         <v>43988</v>
       </c>
       <c r="C98">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D98">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="E98">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F98">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G98">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H98">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="I98">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="J98">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="K98">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="L98">
-        <v>0.97</v>
+        <v>0.96</v>
       </c>
       <c r="M98">
         <v>0.9399999999999999</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4665,37 +4665,37 @@
         <v>43989</v>
       </c>
       <c r="C99">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D99">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="E99">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F99">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G99">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H99">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="I99">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="J99">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="K99">
-        <v>0.89</v>
+        <v>0.87</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="M99">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="N99">
         <v>1.03</v>
@@ -4709,40 +4709,40 @@
         <v>43990</v>
       </c>
       <c r="C100">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="D100">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="E100">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="F100">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="G100">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="H100">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="I100">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="J100">
-        <v>0.76</v>
+        <v>0.8</v>
       </c>
       <c r="K100">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="L100">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="M100">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4753,40 +4753,40 @@
         <v>43991</v>
       </c>
       <c r="C101">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="D101">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="E101">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F101">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="G101">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="H101">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I101">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="J101">
-        <v>0.84</v>
+        <v>0.9</v>
       </c>
       <c r="K101">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="L101">
+        <v>1.04</v>
+      </c>
+      <c r="M101">
         <v>1.01</v>
       </c>
-      <c r="M101">
-        <v>0.98</v>
-      </c>
       <c r="N101">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4797,40 +4797,40 @@
         <v>43992</v>
       </c>
       <c r="C102">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="D102">
-        <v>354</v>
+        <v>403</v>
       </c>
       <c r="E102">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F102">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="G102">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="H102">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="I102">
+        <v>1.13</v>
+      </c>
+      <c r="J102">
         <v>1.07</v>
       </c>
-      <c r="J102">
-        <v>1.01</v>
-      </c>
       <c r="K102">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="L102">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="M102">
-        <v>0.98</v>
+        <v>1.04</v>
       </c>
       <c r="N102">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4841,40 +4841,40 @@
         <v>43993</v>
       </c>
       <c r="C103">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="D103">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="E103">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F103">
-        <v>397</v>
+        <v>415</v>
       </c>
       <c r="G103">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="H103">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="I103">
-        <v>1.31</v>
+        <v>1.39</v>
       </c>
       <c r="J103">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="K103">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="L103">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="M103">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="N103">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4885,40 +4885,40 @@
         <v>43994</v>
       </c>
       <c r="C104">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D104">
-        <v>295</v>
+        <v>344</v>
       </c>
       <c r="E104">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F104">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="G104">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="H104">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="I104">
-        <v>1.23</v>
+        <v>1.27</v>
       </c>
       <c r="J104">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="K104">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="L104">
-        <v>1.03</v>
+        <v>1.07</v>
       </c>
       <c r="M104">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="N104">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -4929,40 +4929,40 @@
         <v>43995</v>
       </c>
       <c r="C105">
+        <v>367</v>
+      </c>
+      <c r="D105">
         <v>344</v>
       </c>
-      <c r="D105">
-        <v>288</v>
-      </c>
       <c r="E105">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="F105">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="G105">
-        <v>309</v>
+        <v>358</v>
       </c>
       <c r="H105">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="I105">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="J105">
-        <v>0.98</v>
+        <v>1.05</v>
       </c>
       <c r="K105">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="L105">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="M105">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N105">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -4973,40 +4973,40 @@
         <v>43996</v>
       </c>
       <c r="C106">
+        <v>356</v>
+      </c>
+      <c r="D106">
+        <v>330</v>
+      </c>
+      <c r="E106">
+        <v>383</v>
+      </c>
+      <c r="F106">
+        <v>364</v>
+      </c>
+      <c r="G106">
         <v>340</v>
       </c>
-      <c r="D106">
-        <v>259</v>
-      </c>
-      <c r="E106">
-        <v>412</v>
-      </c>
-      <c r="F106">
-        <v>344</v>
-      </c>
-      <c r="G106">
-        <v>285</v>
-      </c>
       <c r="H106">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="I106">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="J106">
-        <v>0.85</v>
+        <v>0.91</v>
       </c>
       <c r="K106">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="L106">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="M106">
-        <v>1.12</v>
+        <v>1.16</v>
       </c>
       <c r="N106">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5017,40 +5017,40 @@
         <v>43997</v>
       </c>
       <c r="C107">
-        <v>706</v>
+        <v>646</v>
       </c>
       <c r="D107">
-        <v>549</v>
+        <v>615</v>
       </c>
       <c r="E107">
-        <v>879</v>
+        <v>680</v>
       </c>
       <c r="F107">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G107">
-        <v>347</v>
+        <v>408</v>
       </c>
       <c r="H107">
-        <v>523</v>
+        <v>461</v>
       </c>
       <c r="I107">
+        <v>1.05</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
         <v>1.09</v>
       </c>
-      <c r="J107">
-        <v>0.97</v>
-      </c>
-      <c r="K107">
-        <v>1.22</v>
-      </c>
       <c r="L107">
-        <v>1.65</v>
+        <v>1.43</v>
       </c>
       <c r="M107">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="N107">
-        <v>1.87</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5061,40 +5061,40 @@
         <v>43998</v>
       </c>
       <c r="C108">
-        <v>1566</v>
+        <v>1121</v>
       </c>
       <c r="D108">
-        <v>1033</v>
+        <v>1087</v>
       </c>
       <c r="E108">
-        <v>2040</v>
+        <v>1158</v>
       </c>
       <c r="F108">
-        <v>739</v>
+        <v>623</v>
       </c>
       <c r="G108">
-        <v>532</v>
+        <v>594</v>
       </c>
       <c r="H108">
-        <v>933</v>
+        <v>654</v>
       </c>
       <c r="I108">
-        <v>1.93</v>
+        <v>1.55</v>
       </c>
       <c r="J108">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="K108">
-        <v>2.3</v>
+        <v>1.61</v>
       </c>
       <c r="L108">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="M108">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="N108">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5105,40 +5105,40 @@
         <v>43999</v>
       </c>
       <c r="C109">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D109">
-        <v>480</v>
+        <v>629</v>
       </c>
       <c r="E109">
-        <v>845</v>
+        <v>699</v>
       </c>
       <c r="F109">
-        <v>820</v>
+        <v>697</v>
       </c>
       <c r="G109">
-        <v>580</v>
+        <v>665</v>
       </c>
       <c r="H109">
-        <v>1044</v>
+        <v>730</v>
       </c>
       <c r="I109">
-        <v>2.27</v>
+        <v>1.82</v>
       </c>
       <c r="J109">
-        <v>1.85</v>
+        <v>1.76</v>
       </c>
       <c r="K109">
-        <v>2.68</v>
+        <v>1.89</v>
       </c>
       <c r="L109">
-        <v>1.72</v>
+        <v>1.48</v>
       </c>
       <c r="M109">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="N109">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -5149,40 +5149,40 @@
         <v>44000</v>
       </c>
       <c r="C110">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D110">
-        <v>369</v>
+        <v>504</v>
       </c>
       <c r="E110">
-        <v>700</v>
+        <v>567</v>
       </c>
       <c r="F110">
-        <v>869</v>
+        <v>743</v>
       </c>
       <c r="G110">
-        <v>608</v>
+        <v>709</v>
       </c>
       <c r="H110">
-        <v>1116</v>
+        <v>776</v>
       </c>
       <c r="I110">
-        <v>2.53</v>
+        <v>2.04</v>
       </c>
       <c r="J110">
-        <v>2.08</v>
+        <v>1.96</v>
       </c>
       <c r="K110">
-        <v>2.92</v>
+        <v>2.13</v>
       </c>
       <c r="L110">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="M110">
         <v>1.4</v>
       </c>
       <c r="N110">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -5193,31 +5193,1791 @@
         <v>44001</v>
       </c>
       <c r="C111">
-        <v>715</v>
+        <v>572</v>
       </c>
       <c r="D111">
-        <v>245</v>
+        <v>535</v>
       </c>
       <c r="E111">
-        <v>1178</v>
+        <v>600</v>
       </c>
       <c r="F111">
-        <v>871</v>
+        <v>725</v>
       </c>
       <c r="G111">
-        <v>532</v>
+        <v>689</v>
       </c>
       <c r="H111">
-        <v>1191</v>
+        <v>756</v>
       </c>
       <c r="I111">
-        <v>2.02</v>
+        <v>1.67</v>
       </c>
       <c r="J111">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="K111">
-        <v>2.41</v>
+        <v>1.73</v>
+      </c>
+      <c r="L111">
+        <v>1.2</v>
+      </c>
+      <c r="M111">
+        <v>1.18</v>
+      </c>
+      <c r="N111">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112" s="2">
+        <v>44002</v>
+      </c>
+      <c r="C112">
+        <v>475</v>
+      </c>
+      <c r="D112">
+        <v>447</v>
+      </c>
+      <c r="E112">
+        <v>506</v>
+      </c>
+      <c r="F112">
+        <v>563</v>
+      </c>
+      <c r="G112">
+        <v>529</v>
+      </c>
+      <c r="H112">
+        <v>593</v>
+      </c>
+      <c r="I112">
+        <v>0.9</v>
+      </c>
+      <c r="J112">
+        <v>0.87</v>
+      </c>
+      <c r="K112">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L112">
+        <v>1.13</v>
+      </c>
+      <c r="M112">
+        <v>1.11</v>
+      </c>
+      <c r="N112">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113" s="2">
+        <v>44003</v>
+      </c>
+      <c r="C113">
+        <v>373</v>
+      </c>
+      <c r="D113">
+        <v>350</v>
+      </c>
+      <c r="E113">
+        <v>399</v>
+      </c>
+      <c r="F113">
+        <v>490</v>
+      </c>
+      <c r="G113">
+        <v>459</v>
+      </c>
+      <c r="H113">
+        <v>518</v>
+      </c>
+      <c r="I113">
+        <v>0.7</v>
+      </c>
+      <c r="J113">
+        <v>0.68</v>
+      </c>
+      <c r="K113">
+        <v>0.73</v>
+      </c>
+      <c r="L113">
+        <v>1.04</v>
+      </c>
+      <c r="M113">
+        <v>1.02</v>
+      </c>
+      <c r="N113">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114" s="2">
+        <v>44004</v>
+      </c>
+      <c r="C114">
+        <v>475</v>
+      </c>
+      <c r="D114">
+        <v>451</v>
+      </c>
+      <c r="E114">
+        <v>506</v>
+      </c>
+      <c r="F114">
+        <v>474</v>
+      </c>
+      <c r="G114">
+        <v>446</v>
+      </c>
+      <c r="H114">
+        <v>503</v>
+      </c>
+      <c r="I114">
+        <v>0.64</v>
+      </c>
+      <c r="J114">
+        <v>0.62</v>
+      </c>
+      <c r="K114">
+        <v>0.66</v>
+      </c>
+      <c r="L114">
+        <v>0.83</v>
+      </c>
+      <c r="M114">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N114">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115" s="2">
+        <v>44005</v>
+      </c>
+      <c r="C115">
+        <v>428</v>
+      </c>
+      <c r="D115">
+        <v>405</v>
+      </c>
+      <c r="E115">
+        <v>456</v>
+      </c>
+      <c r="F115">
+        <v>438</v>
+      </c>
+      <c r="G115">
+        <v>413</v>
+      </c>
+      <c r="H115">
+        <v>467</v>
+      </c>
+      <c r="I115">
+        <v>0.6</v>
+      </c>
+      <c r="J115">
+        <v>0.58</v>
+      </c>
+      <c r="K115">
+        <v>0.63</v>
+      </c>
+      <c r="L115">
+        <v>0.76</v>
+      </c>
+      <c r="M115">
+        <v>0.75</v>
+      </c>
+      <c r="N115">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116" s="2">
+        <v>44006</v>
+      </c>
+      <c r="C116">
+        <v>466</v>
+      </c>
+      <c r="D116">
+        <v>443</v>
+      </c>
+      <c r="E116">
+        <v>493</v>
+      </c>
+      <c r="F116">
+        <v>436</v>
+      </c>
+      <c r="G116">
+        <v>412</v>
+      </c>
+      <c r="H116">
+        <v>463</v>
+      </c>
+      <c r="I116">
+        <v>0.77</v>
+      </c>
+      <c r="J116">
+        <v>0.74</v>
+      </c>
+      <c r="K116">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L116">
+        <v>0.73</v>
+      </c>
+      <c r="M116">
+        <v>0.71</v>
+      </c>
+      <c r="N116">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" s="2">
+        <v>44007</v>
+      </c>
+      <c r="C117">
+        <v>405</v>
+      </c>
+      <c r="D117">
+        <v>381</v>
+      </c>
+      <c r="E117">
+        <v>431</v>
+      </c>
+      <c r="F117">
+        <v>444</v>
+      </c>
+      <c r="G117">
+        <v>420</v>
+      </c>
+      <c r="H117">
+        <v>471</v>
+      </c>
+      <c r="I117">
+        <v>0.91</v>
+      </c>
+      <c r="J117">
+        <v>0.87</v>
+      </c>
+      <c r="K117">
+        <v>0.95</v>
+      </c>
+      <c r="L117">
+        <v>0.72</v>
+      </c>
+      <c r="M117">
+        <v>0.71</v>
+      </c>
+      <c r="N117">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118" s="2">
+        <v>44008</v>
+      </c>
+      <c r="C118">
+        <v>430</v>
+      </c>
+      <c r="D118">
+        <v>405</v>
+      </c>
+      <c r="E118">
+        <v>457</v>
+      </c>
+      <c r="F118">
+        <v>432</v>
+      </c>
+      <c r="G118">
+        <v>408</v>
+      </c>
+      <c r="H118">
+        <v>459</v>
+      </c>
+      <c r="I118">
+        <v>0.91</v>
+      </c>
+      <c r="J118">
+        <v>0.88</v>
+      </c>
+      <c r="K118">
+        <v>0.95</v>
+      </c>
+      <c r="L118">
+        <v>0.83</v>
+      </c>
+      <c r="M118">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="N118">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119" s="2">
+        <v>44009</v>
+      </c>
+      <c r="C119">
+        <v>354</v>
+      </c>
+      <c r="D119">
+        <v>330</v>
+      </c>
+      <c r="E119">
+        <v>382</v>
+      </c>
+      <c r="F119">
+        <v>414</v>
+      </c>
+      <c r="G119">
+        <v>390</v>
+      </c>
+      <c r="H119">
+        <v>440</v>
+      </c>
+      <c r="I119">
+        <v>0.95</v>
+      </c>
+      <c r="J119">
+        <v>0.9</v>
+      </c>
+      <c r="K119">
+        <v>0.99</v>
+      </c>
+      <c r="L119">
+        <v>0.86</v>
+      </c>
+      <c r="M119">
+        <v>0.85</v>
+      </c>
+      <c r="N119">
+        <v>0.89</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120" s="2">
+        <v>44010</v>
+      </c>
+      <c r="C120">
+        <v>317</v>
+      </c>
+      <c r="D120">
+        <v>297</v>
+      </c>
+      <c r="E120">
+        <v>340</v>
+      </c>
+      <c r="F120">
+        <v>377</v>
+      </c>
+      <c r="G120">
+        <v>353</v>
+      </c>
+      <c r="H120">
+        <v>402</v>
+      </c>
+      <c r="I120">
+        <v>0.86</v>
+      </c>
+      <c r="J120">
+        <v>0.82</v>
+      </c>
+      <c r="K120">
+        <v>0.9</v>
+      </c>
+      <c r="L120">
+        <v>0.88</v>
+      </c>
+      <c r="M120">
+        <v>0.87</v>
+      </c>
+      <c r="N120">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121" s="2">
+        <v>44011</v>
+      </c>
+      <c r="C121">
+        <v>425</v>
+      </c>
+      <c r="D121">
+        <v>401</v>
+      </c>
+      <c r="E121">
+        <v>451</v>
+      </c>
+      <c r="F121">
+        <v>382</v>
+      </c>
+      <c r="G121">
+        <v>358</v>
+      </c>
+      <c r="H121">
+        <v>407</v>
+      </c>
+      <c r="I121">
+        <v>0.86</v>
+      </c>
+      <c r="J121">
+        <v>0.82</v>
+      </c>
+      <c r="K121">
+        <v>0.9</v>
+      </c>
+      <c r="L121">
+        <v>0.93</v>
+      </c>
+      <c r="M121">
+        <v>0.91</v>
+      </c>
+      <c r="N121">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122" s="2">
+        <v>44012</v>
+      </c>
+      <c r="C122">
+        <v>442</v>
+      </c>
+      <c r="D122">
+        <v>415</v>
+      </c>
+      <c r="E122">
+        <v>469</v>
+      </c>
+      <c r="F122">
+        <v>385</v>
+      </c>
+      <c r="G122">
+        <v>361</v>
+      </c>
+      <c r="H122">
+        <v>410</v>
+      </c>
+      <c r="I122">
+        <v>0.89</v>
+      </c>
+      <c r="J122">
+        <v>0.85</v>
+      </c>
+      <c r="K122">
+        <v>0.93</v>
+      </c>
+      <c r="L122">
+        <v>0.95</v>
+      </c>
+      <c r="M122">
+        <v>0.92</v>
+      </c>
+      <c r="N122">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C123">
+        <v>402</v>
+      </c>
+      <c r="D123">
+        <v>378</v>
+      </c>
+      <c r="E123">
+        <v>426</v>
+      </c>
+      <c r="F123">
+        <v>397</v>
+      </c>
+      <c r="G123">
+        <v>372</v>
+      </c>
+      <c r="H123">
+        <v>421</v>
+      </c>
+      <c r="I123">
+        <v>0.96</v>
+      </c>
+      <c r="J123">
+        <v>0.91</v>
+      </c>
+      <c r="K123">
+        <v>1</v>
+      </c>
+      <c r="L123">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="M123">
+        <v>0.92</v>
+      </c>
+      <c r="N123">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124" s="2">
+        <v>44014</v>
+      </c>
+      <c r="C124">
+        <v>342</v>
+      </c>
+      <c r="D124">
+        <v>317</v>
+      </c>
+      <c r="E124">
+        <v>365</v>
+      </c>
+      <c r="F124">
+        <v>403</v>
+      </c>
+      <c r="G124">
+        <v>378</v>
+      </c>
+      <c r="H124">
+        <v>428</v>
+      </c>
+      <c r="I124">
+        <v>1.07</v>
+      </c>
+      <c r="J124">
+        <v>1.03</v>
+      </c>
+      <c r="K124">
+        <v>1.12</v>
+      </c>
+      <c r="L124">
+        <v>0.93</v>
+      </c>
+      <c r="M124">
+        <v>0.91</v>
+      </c>
+      <c r="N124">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125" s="2">
+        <v>44015</v>
+      </c>
+      <c r="C125">
+        <v>348</v>
+      </c>
+      <c r="D125">
+        <v>328</v>
+      </c>
+      <c r="E125">
+        <v>371</v>
+      </c>
+      <c r="F125">
+        <v>384</v>
+      </c>
+      <c r="G125">
+        <v>359</v>
+      </c>
+      <c r="H125">
+        <v>408</v>
+      </c>
+      <c r="I125">
+        <v>1.01</v>
+      </c>
+      <c r="J125">
+        <v>0.96</v>
+      </c>
+      <c r="K125">
+        <v>1.06</v>
+      </c>
+      <c r="L125">
+        <v>0.91</v>
+      </c>
+      <c r="M125">
+        <v>0.88</v>
+      </c>
+      <c r="N125">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126" s="2">
+        <v>44016</v>
+      </c>
+      <c r="C126">
+        <v>295</v>
+      </c>
+      <c r="D126">
+        <v>274</v>
+      </c>
+      <c r="E126">
+        <v>320</v>
+      </c>
+      <c r="F126">
+        <v>347</v>
+      </c>
+      <c r="G126">
+        <v>324</v>
+      </c>
+      <c r="H126">
+        <v>370</v>
+      </c>
+      <c r="I126">
+        <v>0.9</v>
+      </c>
+      <c r="J126">
+        <v>0.86</v>
+      </c>
+      <c r="K126">
+        <v>0.95</v>
+      </c>
+      <c r="L126">
+        <v>0.92</v>
+      </c>
+      <c r="M126">
+        <v>0.9</v>
+      </c>
+      <c r="N126">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127" s="2">
+        <v>44017</v>
+      </c>
+      <c r="C127">
+        <v>300</v>
+      </c>
+      <c r="D127">
+        <v>274</v>
+      </c>
+      <c r="E127">
+        <v>327</v>
+      </c>
+      <c r="F127">
+        <v>321</v>
+      </c>
+      <c r="G127">
+        <v>298</v>
+      </c>
+      <c r="H127">
+        <v>346</v>
+      </c>
+      <c r="I127">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J127">
+        <v>0.78</v>
+      </c>
+      <c r="K127">
+        <v>0.85</v>
+      </c>
+      <c r="L127">
+        <v>0.92</v>
+      </c>
+      <c r="M127">
+        <v>0.9</v>
+      </c>
+      <c r="N127">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128" s="2">
+        <v>44018</v>
+      </c>
+      <c r="C128">
+        <v>361</v>
+      </c>
+      <c r="D128">
+        <v>335</v>
+      </c>
+      <c r="E128">
+        <v>387</v>
+      </c>
+      <c r="F128">
+        <v>326</v>
+      </c>
+      <c r="G128">
+        <v>303</v>
+      </c>
+      <c r="H128">
+        <v>352</v>
+      </c>
+      <c r="I128">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="J128">
+        <v>0.77</v>
+      </c>
+      <c r="K128">
+        <v>0.84</v>
+      </c>
+      <c r="L128">
+        <v>0.91</v>
+      </c>
+      <c r="M128">
+        <v>0.89</v>
+      </c>
+      <c r="N128">
+        <v>0.9399999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129" s="2">
+        <v>44019</v>
+      </c>
+      <c r="C129">
+        <v>352</v>
+      </c>
+      <c r="D129">
+        <v>328</v>
+      </c>
+      <c r="E129">
+        <v>380</v>
+      </c>
+      <c r="F129">
+        <v>327</v>
+      </c>
+      <c r="G129">
+        <v>302</v>
+      </c>
+      <c r="H129">
+        <v>354</v>
+      </c>
+      <c r="I129">
+        <v>0.85</v>
+      </c>
+      <c r="J129">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="K129">
+        <v>0.89</v>
+      </c>
+      <c r="L129">
+        <v>0.91</v>
+      </c>
+      <c r="M129">
+        <v>0.88</v>
+      </c>
+      <c r="N129">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130" s="2">
+        <v>44020</v>
+      </c>
+      <c r="C130">
+        <v>335</v>
+      </c>
+      <c r="D130">
+        <v>311</v>
+      </c>
+      <c r="E130">
+        <v>359</v>
+      </c>
+      <c r="F130">
+        <v>337</v>
+      </c>
+      <c r="G130">
+        <v>312</v>
+      </c>
+      <c r="H130">
+        <v>363</v>
+      </c>
+      <c r="I130">
+        <v>0.97</v>
+      </c>
+      <c r="J130">
+        <v>0.93</v>
+      </c>
+      <c r="K130">
+        <v>1.03</v>
+      </c>
+      <c r="L130">
+        <v>0.93</v>
+      </c>
+      <c r="M130">
+        <v>0.9</v>
+      </c>
+      <c r="N130">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131" s="2">
+        <v>44021</v>
+      </c>
+      <c r="C131">
+        <v>377</v>
+      </c>
+      <c r="D131">
+        <v>345</v>
+      </c>
+      <c r="E131">
+        <v>406</v>
+      </c>
+      <c r="F131">
+        <v>356</v>
+      </c>
+      <c r="G131">
+        <v>330</v>
+      </c>
+      <c r="H131">
+        <v>383</v>
+      </c>
+      <c r="I131">
+        <v>1.11</v>
+      </c>
+      <c r="J131">
+        <v>1.06</v>
+      </c>
+      <c r="K131">
+        <v>1.17</v>
+      </c>
+      <c r="L131">
+        <v>0.99</v>
+      </c>
+      <c r="M131">
+        <v>0.96</v>
+      </c>
+      <c r="N131">
+        <v>1.01</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132" s="2">
+        <v>44022</v>
+      </c>
+      <c r="C132">
+        <v>437</v>
+      </c>
+      <c r="D132">
+        <v>410</v>
+      </c>
+      <c r="E132">
+        <v>466</v>
+      </c>
+      <c r="F132">
+        <v>375</v>
+      </c>
+      <c r="G132">
+        <v>348</v>
+      </c>
+      <c r="H132">
+        <v>403</v>
+      </c>
+      <c r="I132">
+        <v>1.15</v>
+      </c>
+      <c r="J132">
+        <v>1.1</v>
+      </c>
+      <c r="K132">
+        <v>1.2</v>
+      </c>
+      <c r="L132">
+        <v>1.06</v>
+      </c>
+      <c r="M132">
+        <v>1.04</v>
+      </c>
+      <c r="N132">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133" s="2">
+        <v>44023</v>
+      </c>
+      <c r="C133">
+        <v>394</v>
+      </c>
+      <c r="D133">
+        <v>369</v>
+      </c>
+      <c r="E133">
+        <v>421</v>
+      </c>
+      <c r="F133">
+        <v>386</v>
+      </c>
+      <c r="G133">
+        <v>359</v>
+      </c>
+      <c r="H133">
+        <v>413</v>
+      </c>
+      <c r="I133">
+        <v>1.18</v>
+      </c>
+      <c r="J133">
+        <v>1.12</v>
+      </c>
+      <c r="K133">
+        <v>1.24</v>
+      </c>
+      <c r="L133">
+        <v>1.12</v>
+      </c>
+      <c r="M133">
+        <v>1.1</v>
+      </c>
+      <c r="N133">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134" s="2">
+        <v>44024</v>
+      </c>
+      <c r="C134">
+        <v>366</v>
+      </c>
+      <c r="D134">
+        <v>342</v>
+      </c>
+      <c r="E134">
+        <v>399</v>
+      </c>
+      <c r="F134">
+        <v>393</v>
+      </c>
+      <c r="G134">
+        <v>366</v>
+      </c>
+      <c r="H134">
+        <v>423</v>
+      </c>
+      <c r="I134">
+        <v>1.17</v>
+      </c>
+      <c r="J134">
+        <v>1.11</v>
+      </c>
+      <c r="K134">
+        <v>1.23</v>
+      </c>
+      <c r="L134">
+        <v>1.18</v>
+      </c>
+      <c r="M134">
+        <v>1.15</v>
+      </c>
+      <c r="N134">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135" s="2">
+        <v>44025</v>
+      </c>
+      <c r="C135">
+        <v>540</v>
+      </c>
+      <c r="D135">
+        <v>504</v>
+      </c>
+      <c r="E135">
+        <v>572</v>
+      </c>
+      <c r="F135">
+        <v>434</v>
+      </c>
+      <c r="G135">
+        <v>406</v>
+      </c>
+      <c r="H135">
+        <v>465</v>
+      </c>
+      <c r="I135">
+        <v>1.22</v>
+      </c>
+      <c r="J135">
+        <v>1.16</v>
+      </c>
+      <c r="K135">
+        <v>1.28</v>
+      </c>
+      <c r="L135">
+        <v>1.21</v>
+      </c>
+      <c r="M135">
+        <v>1.18</v>
+      </c>
+      <c r="N135">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136" s="2">
+        <v>44026</v>
+      </c>
+      <c r="C136">
+        <v>528</v>
+      </c>
+      <c r="D136">
+        <v>492</v>
+      </c>
+      <c r="E136">
+        <v>561</v>
+      </c>
+      <c r="F136">
+        <v>457</v>
+      </c>
+      <c r="G136">
+        <v>427</v>
+      </c>
+      <c r="H136">
+        <v>488</v>
+      </c>
+      <c r="I136">
+        <v>1.22</v>
+      </c>
+      <c r="J136">
+        <v>1.16</v>
+      </c>
+      <c r="K136">
+        <v>1.28</v>
+      </c>
+      <c r="L136">
+        <v>1.25</v>
+      </c>
+      <c r="M136">
+        <v>1.22</v>
+      </c>
+      <c r="N136">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137" s="2">
+        <v>44027</v>
+      </c>
+      <c r="C137">
+        <v>552</v>
+      </c>
+      <c r="D137">
+        <v>520</v>
+      </c>
+      <c r="E137">
+        <v>589</v>
+      </c>
+      <c r="F137">
+        <v>497</v>
+      </c>
+      <c r="G137">
+        <v>464</v>
+      </c>
+      <c r="H137">
+        <v>530</v>
+      </c>
+      <c r="I137">
+        <v>1.29</v>
+      </c>
+      <c r="J137">
+        <v>1.23</v>
+      </c>
+      <c r="K137">
+        <v>1.35</v>
+      </c>
+      <c r="L137">
+        <v>1.26</v>
+      </c>
+      <c r="M137">
+        <v>1.22</v>
+      </c>
+      <c r="N137">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138" s="2">
+        <v>44028</v>
+      </c>
+      <c r="C138">
+        <v>473</v>
+      </c>
+      <c r="D138">
+        <v>441</v>
+      </c>
+      <c r="E138">
+        <v>502</v>
+      </c>
+      <c r="F138">
+        <v>523</v>
+      </c>
+      <c r="G138">
+        <v>489</v>
+      </c>
+      <c r="H138">
+        <v>556</v>
+      </c>
+      <c r="I138">
+        <v>1.33</v>
+      </c>
+      <c r="J138">
+        <v>1.27</v>
+      </c>
+      <c r="K138">
+        <v>1.39</v>
+      </c>
+      <c r="L138">
+        <v>1.2</v>
+      </c>
+      <c r="M138">
+        <v>1.17</v>
+      </c>
+      <c r="N138">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139" s="2">
+        <v>44029</v>
+      </c>
+      <c r="C139">
+        <v>520</v>
+      </c>
+      <c r="D139">
+        <v>485</v>
+      </c>
+      <c r="E139">
+        <v>563</v>
+      </c>
+      <c r="F139">
+        <v>518</v>
+      </c>
+      <c r="G139">
+        <v>485</v>
+      </c>
+      <c r="H139">
+        <v>554</v>
+      </c>
+      <c r="I139">
+        <v>1.19</v>
+      </c>
+      <c r="J139">
+        <v>1.15</v>
+      </c>
+      <c r="K139">
+        <v>1.25</v>
+      </c>
+      <c r="L139">
+        <v>1.16</v>
+      </c>
+      <c r="M139">
+        <v>1.13</v>
+      </c>
+      <c r="N139">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140" s="2">
+        <v>44030</v>
+      </c>
+      <c r="C140">
+        <v>476</v>
+      </c>
+      <c r="D140">
+        <v>431</v>
+      </c>
+      <c r="E140">
+        <v>520</v>
+      </c>
+      <c r="F140">
+        <v>505</v>
+      </c>
+      <c r="G140">
+        <v>469</v>
+      </c>
+      <c r="H140">
+        <v>544</v>
+      </c>
+      <c r="I140">
+        <v>1.11</v>
+      </c>
+      <c r="J140">
+        <v>1.05</v>
+      </c>
+      <c r="K140">
+        <v>1.16</v>
+      </c>
+      <c r="L140">
+        <v>1.13</v>
+      </c>
+      <c r="M140">
+        <v>1.09</v>
+      </c>
+      <c r="N140">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141" s="2">
+        <v>44031</v>
+      </c>
+      <c r="C141">
+        <v>515</v>
+      </c>
+      <c r="D141">
+        <v>473</v>
+      </c>
+      <c r="E141">
+        <v>561</v>
+      </c>
+      <c r="F141">
+        <v>496</v>
+      </c>
+      <c r="G141">
+        <v>457</v>
+      </c>
+      <c r="H141">
+        <v>537</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0.93</v>
+      </c>
+      <c r="K141">
+        <v>1.05</v>
+      </c>
+      <c r="L141">
+        <v>1.13</v>
+      </c>
+      <c r="M141">
+        <v>1.1</v>
+      </c>
+      <c r="N141">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142" s="2">
+        <v>44032</v>
+      </c>
+      <c r="C142">
+        <v>641</v>
+      </c>
+      <c r="D142">
+        <v>587</v>
+      </c>
+      <c r="E142">
+        <v>697</v>
+      </c>
+      <c r="F142">
+        <v>538</v>
+      </c>
+      <c r="G142">
+        <v>494</v>
+      </c>
+      <c r="H142">
+        <v>585</v>
+      </c>
+      <c r="I142">
+        <v>1.03</v>
+      </c>
+      <c r="J142">
+        <v>0.98</v>
+      </c>
+      <c r="K142">
+        <v>1.09</v>
+      </c>
+      <c r="L142">
+        <v>1.15</v>
+      </c>
+      <c r="M142">
+        <v>1.11</v>
+      </c>
+      <c r="N142">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143" s="2">
+        <v>44033</v>
+      </c>
+      <c r="C143">
+        <v>703</v>
+      </c>
+      <c r="D143">
+        <v>618</v>
+      </c>
+      <c r="E143">
+        <v>799</v>
+      </c>
+      <c r="F143">
+        <v>584</v>
+      </c>
+      <c r="G143">
+        <v>527</v>
+      </c>
+      <c r="H143">
+        <v>644</v>
+      </c>
+      <c r="I143">
+        <v>1.13</v>
+      </c>
+      <c r="J143">
+        <v>1.06</v>
+      </c>
+      <c r="K143">
+        <v>1.19</v>
+      </c>
+      <c r="L143">
+        <v>1.17</v>
+      </c>
+      <c r="M143">
+        <v>1.13</v>
+      </c>
+      <c r="N143">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" s="2">
+        <v>44034</v>
+      </c>
+      <c r="C144">
+        <v>724</v>
+      </c>
+      <c r="D144">
+        <v>623</v>
+      </c>
+      <c r="E144">
+        <v>840</v>
+      </c>
+      <c r="F144">
+        <v>646</v>
+      </c>
+      <c r="G144">
+        <v>575</v>
+      </c>
+      <c r="H144">
+        <v>724</v>
+      </c>
+      <c r="I144">
+        <v>1.28</v>
+      </c>
+      <c r="J144">
+        <v>1.19</v>
+      </c>
+      <c r="K144">
+        <v>1.37</v>
+      </c>
+      <c r="L144">
+        <v>1.18</v>
+      </c>
+      <c r="M144">
+        <v>1.13</v>
+      </c>
+      <c r="N144">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145" s="2">
+        <v>44035</v>
+      </c>
+      <c r="C145">
+        <v>671</v>
+      </c>
+      <c r="D145">
+        <v>576</v>
+      </c>
+      <c r="E145">
+        <v>774</v>
+      </c>
+      <c r="F145">
+        <v>685</v>
+      </c>
+      <c r="G145">
+        <v>601</v>
+      </c>
+      <c r="H145">
+        <v>778</v>
+      </c>
+      <c r="I145">
+        <v>1.38</v>
+      </c>
+      <c r="J145">
+        <v>1.28</v>
+      </c>
+      <c r="K145">
+        <v>1.49</v>
+      </c>
+      <c r="L145">
+        <v>1.19</v>
+      </c>
+      <c r="M145">
+        <v>1.13</v>
+      </c>
+      <c r="N145">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146" s="2">
+        <v>44036</v>
+      </c>
+      <c r="C146">
+        <v>686</v>
+      </c>
+      <c r="D146">
+        <v>572</v>
+      </c>
+      <c r="E146">
+        <v>802</v>
+      </c>
+      <c r="F146">
+        <v>696</v>
+      </c>
+      <c r="G146">
+        <v>597</v>
+      </c>
+      <c r="H146">
+        <v>804</v>
+      </c>
+      <c r="I146">
+        <v>1.29</v>
+      </c>
+      <c r="J146">
+        <v>1.18</v>
+      </c>
+      <c r="K146">
+        <v>1.4</v>
+      </c>
+      <c r="L146">
+        <v>1.17</v>
+      </c>
+      <c r="M146">
+        <v>1.12</v>
+      </c>
+      <c r="N146">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44037</v>
+      </c>
+      <c r="C147">
+        <v>612</v>
+      </c>
+      <c r="D147">
+        <v>472</v>
+      </c>
+      <c r="E147">
+        <v>751</v>
+      </c>
+      <c r="F147">
+        <v>673</v>
+      </c>
+      <c r="G147">
+        <v>561</v>
+      </c>
+      <c r="H147">
+        <v>792</v>
+      </c>
+      <c r="I147">
+        <v>1.15</v>
+      </c>
+      <c r="J147">
+        <v>1.05</v>
+      </c>
+      <c r="K147">
+        <v>1.26</v>
+      </c>
+      <c r="L147">
+        <v>1.15</v>
+      </c>
+      <c r="M147">
+        <v>1.08</v>
+      </c>
+      <c r="N147">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148" s="2">
+        <v>44038</v>
+      </c>
+      <c r="C148">
+        <v>620</v>
+      </c>
+      <c r="D148">
+        <v>461</v>
+      </c>
+      <c r="E148">
+        <v>766</v>
+      </c>
+      <c r="F148">
+        <v>647</v>
+      </c>
+      <c r="G148">
+        <v>520</v>
+      </c>
+      <c r="H148">
+        <v>773</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0.89</v>
+      </c>
+      <c r="K148">
+        <v>1.13</v>
+      </c>
+      <c r="L148">
+        <v>1.14</v>
+      </c>
+      <c r="M148">
+        <v>1.06</v>
+      </c>
+      <c r="N148">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149" s="2">
+        <v>44039</v>
+      </c>
+      <c r="C149">
+        <v>845</v>
+      </c>
+      <c r="D149">
+        <v>590</v>
+      </c>
+      <c r="E149">
+        <v>1139</v>
+      </c>
+      <c r="F149">
+        <v>691</v>
+      </c>
+      <c r="G149">
+        <v>524</v>
+      </c>
+      <c r="H149">
+        <v>864</v>
+      </c>
+      <c r="I149">
+        <v>1.01</v>
+      </c>
+      <c r="J149">
+        <v>0.87</v>
+      </c>
+      <c r="K149">
+        <v>1.14</v>
+      </c>
+      <c r="L149">
+        <v>1.12</v>
+      </c>
+      <c r="M149">
+        <v>1.01</v>
+      </c>
+      <c r="N149">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150" s="2">
+        <v>44040</v>
+      </c>
+      <c r="C150">
+        <v>788</v>
+      </c>
+      <c r="D150">
+        <v>496</v>
+      </c>
+      <c r="E150">
+        <v>1095</v>
+      </c>
+      <c r="F150">
+        <v>716</v>
+      </c>
+      <c r="G150">
+        <v>505</v>
+      </c>
+      <c r="H150">
+        <v>938</v>
+      </c>
+      <c r="I150">
+        <v>1.03</v>
+      </c>
+      <c r="J150">
+        <v>0.84</v>
+      </c>
+      <c r="K150">
+        <v>1.22</v>
+      </c>
+      <c r="L150">
+        <v>1.09</v>
+      </c>
+      <c r="M150">
+        <v>0.95</v>
+      </c>
+      <c r="N150">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151" s="2">
+        <v>44041</v>
+      </c>
+      <c r="C151">
+        <v>728</v>
+      </c>
+      <c r="D151">
+        <v>355</v>
+      </c>
+      <c r="E151">
+        <v>1073</v>
+      </c>
+      <c r="F151">
+        <v>745</v>
+      </c>
+      <c r="G151">
+        <v>475</v>
+      </c>
+      <c r="H151">
+        <v>1018</v>
+      </c>
+      <c r="I151">
+        <v>1.11</v>
+      </c>
+      <c r="J151">
+        <v>0.89</v>
+      </c>
+      <c r="K151">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>
